--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -38374,10 +38374,10 @@
         <v>2</v>
       </c>
       <c r="R187" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S187" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T187" t="n">
         <v>3.5</v>
@@ -39509,22 +39509,22 @@
         <v>3.2</v>
       </c>
       <c r="BF192" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BG192" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH192" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI192" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BJ192" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK192" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT3" t="n">
         <v>0.67</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT33" t="n">
         <v>0.17</v>
@@ -11865,7 +11865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU56" t="n">
         <v>1.23</v>
@@ -16531,7 +16531,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT79" t="n">
         <v>1.5</v>
@@ -18158,7 +18158,7 @@
         <v>1.83</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU87" t="n">
         <v>0.83</v>
@@ -24042,7 +24042,7 @@
         <v>1</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT116" t="n">
         <v>0.67</v>
@@ -25466,7 +25466,7 @@
         <v>1</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU123" t="n">
         <v>1.69</v>
@@ -29320,7 +29320,7 @@
         <v>0.67</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT142" t="n">
         <v>0.4</v>
@@ -35007,7 +35007,7 @@
         <v>1.83</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU170" t="n">
         <v>1.48</v>
@@ -36831,7 +36831,7 @@
         <v>1.25</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT179" t="n">
         <v>1.2</v>
@@ -40743,6 +40743,209 @@
       </c>
       <c r="BK198" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5067964</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45037.84027777778</v>
+      </c>
+      <c r="F199" t="n">
+        <v>13</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Estudiantes Río Cuarto</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Club Atlético Güemes</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="n">
+        <v>2</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>5</v>
+      </c>
+      <c r="R199" t="n">
+        <v>3</v>
+      </c>
+      <c r="S199" t="n">
+        <v>8</v>
+      </c>
+      <c r="T199" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V199" t="n">
+        <v>4</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT11" t="n">
         <v>1.33</v>
@@ -3339,7 +3339,7 @@
         <v>1.17</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -5166,7 +5166,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>2.67</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>2.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT28" t="n">
         <v>0.4</v>
@@ -6790,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT32" t="n">
         <v>0.67</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -9226,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU43" t="n">
         <v>1.07</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT45" t="n">
         <v>0.67</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT48" t="n">
         <v>1.17</v>
@@ -10444,7 +10444,7 @@
         <v>1.17</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU49" t="n">
         <v>1.69</v>
@@ -10647,7 +10647,7 @@
         <v>1.83</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.29</v>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU52" t="n">
         <v>1.02</v>
@@ -12068,7 +12068,7 @@
         <v>1.83</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU57" t="n">
         <v>0.67</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT60" t="n">
         <v>0</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT64" t="n">
         <v>0.83</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT67" t="n">
         <v>0.83</v>
@@ -14298,7 +14298,7 @@
         <v>0.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT68" t="n">
         <v>0.17</v>
@@ -14501,7 +14501,7 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT69" t="n">
         <v>1.33</v>
@@ -15722,7 +15722,7 @@
         <v>0.8</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU75" t="n">
         <v>1.63</v>
@@ -16940,7 +16940,7 @@
         <v>1.83</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU81" t="n">
         <v>1.31</v>
@@ -17955,7 +17955,7 @@
         <v>1</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU86" t="n">
         <v>1.39</v>
@@ -18564,7 +18564,7 @@
         <v>1.33</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU89" t="n">
         <v>1.63</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT90" t="n">
         <v>0.83</v>
@@ -19029,7 +19029,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>5067831</v>
+        <v>5067843</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -19045,39 +19045,39 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F92" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Deportivo Morón</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>['45+2']</t>
+          <t>['55', '90+5']</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -19086,55 +19086,55 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S92" t="n">
         <v>9</v>
       </c>
       <c r="T92" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="U92" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="V92" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="W92" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="X92" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y92" t="n">
-        <v>4.35</v>
+        <v>3.9</v>
       </c>
       <c r="Z92" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AA92" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AB92" t="n">
         <v>1.03</v>
       </c>
       <c r="AC92" t="n">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="AD92" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AE92" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="AF92" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AG92" t="n">
-        <v>5.75</v>
+        <v>5.33</v>
       </c>
       <c r="AH92" t="n">
         <v>1.63</v>
@@ -19143,88 +19143,88 @@
         <v>2.2</v>
       </c>
       <c r="AJ92" t="n">
-        <v>2.73</v>
+        <v>2.94</v>
       </c>
       <c r="AK92" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AL92" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AM92" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="AN92" t="n">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AO92" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AV92" t="n">
         <v>1.35</v>
       </c>
-      <c r="AP92" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AQ92" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR92" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS92" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU92" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AV92" t="n">
-        <v>1.21</v>
-      </c>
       <c r="AW92" t="n">
-        <v>3.02</v>
+        <v>2.38</v>
       </c>
       <c r="AX92" t="n">
-        <v>1.49</v>
+        <v>2.01</v>
       </c>
       <c r="AY92" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AZ92" t="n">
-        <v>3.38</v>
+        <v>2.18</v>
       </c>
       <c r="BA92" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="BB92" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="BC92" t="n">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
       <c r="BD92" t="n">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="BE92" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="BF92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG92" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BH92" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BI92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK92" t="n">
         <v>5</v>
-      </c>
-      <c r="BJ92" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK92" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="93">
@@ -19232,7 +19232,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>5067843</v>
+        <v>5067831</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -19248,39 +19248,39 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Deportivo Maipú</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Deportivo Morón</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>['55', '90+5']</t>
+          <t>['45+2']</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -19289,55 +19289,55 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S93" t="n">
         <v>9</v>
       </c>
       <c r="T93" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="U93" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="V93" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="W93" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="X93" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y93" t="n">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="Z93" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AA93" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AB93" t="n">
         <v>1.03</v>
       </c>
       <c r="AC93" t="n">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="AD93" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AE93" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="AF93" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AG93" t="n">
-        <v>5.33</v>
+        <v>5.75</v>
       </c>
       <c r="AH93" t="n">
         <v>1.63</v>
@@ -19346,88 +19346,88 @@
         <v>2.2</v>
       </c>
       <c r="AJ93" t="n">
-        <v>2.94</v>
+        <v>2.73</v>
       </c>
       <c r="AK93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO93" t="n">
         <v>1.35</v>
       </c>
-      <c r="AL93" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AO93" t="n">
-        <v>1.41</v>
-      </c>
       <c r="AP93" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR93" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU93" t="n">
-        <v>1.03</v>
+        <v>1.81</v>
       </c>
       <c r="AV93" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="AW93" t="n">
-        <v>2.38</v>
+        <v>3.02</v>
       </c>
       <c r="AX93" t="n">
-        <v>2.01</v>
+        <v>1.49</v>
       </c>
       <c r="AY93" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AZ93" t="n">
-        <v>2.18</v>
+        <v>3.38</v>
       </c>
       <c r="BA93" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="BB93" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="BC93" t="n">
-        <v>2.21</v>
+        <v>2.16</v>
       </c>
       <c r="BD93" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="BE93" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BF93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI93" t="n">
         <v>5</v>
       </c>
-      <c r="BG93" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH93" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI93" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ93" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BK93" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -19982,7 +19982,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20794,7 +20794,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT100" t="n">
         <v>1</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT105" t="n">
         <v>1.5</v>
@@ -22215,10 +22215,10 @@
         <v>0.67</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU107" t="n">
         <v>1.53</v>
@@ -22418,7 +22418,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -22624,7 +22624,7 @@
         <v>2.5</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU109" t="n">
         <v>1.87</v>
@@ -23639,7 +23639,7 @@
         <v>1.17</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU114" t="n">
         <v>1.52</v>
@@ -24510,7 +24510,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>5067878</v>
+        <v>5067872</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -24526,165 +24526,165 @@
         <v>45010.64583333334</v>
       </c>
       <c r="F119" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Estudiantes Caseros</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Defensores de Belgrano</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
       </c>
       <c r="K119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
       <c r="M119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>['56']</t>
+          <t>['14']</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>['23', '48']</t>
+          <t>['25']</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R119" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S119" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="T119" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="U119" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V119" t="n">
-        <v>3.32</v>
+        <v>4</v>
       </c>
       <c r="W119" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="X119" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y119" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z119" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AA119" t="n">
         <v>11</v>
       </c>
       <c r="AB119" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AC119" t="n">
-        <v>2.56</v>
+        <v>2.05</v>
       </c>
       <c r="AD119" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AE119" t="n">
-        <v>2.69</v>
+        <v>3.5</v>
       </c>
       <c r="AF119" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AG119" t="n">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="AH119" t="n">
         <v>1.57</v>
       </c>
       <c r="AI119" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AJ119" t="n">
-        <v>2.89</v>
+        <v>2.38</v>
       </c>
       <c r="AK119" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="AL119" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AM119" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AN119" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="AO119" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR119" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="AU119" t="n">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AV119" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AW119" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="AX119" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AY119" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="AZ119" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="BA119" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="BB119" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="BC119" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="BD119" t="n">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="BE119" t="n">
         <v>0</v>
@@ -24693,19 +24693,19 @@
         <v>6</v>
       </c>
       <c r="BG119" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH119" t="n">
         <v>6</v>
       </c>
       <c r="BI119" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ119" t="n">
         <v>12</v>
       </c>
       <c r="BK119" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120">
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT120" t="n">
         <v>0.67</v>
@@ -24916,7 +24916,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>5067872</v>
+        <v>5067878</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -24932,165 +24932,165 @@
         <v>45010.64583333334</v>
       </c>
       <c r="F121" t="n">
+        <v>8</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Flandria</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Defensores de Belgrano</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>2</v>
+      </c>
+      <c r="N121" t="n">
+        <v>3</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['23', '48']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
         <v>7</v>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Estudiantes Caseros</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Brown de Adrogué</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1</v>
-      </c>
-      <c r="K121" t="n">
-        <v>2</v>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="n">
-        <v>2</v>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>['14']</t>
-        </is>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>['25']</t>
-        </is>
-      </c>
-      <c r="Q121" t="n">
-        <v>4</v>
-      </c>
       <c r="R121" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S121" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="T121" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="U121" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V121" t="n">
-        <v>4</v>
+        <v>3.32</v>
       </c>
       <c r="W121" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="X121" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y121" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z121" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AA121" t="n">
         <v>11</v>
       </c>
       <c r="AB121" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AC121" t="n">
-        <v>2.05</v>
+        <v>2.56</v>
       </c>
       <c r="AD121" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AE121" t="n">
-        <v>3.5</v>
+        <v>2.69</v>
       </c>
       <c r="AF121" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AG121" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="AH121" t="n">
         <v>1.57</v>
       </c>
       <c r="AI121" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL121" t="n">
         <v>2.3</v>
       </c>
-      <c r="AJ121" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AK121" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AL121" t="n">
-        <v>2</v>
-      </c>
       <c r="AM121" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AN121" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AO121" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP121" t="n">
         <v>1.32</v>
       </c>
-      <c r="AP121" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AQ121" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR121" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="AU121" t="n">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AV121" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AW121" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="AX121" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AY121" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AZ121" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="BA121" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BB121" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="BC121" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BD121" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="BE121" t="n">
         <v>0</v>
@@ -25099,19 +25099,19 @@
         <v>6</v>
       </c>
       <c r="BG121" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH121" t="n">
         <v>6</v>
       </c>
       <c r="BI121" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ121" t="n">
         <v>12</v>
       </c>
       <c r="BK121" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122">
@@ -25869,7 +25869,7 @@
         <v>1.67</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -25931,7 +25931,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>5067873</v>
+        <v>5067876</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -25951,77 +25951,77 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>['40', '54']</t>
+          <t>['7', '59', '90+1']</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['37']</t>
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R126" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S126" t="n">
+        <v>14</v>
+      </c>
+      <c r="T126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U126" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V126" t="n">
         <v>4</v>
       </c>
-      <c r="T126" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U126" t="n">
-        <v>2</v>
-      </c>
-      <c r="V126" t="n">
-        <v>3.75</v>
-      </c>
       <c r="W126" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="X126" t="n">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Y126" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Z126" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AA126" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB126" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AC126" t="n">
         <v>2.28</v>
@@ -26036,7 +26036,7 @@
         <v>1.08</v>
       </c>
       <c r="AG126" t="n">
-        <v>7.25</v>
+        <v>6.2</v>
       </c>
       <c r="AH126" t="n">
         <v>1.5</v>
@@ -26045,46 +26045,46 @@
         <v>2.35</v>
       </c>
       <c r="AJ126" t="n">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="AK126" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="AL126" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="AM126" t="n">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AN126" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AO126" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AP126" t="n">
         <v>1.55</v>
       </c>
       <c r="AQ126" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR126" t="n">
         <v>1.33</v>
       </c>
-      <c r="AR126" t="n">
-        <v>1</v>
-      </c>
       <c r="AS126" t="n">
-        <v>1.4</v>
+        <v>2.67</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AU126" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AV126" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AW126" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="AX126" t="n">
         <v>0</v>
@@ -26099,34 +26099,34 @@
         <v>0</v>
       </c>
       <c r="BB126" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BC126" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BD126" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="BE126" t="n">
         <v>0</v>
       </c>
       <c r="BF126" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG126" t="n">
         <v>3</v>
       </c>
       <c r="BH126" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI126" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ126" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BK126" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127">
@@ -26134,7 +26134,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>5067876</v>
+        <v>5067864</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -26150,144 +26150,144 @@
         <v>45011.64583333334</v>
       </c>
       <c r="F127" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
       <c r="N127" t="n">
+        <v>1</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>11</v>
+      </c>
+      <c r="R127" t="n">
         <v>4</v>
       </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>['7', '59', '90+1']</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>['37']</t>
-        </is>
-      </c>
-      <c r="Q127" t="n">
-        <v>4</v>
-      </c>
-      <c r="R127" t="n">
-        <v>10</v>
-      </c>
       <c r="S127" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T127" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="U127" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V127" t="n">
         <v>4</v>
       </c>
       <c r="W127" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="X127" t="n">
-        <v>2.15</v>
+        <v>2.37</v>
       </c>
       <c r="Y127" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Z127" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AA127" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB127" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC127" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="AD127" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="AE127" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="AF127" t="n">
         <v>1.08</v>
       </c>
       <c r="AG127" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AH127" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AI127" t="n">
-        <v>2.35</v>
+        <v>2.62</v>
       </c>
       <c r="AJ127" t="n">
-        <v>2.63</v>
+        <v>2.06</v>
       </c>
       <c r="AK127" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="AL127" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AM127" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AN127" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AO127" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ127" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR127" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.67</v>
+        <v>1.17</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.83</v>
+        <v>2</v>
       </c>
       <c r="AU127" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="AV127" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AW127" t="n">
-        <v>2.54</v>
+        <v>2.91</v>
       </c>
       <c r="AX127" t="n">
         <v>0</v>
@@ -26302,34 +26302,34 @@
         <v>0</v>
       </c>
       <c r="BB127" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BC127" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BD127" t="n">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="BE127" t="n">
         <v>0</v>
       </c>
       <c r="BF127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI127" t="n">
         <v>5</v>
-      </c>
-      <c r="BG127" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH127" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI127" t="n">
-        <v>6</v>
       </c>
       <c r="BJ127" t="n">
         <v>6</v>
       </c>
       <c r="BK127" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128">
@@ -26337,7 +26337,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>5067864</v>
+        <v>5067873</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -26353,144 +26353,144 @@
         <v>45011.64583333334</v>
       </c>
       <c r="F128" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
+          <t>['40', '54']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>['61']</t>
-        </is>
-      </c>
       <c r="Q128" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R128" t="n">
+        <v>1</v>
+      </c>
+      <c r="S128" t="n">
         <v>4</v>
       </c>
-      <c r="S128" t="n">
-        <v>15</v>
-      </c>
       <c r="T128" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U128" t="n">
         <v>2</v>
       </c>
       <c r="V128" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W128" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="X128" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="Y128" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z128" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AA128" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB128" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC128" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="AD128" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="AE128" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="AF128" t="n">
         <v>1.08</v>
       </c>
       <c r="AG128" t="n">
-        <v>6.5</v>
+        <v>7.25</v>
       </c>
       <c r="AH128" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AI128" t="n">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="AJ128" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="AK128" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AL128" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AM128" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="AN128" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AO128" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ128" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR128" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AS128" t="n">
         <v>1.4</v>
       </c>
       <c r="AT128" t="n">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AU128" t="n">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="AV128" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AW128" t="n">
-        <v>2.91</v>
+        <v>2.64</v>
       </c>
       <c r="AX128" t="n">
         <v>0</v>
@@ -26517,22 +26517,22 @@
         <v>0</v>
       </c>
       <c r="BF128" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG128" t="n">
         <v>3</v>
       </c>
       <c r="BH128" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI128" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK128" t="n">
         <v>5</v>
-      </c>
-      <c r="BJ128" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK128" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="129">
@@ -27293,7 +27293,7 @@
         <v>2</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU132" t="n">
         <v>1.6</v>
@@ -27352,7 +27352,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>5067866</v>
+        <v>5067877</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -27368,16 +27368,16 @@
         <v>45011.75</v>
       </c>
       <c r="F133" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>San Martín San Juan</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Estudiantes Río Cuarto</t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -27390,161 +27390,161 @@
         <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N133" t="n">
         <v>2</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>['71']</t>
+          <t>['53', '90+5']</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>['55']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S133" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T133" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="U133" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V133" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="W133" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="X133" t="n">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="Y133" t="n">
-        <v>3.48</v>
+        <v>3.7</v>
       </c>
       <c r="Z133" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AA133" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB133" t="n">
         <v>1.04</v>
       </c>
       <c r="AC133" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ133" t="n">
         <v>2.55</v>
       </c>
-      <c r="AD133" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AE133" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AF133" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG133" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AH133" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AI133" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AJ133" t="n">
-        <v>2.35</v>
-      </c>
       <c r="AK133" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AL133" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="AM133" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AN133" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AO133" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.48</v>
+        <v>1.68</v>
       </c>
       <c r="AQ133" t="n">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AR133" t="n">
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT133" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU133" t="n">
         <v>1.41</v>
       </c>
       <c r="AV133" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="AW133" t="n">
-        <v>2.66</v>
+        <v>2.93</v>
       </c>
       <c r="AX133" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AY133" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AZ133" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="BA133" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BB133" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="BC133" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BD133" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="BE133" t="n">
         <v>0</v>
       </c>
       <c r="BF133" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH133" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI133" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ133" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK133" t="n">
         <v>7</v>
@@ -27555,7 +27555,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>5067877</v>
+        <v>5067866</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -27571,16 +27571,16 @@
         <v>45011.75</v>
       </c>
       <c r="F134" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>San Martín San Juan</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Estudiantes Río Cuarto</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="I134" t="n">
@@ -27593,161 +27593,161 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N134" t="n">
         <v>2</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>['53', '90+5']</t>
+          <t>['71']</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['55']</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S134" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T134" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="U134" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V134" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="W134" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="X134" t="n">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
       <c r="Y134" t="n">
-        <v>3.7</v>
+        <v>3.48</v>
       </c>
       <c r="Z134" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AA134" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB134" t="n">
         <v>1.04</v>
       </c>
       <c r="AC134" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="AD134" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="AE134" t="n">
-        <v>3.65</v>
+        <v>2.65</v>
       </c>
       <c r="AF134" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AG134" t="n">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="AH134" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AI134" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AJ134" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="AK134" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AL134" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="AM134" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="AN134" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="AO134" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AR134" t="n">
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AU134" t="n">
         <v>1.41</v>
       </c>
       <c r="AV134" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="AW134" t="n">
-        <v>2.93</v>
+        <v>2.66</v>
       </c>
       <c r="AX134" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AY134" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="AZ134" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="BA134" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="BB134" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="BC134" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="BD134" t="n">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="BE134" t="n">
         <v>0</v>
       </c>
       <c r="BF134" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH134" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BI134" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ134" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BK134" t="n">
         <v>7</v>
@@ -28305,7 +28305,7 @@
         <v>0.75</v>
       </c>
       <c r="AS137" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT137" t="n">
         <v>0.67</v>
@@ -28508,7 +28508,7 @@
         <v>1.75</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT138" t="n">
         <v>1.33</v>
@@ -28714,7 +28714,7 @@
         <v>1.83</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU139" t="n">
         <v>1.34</v>
@@ -29526,7 +29526,7 @@
         <v>2</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU143" t="n">
         <v>1.15</v>
@@ -30744,7 +30744,7 @@
         <v>1</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU149" t="n">
         <v>1.26</v>
@@ -32224,7 +32224,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>5067915</v>
+        <v>5067909</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -32244,12 +32244,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Defensores de Belgrano</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="I157" t="n">
@@ -32262,161 +32262,161 @@
         <v>0</v>
       </c>
       <c r="L157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>['50']</t>
+          <t>['59', '71']</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+4']</t>
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R157" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="S157" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="T157" t="n">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="U157" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="V157" t="n">
-        <v>4.1</v>
+        <v>5.97</v>
       </c>
       <c r="W157" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X157" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Y157" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Z157" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AA157" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB157" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AC157" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AD157" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="AE157" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="AF157" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AG157" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AH157" t="n">
         <v>1.53</v>
       </c>
       <c r="AI157" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="AJ157" t="n">
-        <v>2.77</v>
+        <v>2.53</v>
       </c>
       <c r="AK157" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AL157" t="n">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="AM157" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AN157" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="AO157" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.61</v>
+        <v>2.03</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR157" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="AU157" t="n">
-        <v>1.42</v>
+        <v>1.84</v>
       </c>
       <c r="AV157" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AW157" t="n">
-        <v>2.56</v>
+        <v>3.05</v>
       </c>
       <c r="AX157" t="n">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AY157" t="n">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ157" t="n">
-        <v>2.66</v>
+        <v>3.28</v>
       </c>
       <c r="BA157" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="BB157" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="BC157" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="BD157" t="n">
-        <v>3</v>
+        <v>2.79</v>
       </c>
       <c r="BE157" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BF157" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG157" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH157" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="BI157" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ157" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BK157" t="n">
         <v>11</v>
@@ -32427,7 +32427,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>5067909</v>
+        <v>5067915</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -32447,12 +32447,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Defensores de Belgrano</t>
         </is>
       </c>
       <c r="I158" t="n">
@@ -32465,161 +32465,161 @@
         <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>['59', '71']</t>
+          <t>['50']</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>['90+4']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R158" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S158" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T158" t="n">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="U158" t="n">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V158" t="n">
-        <v>5.97</v>
+        <v>4.1</v>
       </c>
       <c r="W158" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X158" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Y158" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE158" t="n">
         <v>3.4</v>
       </c>
-      <c r="Z158" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA158" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB158" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC158" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AD158" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE158" t="n">
-        <v>4.75</v>
-      </c>
       <c r="AF158" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AG158" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AH158" t="n">
         <v>1.53</v>
       </c>
       <c r="AI158" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="AJ158" t="n">
-        <v>2.53</v>
+        <v>2.77</v>
       </c>
       <c r="AK158" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AL158" t="n">
-        <v>2.47</v>
+        <v>2.3</v>
       </c>
       <c r="AM158" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AN158" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AO158" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.03</v>
+        <v>1.61</v>
       </c>
       <c r="AQ158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR158" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AS158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC158" t="n">
         <v>2.2</v>
       </c>
-      <c r="AT158" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AU158" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AV158" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AW158" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AX158" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AY158" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ158" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="BA158" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BB158" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="BC158" t="n">
-        <v>2.15</v>
-      </c>
       <c r="BD158" t="n">
-        <v>2.79</v>
+        <v>3</v>
       </c>
       <c r="BE158" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="BF158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI158" t="n">
         <v>6</v>
       </c>
-      <c r="BG158" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH158" t="n">
-        <v>19</v>
-      </c>
-      <c r="BI158" t="n">
-        <v>8</v>
-      </c>
       <c r="BJ158" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="BK158" t="n">
         <v>11</v>
@@ -34192,7 +34192,7 @@
         <v>1.5</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT166" t="n">
         <v>1.17</v>
@@ -34254,7 +34254,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>5067901</v>
+        <v>5067904</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -34274,12 +34274,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Ferro Carril Oeste</t>
         </is>
       </c>
       <c r="I167" t="n">
@@ -34292,47 +34292,47 @@
         <v>1</v>
       </c>
       <c r="L167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
       <c r="N167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>['28']</t>
+          <t>['45+4', '90+6']</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>['83']</t>
+          <t>['61']</t>
         </is>
       </c>
       <c r="Q167" t="n">
+        <v>6</v>
+      </c>
+      <c r="R167" t="n">
+        <v>1</v>
+      </c>
+      <c r="S167" t="n">
+        <v>7</v>
+      </c>
+      <c r="T167" t="n">
+        <v>3</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2</v>
+      </c>
+      <c r="V167" t="n">
         <v>4</v>
       </c>
-      <c r="R167" t="n">
-        <v>5</v>
-      </c>
-      <c r="S167" t="n">
-        <v>9</v>
-      </c>
-      <c r="T167" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U167" t="n">
-        <v>2</v>
-      </c>
-      <c r="V167" t="n">
-        <v>5</v>
-      </c>
       <c r="W167" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X167" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="Y167" t="n">
         <v>3.5</v>
@@ -34341,31 +34341,31 @@
         <v>1.29</v>
       </c>
       <c r="AA167" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB167" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC167" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="AD167" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AE167" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="AF167" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AG167" t="n">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="AH167" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="AI167" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AJ167" t="n">
         <v>2.45</v>
@@ -34374,82 +34374,82 @@
         <v>1.53</v>
       </c>
       <c r="AL167" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AM167" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP167" t="n">
         <v>1.62</v>
       </c>
-      <c r="AN167" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AO167" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP167" t="n">
-        <v>1.88</v>
-      </c>
       <c r="AQ167" t="n">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AR167" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AS167" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT167" t="n">
         <v>1</v>
       </c>
       <c r="AU167" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AV167" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AW167" t="n">
-        <v>2.86</v>
+        <v>2.95</v>
       </c>
       <c r="AX167" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AY167" t="n">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ167" t="n">
-        <v>2.96</v>
+        <v>2.55</v>
       </c>
       <c r="BA167" t="n">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="BB167" t="n">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="BC167" t="n">
-        <v>2.24</v>
+        <v>1.91</v>
       </c>
       <c r="BD167" t="n">
-        <v>3.1</v>
+        <v>2.49</v>
       </c>
       <c r="BE167" t="n">
-        <v>4.19</v>
+        <v>3.34</v>
       </c>
       <c r="BF167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH167" t="n">
         <v>6</v>
       </c>
-      <c r="BG167" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH167" t="n">
+      <c r="BI167" t="n">
         <v>7</v>
       </c>
-      <c r="BI167" t="n">
-        <v>1</v>
-      </c>
       <c r="BJ167" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BK167" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168">
@@ -34457,7 +34457,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>5067904</v>
+        <v>5067901</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -34477,12 +34477,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Ferro Carril Oeste</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="I168" t="n">
@@ -34495,47 +34495,47 @@
         <v>1</v>
       </c>
       <c r="L168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
       <c r="N168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>['45+4', '90+6']</t>
+          <t>['28']</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>['61']</t>
+          <t>['83']</t>
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R168" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S168" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T168" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="U168" t="n">
         <v>2</v>
       </c>
       <c r="V168" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W168" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X168" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="Y168" t="n">
         <v>3.5</v>
@@ -34544,31 +34544,31 @@
         <v>1.29</v>
       </c>
       <c r="AA168" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB168" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC168" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="AD168" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AE168" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="AF168" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AG168" t="n">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="AH168" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="AI168" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AJ168" t="n">
         <v>2.45</v>
@@ -34577,82 +34577,82 @@
         <v>1.53</v>
       </c>
       <c r="AL168" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AM168" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AN168" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AO168" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="AQ168" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT168" t="n">
         <v>1.33</v>
       </c>
-      <c r="AR168" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AS168" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AT168" t="n">
-        <v>1</v>
-      </c>
       <c r="AU168" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AV168" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AW168" t="n">
-        <v>2.95</v>
+        <v>2.86</v>
       </c>
       <c r="AX168" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AY168" t="n">
-        <v>8.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="AZ168" t="n">
-        <v>2.55</v>
+        <v>2.96</v>
       </c>
       <c r="BA168" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="BB168" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="BC168" t="n">
-        <v>1.91</v>
+        <v>2.24</v>
       </c>
       <c r="BD168" t="n">
-        <v>2.49</v>
+        <v>3.1</v>
       </c>
       <c r="BE168" t="n">
-        <v>3.34</v>
+        <v>4.19</v>
       </c>
       <c r="BF168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK168" t="n">
         <v>4</v>
-      </c>
-      <c r="BG168" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH168" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI168" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ168" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK168" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="169">
@@ -34801,7 +34801,7 @@
         <v>0.75</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT169" t="n">
         <v>0.6</v>
@@ -35207,7 +35207,7 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT171" t="n">
         <v>1</v>
@@ -35616,7 +35616,7 @@
         <v>2</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU173" t="n">
         <v>1.53</v>
@@ -36022,7 +36022,7 @@
         <v>1.83</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU175" t="n">
         <v>1.81</v>
@@ -36225,7 +36225,7 @@
         <v>1.4</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU176" t="n">
         <v>1.81</v>
@@ -36425,7 +36425,7 @@
         <v>0.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT177" t="n">
         <v>0.4</v>
@@ -36631,7 +36631,7 @@
         <v>1.83</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU178" t="n">
         <v>1.35</v>
@@ -36834,7 +36834,7 @@
         <v>1.71</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU179" t="n">
         <v>2.02</v>
@@ -37705,7 +37705,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>5067948</v>
+        <v>5067920</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -37721,23 +37721,23 @@
         <v>45031.64583333334</v>
       </c>
       <c r="F184" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>San Martín Tucumán</t>
+          <t>Villa Dálmine</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K184" t="n">
         <v>2</v>
@@ -37746,161 +37746,161 @@
         <v>2</v>
       </c>
       <c r="M184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>['37', '75']</t>
+          <t>['3', '36']</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>['18']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S184" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T184" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U184" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V184" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="W184" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="X184" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Y184" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="Z184" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AA184" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="AB184" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC184" t="n">
-        <v>2.65</v>
+        <v>2.16</v>
       </c>
       <c r="AD184" t="n">
-        <v>3.02</v>
+        <v>3.22</v>
       </c>
       <c r="AE184" t="n">
-        <v>2.86</v>
+        <v>3.56</v>
       </c>
       <c r="AF184" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AG184" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH184" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AI184" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AJ184" t="n">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="AK184" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AL184" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AM184" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="AN184" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AO184" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.6</v>
       </c>
       <c r="AR184" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AS184" t="n">
         <v>1.83</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AU184" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AV184" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AW184" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="AX184" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="AY184" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AZ184" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="BA184" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="BB184" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="BC184" t="n">
-        <v>2.03</v>
+        <v>2.5</v>
       </c>
       <c r="BD184" t="n">
-        <v>2.62</v>
+        <v>3.9</v>
       </c>
       <c r="BE184" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="BF184" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH184" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BI184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ184" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BK184" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -38111,7 +38111,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>5067920</v>
+        <v>5067948</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -38127,23 +38127,23 @@
         <v>45031.64583333334</v>
       </c>
       <c r="F186" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Villa Dálmine</t>
+          <t>San Martín Tucumán</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K186" t="n">
         <v>2</v>
@@ -38152,161 +38152,161 @@
         <v>2</v>
       </c>
       <c r="M186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>['3', '36']</t>
+          <t>['37', '75']</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['18']</t>
         </is>
       </c>
       <c r="Q186" t="n">
+        <v>5</v>
+      </c>
+      <c r="R186" t="n">
+        <v>1</v>
+      </c>
+      <c r="S186" t="n">
         <v>6</v>
       </c>
-      <c r="R186" t="n">
-        <v>3</v>
-      </c>
-      <c r="S186" t="n">
-        <v>9</v>
-      </c>
       <c r="T186" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U186" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V186" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="W186" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="X186" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Y186" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="Z186" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AA186" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="AB186" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC186" t="n">
-        <v>2.16</v>
+        <v>2.65</v>
       </c>
       <c r="AD186" t="n">
-        <v>3.22</v>
+        <v>3.02</v>
       </c>
       <c r="AE186" t="n">
-        <v>3.56</v>
+        <v>2.86</v>
       </c>
       <c r="AF186" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AG186" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH186" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP186" t="n">
         <v>1.47</v>
-      </c>
-      <c r="AI186" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AJ186" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AK186" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AL186" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM186" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AN186" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AO186" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP186" t="n">
-        <v>1.65</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.6</v>
       </c>
       <c r="AR186" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AS186" t="n">
         <v>1.83</v>
       </c>
       <c r="AT186" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AU186" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AV186" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="AW186" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="AX186" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AY186" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AZ186" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BA186" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="BB186" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="BC186" t="n">
-        <v>2.5</v>
+        <v>2.03</v>
       </c>
       <c r="BD186" t="n">
-        <v>3.9</v>
+        <v>2.62</v>
       </c>
       <c r="BE186" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="BF186" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG186" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH186" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BI186" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ186" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BK186" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187">
@@ -39329,7 +39329,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>5067950</v>
+        <v>5067949</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -39349,12 +39349,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I192" t="n">
@@ -39367,164 +39367,164 @@
         <v>0</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M192" t="n">
         <v>0</v>
       </c>
       <c r="N192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P192" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q192" t="n">
+        <v>2</v>
+      </c>
+      <c r="R192" t="n">
         <v>6</v>
       </c>
-      <c r="R192" t="n">
-        <v>1</v>
-      </c>
       <c r="S192" t="n">
+        <v>8</v>
+      </c>
+      <c r="T192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U192" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF192" t="n">
         <v>7</v>
       </c>
-      <c r="T192" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U192" t="n">
-        <v>2</v>
-      </c>
-      <c r="V192" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="W192" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X192" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Y192" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z192" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA192" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AB192" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC192" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AD192" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE192" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AF192" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG192" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AH192" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI192" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AJ192" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AK192" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL192" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM192" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AN192" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AO192" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP192" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AQ192" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AR192" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AS192" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT192" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AU192" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AV192" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AW192" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AX192" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AY192" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AZ192" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="BA192" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BB192" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="BC192" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BD192" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="BE192" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BF192" t="n">
-        <v>0</v>
-      </c>
       <c r="BG192" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH192" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BI192" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BJ192" t="n">
         <v>8</v>
       </c>
       <c r="BK192" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193">
@@ -39532,7 +39532,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>5067949</v>
+        <v>5067950</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -39552,12 +39552,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="I193" t="n">
@@ -39570,17 +39570,17 @@
         <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M193" t="n">
         <v>0</v>
       </c>
       <c r="N193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>['58']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
@@ -39589,145 +39589,145 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R193" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S193" t="n">
+        <v>7</v>
+      </c>
+      <c r="T193" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2</v>
+      </c>
+      <c r="V193" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH193" t="n">
         <v>8</v>
       </c>
-      <c r="T193" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="U193" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V193" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W193" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X193" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Y193" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="Z193" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA193" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AB193" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC193" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AD193" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE193" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AF193" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG193" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="AH193" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AI193" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AJ193" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AK193" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AL193" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AM193" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AN193" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AO193" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AP193" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AQ193" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AR193" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AS193" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AT193" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU193" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AV193" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AW193" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AX193" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AY193" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ193" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="BA193" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BB193" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BC193" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="BD193" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="BE193" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BF193" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG193" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH193" t="n">
-        <v>1</v>
-      </c>
       <c r="BI193" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BJ193" t="n">
         <v>8</v>
       </c>
       <c r="BK193" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -40946,6 +40946,1224 @@
       </c>
       <c r="BK199" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5067966</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45038.64583333334</v>
+      </c>
+      <c r="F200" t="n">
+        <v>13</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2</v>
+      </c>
+      <c r="M200" t="n">
+        <v>2</v>
+      </c>
+      <c r="N200" t="n">
+        <v>4</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['64', '82']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['55', '74']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>3</v>
+      </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
+      <c r="S200" t="n">
+        <v>3</v>
+      </c>
+      <c r="T200" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V200" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5067971</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45038.64583333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>13</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Agropecuario</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Guillermo Brown</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>6</v>
+      </c>
+      <c r="R201" t="n">
+        <v>2</v>
+      </c>
+      <c r="S201" t="n">
+        <v>8</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V201" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5067938</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45038.72916666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>11</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Chacarita Juniors</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="n">
+        <v>2</v>
+      </c>
+      <c r="L202" t="n">
+        <v>4</v>
+      </c>
+      <c r="M202" t="n">
+        <v>2</v>
+      </c>
+      <c r="N202" t="n">
+        <v>6</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['29', '47', '49', '65']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['19', '76']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>4</v>
+      </c>
+      <c r="R202" t="n">
+        <v>3</v>
+      </c>
+      <c r="S202" t="n">
+        <v>7</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V202" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5067943</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45038.79166666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>11</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Villa Dálmine</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Estudiantes Caseros</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>7</v>
+      </c>
+      <c r="R203" t="n">
+        <v>6</v>
+      </c>
+      <c r="S203" t="n">
+        <v>13</v>
+      </c>
+      <c r="T203" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5067936</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45038.82291666666</v>
+      </c>
+      <c r="F204" t="n">
+        <v>11</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>8</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2</v>
+      </c>
+      <c r="S204" t="n">
+        <v>10</v>
+      </c>
+      <c r="T204" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U204" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V204" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5067965</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45038.90277777778</v>
+      </c>
+      <c r="F205" t="n">
+        <v>13</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>All Boys</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Patronato</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>6</v>
+      </c>
+      <c r="R205" t="n">
+        <v>5</v>
+      </c>
+      <c r="S205" t="n">
+        <v>11</v>
+      </c>
+      <c r="T205" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK205"/>
+  <dimension ref="A1:BK216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.83</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT7" t="n">
         <v>0.67</v>
@@ -2121,7 +2121,7 @@
         <v>1.33</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.83</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT17" t="n">
         <v>2</v>
@@ -4151,7 +4151,7 @@
         <v>1.83</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT19" t="n">
         <v>1.8</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT20" t="n">
         <v>0.83</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT21" t="n">
         <v>0.67</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT22" t="n">
         <v>0.83</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>2.33</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU29" t="n">
         <v>1.64</v>
@@ -7399,7 +7399,7 @@
         <v>0.8</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>1.6</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>1.33</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU37" t="n">
         <v>1.11</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT38" t="n">
         <v>1.4</v>
@@ -8411,7 +8411,7 @@
         <v>3</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT39" t="n">
         <v>0.83</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT40" t="n">
         <v>1.8</v>
@@ -8820,7 +8820,7 @@
         <v>1.17</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU41" t="n">
         <v>0.74</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT42" t="n">
         <v>1.33</v>
@@ -9835,7 +9835,7 @@
         <v>1.6</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT47" t="n">
         <v>0.83</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT51" t="n">
         <v>0.67</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT52" t="n">
         <v>1.33</v>
@@ -11256,7 +11256,7 @@
         <v>1.83</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU53" t="n">
         <v>2.08</v>
@@ -11459,7 +11459,7 @@
         <v>2.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU54" t="n">
         <v>2.09</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT55" t="n">
         <v>1</v>
@@ -12474,7 +12474,7 @@
         <v>2.67</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU59" t="n">
         <v>1.64</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT61" t="n">
         <v>2</v>
@@ -13083,7 +13083,7 @@
         <v>1.83</v>
       </c>
       <c r="AT62" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU62" t="n">
         <v>1.28</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
         <v>1</v>
@@ -13692,7 +13692,7 @@
         <v>1.6</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU65" t="n">
         <v>2.27</v>
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT70" t="n">
         <v>1.8</v>
@@ -14910,7 +14910,7 @@
         <v>1.5</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU71" t="n">
         <v>1.29</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT72" t="n">
         <v>0</v>
@@ -15316,7 +15316,7 @@
         <v>1.17</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU73" t="n">
         <v>1.46</v>
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU74" t="n">
         <v>1.12</v>
@@ -15925,7 +15925,7 @@
         <v>1.83</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU76" t="n">
         <v>1.37</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT78" t="n">
         <v>0.67</v>
@@ -16937,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT81" t="n">
         <v>1.29</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU82" t="n">
         <v>1.49</v>
@@ -17346,7 +17346,7 @@
         <v>1.83</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU83" t="n">
         <v>1.37</v>
@@ -17549,7 +17549,7 @@
         <v>1.83</v>
       </c>
       <c r="AT84" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU84" t="n">
         <v>1.84</v>
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="AS86" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT86" t="n">
         <v>0.67</v>
@@ -18970,7 +18970,7 @@
         <v>1.17</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU91" t="n">
         <v>1.36</v>
@@ -19173,7 +19173,7 @@
         <v>1.83</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU92" t="n">
         <v>1.03</v>
@@ -19373,7 +19373,7 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT93" t="n">
         <v>1.33</v>
@@ -19779,7 +19779,7 @@
         <v>2</v>
       </c>
       <c r="AS95" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT95" t="n">
         <v>2</v>
@@ -19985,7 +19985,7 @@
         <v>2.33</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU96" t="n">
         <v>1.3</v>
@@ -20185,7 +20185,7 @@
         <v>0.5</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT97" t="n">
         <v>1</v>
@@ -20388,7 +20388,7 @@
         <v>0</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT98" t="n">
         <v>1.17</v>
@@ -20591,7 +20591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT99" t="n">
         <v>0.67</v>
@@ -21203,7 +21203,7 @@
         <v>1.5</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU102" t="n">
         <v>1.2</v>
@@ -21406,7 +21406,7 @@
         <v>1.83</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU103" t="n">
         <v>1.52</v>
@@ -22012,7 +22012,7 @@
         <v>0</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT106" t="n">
         <v>0</v>
@@ -22824,10 +22824,10 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU110" t="n">
         <v>1.5</v>
@@ -23433,7 +23433,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT113" t="n">
         <v>0.17</v>
@@ -23839,7 +23839,7 @@
         <v>1.33</v>
       </c>
       <c r="AS115" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT115" t="n">
         <v>0.83</v>
@@ -24045,7 +24045,7 @@
         <v>1.71</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU116" t="n">
         <v>2.02</v>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.26</v>
@@ -24654,7 +24654,7 @@
         <v>1.17</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU119" t="n">
         <v>1.33</v>
@@ -25260,10 +25260,10 @@
         <v>1.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU122" t="n">
         <v>1.3</v>
@@ -25872,7 +25872,7 @@
         <v>2.33</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU125" t="n">
         <v>1.58</v>
@@ -26478,7 +26478,7 @@
         <v>1</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT128" t="n">
         <v>0.67</v>
@@ -26884,7 +26884,7 @@
         <v>1</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT130" t="n">
         <v>1.17</v>
@@ -27090,7 +27090,7 @@
         <v>1.33</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU131" t="n">
         <v>1.56</v>
@@ -27290,7 +27290,7 @@
         <v>1</v>
       </c>
       <c r="AS132" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT132" t="n">
         <v>0.67</v>
@@ -27696,7 +27696,7 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT134" t="n">
         <v>1.33</v>
@@ -27902,7 +27902,7 @@
         <v>1.83</v>
       </c>
       <c r="AT135" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU135" t="n">
         <v>1.95</v>
@@ -28102,10 +28102,10 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT136" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU136" t="n">
         <v>1.88</v>
@@ -28308,7 +28308,7 @@
         <v>1.83</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU137" t="n">
         <v>1.04</v>
@@ -28511,7 +28511,7 @@
         <v>1.14</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU138" t="n">
         <v>1.42</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT140" t="n">
         <v>1.5</v>
@@ -29323,7 +29323,7 @@
         <v>1.71</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU142" t="n">
         <v>2.02</v>
@@ -29523,7 +29523,7 @@
         <v>0.75</v>
       </c>
       <c r="AS143" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT143" t="n">
         <v>1.29</v>
@@ -29726,10 +29726,10 @@
         <v>0.67</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU144" t="n">
         <v>1.35</v>
@@ -29929,7 +29929,7 @@
         <v>2</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT145" t="n">
         <v>2</v>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT148" t="n">
         <v>0.83</v>
@@ -31353,7 +31353,7 @@
         <v>1.83</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU152" t="n">
         <v>1.34</v>
@@ -33180,7 +33180,7 @@
         <v>1.17</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU161" t="n">
         <v>1.58</v>
@@ -33583,10 +33583,10 @@
         <v>1</v>
       </c>
       <c r="AS163" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU163" t="n">
         <v>1.65</v>
@@ -33786,10 +33786,10 @@
         <v>0.67</v>
       </c>
       <c r="AS164" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU164" t="n">
         <v>1.32</v>
@@ -33989,7 +33989,7 @@
         <v>1.2</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT165" t="n">
         <v>1.5</v>
@@ -34395,10 +34395,10 @@
         <v>1.25</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT167" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU167" t="n">
         <v>1.7</v>
@@ -34804,7 +34804,7 @@
         <v>1.14</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU169" t="n">
         <v>1.36</v>
@@ -35210,7 +35210,7 @@
         <v>2.33</v>
       </c>
       <c r="AT171" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU171" t="n">
         <v>1.54</v>
@@ -35410,10 +35410,10 @@
         <v>1.6</v>
       </c>
       <c r="AS172" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU172" t="n">
         <v>1.14</v>
@@ -35613,7 +35613,7 @@
         <v>1</v>
       </c>
       <c r="AS173" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT173" t="n">
         <v>0.67</v>
@@ -35816,10 +35816,10 @@
         <v>1</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT174" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU174" t="n">
         <v>1.41</v>
@@ -36222,7 +36222,7 @@
         <v>1.2</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT176" t="n">
         <v>1.29</v>
@@ -36428,7 +36428,7 @@
         <v>1.83</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU177" t="n">
         <v>1.34</v>
@@ -36628,7 +36628,7 @@
         <v>1.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT178" t="n">
         <v>1.5</v>
@@ -37034,10 +37034,10 @@
         <v>0.8</v>
       </c>
       <c r="AS180" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU180" t="n">
         <v>1.44</v>
@@ -41156,7 +41156,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>5067971</v>
+        <v>5067944</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -41172,186 +41172,186 @@
         <v>45038.64583333334</v>
       </c>
       <c r="F201" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Atlético Rafaela</t>
         </is>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N201" t="n">
         <v>1</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>['83']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S201" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T201" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="U201" t="n">
         <v>1.95</v>
       </c>
       <c r="V201" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="W201" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="X201" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="Y201" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Z201" t="n">
         <v>1.25</v>
       </c>
       <c r="AA201" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="AB201" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC201" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="AD201" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AE201" t="n">
-        <v>3.6</v>
+        <v>2.65</v>
       </c>
       <c r="AF201" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AG201" t="n">
-        <v>7.15</v>
+        <v>7.3</v>
       </c>
       <c r="AH201" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="AI201" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AJ201" t="n">
         <v>2.4</v>
       </c>
       <c r="AK201" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AL201" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AM201" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AN201" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AO201" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="AQ201" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AR201" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.33</v>
+        <v>0.83</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="AU201" t="n">
-        <v>1.97</v>
+        <v>1.35</v>
       </c>
       <c r="AV201" t="n">
-        <v>1.1</v>
+        <v>0.99</v>
       </c>
       <c r="AW201" t="n">
-        <v>3.07</v>
+        <v>2.34</v>
       </c>
       <c r="AX201" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AY201" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ201" t="n">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="BA201" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="BB201" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="BC201" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="BD201" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="BE201" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="BF201" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG201" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH201" t="n">
         <v>4</v>
       </c>
-      <c r="BH201" t="n">
+      <c r="BI201" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK201" t="n">
         <v>7</v>
-      </c>
-      <c r="BI201" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ201" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK201" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="202">
@@ -41359,7 +41359,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>5067938</v>
+        <v>5067971</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -41372,186 +41372,186 @@
         </is>
       </c>
       <c r="E202" s="2" t="n">
-        <v>45038.72916666666</v>
+        <v>45038.64583333334</v>
       </c>
       <c r="F202" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="I202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N202" t="n">
+        <v>1</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
         <v>6</v>
       </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>['29', '47', '49', '65']</t>
-        </is>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>['19', '76']</t>
-        </is>
-      </c>
-      <c r="Q202" t="n">
-        <v>4</v>
-      </c>
       <c r="R202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S202" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T202" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="U202" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V202" t="n">
         <v>4.75</v>
       </c>
       <c r="W202" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="X202" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="Y202" t="n">
-        <v>3.24</v>
+        <v>3.5</v>
       </c>
       <c r="Z202" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AA202" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB202" t="n">
         <v>1.04</v>
       </c>
       <c r="AC202" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD202" t="n">
-        <v>3.38</v>
+        <v>2.9</v>
       </c>
       <c r="AE202" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="AF202" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AG202" t="n">
-        <v>7.5</v>
+        <v>7.15</v>
       </c>
       <c r="AH202" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AI202" t="n">
-        <v>2.73</v>
+        <v>2.25</v>
       </c>
       <c r="AJ202" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AK202" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AL202" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AM202" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="AN202" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AO202" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ202" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR202" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AS202" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.67</v>
+        <v>1.29</v>
       </c>
       <c r="AU202" t="n">
-        <v>1.69</v>
+        <v>1.97</v>
       </c>
       <c r="AV202" t="n">
-        <v>1.44</v>
+        <v>1.1</v>
       </c>
       <c r="AW202" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ202" t="n">
         <v>3.13</v>
       </c>
-      <c r="AX202" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AY202" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ202" t="n">
-        <v>2.61</v>
-      </c>
       <c r="BA202" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="BB202" t="n">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
       <c r="BC202" t="n">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="BD202" t="n">
-        <v>2.23</v>
+        <v>2.72</v>
       </c>
       <c r="BE202" t="n">
-        <v>2.93</v>
+        <v>3.65</v>
       </c>
       <c r="BF202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH202" t="n">
         <v>7</v>
       </c>
-      <c r="BG202" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH202" t="n">
-        <v>8</v>
-      </c>
       <c r="BI202" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ202" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BK202" t="n">
         <v>8</v>
@@ -41562,7 +41562,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>5067943</v>
+        <v>5067938</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -41575,189 +41575,189 @@
         </is>
       </c>
       <c r="E203" s="2" t="n">
-        <v>45038.79166666666</v>
+        <v>45038.72916666666</v>
       </c>
       <c r="F203" t="n">
         <v>11</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Villa Dálmine</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Estudiantes Caseros</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L203" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N203" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>['72']</t>
+          <t>['29', '47', '49', '65']</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['19', '76']</t>
         </is>
       </c>
       <c r="Q203" t="n">
+        <v>5</v>
+      </c>
+      <c r="R203" t="n">
+        <v>3</v>
+      </c>
+      <c r="S203" t="n">
+        <v>8</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V203" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF203" t="n">
         <v>7</v>
       </c>
-      <c r="R203" t="n">
-        <v>6</v>
-      </c>
-      <c r="S203" t="n">
-        <v>13</v>
-      </c>
-      <c r="T203" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U203" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V203" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W203" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X203" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y203" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Z203" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA203" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB203" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC203" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AD203" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AE203" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AF203" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG203" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH203" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AI203" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AJ203" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AK203" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AL203" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM203" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN203" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO203" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AP203" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AQ203" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AR203" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AS203" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AT203" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AU203" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AV203" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AW203" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AX203" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AY203" t="n">
+      <c r="BG203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH203" t="n">
         <v>8</v>
       </c>
-      <c r="AZ203" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="BA203" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="BB203" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BC203" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="BD203" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="BE203" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF203" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG203" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH203" t="n">
-        <v>4</v>
-      </c>
       <c r="BI203" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BJ203" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BK203" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204">
@@ -41765,7 +41765,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>5067936</v>
+        <v>5067943</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -41778,19 +41778,19 @@
         </is>
       </c>
       <c r="E204" s="2" t="n">
-        <v>45038.82291666666</v>
+        <v>45038.79166666666</v>
       </c>
       <c r="F204" t="n">
         <v>11</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Villa Dálmine</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Estudiantes Caseros</t>
         </is>
       </c>
       <c r="I204" t="n">
@@ -41803,164 +41803,164 @@
         <v>0</v>
       </c>
       <c r="L204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N204" t="n">
         <v>1</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P204" t="inlineStr">
-        <is>
-          <t>['90+5']</t>
-        </is>
-      </c>
       <c r="Q204" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R204" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S204" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T204" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="U204" t="n">
         <v>1.95</v>
       </c>
       <c r="V204" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="W204" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X204" t="n">
         <v>2.25</v>
       </c>
       <c r="Y204" t="n">
-        <v>3.6</v>
+        <v>3.74</v>
       </c>
       <c r="Z204" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AA204" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB204" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AC204" t="n">
-        <v>1.99</v>
+        <v>2.78</v>
       </c>
       <c r="AD204" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AE204" t="n">
-        <v>3.6</v>
+        <v>2.44</v>
       </c>
       <c r="AF204" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AG204" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="AH204" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AI204" t="n">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AJ204" t="n">
-        <v>2.45</v>
+        <v>2.54</v>
       </c>
       <c r="AK204" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="AL204" t="n">
         <v>2.1</v>
       </c>
       <c r="AM204" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AN204" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AO204" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT204" t="n">
         <v>1.4</v>
       </c>
-      <c r="AR204" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS204" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AT204" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AU204" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AV204" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AW204" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="AX204" t="n">
-        <v>1.67</v>
+        <v>2.06</v>
       </c>
       <c r="AY204" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ204" t="n">
-        <v>2.66</v>
+        <v>2.07</v>
       </c>
       <c r="BA204" t="n">
-        <v>1.31</v>
+        <v>1.64</v>
       </c>
       <c r="BB204" t="n">
-        <v>1.58</v>
+        <v>2.05</v>
       </c>
       <c r="BC204" t="n">
-        <v>2.01</v>
+        <v>2.76</v>
       </c>
       <c r="BD204" t="n">
-        <v>2.65</v>
+        <v>3.92</v>
       </c>
       <c r="BE204" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="BF204" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BG204" t="n">
         <v>3</v>
       </c>
       <c r="BH204" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BI204" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BJ204" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK204" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205">
@@ -41968,7 +41968,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>5067965</v>
+        <v>5067936</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -41981,19 +41981,19 @@
         </is>
       </c>
       <c r="E205" s="2" t="n">
-        <v>45038.90277777778</v>
+        <v>45038.82291666666</v>
       </c>
       <c r="F205" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="I205" t="n">
@@ -42021,62 +42021,62 @@
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>['87']</t>
+          <t>['90+5']</t>
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R205" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S205" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T205" t="n">
         <v>3.1</v>
       </c>
       <c r="U205" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V205" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="W205" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="X205" t="n">
         <v>2.25</v>
       </c>
       <c r="Y205" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Z205" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AA205" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AB205" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC205" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="AD205" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AE205" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AF205" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AG205" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AH205" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AI205" t="n">
         <v>2.4</v>
@@ -42085,16 +42085,16 @@
         <v>2.45</v>
       </c>
       <c r="AK205" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AL205" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AM205" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AN205" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AO205" t="n">
         <v>1.35</v>
@@ -42103,67 +42103,2300 @@
         <v>1.6</v>
       </c>
       <c r="AQ205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT205" t="n">
         <v>1.33</v>
       </c>
-      <c r="AR205" t="n">
+      <c r="AU205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV205" t="n">
         <v>1.2</v>
       </c>
-      <c r="AS205" t="n">
+      <c r="AW205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5067965</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45038.90277777778</v>
+      </c>
+      <c r="F206" t="n">
+        <v>13</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>All Boys</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Patronato</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>6</v>
+      </c>
+      <c r="R206" t="n">
+        <v>5</v>
+      </c>
+      <c r="S206" t="n">
+        <v>11</v>
+      </c>
+      <c r="T206" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U206" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V206" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS206" t="n">
         <v>1.14</v>
       </c>
-      <c r="AT205" t="n">
+      <c r="AT206" t="n">
         <v>1.5</v>
       </c>
-      <c r="AU205" t="n">
+      <c r="AU206" t="n">
         <v>1.42</v>
       </c>
-      <c r="AV205" t="n">
+      <c r="AV206" t="n">
         <v>1.23</v>
       </c>
-      <c r="AW205" t="n">
+      <c r="AW206" t="n">
         <v>2.65</v>
       </c>
-      <c r="AX205" t="n">
+      <c r="AX206" t="n">
         <v>2.04</v>
       </c>
-      <c r="AY205" t="n">
+      <c r="AY206" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AZ205" t="n">
+      <c r="AZ206" t="n">
         <v>2.04</v>
       </c>
-      <c r="BA205" t="n">
+      <c r="BA206" t="n">
         <v>1.24</v>
       </c>
-      <c r="BB205" t="n">
+      <c r="BB206" t="n">
         <v>1.47</v>
       </c>
-      <c r="BC205" t="n">
+      <c r="BC206" t="n">
         <v>1.84</v>
       </c>
-      <c r="BD205" t="n">
+      <c r="BD206" t="n">
         <v>2.34</v>
       </c>
-      <c r="BE205" t="n">
+      <c r="BE206" t="n">
         <v>3.14</v>
       </c>
-      <c r="BF205" t="n">
+      <c r="BF206" t="n">
         <v>4</v>
       </c>
-      <c r="BG205" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH205" t="n">
+      <c r="BG206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH206" t="n">
         <v>5</v>
       </c>
-      <c r="BI205" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ205" t="n">
+      <c r="BI206" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ206" t="n">
         <v>9</v>
       </c>
-      <c r="BK205" t="n">
-        <v>3</v>
+      <c r="BK206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5067969</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45039.64583333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>13</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>San Martín San Juan</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>2</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>2</v>
+      </c>
+      <c r="N207" t="n">
+        <v>2</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['5', '34']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>4</v>
+      </c>
+      <c r="R207" t="n">
+        <v>4</v>
+      </c>
+      <c r="S207" t="n">
+        <v>8</v>
+      </c>
+      <c r="T207" t="n">
+        <v>4</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V207" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5067937</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45039.64583333334</v>
+      </c>
+      <c r="F208" t="n">
+        <v>11</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Racing Córdoba</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>2</v>
+      </c>
+      <c r="K208" t="n">
+        <v>3</v>
+      </c>
+      <c r="L208" t="n">
+        <v>3</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2</v>
+      </c>
+      <c r="N208" t="n">
+        <v>5</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['45', '74', '90']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['31', '34']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>5</v>
+      </c>
+      <c r="R208" t="n">
+        <v>3</v>
+      </c>
+      <c r="S208" t="n">
+        <v>8</v>
+      </c>
+      <c r="T208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U208" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V208" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5067970</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45039.64583333334</v>
+      </c>
+      <c r="F209" t="n">
+        <v>13</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Defensores Unidos</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>2</v>
+      </c>
+      <c r="R209" t="n">
+        <v>1</v>
+      </c>
+      <c r="S209" t="n">
+        <v>3</v>
+      </c>
+      <c r="T209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U209" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V209" t="n">
+        <v>5</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5067942</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45039.66666666666</v>
+      </c>
+      <c r="F210" t="n">
+        <v>11</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Deportivo Maipú</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Brown de Adrogué</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>8</v>
+      </c>
+      <c r="R210" t="n">
+        <v>5</v>
+      </c>
+      <c r="S210" t="n">
+        <v>13</v>
+      </c>
+      <c r="T210" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U210" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V210" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5067939</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45039.66666666666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>11</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Club Atlético Mitre</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Ferro Carril Oeste</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>2</v>
+      </c>
+      <c r="N211" t="n">
+        <v>2</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['3', '74']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>6</v>
+      </c>
+      <c r="R211" t="n">
+        <v>1</v>
+      </c>
+      <c r="S211" t="n">
+        <v>7</v>
+      </c>
+      <c r="T211" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U211" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V211" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5067940</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45039.70833333334</v>
+      </c>
+      <c r="F212" t="n">
+        <v>11</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Chaco For Ever</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Gimnasia Jujuy</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>3</v>
+      </c>
+      <c r="R212" t="n">
+        <v>1</v>
+      </c>
+      <c r="S212" t="n">
+        <v>4</v>
+      </c>
+      <c r="T212" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U212" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V212" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X212" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5067941</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45039.75</v>
+      </c>
+      <c r="F213" t="n">
+        <v>11</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Quilmes</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="n">
+        <v>2</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>2</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['40', '82']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>7</v>
+      </c>
+      <c r="R213" t="n">
+        <v>4</v>
+      </c>
+      <c r="S213" t="n">
+        <v>11</v>
+      </c>
+      <c r="T213" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V213" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X213" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5067963</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45040.64583333334</v>
+      </c>
+      <c r="F214" t="n">
+        <v>13</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Defensores de Belgrano</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Deportivo Morón</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>2</v>
+      </c>
+      <c r="R214" t="n">
+        <v>1</v>
+      </c>
+      <c r="S214" t="n">
+        <v>3</v>
+      </c>
+      <c r="T214" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U214" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V214" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X214" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5067968</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45040.86111111111</v>
+      </c>
+      <c r="F215" t="n">
+        <v>13</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Temperley</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Flandria</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>2</v>
+      </c>
+      <c r="N215" t="n">
+        <v>2</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['23', '67']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>7</v>
+      </c>
+      <c r="R215" t="n">
+        <v>3</v>
+      </c>
+      <c r="S215" t="n">
+        <v>10</v>
+      </c>
+      <c r="T215" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V215" t="n">
+        <v>6</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X215" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5067967</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45040.88194444445</v>
+      </c>
+      <c r="F216" t="n">
+        <v>13</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>San Martín Tucumán</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Alvarado</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>2</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['12', '50']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>1</v>
+      </c>
+      <c r="R216" t="n">
+        <v>1</v>
+      </c>
+      <c r="S216" t="n">
+        <v>2</v>
+      </c>
+      <c r="T216" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2</v>
+      </c>
+      <c r="V216" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X216" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK216"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT13" t="n">
         <v>1.33</v>
@@ -3745,7 +3745,7 @@
         <v>2.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -13286,7 +13286,7 @@
         <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT71" t="n">
         <v>0.6</v>
@@ -20797,7 +20797,7 @@
         <v>1.17</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU100" t="n">
         <v>1.42</v>
@@ -21200,7 +21200,7 @@
         <v>2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT102" t="n">
         <v>1.6</v>
@@ -22421,7 +22421,7 @@
         <v>2.2</v>
       </c>
       <c r="AT108" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU108" t="n">
         <v>1.71</v>
@@ -29117,7 +29117,7 @@
         <v>0</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT141" t="n">
         <v>0</v>
@@ -31556,7 +31556,7 @@
         <v>1.6</v>
       </c>
       <c r="AT153" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU153" t="n">
         <v>1.46</v>
@@ -37440,7 +37440,7 @@
         <v>1</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT182" t="n">
         <v>1.33</v>
@@ -37705,7 +37705,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>5067920</v>
+        <v>5067953</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -37721,90 +37721,90 @@
         <v>45031.64583333334</v>
       </c>
       <c r="F184" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Deportivo Morón</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Villa Dálmine</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
       </c>
       <c r="K184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L184" t="n">
         <v>2</v>
       </c>
       <c r="M184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N184" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>['3', '36']</t>
+          <t>['45+3', '61']</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['58', '80']</t>
         </is>
       </c>
       <c r="Q184" t="n">
+        <v>3</v>
+      </c>
+      <c r="R184" t="n">
+        <v>3</v>
+      </c>
+      <c r="S184" t="n">
         <v>6</v>
       </c>
-      <c r="R184" t="n">
-        <v>3</v>
-      </c>
-      <c r="S184" t="n">
-        <v>9</v>
-      </c>
       <c r="T184" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U184" t="n">
         <v>1.95</v>
       </c>
       <c r="V184" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="W184" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X184" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y184" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="Z184" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AA184" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AB184" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC184" t="n">
-        <v>2.16</v>
+        <v>2.8</v>
       </c>
       <c r="AD184" t="n">
-        <v>3.22</v>
+        <v>3.1</v>
       </c>
       <c r="AE184" t="n">
-        <v>3.56</v>
+        <v>2.35</v>
       </c>
       <c r="AF184" t="n">
         <v>1.09</v>
@@ -37813,73 +37813,73 @@
         <v>6.5</v>
       </c>
       <c r="AH184" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AI184" t="n">
         <v>2.5</v>
       </c>
       <c r="AJ184" t="n">
-        <v>2.37</v>
+        <v>2.41</v>
       </c>
       <c r="AK184" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AL184" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AM184" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AN184" t="n">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
       <c r="AO184" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.65</v>
+        <v>1.39</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AR184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.83</v>
+        <v>1</v>
       </c>
       <c r="AT184" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AU184" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AV184" t="n">
-        <v>1.16</v>
+        <v>0.83</v>
       </c>
       <c r="AW184" t="n">
-        <v>2.64</v>
+        <v>2.16</v>
       </c>
       <c r="AX184" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AY184" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AZ184" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BA184" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="BB184" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="BC184" t="n">
-        <v>2.5</v>
+        <v>2.21</v>
       </c>
       <c r="BD184" t="n">
-        <v>3.9</v>
+        <v>2.98</v>
       </c>
       <c r="BE184" t="n">
         <v>0</v>
@@ -37888,19 +37888,19 @@
         <v>3</v>
       </c>
       <c r="BG184" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH184" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ184" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BK184" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185">
@@ -37908,7 +37908,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>5067953</v>
+        <v>5067920</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -37924,90 +37924,90 @@
         <v>45031.64583333334</v>
       </c>
       <c r="F185" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Deportivo Morón</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Villa Dálmine</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J185" t="n">
         <v>0</v>
       </c>
       <c r="K185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L185" t="n">
         <v>2</v>
       </c>
       <c r="M185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N185" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>['45+3', '61']</t>
+          <t>['3', '36']</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>['58', '80']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R185" t="n">
         <v>3</v>
       </c>
       <c r="S185" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T185" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U185" t="n">
         <v>1.95</v>
       </c>
       <c r="V185" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="W185" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X185" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y185" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="Z185" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AA185" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AB185" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC185" t="n">
-        <v>2.8</v>
+        <v>2.16</v>
       </c>
       <c r="AD185" t="n">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="AE185" t="n">
-        <v>2.35</v>
+        <v>3.56</v>
       </c>
       <c r="AF185" t="n">
         <v>1.09</v>
@@ -38016,73 +38016,73 @@
         <v>6.5</v>
       </c>
       <c r="AH185" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AI185" t="n">
         <v>2.5</v>
       </c>
       <c r="AJ185" t="n">
-        <v>2.41</v>
+        <v>2.37</v>
       </c>
       <c r="AK185" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AL185" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AM185" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AN185" t="n">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="AO185" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AR185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS185" t="n">
-        <v>1</v>
+        <v>1.83</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AU185" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="AV185" t="n">
-        <v>0.83</v>
+        <v>1.16</v>
       </c>
       <c r="AW185" t="n">
-        <v>2.16</v>
+        <v>2.64</v>
       </c>
       <c r="AX185" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AY185" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AZ185" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="BA185" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="BB185" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="BC185" t="n">
-        <v>2.21</v>
+        <v>2.5</v>
       </c>
       <c r="BD185" t="n">
-        <v>2.98</v>
+        <v>3.9</v>
       </c>
       <c r="BE185" t="n">
         <v>0</v>
@@ -38091,19 +38091,19 @@
         <v>3</v>
       </c>
       <c r="BG185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BI185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ185" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BK185" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -38720,7 +38720,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>5067952</v>
+        <v>5067919</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -38736,186 +38736,186 @@
         <v>45032.64583333334</v>
       </c>
       <c r="F189" t="n">
+        <v>10</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Estudiantes Caseros</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>3</v>
+      </c>
+      <c r="N189" t="n">
+        <v>3</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['25', '60', '77']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
         <v>12</v>
       </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>Club Atlético Güemes</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Defensores de Belgrano</t>
-        </is>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>0</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0</v>
-      </c>
-      <c r="L189" t="n">
-        <v>0</v>
-      </c>
-      <c r="M189" t="n">
-        <v>0</v>
-      </c>
-      <c r="N189" t="n">
-        <v>0</v>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P189" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q189" t="n">
-        <v>3</v>
-      </c>
       <c r="R189" t="n">
+        <v>2</v>
+      </c>
+      <c r="S189" t="n">
+        <v>14</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V189" t="n">
         <v>5</v>
       </c>
-      <c r="S189" t="n">
-        <v>8</v>
-      </c>
-      <c r="T189" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U189" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V189" t="n">
-        <v>3.75</v>
-      </c>
       <c r="W189" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X189" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="Y189" t="n">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="Z189" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AA189" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB189" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC189" t="n">
-        <v>2.24</v>
+        <v>1.85</v>
       </c>
       <c r="AD189" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="AE189" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="AF189" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AG189" t="n">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="AH189" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AI189" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AJ189" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="AK189" t="n">
         <v>1.5</v>
       </c>
       <c r="AL189" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="AM189" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AN189" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="AO189" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AR189" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AS189" t="n">
         <v>1.17</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.83</v>
+        <v>1.4</v>
       </c>
       <c r="AU189" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX189" t="n">
         <v>1.57</v>
       </c>
-      <c r="AV189" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AW189" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AX189" t="n">
-        <v>1.82</v>
-      </c>
       <c r="AY189" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AZ189" t="n">
-        <v>2.35</v>
+        <v>2.93</v>
       </c>
       <c r="BA189" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="BB189" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="BC189" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="BD189" t="n">
-        <v>2.91</v>
+        <v>3.2</v>
       </c>
       <c r="BE189" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="BF189" t="n">
         <v>3</v>
       </c>
       <c r="BG189" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH189" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BI189" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ189" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BK189" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190">
@@ -38923,7 +38923,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>5067919</v>
+        <v>5067952</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -38939,35 +38939,35 @@
         <v>45032.64583333334</v>
       </c>
       <c r="F190" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Estudiantes Caseros</t>
+          <t>Club Atlético Güemes</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Defensores de Belgrano</t>
         </is>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>0</v>
       </c>
       <c r="M190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -38976,149 +38976,149 @@
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>['25', '60', '77']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R190" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S190" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T190" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="U190" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V190" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="W190" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X190" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="Y190" t="n">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="Z190" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AA190" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB190" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC190" t="n">
-        <v>1.85</v>
+        <v>2.24</v>
       </c>
       <c r="AD190" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="AE190" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="AF190" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AG190" t="n">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="AH190" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AI190" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AJ190" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="AK190" t="n">
         <v>1.5</v>
       </c>
       <c r="AL190" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="AM190" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AN190" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="AO190" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AR190" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AS190" t="n">
         <v>1.17</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU190" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AV190" t="n">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="AW190" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="AX190" t="n">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AY190" t="n">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AZ190" t="n">
-        <v>2.93</v>
+        <v>2.35</v>
       </c>
       <c r="BA190" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="BB190" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="BC190" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="BD190" t="n">
-        <v>3.2</v>
+        <v>2.91</v>
       </c>
       <c r="BE190" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="BF190" t="n">
         <v>3</v>
       </c>
       <c r="BG190" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH190" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BI190" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BJ190" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BK190" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191">
@@ -40285,7 +40285,7 @@
         <v>1.6</v>
       </c>
       <c r="AT196" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU196" t="n">
         <v>1.78</v>
@@ -40953,7 +40953,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>5067966</v>
+        <v>5067944</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -40969,186 +40969,186 @@
         <v>45038.64583333334</v>
       </c>
       <c r="F200" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Atlético Rafaela</t>
         </is>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>11</v>
+      </c>
+      <c r="R200" t="n">
+        <v>3</v>
+      </c>
+      <c r="S200" t="n">
+        <v>14</v>
+      </c>
+      <c r="T200" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U200" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH200" t="n">
         <v>4</v>
       </c>
-      <c r="O200" t="inlineStr">
-        <is>
-          <t>['64', '82']</t>
-        </is>
-      </c>
-      <c r="P200" t="inlineStr">
-        <is>
-          <t>['55', '74']</t>
-        </is>
-      </c>
-      <c r="Q200" t="n">
-        <v>3</v>
-      </c>
-      <c r="R200" t="n">
-        <v>0</v>
-      </c>
-      <c r="S200" t="n">
-        <v>3</v>
-      </c>
-      <c r="T200" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U200" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V200" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W200" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X200" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Y200" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Z200" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AA200" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AB200" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC200" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AD200" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE200" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AF200" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AG200" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AH200" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI200" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AJ200" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AK200" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AL200" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM200" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN200" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AO200" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP200" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AQ200" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR200" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AS200" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AT200" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AU200" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AV200" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AW200" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AX200" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AY200" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AZ200" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BA200" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="BB200" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="BC200" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BD200" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="BE200" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BF200" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG200" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH200" t="n">
-        <v>6</v>
-      </c>
       <c r="BI200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ200" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK200" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
@@ -41156,7 +41156,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>5067944</v>
+        <v>5067971</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -41172,186 +41172,186 @@
         <v>45038.64583333334</v>
       </c>
       <c r="F201" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Atlético Rafaela</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N201" t="n">
         <v>1</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P201" t="inlineStr">
-        <is>
-          <t>['8']</t>
-        </is>
-      </c>
       <c r="Q201" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S201" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T201" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="U201" t="n">
         <v>1.95</v>
       </c>
       <c r="V201" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="W201" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="X201" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="Y201" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Z201" t="n">
         <v>1.25</v>
       </c>
       <c r="AA201" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="AB201" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC201" t="n">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="AD201" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AE201" t="n">
-        <v>2.65</v>
+        <v>3.6</v>
       </c>
       <c r="AF201" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AG201" t="n">
-        <v>7.3</v>
+        <v>7.15</v>
       </c>
       <c r="AH201" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="AI201" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AJ201" t="n">
         <v>2.4</v>
       </c>
       <c r="AK201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR201" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL201" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM201" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN201" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AO201" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP201" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AQ201" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR201" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AS201" t="n">
-        <v>0.83</v>
+        <v>2.33</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="AU201" t="n">
-        <v>1.35</v>
+        <v>1.97</v>
       </c>
       <c r="AV201" t="n">
-        <v>0.99</v>
+        <v>1.1</v>
       </c>
       <c r="AW201" t="n">
-        <v>2.34</v>
+        <v>3.07</v>
       </c>
       <c r="AX201" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AY201" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AZ201" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="BA201" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BB201" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="BC201" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="BD201" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="BE201" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="BF201" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG201" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI201" t="n">
         <v>4</v>
       </c>
-      <c r="BI201" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ201" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BK201" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202">
@@ -41359,7 +41359,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>5067971</v>
+        <v>5067966</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -41379,12 +41379,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I202" t="n">
@@ -41397,164 +41397,164 @@
         <v>0</v>
       </c>
       <c r="L202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N202" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>['83']</t>
+          <t>['64', '82']</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['55', '74']</t>
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S202" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T202" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="U202" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V202" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="W202" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="X202" t="n">
-        <v>2.28</v>
+        <v>2.17</v>
       </c>
       <c r="Y202" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Z202" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AA202" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB202" t="n">
         <v>1.04</v>
       </c>
       <c r="AC202" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AD202" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AE202" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AF202" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AG202" t="n">
-        <v>7.15</v>
+        <v>6.4</v>
       </c>
       <c r="AH202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP202" t="n">
         <v>1.6</v>
       </c>
-      <c r="AI202" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AJ202" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AK202" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AL202" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AM202" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN202" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AO202" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP202" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AQ202" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR202" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AS202" t="n">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AU202" t="n">
-        <v>1.97</v>
+        <v>1.4</v>
       </c>
       <c r="AV202" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AW202" t="n">
-        <v>3.07</v>
+        <v>2.49</v>
       </c>
       <c r="AX202" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AY202" t="n">
-        <v>8.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AZ202" t="n">
-        <v>3.13</v>
+        <v>2.5</v>
       </c>
       <c r="BA202" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="BB202" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="BC202" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="BD202" t="n">
-        <v>2.72</v>
+        <v>2.91</v>
       </c>
       <c r="BE202" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="BF202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH202" t="n">
         <v>6</v>
       </c>
-      <c r="BG202" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH202" t="n">
-        <v>7</v>
-      </c>
       <c r="BI202" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ202" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BK202" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203">
@@ -42374,7 +42374,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>5067969</v>
+        <v>5067937</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -42390,186 +42390,186 @@
         <v>45039.64583333334</v>
       </c>
       <c r="F207" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>San Martín San Juan</t>
+          <t>Racing Córdoba</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
         <v>2</v>
       </c>
       <c r="K207" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L207" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M207" t="n">
         <v>2</v>
       </c>
       <c r="N207" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45', '74', '90']</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>['5', '34']</t>
+          <t>['31', '34']</t>
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R207" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S207" t="n">
         <v>8</v>
       </c>
       <c r="T207" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="U207" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="V207" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="W207" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X207" t="n">
-        <v>2.53</v>
+        <v>2.49</v>
       </c>
       <c r="Y207" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Z207" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AA207" t="n">
-        <v>8.4</v>
+        <v>8.75</v>
       </c>
       <c r="AB207" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC207" t="n">
-        <v>3.02</v>
+        <v>2.51</v>
       </c>
       <c r="AD207" t="n">
-        <v>3.02</v>
+        <v>2.76</v>
       </c>
       <c r="AE207" t="n">
-        <v>2.01</v>
+        <v>2.51</v>
       </c>
       <c r="AF207" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AG207" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="AH207" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN207" t="n">
         <v>1.4</v>
       </c>
-      <c r="AI207" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AJ207" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AK207" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL207" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM207" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AN207" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AO207" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.4</v>
+        <v>0.75</v>
       </c>
       <c r="AR207" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.57</v>
+        <v>0.83</v>
       </c>
       <c r="AU207" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="AV207" t="n">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="AW207" t="n">
-        <v>3.17</v>
+        <v>3.62</v>
       </c>
       <c r="AX207" t="n">
-        <v>2.26</v>
+        <v>1.8</v>
       </c>
       <c r="AY207" t="n">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="AZ207" t="n">
-        <v>1.9</v>
+        <v>2.35</v>
       </c>
       <c r="BA207" t="n">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="BB207" t="n">
-        <v>1.87</v>
+        <v>1.56</v>
       </c>
       <c r="BC207" t="n">
-        <v>2.34</v>
+        <v>1.92</v>
       </c>
       <c r="BD207" t="n">
-        <v>3.65</v>
+        <v>2.39</v>
       </c>
       <c r="BE207" t="n">
-        <v>5.7</v>
+        <v>3.28</v>
       </c>
       <c r="BF207" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG207" t="n">
         <v>5</v>
       </c>
       <c r="BH207" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI207" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ207" t="n">
         <v>10</v>
       </c>
       <c r="BK207" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208">
@@ -42577,7 +42577,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>5067937</v>
+        <v>5067970</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -42593,87 +42593,87 @@
         <v>45039.64583333334</v>
       </c>
       <c r="F208" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Tristán Suárez</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I208" t="n">
         <v>1</v>
       </c>
       <c r="J208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N208" t="n">
+        <v>1</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>2</v>
+      </c>
+      <c r="R208" t="n">
+        <v>1</v>
+      </c>
+      <c r="S208" t="n">
+        <v>3</v>
+      </c>
+      <c r="T208" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V208" t="n">
         <v>5</v>
       </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>['45', '74', '90']</t>
-        </is>
-      </c>
-      <c r="P208" t="inlineStr">
-        <is>
-          <t>['31', '34']</t>
-        </is>
-      </c>
-      <c r="Q208" t="n">
-        <v>5</v>
-      </c>
-      <c r="R208" t="n">
-        <v>3</v>
-      </c>
-      <c r="S208" t="n">
-        <v>8</v>
-      </c>
-      <c r="T208" t="n">
+      <c r="W208" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y208" t="n">
         <v>3.4</v>
       </c>
-      <c r="U208" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V208" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W208" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X208" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="Y208" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Z208" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AA208" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AB208" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC208" t="n">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="AD208" t="n">
-        <v>2.76</v>
+        <v>2.63</v>
       </c>
       <c r="AE208" t="n">
         <v>2.51</v>
@@ -42682,97 +42682,97 @@
         <v>1.1</v>
       </c>
       <c r="AG208" t="n">
-        <v>6.8</v>
+        <v>6.25</v>
       </c>
       <c r="AH208" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AI208" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="AJ208" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AK208" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="AL208" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AM208" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB208" t="n">
         <v>1.6</v>
       </c>
-      <c r="AN208" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO208" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP208" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AQ208" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AR208" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS208" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AT208" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AU208" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AV208" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AW208" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AX208" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AY208" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AZ208" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="BA208" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB208" t="n">
-        <v>1.56</v>
-      </c>
       <c r="BC208" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="BD208" t="n">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="BE208" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="BF208" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG208" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH208" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI208" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ208" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BK208" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209">
@@ -42780,7 +42780,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>5067970</v>
+        <v>5067969</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -42800,182 +42800,182 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>San Martín San Juan</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['5', '34']</t>
         </is>
       </c>
       <c r="Q209" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R209" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S209" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T209" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U209" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V209" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="W209" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X209" t="n">
-        <v>2.35</v>
+        <v>2.53</v>
       </c>
       <c r="Y209" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Z209" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AA209" t="n">
-        <v>9.75</v>
+        <v>8.4</v>
       </c>
       <c r="AB209" t="n">
         <v>1.05</v>
       </c>
       <c r="AC209" t="n">
-        <v>2.63</v>
+        <v>3.02</v>
       </c>
       <c r="AD209" t="n">
-        <v>2.63</v>
+        <v>3.02</v>
       </c>
       <c r="AE209" t="n">
-        <v>2.51</v>
+        <v>2.01</v>
       </c>
       <c r="AF209" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AG209" t="n">
-        <v>6.25</v>
+        <v>6.3</v>
       </c>
       <c r="AH209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK209" t="n">
         <v>1.5</v>
       </c>
-      <c r="AI209" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AJ209" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AK209" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AL209" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="AM209" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="AN209" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AO209" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.4</v>
       </c>
       <c r="AR209" t="n">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.57</v>
+        <v>1.57</v>
       </c>
       <c r="AU209" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="AV209" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="AW209" t="n">
-        <v>2.44</v>
+        <v>3.17</v>
       </c>
       <c r="AX209" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA209" t="n">
         <v>1.51</v>
       </c>
-      <c r="AY209" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ209" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BA209" t="n">
-        <v>1.29</v>
-      </c>
       <c r="BB209" t="n">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="BC209" t="n">
-        <v>1.99</v>
+        <v>2.34</v>
       </c>
       <c r="BD209" t="n">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="BE209" t="n">
-        <v>3.48</v>
+        <v>5.7</v>
       </c>
       <c r="BF209" t="n">
         <v>5</v>
       </c>
       <c r="BG209" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH209" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI209" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ209" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK209" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210">
@@ -42983,7 +42983,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>5067942</v>
+        <v>5067939</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -43003,182 +43003,182 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>Club Atlético Mitre</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Ferro Carril Oeste</t>
         </is>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>['73']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['3', '74']</t>
         </is>
       </c>
       <c r="Q210" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R210" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S210" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T210" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="U210" t="n">
         <v>1.91</v>
       </c>
       <c r="V210" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="W210" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X210" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y210" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Z210" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AA210" t="n">
         <v>10</v>
       </c>
       <c r="AB210" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC210" t="n">
-        <v>1.93</v>
+        <v>2.11</v>
       </c>
       <c r="AD210" t="n">
-        <v>2.77</v>
+        <v>2.61</v>
       </c>
       <c r="AE210" t="n">
-        <v>3.56</v>
+        <v>3.3</v>
       </c>
       <c r="AF210" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AG210" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="AH210" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AI210" t="n">
         <v>2.48</v>
       </c>
       <c r="AJ210" t="n">
-        <v>2.43</v>
+        <v>2.48</v>
       </c>
       <c r="AK210" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AL210" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AM210" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AN210" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AO210" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AQ210" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR210" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AS210" t="n">
-        <v>2.17</v>
+        <v>1.4</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU210" t="n">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="AV210" t="n">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="AW210" t="n">
-        <v>2.85</v>
+        <v>2.69</v>
       </c>
       <c r="AX210" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="AY210" t="n">
-        <v>8.300000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="AZ210" t="n">
-        <v>3.22</v>
+        <v>2.77</v>
       </c>
       <c r="BA210" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="BB210" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="BC210" t="n">
-        <v>2.28</v>
+        <v>2.65</v>
       </c>
       <c r="BD210" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="BE210" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="BF210" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG210" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH210" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BI210" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BJ210" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BK210" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211">
@@ -43186,7 +43186,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>5067939</v>
+        <v>5067942</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -43206,182 +43206,182 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Club Atlético Mitre</t>
+          <t>Deportivo Maipú</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Ferro Carril Oeste</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P211" t="inlineStr">
-        <is>
-          <t>['3', '74']</t>
-        </is>
-      </c>
       <c r="Q211" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R211" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S211" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T211" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="U211" t="n">
         <v>1.91</v>
       </c>
       <c r="V211" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="W211" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X211" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y211" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Z211" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AA211" t="n">
         <v>10</v>
       </c>
       <c r="AB211" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC211" t="n">
-        <v>2.11</v>
+        <v>1.93</v>
       </c>
       <c r="AD211" t="n">
-        <v>2.61</v>
+        <v>2.77</v>
       </c>
       <c r="AE211" t="n">
-        <v>3.3</v>
+        <v>3.56</v>
       </c>
       <c r="AF211" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AG211" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="AH211" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AI211" t="n">
         <v>2.48</v>
       </c>
       <c r="AJ211" t="n">
-        <v>2.48</v>
+        <v>2.43</v>
       </c>
       <c r="AK211" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="AL211" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AM211" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP211" t="n">
         <v>1.65</v>
       </c>
-      <c r="AN211" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AO211" t="n">
+      <c r="AQ211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BA211" t="n">
         <v>1.4</v>
       </c>
-      <c r="AP211" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AQ211" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AR211" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS211" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AT211" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AU211" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AV211" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AW211" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AX211" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AY211" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AZ211" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="BA211" t="n">
-        <v>1.53</v>
-      </c>
       <c r="BB211" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="BC211" t="n">
-        <v>2.65</v>
+        <v>2.28</v>
       </c>
       <c r="BD211" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="BE211" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="BF211" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG211" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH211" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BI211" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BJ211" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BK211" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212">
@@ -44397,6 +44397,209 @@
       </c>
       <c r="BK216" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5067959</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45044.875</v>
+      </c>
+      <c r="F217" t="n">
+        <v>12</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Gimnasia Jujuy</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Club Atlético Mitre</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="n">
+        <v>2</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>2</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['1', '81']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>7</v>
+      </c>
+      <c r="R217" t="n">
+        <v>3</v>
+      </c>
+      <c r="S217" t="n">
+        <v>10</v>
+      </c>
+      <c r="T217" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U217" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V217" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X217" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,7 +2527,7 @@
         <v>1.17</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.17</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT14" t="n">
         <v>1.33</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT17" t="n">
         <v>2</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT18" t="n">
         <v>0.83</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT25" t="n">
         <v>1.5</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT27" t="n">
         <v>0.67</v>
@@ -6587,7 +6587,7 @@
         <v>1.71</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU30" t="n">
         <v>1.29</v>
@@ -8617,7 +8617,7 @@
         <v>1.4</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>1.8</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU42" t="n">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>1.83</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU44" t="n">
         <v>1.55</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT49" t="n">
         <v>0.67</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT52" t="n">
         <v>1.33</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT53" t="n">
         <v>1.33</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT54" t="n">
         <v>0.8</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT59" t="n">
         <v>0.83</v>
@@ -14504,7 +14504,7 @@
         <v>2.2</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU69" t="n">
         <v>1.93</v>
@@ -14707,7 +14707,7 @@
         <v>1.2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU70" t="n">
         <v>1.9</v>
@@ -16534,7 +16534,7 @@
         <v>1.71</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU79" t="n">
         <v>1.97</v>
@@ -16734,10 +16734,10 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU80" t="n">
         <v>1.67</v>
@@ -17546,7 +17546,7 @@
         <v>3</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT84" t="n">
         <v>0.8</v>
@@ -17749,7 +17749,7 @@
         <v>0.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT85" t="n">
         <v>0.83</v>
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT86" t="n">
         <v>0.67</v>
@@ -18967,7 +18967,7 @@
         <v>0</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT91" t="n">
         <v>0.8</v>
@@ -21606,10 +21606,10 @@
         <v>0.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT104" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -21812,7 +21812,7 @@
         <v>1.83</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU105" t="n">
         <v>1.05</v>
@@ -22621,7 +22621,7 @@
         <v>3</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT109" t="n">
         <v>1.4</v>
@@ -23030,7 +23030,7 @@
         <v>1.6</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU111" t="n">
         <v>1.27</v>
@@ -23233,7 +23233,7 @@
         <v>2</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU112" t="n">
         <v>1.59</v>
@@ -24651,7 +24651,7 @@
         <v>0.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT119" t="n">
         <v>0.6</v>
@@ -25260,7 +25260,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT122" t="n">
         <v>0.8</v>
@@ -26072,7 +26072,7 @@
         <v>1.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT126" t="n">
         <v>0.83</v>
@@ -28917,7 +28917,7 @@
         <v>2.5</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU140" t="n">
         <v>1.5</v>
@@ -30132,10 +30132,10 @@
         <v>0.33</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT146" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU146" t="n">
         <v>1.41</v>
@@ -30338,7 +30338,7 @@
         <v>1.6</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU147" t="n">
         <v>1.8</v>
@@ -31150,7 +31150,7 @@
         <v>0.8</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU151" t="n">
         <v>1.46</v>
@@ -31350,7 +31350,7 @@
         <v>1.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT152" t="n">
         <v>1.6</v>
@@ -31756,7 +31756,7 @@
         <v>1.33</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT154" t="n">
         <v>1.4</v>
@@ -32162,7 +32162,7 @@
         <v>1</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT156" t="n">
         <v>0.67</v>
@@ -33786,7 +33786,7 @@
         <v>0.67</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT164" t="n">
         <v>0.6</v>
@@ -33992,7 +33992,7 @@
         <v>1.67</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU165" t="n">
         <v>1.38</v>
@@ -37240,7 +37240,7 @@
         <v>1.83</v>
       </c>
       <c r="AT181" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU181" t="n">
         <v>1.72</v>
@@ -37443,7 +37443,7 @@
         <v>1.71</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU182" t="n">
         <v>1.1</v>
@@ -38049,7 +38049,7 @@
         <v>0</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT185" t="n">
         <v>0</v>
@@ -38658,7 +38658,7 @@
         <v>0.2</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT188" t="n">
         <v>0.17</v>
@@ -38861,7 +38861,7 @@
         <v>1</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT189" t="n">
         <v>1.4</v>
@@ -39267,10 +39267,10 @@
         <v>1.5</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU191" t="n">
         <v>1.66</v>
@@ -41094,7 +41094,7 @@
         <v>1.25</v>
       </c>
       <c r="AS200" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT200" t="n">
         <v>1.6</v>
@@ -44600,6 +44600,1021 @@
       </c>
       <c r="BK217" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5067957</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45045.625</v>
+      </c>
+      <c r="F218" t="n">
+        <v>12</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Brown de Adrogué</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>7</v>
+      </c>
+      <c r="R218" t="n">
+        <v>4</v>
+      </c>
+      <c r="S218" t="n">
+        <v>11</v>
+      </c>
+      <c r="T218" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U218" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V218" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5067981</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45045.64583333334</v>
+      </c>
+      <c r="F219" t="n">
+        <v>14</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Defensores Unidos</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Agropecuario</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>2</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>2</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['33', '51']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>3</v>
+      </c>
+      <c r="R219" t="n">
+        <v>3</v>
+      </c>
+      <c r="S219" t="n">
+        <v>6</v>
+      </c>
+      <c r="T219" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U219" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V219" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5067954</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45045.64583333334</v>
+      </c>
+      <c r="F220" t="n">
+        <v>12</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>2</v>
+      </c>
+      <c r="L220" t="n">
+        <v>2</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="n">
+        <v>3</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['11', '57']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>1</v>
+      </c>
+      <c r="R220" t="n">
+        <v>6</v>
+      </c>
+      <c r="S220" t="n">
+        <v>7</v>
+      </c>
+      <c r="T220" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U220" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V220" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X220" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5067956</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45045.69097222222</v>
+      </c>
+      <c r="F221" t="n">
+        <v>12</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Estudiantes Caseros</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Deportivo Maipú</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>8</v>
+      </c>
+      <c r="R221" t="n">
+        <v>3</v>
+      </c>
+      <c r="S221" t="n">
+        <v>11</v>
+      </c>
+      <c r="T221" t="n">
+        <v>4</v>
+      </c>
+      <c r="U221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V221" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X221" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5067958</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45045.77430555555</v>
+      </c>
+      <c r="F222" t="n">
+        <v>12</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Quilmes</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Chaco For Ever</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>5</v>
+      </c>
+      <c r="R222" t="n">
+        <v>9</v>
+      </c>
+      <c r="S222" t="n">
+        <v>14</v>
+      </c>
+      <c r="T222" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2</v>
+      </c>
+      <c r="V222" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X222" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK222"/>
+  <dimension ref="A1:BK234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.71</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT6" t="n">
         <v>1.57</v>
@@ -1918,7 +1918,7 @@
         <v>1.57</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT8" t="n">
         <v>0.57</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT10" t="n">
         <v>1.29</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.14</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT15" t="n">
         <v>0.5</v>
@@ -3948,7 +3948,7 @@
         <v>1.14</v>
       </c>
       <c r="AT17" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.17</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>2.17</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT23" t="n">
         <v>1.17</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT31" t="n">
         <v>1.4</v>
@@ -6993,7 +6993,7 @@
         <v>1.14</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.59</v>
@@ -7196,7 +7196,7 @@
         <v>1.71</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU33" t="n">
         <v>1.58</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT34" t="n">
         <v>0.8</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT35" t="n">
         <v>0.6</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT37" t="n">
         <v>0.83</v>
@@ -8414,7 +8414,7 @@
         <v>1.57</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU39" t="n">
         <v>1.2</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT41" t="n">
         <v>0.57</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT43" t="n">
         <v>1.29</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT44" t="n">
         <v>1.29</v>
@@ -9632,7 +9632,7 @@
         <v>1.83</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU45" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>1.17</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU47" t="n">
         <v>1.93</v>
@@ -10241,7 +10241,7 @@
         <v>2.33</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>0.98</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT50" t="n">
         <v>1.5</v>
@@ -10850,7 +10850,7 @@
         <v>1.67</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU51" t="n">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>1.14</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU52" t="n">
         <v>1.02</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT56" t="n">
         <v>1.33</v>
@@ -12065,7 +12065,7 @@
         <v>3</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT57" t="n">
         <v>1.17</v>
@@ -12880,7 +12880,7 @@
         <v>2.17</v>
       </c>
       <c r="AT61" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU61" t="n">
         <v>1.88</v>
@@ -13080,7 +13080,7 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT62" t="n">
         <v>0.83</v>
@@ -13489,7 +13489,7 @@
         <v>2.33</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU64" t="n">
         <v>1.4</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT65" t="n">
         <v>1.6</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT66" t="n">
         <v>1.4</v>
@@ -14098,7 +14098,7 @@
         <v>1.14</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU67" t="n">
         <v>1.52</v>
@@ -14301,7 +14301,7 @@
         <v>1.83</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU68" t="n">
         <v>0.84</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT73" t="n">
         <v>0.83</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT74" t="n">
         <v>1.57</v>
@@ -15719,7 +15719,7 @@
         <v>3</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT75" t="n">
         <v>1.4</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT76" t="n">
         <v>0.57</v>
@@ -16331,7 +16331,7 @@
         <v>2.17</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.55</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT83" t="n">
         <v>1.33</v>
@@ -17752,7 +17752,7 @@
         <v>2.71</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -18155,7 +18155,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT87" t="n">
         <v>1.33</v>
@@ -18358,7 +18358,7 @@
         <v>2</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT88" t="n">
         <v>1.8</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT89" t="n">
         <v>1.5</v>
@@ -18767,7 +18767,7 @@
         <v>2.33</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU90" t="n">
         <v>1.68</v>
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT92" t="n">
         <v>0.83</v>
@@ -19376,7 +19376,7 @@
         <v>2.17</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU93" t="n">
         <v>1.81</v>
@@ -19579,7 +19579,7 @@
         <v>1</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU94" t="n">
         <v>1.93</v>
@@ -19782,7 +19782,7 @@
         <v>1.8</v>
       </c>
       <c r="AT95" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU95" t="n">
         <v>1.86</v>
@@ -20391,7 +20391,7 @@
         <v>2</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>1.87</v>
@@ -20594,7 +20594,7 @@
         <v>1.17</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU99" t="n">
         <v>1.98</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT101" t="n">
         <v>1.4</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT103" t="n">
         <v>0.83</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT112" t="n">
         <v>1.67</v>
@@ -23436,7 +23436,7 @@
         <v>2.5</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU113" t="n">
         <v>1.44</v>
@@ -23636,7 +23636,7 @@
         <v>2</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT114" t="n">
         <v>1.17</v>
@@ -23842,7 +23842,7 @@
         <v>2.17</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU115" t="n">
         <v>1.34</v>
@@ -24245,7 +24245,7 @@
         <v>0</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT117" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0.5</v>
       </c>
       <c r="AS118" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT118" t="n">
         <v>0.5</v>
@@ -24857,7 +24857,7 @@
         <v>2.33</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU120" t="n">
         <v>2.05</v>
@@ -25057,10 +25057,10 @@
         <v>0.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU121" t="n">
         <v>1.08</v>
@@ -25666,7 +25666,7 @@
         <v>1.67</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT124" t="n">
         <v>1.8</v>
@@ -26075,7 +26075,7 @@
         <v>2.71</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU126" t="n">
         <v>1.36</v>
@@ -26278,7 +26278,7 @@
         <v>1.17</v>
       </c>
       <c r="AT127" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU127" t="n">
         <v>1.51</v>
@@ -26481,7 +26481,7 @@
         <v>1.67</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU128" t="n">
         <v>1.31</v>
@@ -26887,7 +26887,7 @@
         <v>1.4</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.4</v>
@@ -27087,7 +27087,7 @@
         <v>0</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT131" t="n">
         <v>0.83</v>
@@ -27493,10 +27493,10 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU133" t="n">
         <v>1.41</v>
@@ -27699,7 +27699,7 @@
         <v>1.8</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU134" t="n">
         <v>1.41</v>
@@ -27899,7 +27899,7 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT135" t="n">
         <v>0.8</v>
@@ -28711,7 +28711,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT139" t="n">
         <v>1.17</v>
@@ -29932,7 +29932,7 @@
         <v>1.2</v>
       </c>
       <c r="AT145" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU145" t="n">
         <v>2.4</v>
@@ -30335,7 +30335,7 @@
         <v>1</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT147" t="n">
         <v>1.29</v>
@@ -30541,7 +30541,7 @@
         <v>1.17</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU148" t="n">
         <v>1.77</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT149" t="n">
         <v>1.5</v>
@@ -30944,7 +30944,7 @@
         <v>0</v>
       </c>
       <c r="AS150" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT150" t="n">
         <v>0</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT151" t="n">
         <v>1.67</v>
@@ -31959,10 +31959,10 @@
         <v>1</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU155" t="n">
         <v>1.24</v>
@@ -32165,7 +32165,7 @@
         <v>2.71</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU156" t="n">
         <v>1.25</v>
@@ -32368,7 +32368,7 @@
         <v>2.33</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU157" t="n">
         <v>1.84</v>
@@ -32568,10 +32568,10 @@
         <v>1</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU158" t="n">
         <v>1.42</v>
@@ -32774,7 +32774,7 @@
         <v>1</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU159" t="n">
         <v>1.42</v>
@@ -32974,10 +32974,10 @@
         <v>0.75</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU160" t="n">
         <v>1.2</v>
@@ -33177,7 +33177,7 @@
         <v>0.25</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT161" t="n">
         <v>0.83</v>
@@ -33380,7 +33380,7 @@
         <v>1.25</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT162" t="n">
         <v>1</v>
@@ -34195,7 +34195,7 @@
         <v>1.17</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU166" t="n">
         <v>1.33</v>
@@ -34601,7 +34601,7 @@
         <v>2.2</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU168" t="n">
         <v>1.65</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT170" t="n">
         <v>1.33</v>
@@ -36019,7 +36019,7 @@
         <v>2</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT175" t="n">
         <v>1.4</v>
@@ -37237,7 +37237,7 @@
         <v>1</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT181" t="n">
         <v>0.83</v>
@@ -37646,7 +37646,7 @@
         <v>1</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU183" t="n">
         <v>1.69</v>
@@ -37846,7 +37846,7 @@
         <v>2</v>
       </c>
       <c r="AS184" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT184" t="n">
         <v>1.8</v>
@@ -38252,10 +38252,10 @@
         <v>0.8</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU186" t="n">
         <v>1.3</v>
@@ -38458,7 +38458,7 @@
         <v>1</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU187" t="n">
         <v>1.43</v>
@@ -38661,7 +38661,7 @@
         <v>2.71</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU188" t="n">
         <v>1.31</v>
@@ -39064,10 +39064,10 @@
         <v>0.8</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU190" t="n">
         <v>1.57</v>
@@ -39470,7 +39470,7 @@
         <v>1.2</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT192" t="n">
         <v>1</v>
@@ -39673,10 +39673,10 @@
         <v>0.8</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU193" t="n">
         <v>1.28</v>
@@ -39876,10 +39876,10 @@
         <v>0.8</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU194" t="n">
         <v>1.46</v>
@@ -40079,7 +40079,7 @@
         <v>0</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT195" t="n">
         <v>0</v>
@@ -40282,7 +40282,7 @@
         <v>1</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT196" t="n">
         <v>0.86</v>
@@ -40488,7 +40488,7 @@
         <v>1.6</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU197" t="n">
         <v>1.46</v>
@@ -40688,10 +40688,10 @@
         <v>2.2</v>
       </c>
       <c r="AS198" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT198" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU198" t="n">
         <v>1.87</v>
@@ -42112,7 +42112,7 @@
         <v>1.17</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU205" t="n">
         <v>1.3</v>
@@ -45615,6 +45615,2442 @@
       </c>
       <c r="BK222" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5067961</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45046.625</v>
+      </c>
+      <c r="F223" t="n">
+        <v>12</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="n">
+        <v>2</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>2</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['9', '90+3']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>2</v>
+      </c>
+      <c r="R223" t="n">
+        <v>13</v>
+      </c>
+      <c r="S223" t="n">
+        <v>15</v>
+      </c>
+      <c r="T223" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V223" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X223" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5067983</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45046.64583333334</v>
+      </c>
+      <c r="F224" t="n">
+        <v>14</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Flandria</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="n">
+        <v>4</v>
+      </c>
+      <c r="N224" t="n">
+        <v>5</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['37', '56', '69', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>2</v>
+      </c>
+      <c r="R224" t="n">
+        <v>3</v>
+      </c>
+      <c r="S224" t="n">
+        <v>5</v>
+      </c>
+      <c r="T224" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V224" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X224" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5067989</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45046.65625</v>
+      </c>
+      <c r="F225" t="n">
+        <v>14</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Almirante Brown</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Defensores de Belgrano</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>2</v>
+      </c>
+      <c r="R225" t="n">
+        <v>2</v>
+      </c>
+      <c r="S225" t="n">
+        <v>4</v>
+      </c>
+      <c r="T225" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U225" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V225" t="n">
+        <v>5</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X225" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5067985</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45046.66666666666</v>
+      </c>
+      <c r="F226" t="n">
+        <v>14</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>San Martín Tucumán</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>3</v>
+      </c>
+      <c r="R226" t="n">
+        <v>5</v>
+      </c>
+      <c r="S226" t="n">
+        <v>8</v>
+      </c>
+      <c r="T226" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U226" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V226" t="n">
+        <v>4</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X226" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>5067984</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45046.66666666666</v>
+      </c>
+      <c r="F227" t="n">
+        <v>14</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Alvarado</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Temperley</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>4</v>
+      </c>
+      <c r="R227" t="n">
+        <v>2</v>
+      </c>
+      <c r="S227" t="n">
+        <v>6</v>
+      </c>
+      <c r="T227" t="n">
+        <v>4</v>
+      </c>
+      <c r="U227" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V227" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>5067962</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45046.66666666666</v>
+      </c>
+      <c r="F228" t="n">
+        <v>12</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Racing Córdoba</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="n">
+        <v>2</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>4</v>
+      </c>
+      <c r="R228" t="n">
+        <v>5</v>
+      </c>
+      <c r="S228" t="n">
+        <v>9</v>
+      </c>
+      <c r="T228" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U228" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V228" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X228" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>5067988</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45046.69444444445</v>
+      </c>
+      <c r="F229" t="n">
+        <v>14</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Deportivo Morón</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Estudiantes Río Cuarto</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>2</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['15', '90+4']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>5</v>
+      </c>
+      <c r="R229" t="n">
+        <v>1</v>
+      </c>
+      <c r="S229" t="n">
+        <v>6</v>
+      </c>
+      <c r="T229" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>5067987</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45046.70833333334</v>
+      </c>
+      <c r="F230" t="n">
+        <v>14</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Club Atlético Güemes</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>All Boys</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="n">
+        <v>2</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>6</v>
+      </c>
+      <c r="R230" t="n">
+        <v>3</v>
+      </c>
+      <c r="S230" t="n">
+        <v>9</v>
+      </c>
+      <c r="T230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U230" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>5067982</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45046.70833333334</v>
+      </c>
+      <c r="F231" t="n">
+        <v>14</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>San Martín San Juan</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="n">
+        <v>3</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>3</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['30', '66', '87']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>5</v>
+      </c>
+      <c r="R231" t="n">
+        <v>7</v>
+      </c>
+      <c r="S231" t="n">
+        <v>12</v>
+      </c>
+      <c r="T231" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U231" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V231" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>5067986</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45046.75</v>
+      </c>
+      <c r="F232" t="n">
+        <v>14</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Patronato</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>8</v>
+      </c>
+      <c r="R232" t="n">
+        <v>2</v>
+      </c>
+      <c r="S232" t="n">
+        <v>10</v>
+      </c>
+      <c r="T232" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V232" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>5067955</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45046.83333333334</v>
+      </c>
+      <c r="F233" t="n">
+        <v>12</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Atlético Rafaela</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Villa Dálmine</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>11</v>
+      </c>
+      <c r="R233" t="n">
+        <v>1</v>
+      </c>
+      <c r="S233" t="n">
+        <v>12</v>
+      </c>
+      <c r="T233" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V233" t="n">
+        <v>6</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X233" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>5067960</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45046.84375</v>
+      </c>
+      <c r="F234" t="n">
+        <v>12</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Ferro Carril Oeste</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Chacarita Juniors</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>5</v>
+      </c>
+      <c r="R234" t="n">
+        <v>5</v>
+      </c>
+      <c r="S234" t="n">
+        <v>10</v>
+      </c>
+      <c r="T234" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U234" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V234" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X234" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -37705,7 +37705,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>5067953</v>
+        <v>5067920</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -37721,90 +37721,90 @@
         <v>45031.64583333334</v>
       </c>
       <c r="F184" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Deportivo Morón</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Villa Dálmine</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
       </c>
       <c r="K184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L184" t="n">
         <v>2</v>
       </c>
       <c r="M184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N184" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>['45+3', '61']</t>
+          <t>['3', '36']</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>['58', '80']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R184" t="n">
         <v>3</v>
       </c>
       <c r="S184" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T184" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U184" t="n">
         <v>1.95</v>
       </c>
       <c r="V184" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="W184" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X184" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y184" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="Z184" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AA184" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AB184" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC184" t="n">
-        <v>2.8</v>
+        <v>2.16</v>
       </c>
       <c r="AD184" t="n">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="AE184" t="n">
-        <v>2.35</v>
+        <v>3.56</v>
       </c>
       <c r="AF184" t="n">
         <v>1.09</v>
@@ -37813,73 +37813,73 @@
         <v>6.5</v>
       </c>
       <c r="AH184" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AI184" t="n">
         <v>2.5</v>
       </c>
       <c r="AJ184" t="n">
-        <v>2.41</v>
+        <v>2.37</v>
       </c>
       <c r="AK184" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AL184" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AM184" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AN184" t="n">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="AO184" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AR184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.29</v>
+        <v>1.71</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AU184" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="AV184" t="n">
-        <v>0.83</v>
+        <v>1.16</v>
       </c>
       <c r="AW184" t="n">
-        <v>2.16</v>
+        <v>2.64</v>
       </c>
       <c r="AX184" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AY184" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AZ184" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="BA184" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="BB184" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="BC184" t="n">
-        <v>2.21</v>
+        <v>2.5</v>
       </c>
       <c r="BD184" t="n">
-        <v>2.98</v>
+        <v>3.9</v>
       </c>
       <c r="BE184" t="n">
         <v>0</v>
@@ -37888,19 +37888,19 @@
         <v>3</v>
       </c>
       <c r="BG184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BI184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ184" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BK184" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -37908,7 +37908,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>5067920</v>
+        <v>5067948</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -37924,23 +37924,23 @@
         <v>45031.64583333334</v>
       </c>
       <c r="F185" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Villa Dálmine</t>
+          <t>San Martín Tucumán</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K185" t="n">
         <v>2</v>
@@ -37949,161 +37949,161 @@
         <v>2</v>
       </c>
       <c r="M185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>['3', '36']</t>
+          <t>['37', '75']</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['18']</t>
         </is>
       </c>
       <c r="Q185" t="n">
+        <v>5</v>
+      </c>
+      <c r="R185" t="n">
+        <v>1</v>
+      </c>
+      <c r="S185" t="n">
         <v>6</v>
       </c>
-      <c r="R185" t="n">
-        <v>3</v>
-      </c>
-      <c r="S185" t="n">
-        <v>9</v>
-      </c>
       <c r="T185" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U185" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V185" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="W185" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="X185" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Y185" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="Z185" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AA185" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="AB185" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC185" t="n">
-        <v>2.16</v>
+        <v>2.65</v>
       </c>
       <c r="AD185" t="n">
-        <v>3.22</v>
+        <v>3.02</v>
       </c>
       <c r="AE185" t="n">
-        <v>3.56</v>
+        <v>2.86</v>
       </c>
       <c r="AF185" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AG185" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH185" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP185" t="n">
         <v>1.47</v>
-      </c>
-      <c r="AI185" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AJ185" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AK185" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AL185" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM185" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AN185" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AO185" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP185" t="n">
-        <v>1.65</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.6</v>
       </c>
       <c r="AR185" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AT185" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AU185" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AV185" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="AW185" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="AX185" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AY185" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AZ185" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BA185" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="BB185" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="BC185" t="n">
-        <v>2.5</v>
+        <v>2.03</v>
       </c>
       <c r="BD185" t="n">
-        <v>3.9</v>
+        <v>2.62</v>
       </c>
       <c r="BE185" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="BF185" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG185" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH185" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BI185" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ185" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BK185" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186">
@@ -38111,7 +38111,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>5067948</v>
+        <v>5067953</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -38131,182 +38131,182 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Deportivo Morón</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>San Martín Tucumán</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="I186" t="n">
         <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L186" t="n">
         <v>2</v>
       </c>
       <c r="M186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N186" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>['37', '75']</t>
+          <t>['45+3', '61']</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>['18']</t>
+          <t>['58', '80']</t>
         </is>
       </c>
       <c r="Q186" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S186" t="n">
         <v>6</v>
       </c>
       <c r="T186" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U186" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V186" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="W186" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="X186" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Y186" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="Z186" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AA186" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB186" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC186" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AD186" t="n">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="AE186" t="n">
-        <v>2.86</v>
+        <v>2.35</v>
       </c>
       <c r="AF186" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AG186" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ186" t="n">
         <v>6</v>
       </c>
-      <c r="AH186" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AI186" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AJ186" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AK186" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AL186" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM186" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AN186" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO186" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AP186" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AQ186" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AR186" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AS186" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AT186" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AU186" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AV186" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AW186" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AX186" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AY186" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AZ186" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BA186" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BB186" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BC186" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="BD186" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="BE186" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="BF186" t="n">
+      <c r="BK186" t="n">
         <v>5</v>
-      </c>
-      <c r="BG186" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH186" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI186" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ186" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK186" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="187">
@@ -38517,7 +38517,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>5067946</v>
+        <v>5067919</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -38533,186 +38533,186 @@
         <v>45032.64583333334</v>
       </c>
       <c r="F188" t="n">
+        <v>10</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Estudiantes Caseros</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>3</v>
+      </c>
+      <c r="N188" t="n">
+        <v>3</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['25', '60', '77']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
         <v>12</v>
       </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>Defensores Unidos</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
-      <c r="J188" t="n">
-        <v>0</v>
-      </c>
-      <c r="K188" t="n">
-        <v>1</v>
-      </c>
-      <c r="L188" t="n">
-        <v>3</v>
-      </c>
-      <c r="M188" t="n">
-        <v>2</v>
-      </c>
-      <c r="N188" t="n">
+      <c r="R188" t="n">
+        <v>2</v>
+      </c>
+      <c r="S188" t="n">
+        <v>14</v>
+      </c>
+      <c r="T188" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V188" t="n">
         <v>5</v>
       </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>['29', '64', '68']</t>
-        </is>
-      </c>
-      <c r="P188" t="inlineStr">
-        <is>
-          <t>['84', '85']</t>
-        </is>
-      </c>
-      <c r="Q188" t="n">
-        <v>0</v>
-      </c>
-      <c r="R188" t="n">
-        <v>2</v>
-      </c>
-      <c r="S188" t="n">
-        <v>2</v>
-      </c>
-      <c r="T188" t="n">
+      <c r="W188" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ188" t="n">
         <v>2.5</v>
       </c>
-      <c r="U188" t="n">
-        <v>2</v>
-      </c>
-      <c r="V188" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W188" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X188" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Y188" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Z188" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA188" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB188" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC188" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AD188" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE188" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF188" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG188" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH188" t="n">
+      <c r="AK188" t="n">
         <v>1.5</v>
       </c>
-      <c r="AI188" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AJ188" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AK188" t="n">
-        <v>1.49</v>
-      </c>
       <c r="AL188" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AM188" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="AN188" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AO188" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AQ188" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="AR188" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.71</v>
+        <v>1.14</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.57</v>
+        <v>1.4</v>
       </c>
       <c r="AU188" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AV188" t="n">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="AW188" t="n">
-        <v>2.54</v>
+        <v>2.92</v>
       </c>
       <c r="AX188" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AY188" t="n">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AZ188" t="n">
-        <v>2.98</v>
+        <v>2.93</v>
       </c>
       <c r="BA188" t="n">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="BB188" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="BC188" t="n">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="BD188" t="n">
-        <v>2.49</v>
+        <v>3.2</v>
       </c>
       <c r="BE188" t="n">
-        <v>3.34</v>
+        <v>4.7</v>
       </c>
       <c r="BF188" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG188" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH188" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BI188" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BJ188" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK188" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189">
@@ -38720,7 +38720,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>5067919</v>
+        <v>5067952</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -38736,35 +38736,35 @@
         <v>45032.64583333334</v>
       </c>
       <c r="F189" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Estudiantes Caseros</t>
+          <t>Club Atlético Güemes</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Defensores de Belgrano</t>
         </is>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>0</v>
       </c>
       <c r="M189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -38773,149 +38773,149 @@
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>['25', '60', '77']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R189" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S189" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T189" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="U189" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V189" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="W189" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X189" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="Y189" t="n">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="Z189" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AA189" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB189" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC189" t="n">
-        <v>1.85</v>
+        <v>2.24</v>
       </c>
       <c r="AD189" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="AE189" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="AF189" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AG189" t="n">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="AH189" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AI189" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AJ189" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="AK189" t="n">
         <v>1.5</v>
       </c>
       <c r="AL189" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="AM189" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AN189" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="AO189" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AR189" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AS189" t="n">
         <v>1.14</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.4</v>
+        <v>0.86</v>
       </c>
       <c r="AU189" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AV189" t="n">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="AW189" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="AX189" t="n">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AY189" t="n">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AZ189" t="n">
-        <v>2.93</v>
+        <v>2.35</v>
       </c>
       <c r="BA189" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="BB189" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="BC189" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="BD189" t="n">
-        <v>3.2</v>
+        <v>2.91</v>
       </c>
       <c r="BE189" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="BF189" t="n">
         <v>3</v>
       </c>
       <c r="BG189" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH189" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BI189" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BJ189" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BK189" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190">
@@ -38923,7 +38923,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>5067952</v>
+        <v>5067946</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -38943,182 +38943,182 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Club Atlético Güemes</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Defensores de Belgrano</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N190" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['29', '64', '68']</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['84', '85']</t>
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R190" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S190" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T190" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U190" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V190" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="W190" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X190" t="n">
         <v>2.3</v>
       </c>
       <c r="Y190" t="n">
-        <v>3.48</v>
+        <v>3.6</v>
       </c>
       <c r="Z190" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AA190" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AB190" t="n">
         <v>1.04</v>
       </c>
       <c r="AC190" t="n">
-        <v>2.24</v>
+        <v>1.75</v>
       </c>
       <c r="AD190" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AE190" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="AF190" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AG190" t="n">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="AH190" t="n">
         <v>1.5</v>
       </c>
       <c r="AI190" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AJ190" t="n">
-        <v>2.35</v>
+        <v>2.46</v>
       </c>
       <c r="AK190" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AL190" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="AM190" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="AN190" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="AO190" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="AR190" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.14</v>
+        <v>2.71</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="AU190" t="n">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="AV190" t="n">
         <v>1.23</v>
       </c>
       <c r="AW190" t="n">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="AX190" t="n">
-        <v>1.82</v>
+        <v>1.54</v>
       </c>
       <c r="AY190" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ190" t="n">
-        <v>2.35</v>
+        <v>2.98</v>
       </c>
       <c r="BA190" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="BB190" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="BC190" t="n">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="BD190" t="n">
-        <v>2.91</v>
+        <v>2.49</v>
       </c>
       <c r="BE190" t="n">
-        <v>4</v>
+        <v>3.34</v>
       </c>
       <c r="BF190" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG190" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH190" t="n">
         <v>3</v>
       </c>
       <c r="BI190" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BJ190" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK190" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -39329,7 +39329,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>5067949</v>
+        <v>5067950</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -39349,12 +39349,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="I192" t="n">
@@ -39367,17 +39367,17 @@
         <v>0</v>
       </c>
       <c r="L192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M192" t="n">
         <v>0</v>
       </c>
       <c r="N192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>['58']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -39386,145 +39386,145 @@
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R192" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S192" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T192" t="n">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="U192" t="n">
+        <v>2</v>
+      </c>
+      <c r="V192" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC192" t="n">
         <v>1.91</v>
       </c>
-      <c r="V192" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W192" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X192" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Y192" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="Z192" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA192" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AB192" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC192" t="n">
-        <v>2.62</v>
-      </c>
       <c r="AD192" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AE192" t="n">
-        <v>2.62</v>
+        <v>3.9</v>
       </c>
       <c r="AF192" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AG192" t="n">
-        <v>5.65</v>
+        <v>8.1</v>
       </c>
       <c r="AH192" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AI192" t="n">
-        <v>2.15</v>
+        <v>2.48</v>
       </c>
       <c r="AJ192" t="n">
-        <v>2.59</v>
+        <v>2.35</v>
       </c>
       <c r="AK192" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AL192" t="n">
-        <v>2.29</v>
+        <v>2.05</v>
       </c>
       <c r="AM192" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="AN192" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AO192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ192" t="n">
         <v>1.4</v>
       </c>
-      <c r="AP192" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AQ192" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AR192" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AS192" t="n">
         <v>1.57</v>
       </c>
       <c r="AT192" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU192" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="AV192" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="AW192" t="n">
-        <v>2.27</v>
+        <v>2.47</v>
       </c>
       <c r="AX192" t="n">
-        <v>1.89</v>
+        <v>1.51</v>
       </c>
       <c r="AY192" t="n">
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
       <c r="AZ192" t="n">
-        <v>2.24</v>
+        <v>3.08</v>
       </c>
       <c r="BA192" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="BB192" t="n">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="BC192" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="BD192" t="n">
-        <v>2.93</v>
+        <v>2.35</v>
       </c>
       <c r="BE192" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="BF192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BG192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH192" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BI192" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BJ192" t="n">
         <v>8</v>
       </c>
       <c r="BK192" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -39532,7 +39532,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>5067950</v>
+        <v>5067949</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -39552,12 +39552,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I193" t="n">
@@ -39570,164 +39570,164 @@
         <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M193" t="n">
         <v>0</v>
       </c>
       <c r="N193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P193" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q193" t="n">
+        <v>2</v>
+      </c>
+      <c r="R193" t="n">
         <v>6</v>
       </c>
-      <c r="R193" t="n">
-        <v>1</v>
-      </c>
       <c r="S193" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T193" t="n">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="U193" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V193" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="W193" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="X193" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="Y193" t="n">
-        <v>3.4</v>
+        <v>4.05</v>
       </c>
       <c r="Z193" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AA193" t="n">
-        <v>9.300000000000001</v>
+        <v>11.75</v>
       </c>
       <c r="AB193" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AC193" t="n">
-        <v>1.91</v>
+        <v>2.62</v>
       </c>
       <c r="AD193" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AE193" t="n">
-        <v>3.9</v>
+        <v>2.62</v>
       </c>
       <c r="AF193" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AG193" t="n">
-        <v>8.1</v>
+        <v>5.65</v>
       </c>
       <c r="AH193" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AI193" t="n">
-        <v>2.48</v>
+        <v>2.15</v>
       </c>
       <c r="AJ193" t="n">
-        <v>2.35</v>
+        <v>2.59</v>
       </c>
       <c r="AK193" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AL193" t="n">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="AM193" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="AN193" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AO193" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AR193" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AS193" t="n">
         <v>1.57</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU193" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="AV193" t="n">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="AW193" t="n">
-        <v>2.47</v>
+        <v>2.27</v>
       </c>
       <c r="AX193" t="n">
-        <v>1.51</v>
+        <v>1.89</v>
       </c>
       <c r="AY193" t="n">
-        <v>9.4</v>
+        <v>8.5</v>
       </c>
       <c r="AZ193" t="n">
-        <v>3.08</v>
+        <v>2.24</v>
       </c>
       <c r="BA193" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="BB193" t="n">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="BC193" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="BD193" t="n">
-        <v>2.35</v>
+        <v>2.93</v>
       </c>
       <c r="BE193" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="BF193" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BG193" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH193" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BI193" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BJ193" t="n">
         <v>8</v>
       </c>
       <c r="BK193" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194">
@@ -40953,7 +40953,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>5067944</v>
+        <v>5067966</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -40969,186 +40969,186 @@
         <v>45038.64583333334</v>
       </c>
       <c r="F200" t="n">
+        <v>13</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2</v>
+      </c>
+      <c r="M200" t="n">
+        <v>2</v>
+      </c>
+      <c r="N200" t="n">
+        <v>4</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['64', '82']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['55', '74']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>3</v>
+      </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
+      <c r="S200" t="n">
+        <v>3</v>
+      </c>
+      <c r="T200" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V200" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK200" t="n">
         <v>11</v>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>Deportivo Madryn</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>Atlético Rafaela</t>
-        </is>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>1</v>
-      </c>
-      <c r="K200" t="n">
-        <v>1</v>
-      </c>
-      <c r="L200" t="n">
-        <v>0</v>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="n">
-        <v>1</v>
-      </c>
-      <c r="O200" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P200" t="inlineStr">
-        <is>
-          <t>['8']</t>
-        </is>
-      </c>
-      <c r="Q200" t="n">
-        <v>11</v>
-      </c>
-      <c r="R200" t="n">
-        <v>3</v>
-      </c>
-      <c r="S200" t="n">
-        <v>14</v>
-      </c>
-      <c r="T200" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U200" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V200" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W200" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="X200" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Y200" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Z200" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA200" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB200" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC200" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AD200" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE200" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AF200" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG200" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AH200" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AI200" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AJ200" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AK200" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL200" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM200" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN200" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AO200" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP200" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AQ200" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR200" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AS200" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AT200" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AU200" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AV200" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AW200" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AX200" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY200" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ200" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA200" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB200" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC200" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD200" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE200" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF200" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG200" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH200" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI200" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ200" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK200" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="201">
@@ -41359,7 +41359,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>5067966</v>
+        <v>5067944</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -41375,186 +41375,186 @@
         <v>45038.64583333334</v>
       </c>
       <c r="F202" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Atlético Rafaela</t>
         </is>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N202" t="n">
+        <v>1</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>11</v>
+      </c>
+      <c r="R202" t="n">
+        <v>3</v>
+      </c>
+      <c r="S202" t="n">
+        <v>14</v>
+      </c>
+      <c r="T202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U202" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V202" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH202" t="n">
         <v>4</v>
       </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>['64', '82']</t>
-        </is>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>['55', '74']</t>
-        </is>
-      </c>
-      <c r="Q202" t="n">
-        <v>3</v>
-      </c>
-      <c r="R202" t="n">
-        <v>0</v>
-      </c>
-      <c r="S202" t="n">
-        <v>3</v>
-      </c>
-      <c r="T202" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U202" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V202" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W202" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X202" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Y202" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Z202" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AA202" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AB202" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC202" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AD202" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE202" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AF202" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AG202" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AH202" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI202" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AJ202" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AK202" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AL202" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM202" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN202" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AO202" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP202" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AQ202" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR202" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AS202" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AT202" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AU202" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AV202" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AW202" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AX202" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AY202" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AZ202" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BA202" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="BB202" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="BC202" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BD202" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="BE202" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BF202" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG202" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH202" t="n">
-        <v>6</v>
-      </c>
       <c r="BI202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ202" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK202" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
@@ -42374,7 +42374,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>5067937</v>
+        <v>5067969</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -42390,186 +42390,186 @@
         <v>45039.64583333334</v>
       </c>
       <c r="F207" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Tristán Suárez</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>San Martín San Juan</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="n">
         <v>2</v>
       </c>
       <c r="K207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M207" t="n">
         <v>2</v>
       </c>
       <c r="N207" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>['45', '74', '90']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>['31', '34']</t>
+          <t>['5', '34']</t>
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R207" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S207" t="n">
         <v>8</v>
       </c>
       <c r="T207" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="U207" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="V207" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="W207" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X207" t="n">
-        <v>2.49</v>
+        <v>2.53</v>
       </c>
       <c r="Y207" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z207" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AA207" t="n">
-        <v>8.75</v>
+        <v>8.4</v>
       </c>
       <c r="AB207" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC207" t="n">
-        <v>2.51</v>
+        <v>3.02</v>
       </c>
       <c r="AD207" t="n">
-        <v>2.76</v>
+        <v>3.02</v>
       </c>
       <c r="AE207" t="n">
-        <v>2.51</v>
+        <v>2.01</v>
       </c>
       <c r="AF207" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AG207" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="AH207" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="AI207" t="n">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="AJ207" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AK207" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AL207" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AM207" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN207" t="n">
         <v>1.6</v>
       </c>
-      <c r="AN207" t="n">
+      <c r="AO207" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ207" t="n">
         <v>1.4</v>
       </c>
-      <c r="AO207" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP207" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AQ207" t="n">
-        <v>0.75</v>
-      </c>
       <c r="AR207" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU207" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="AV207" t="n">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="AW207" t="n">
-        <v>3.62</v>
+        <v>3.17</v>
       </c>
       <c r="AX207" t="n">
-        <v>1.8</v>
+        <v>2.26</v>
       </c>
       <c r="AY207" t="n">
-        <v>8.9</v>
+        <v>8</v>
       </c>
       <c r="AZ207" t="n">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="BA207" t="n">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="BB207" t="n">
-        <v>1.56</v>
+        <v>1.87</v>
       </c>
       <c r="BC207" t="n">
-        <v>1.92</v>
+        <v>2.34</v>
       </c>
       <c r="BD207" t="n">
-        <v>2.39</v>
+        <v>3.65</v>
       </c>
       <c r="BE207" t="n">
-        <v>3.28</v>
+        <v>5.7</v>
       </c>
       <c r="BF207" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG207" t="n">
         <v>5</v>
       </c>
       <c r="BH207" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI207" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ207" t="n">
         <v>10</v>
       </c>
       <c r="BK207" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208">
@@ -42577,7 +42577,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>5067970</v>
+        <v>5067937</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -42593,87 +42593,87 @@
         <v>45039.64583333334</v>
       </c>
       <c r="F208" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Racing Córdoba</t>
         </is>
       </c>
       <c r="I208" t="n">
         <v>1</v>
       </c>
       <c r="J208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K208" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L208" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N208" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>['45', '74', '90']</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['31', '34']</t>
         </is>
       </c>
       <c r="Q208" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R208" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S208" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T208" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="U208" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V208" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="W208" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X208" t="n">
-        <v>2.35</v>
+        <v>2.49</v>
       </c>
       <c r="Y208" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Z208" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AA208" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AB208" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC208" t="n">
-        <v>2.63</v>
+        <v>2.51</v>
       </c>
       <c r="AD208" t="n">
-        <v>2.63</v>
+        <v>2.76</v>
       </c>
       <c r="AE208" t="n">
         <v>2.51</v>
@@ -42682,97 +42682,97 @@
         <v>1.1</v>
       </c>
       <c r="AG208" t="n">
-        <v>6.25</v>
+        <v>6.8</v>
       </c>
       <c r="AH208" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AI208" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="AJ208" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AK208" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="AL208" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AM208" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="AN208" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AO208" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.4</v>
+        <v>0.75</v>
       </c>
       <c r="AR208" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="AU208" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="AV208" t="n">
-        <v>1.14</v>
+        <v>1.42</v>
       </c>
       <c r="AW208" t="n">
-        <v>2.44</v>
+        <v>3.62</v>
       </c>
       <c r="AX208" t="n">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="AY208" t="n">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="AZ208" t="n">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="BA208" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="BB208" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="BC208" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="BD208" t="n">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="BE208" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="BF208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG208" t="n">
         <v>5</v>
       </c>
-      <c r="BG208" t="n">
-        <v>2</v>
-      </c>
       <c r="BH208" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI208" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ208" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK208" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209">
@@ -42780,7 +42780,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>5067969</v>
+        <v>5067970</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -42800,182 +42800,182 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>San Martín San Juan</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P209" t="inlineStr">
-        <is>
-          <t>['5', '34']</t>
-        </is>
-      </c>
       <c r="Q209" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R209" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S209" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T209" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U209" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V209" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="W209" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X209" t="n">
-        <v>2.53</v>
+        <v>2.35</v>
       </c>
       <c r="Y209" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Z209" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AA209" t="n">
-        <v>8.4</v>
+        <v>9.75</v>
       </c>
       <c r="AB209" t="n">
         <v>1.05</v>
       </c>
       <c r="AC209" t="n">
-        <v>3.02</v>
+        <v>2.63</v>
       </c>
       <c r="AD209" t="n">
-        <v>3.02</v>
+        <v>2.63</v>
       </c>
       <c r="AE209" t="n">
-        <v>2.01</v>
+        <v>2.51</v>
       </c>
       <c r="AF209" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AG209" t="n">
-        <v>6.3</v>
+        <v>6.25</v>
       </c>
       <c r="AH209" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AI209" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="AJ209" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AK209" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AL209" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="AM209" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="AN209" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AO209" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.4</v>
       </c>
       <c r="AR209" t="n">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.57</v>
+        <v>0.57</v>
       </c>
       <c r="AU209" t="n">
-        <v>1.98</v>
+        <v>1.3</v>
       </c>
       <c r="AV209" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AW209" t="n">
-        <v>3.17</v>
+        <v>2.44</v>
       </c>
       <c r="AX209" t="n">
-        <v>2.26</v>
+        <v>1.51</v>
       </c>
       <c r="AY209" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ209" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="BA209" t="n">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="BB209" t="n">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="BC209" t="n">
-        <v>2.34</v>
+        <v>1.99</v>
       </c>
       <c r="BD209" t="n">
-        <v>3.65</v>
+        <v>2.5</v>
       </c>
       <c r="BE209" t="n">
-        <v>5.7</v>
+        <v>3.48</v>
       </c>
       <c r="BF209" t="n">
         <v>5</v>
       </c>
       <c r="BG209" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH209" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI209" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ209" t="n">
         <v>8</v>
       </c>
-      <c r="BJ209" t="n">
-        <v>10</v>
-      </c>
       <c r="BK209" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210">
@@ -42983,7 +42983,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>5067939</v>
+        <v>5067942</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -43003,182 +43003,182 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Club Atlético Mitre</t>
+          <t>Deportivo Maipú</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Ferro Carril Oeste</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P210" t="inlineStr">
-        <is>
-          <t>['3', '74']</t>
-        </is>
-      </c>
       <c r="Q210" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R210" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S210" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T210" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="U210" t="n">
         <v>1.91</v>
       </c>
       <c r="V210" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="W210" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X210" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y210" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Z210" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AA210" t="n">
         <v>10</v>
       </c>
       <c r="AB210" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC210" t="n">
-        <v>2.11</v>
+        <v>1.93</v>
       </c>
       <c r="AD210" t="n">
-        <v>2.61</v>
+        <v>2.77</v>
       </c>
       <c r="AE210" t="n">
-        <v>3.3</v>
+        <v>3.56</v>
       </c>
       <c r="AF210" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AG210" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="AH210" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AI210" t="n">
         <v>2.48</v>
       </c>
       <c r="AJ210" t="n">
-        <v>2.48</v>
+        <v>2.43</v>
       </c>
       <c r="AK210" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="AL210" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AM210" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP210" t="n">
         <v>1.65</v>
       </c>
-      <c r="AN210" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AO210" t="n">
+      <c r="AQ210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BA210" t="n">
         <v>1.4</v>
       </c>
-      <c r="AP210" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AQ210" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AR210" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS210" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AT210" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AU210" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AV210" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AW210" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AX210" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AY210" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AZ210" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="BA210" t="n">
-        <v>1.53</v>
-      </c>
       <c r="BB210" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="BC210" t="n">
-        <v>2.65</v>
+        <v>2.28</v>
       </c>
       <c r="BD210" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="BE210" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="BF210" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG210" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH210" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BI210" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BJ210" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BK210" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211">
@@ -43186,7 +43186,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>5067942</v>
+        <v>5067939</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -43206,182 +43206,182 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>Club Atlético Mitre</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Ferro Carril Oeste</t>
         </is>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>['73']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['3', '74']</t>
         </is>
       </c>
       <c r="Q211" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R211" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S211" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T211" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="U211" t="n">
         <v>1.91</v>
       </c>
       <c r="V211" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="W211" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X211" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y211" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Z211" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AA211" t="n">
         <v>10</v>
       </c>
       <c r="AB211" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC211" t="n">
-        <v>1.93</v>
+        <v>2.11</v>
       </c>
       <c r="AD211" t="n">
-        <v>2.77</v>
+        <v>2.61</v>
       </c>
       <c r="AE211" t="n">
-        <v>3.56</v>
+        <v>3.3</v>
       </c>
       <c r="AF211" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AG211" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="AH211" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AI211" t="n">
         <v>2.48</v>
       </c>
       <c r="AJ211" t="n">
-        <v>2.43</v>
+        <v>2.48</v>
       </c>
       <c r="AK211" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AL211" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AM211" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AN211" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AO211" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AQ211" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR211" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.17</v>
+        <v>1.4</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU211" t="n">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="AV211" t="n">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="AW211" t="n">
-        <v>2.85</v>
+        <v>2.69</v>
       </c>
       <c r="AX211" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="AY211" t="n">
-        <v>8.300000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="AZ211" t="n">
-        <v>3.22</v>
+        <v>2.77</v>
       </c>
       <c r="BA211" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="BB211" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="BC211" t="n">
-        <v>2.28</v>
+        <v>2.65</v>
       </c>
       <c r="BD211" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="BE211" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="BF211" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG211" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH211" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BI211" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BJ211" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BK211" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212">
@@ -44810,7 +44810,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>5067981</v>
+        <v>5067954</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -44826,183 +44826,183 @@
         <v>45045.64583333334</v>
       </c>
       <c r="F219" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I219" t="n">
         <v>1</v>
       </c>
       <c r="J219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L219" t="n">
         <v>2</v>
       </c>
       <c r="M219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N219" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>['33', '51']</t>
+          <t>['11', '57']</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['36']</t>
         </is>
       </c>
       <c r="Q219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R219" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S219" t="n">
+        <v>7</v>
+      </c>
+      <c r="T219" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U219" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V219" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG219" t="n">
         <v>6</v>
       </c>
-      <c r="T219" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U219" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V219" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W219" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X219" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Y219" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Z219" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AA219" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB219" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC219" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AD219" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AE219" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AF219" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG219" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AH219" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AI219" t="n">
         <v>2.45</v>
       </c>
       <c r="AJ219" t="n">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="AK219" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AL219" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AM219" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="AN219" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AO219" t="n">
         <v>1.35</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="AQ219" t="n">
-        <v>2.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR219" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.71</v>
+        <v>1.14</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.29</v>
+        <v>0.83</v>
       </c>
       <c r="AU219" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="AV219" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AW219" t="n">
-        <v>2.41</v>
+        <v>2.62</v>
       </c>
       <c r="AX219" t="n">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="AY219" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ219" t="n">
-        <v>2.26</v>
+        <v>2.78</v>
       </c>
       <c r="BA219" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="BB219" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="BC219" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="BD219" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="BE219" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="BF219" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG219" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH219" t="n">
         <v>4</v>
       </c>
-      <c r="BH219" t="n">
-        <v>7</v>
-      </c>
       <c r="BI219" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BJ219" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BK219" t="n">
         <v>11</v>
@@ -45013,7 +45013,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>5067954</v>
+        <v>5067981</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -45029,183 +45029,183 @@
         <v>45045.64583333334</v>
       </c>
       <c r="F220" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="I220" t="n">
         <v>1</v>
       </c>
       <c r="J220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L220" t="n">
         <v>2</v>
       </c>
       <c r="M220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>['11', '57']</t>
+          <t>['33', '51']</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>['36']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R220" t="n">
+        <v>3</v>
+      </c>
+      <c r="S220" t="n">
         <v>6</v>
       </c>
-      <c r="S220" t="n">
-        <v>7</v>
-      </c>
       <c r="T220" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="U220" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V220" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="W220" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="X220" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Y220" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="Z220" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AA220" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB220" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC220" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="AD220" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AE220" t="n">
-        <v>3.75</v>
+        <v>2.65</v>
       </c>
       <c r="AF220" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AG220" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH220" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AI220" t="n">
         <v>2.45</v>
       </c>
       <c r="AJ220" t="n">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="AK220" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AL220" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AM220" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AN220" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AO220" t="n">
         <v>1.35</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="AQ220" t="n">
-        <v>0.83</v>
+        <v>2.67</v>
       </c>
       <c r="AR220" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.14</v>
+        <v>2.71</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.83</v>
+        <v>1.29</v>
       </c>
       <c r="AU220" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="AV220" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AW220" t="n">
-        <v>2.62</v>
+        <v>2.41</v>
       </c>
       <c r="AX220" t="n">
-        <v>1.6</v>
+        <v>1.86</v>
       </c>
       <c r="AY220" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ220" t="n">
-        <v>2.78</v>
+        <v>2.26</v>
       </c>
       <c r="BA220" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="BB220" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="BC220" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="BD220" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="BE220" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="BF220" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG220" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BH220" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI220" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ220" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BK220" t="n">
         <v>11</v>
@@ -46231,7 +46231,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>5067985</v>
+        <v>5067962</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -46247,16 +46247,16 @@
         <v>45046.66666666666</v>
       </c>
       <c r="F226" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Racing Córdoba</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>San Martín Tucumán</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="I226" t="n">
@@ -46272,161 +46272,161 @@
         <v>1</v>
       </c>
       <c r="M226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>['86']</t>
+          <t>['85']</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['74']</t>
         </is>
       </c>
       <c r="Q226" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R226" t="n">
         <v>5</v>
       </c>
       <c r="S226" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T226" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="U226" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V226" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W226" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X226" t="n">
         <v>2.2</v>
       </c>
       <c r="Y226" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="Z226" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AA226" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB226" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AC226" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AD226" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AE226" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AF226" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AG226" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH226" t="n">
         <v>1.53</v>
       </c>
       <c r="AI226" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AJ226" t="n">
-        <v>2.77</v>
+        <v>2.48</v>
       </c>
       <c r="AK226" t="n">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
       <c r="AL226" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AM226" t="n">
         <v>1.61</v>
       </c>
       <c r="AN226" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AO226" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="AQ226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR226" t="n">
         <v>1.33</v>
       </c>
-      <c r="AR226" t="n">
-        <v>0.67</v>
-      </c>
       <c r="AS226" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.57</v>
+        <v>1.29</v>
       </c>
       <c r="AU226" t="n">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="AV226" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AW226" t="n">
-        <v>2.37</v>
+        <v>2.86</v>
       </c>
       <c r="AX226" t="n">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="AY226" t="n">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ226" t="n">
-        <v>2.38</v>
+        <v>2.76</v>
       </c>
       <c r="BA226" t="n">
-        <v>1.58</v>
+        <v>1.39</v>
       </c>
       <c r="BB226" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BC226" t="n">
-        <v>2.51</v>
+        <v>2.19</v>
       </c>
       <c r="BD226" t="n">
-        <v>3.64</v>
+        <v>2.93</v>
       </c>
       <c r="BE226" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="BF226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG226" t="n">
         <v>4</v>
       </c>
-      <c r="BG226" t="n">
-        <v>3</v>
-      </c>
       <c r="BH226" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ226" t="n">
         <v>5</v>
       </c>
-      <c r="BI226" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ226" t="n">
-        <v>9</v>
-      </c>
       <c r="BK226" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227">
@@ -46434,7 +46434,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>5067984</v>
+        <v>5067985</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -46454,12 +46454,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>San Martín Tucumán</t>
         </is>
       </c>
       <c r="I227" t="n">
@@ -46472,104 +46472,104 @@
         <v>0</v>
       </c>
       <c r="L227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N227" t="n">
         <v>1</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P227" t="inlineStr">
-        <is>
-          <t>['59']</t>
-        </is>
-      </c>
       <c r="Q227" t="n">
+        <v>3</v>
+      </c>
+      <c r="R227" t="n">
+        <v>5</v>
+      </c>
+      <c r="S227" t="n">
+        <v>8</v>
+      </c>
+      <c r="T227" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U227" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V227" t="n">
         <v>4</v>
       </c>
-      <c r="R227" t="n">
-        <v>2</v>
-      </c>
-      <c r="S227" t="n">
-        <v>6</v>
-      </c>
-      <c r="T227" t="n">
+      <c r="W227" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y227" t="n">
         <v>4</v>
       </c>
-      <c r="U227" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V227" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W227" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X227" t="n">
+      <c r="Z227" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL227" t="n">
         <v>2.25</v>
       </c>
-      <c r="Y227" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Z227" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA227" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB227" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC227" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AD227" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE227" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AF227" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG227" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH227" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI227" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AJ227" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AK227" t="n">
+      <c r="AM227" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO227" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL227" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM227" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN227" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO227" t="n">
-        <v>1.32</v>
-      </c>
       <c r="AP227" t="n">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AR227" t="n">
         <v>0.67</v>
@@ -46578,58 +46578,58 @@
         <v>1.57</v>
       </c>
       <c r="AT227" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AU227" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AV227" t="n">
-        <v>1.37</v>
+        <v>1.11</v>
       </c>
       <c r="AW227" t="n">
-        <v>2.56</v>
+        <v>2.37</v>
       </c>
       <c r="AX227" t="n">
-        <v>2.06</v>
+        <v>1.82</v>
       </c>
       <c r="AY227" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AZ227" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="BA227" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="BB227" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="BC227" t="n">
-        <v>2.29</v>
+        <v>2.51</v>
       </c>
       <c r="BD227" t="n">
-        <v>3.2</v>
+        <v>3.64</v>
       </c>
       <c r="BE227" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="BF227" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG227" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BH227" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI227" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ227" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BK227" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228">
@@ -46637,7 +46637,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>5067962</v>
+        <v>5067984</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -46653,16 +46653,16 @@
         <v>45046.66666666666</v>
       </c>
       <c r="F228" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="I228" t="n">
@@ -46675,164 +46675,164 @@
         <v>0</v>
       </c>
       <c r="L228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
       <c r="N228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>['85']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>['74']</t>
+          <t>['59']</t>
         </is>
       </c>
       <c r="Q228" t="n">
         <v>4</v>
       </c>
       <c r="R228" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S228" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T228" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="U228" t="n">
         <v>1.91</v>
       </c>
       <c r="V228" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="W228" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X228" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y228" t="n">
-        <v>3.7</v>
+        <v>3.74</v>
       </c>
       <c r="Z228" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AA228" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB228" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AC228" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="AD228" t="n">
         <v>2.8</v>
       </c>
       <c r="AE228" t="n">
-        <v>3.3</v>
+        <v>2.35</v>
       </c>
       <c r="AF228" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AG228" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH228" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AI228" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="AJ228" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="AK228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA228" t="n">
         <v>1.49</v>
       </c>
-      <c r="AL228" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AM228" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AN228" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AO228" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AP228" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AQ228" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR228" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS228" t="n">
+      <c r="BB228" t="n">
         <v>1.83</v>
       </c>
-      <c r="AT228" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AU228" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AV228" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AW228" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AX228" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AY228" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AZ228" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="BA228" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="BB228" t="n">
-        <v>1.85</v>
-      </c>
       <c r="BC228" t="n">
-        <v>2.19</v>
+        <v>2.29</v>
       </c>
       <c r="BD228" t="n">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="BE228" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="BF228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG228" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ228" t="n">
         <v>4</v>
       </c>
-      <c r="BH228" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI228" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ228" t="n">
-        <v>5</v>
-      </c>
       <c r="BK228" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229">

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK234"/>
+  <dimension ref="A1:BK236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT19" t="n">
         <v>1.8</v>
@@ -6181,7 +6181,7 @@
         <v>2.33</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -8008,7 +8008,7 @@
         <v>1.57</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU37" t="n">
         <v>1.11</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT51" t="n">
         <v>0.57</v>
@@ -12474,7 +12474,7 @@
         <v>2.71</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU59" t="n">
         <v>1.64</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT67" t="n">
         <v>0.71</v>
@@ -15316,7 +15316,7 @@
         <v>1.14</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU73" t="n">
         <v>1.46</v>
@@ -19173,7 +19173,7 @@
         <v>1.57</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU92" t="n">
         <v>1.03</v>
@@ -20185,7 +20185,7 @@
         <v>0.5</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT97" t="n">
         <v>1</v>
@@ -21406,7 +21406,7 @@
         <v>1.71</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU103" t="n">
         <v>1.52</v>
@@ -22215,7 +22215,7 @@
         <v>0.67</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT107" t="n">
         <v>1.29</v>
@@ -26478,7 +26478,7 @@
         <v>1</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -27090,7 +27090,7 @@
         <v>1.57</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU131" t="n">
         <v>1.56</v>
@@ -28508,7 +28508,7 @@
         <v>1.75</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT138" t="n">
         <v>1.57</v>
@@ -29323,7 +29323,7 @@
         <v>1.71</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU142" t="n">
         <v>2.02</v>
@@ -33180,7 +33180,7 @@
         <v>1.14</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU161" t="n">
         <v>1.58</v>
@@ -33989,7 +33989,7 @@
         <v>1.2</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT165" t="n">
         <v>1.29</v>
@@ -34801,7 +34801,7 @@
         <v>0.75</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT169" t="n">
         <v>0.5</v>
@@ -36428,7 +36428,7 @@
         <v>1.83</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU177" t="n">
         <v>1.34</v>
@@ -42312,7 +42312,7 @@
         <v>1.2</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT206" t="n">
         <v>1.5</v>
@@ -42921,7 +42921,7 @@
         <v>0.67</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT209" t="n">
         <v>0.57</v>
@@ -43939,7 +43939,7 @@
         <v>1.57</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU214" t="n">
         <v>1.36</v>
@@ -44142,7 +44142,7 @@
         <v>2.5</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU215" t="n">
         <v>1.57</v>
@@ -48051,6 +48051,412 @@
       </c>
       <c r="BK234" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>5068005</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45051.64583333334</v>
+      </c>
+      <c r="F235" t="n">
+        <v>15</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Flandria</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>3</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>3</v>
+      </c>
+      <c r="L235" t="n">
+        <v>3</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>4</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['8', '14', '44']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>2</v>
+      </c>
+      <c r="R235" t="n">
+        <v>7</v>
+      </c>
+      <c r="S235" t="n">
+        <v>9</v>
+      </c>
+      <c r="T235" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U235" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V235" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X235" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>5068000</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45051.88194444445</v>
+      </c>
+      <c r="F236" t="n">
+        <v>15</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>All Boys</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Deportivo Morón</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>2</v>
+      </c>
+      <c r="N236" t="n">
+        <v>2</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['71', '87']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>4</v>
+      </c>
+      <c r="R236" t="n">
+        <v>4</v>
+      </c>
+      <c r="S236" t="n">
+        <v>8</v>
+      </c>
+      <c r="T236" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U236" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X236" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK236"/>
+  <dimension ref="A1:BK245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT3" t="n">
         <v>0.57</v>
@@ -1715,7 +1715,7 @@
         <v>1.57</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT11" t="n">
         <v>1.29</v>
@@ -3136,7 +3136,7 @@
         <v>1.71</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.57</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
         <v>0.86</v>
@@ -4151,7 +4151,7 @@
         <v>1.71</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.86</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT20" t="n">
         <v>0.86</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT28" t="n">
         <v>1.14</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU29" t="n">
         <v>1.64</v>
@@ -6790,7 +6790,7 @@
         <v>1.83</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT33" t="n">
         <v>0.57</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT45" t="n">
         <v>0.57</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT47" t="n">
         <v>0.86</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -11256,7 +11256,7 @@
         <v>1.71</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU53" t="n">
         <v>2.08</v>
@@ -11459,7 +11459,7 @@
         <v>2.57</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU54" t="n">
         <v>2.09</v>
@@ -11865,7 +11865,7 @@
         <v>1.71</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU56" t="n">
         <v>1.23</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU58" t="n">
         <v>2.6</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT60" t="n">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU62" t="n">
         <v>1.28</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT63" t="n">
         <v>0.86</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT64" t="n">
         <v>0.86</v>
@@ -13895,7 +13895,7 @@
         <v>1.83</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU66" t="n">
         <v>1.8</v>
@@ -14298,7 +14298,7 @@
         <v>0.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT68" t="n">
         <v>0.57</v>
@@ -14501,7 +14501,7 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT69" t="n">
         <v>1.29</v>
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT70" t="n">
         <v>1.67</v>
@@ -15519,7 +15519,7 @@
         <v>1.29</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU74" t="n">
         <v>1.12</v>
@@ -15722,7 +15722,7 @@
         <v>0.83</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU75" t="n">
         <v>1.63</v>
@@ -16531,7 +16531,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT79" t="n">
         <v>1.29</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU82" t="n">
         <v>1.49</v>
@@ -17346,7 +17346,7 @@
         <v>2</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU83" t="n">
         <v>1.37</v>
@@ -18158,7 +18158,7 @@
         <v>1.57</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU87" t="n">
         <v>0.83</v>
@@ -18361,7 +18361,7 @@
         <v>1.71</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU88" t="n">
         <v>1.14</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT90" t="n">
         <v>0.86</v>
@@ -18970,7 +18970,7 @@
         <v>1.14</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU91" t="n">
         <v>1.36</v>
@@ -19982,10 +19982,10 @@
         <v>1.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU96" t="n">
         <v>1.3</v>
@@ -20388,7 +20388,7 @@
         <v>0</v>
       </c>
       <c r="AS98" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT98" t="n">
         <v>1</v>
@@ -20591,7 +20591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT99" t="n">
         <v>0.57</v>
@@ -20794,7 +20794,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT100" t="n">
         <v>0.86</v>
@@ -21000,7 +21000,7 @@
         <v>0.83</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU101" t="n">
         <v>1.4</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT105" t="n">
         <v>1.29</v>
@@ -22012,7 +22012,7 @@
         <v>0</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT106" t="n">
         <v>0</v>
@@ -22418,7 +22418,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT108" t="n">
         <v>0.86</v>
@@ -22624,7 +22624,7 @@
         <v>2.57</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU109" t="n">
         <v>1.87</v>
@@ -22827,7 +22827,7 @@
         <v>1.57</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU110" t="n">
         <v>1.5</v>
@@ -24042,7 +24042,7 @@
         <v>1</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT116" t="n">
         <v>0.57</v>
@@ -24451,7 +24451,7 @@
         <v>1.29</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU118" t="n">
         <v>1.26</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT120" t="n">
         <v>0.57</v>
@@ -25263,7 +25263,7 @@
         <v>1.14</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU122" t="n">
         <v>1.3</v>
@@ -25466,7 +25466,7 @@
         <v>1</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU123" t="n">
         <v>1.69</v>
@@ -25669,7 +25669,7 @@
         <v>1.57</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU124" t="n">
         <v>1.18</v>
@@ -25869,10 +25869,10 @@
         <v>1.67</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU125" t="n">
         <v>1.58</v>
@@ -26275,7 +26275,7 @@
         <v>1.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT127" t="n">
         <v>1.86</v>
@@ -28102,10 +28102,10 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU136" t="n">
         <v>1.88</v>
@@ -28305,7 +28305,7 @@
         <v>0.75</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT137" t="n">
         <v>0.57</v>
@@ -28511,7 +28511,7 @@
         <v>1</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU138" t="n">
         <v>1.42</v>
@@ -29320,7 +29320,7 @@
         <v>0.67</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT142" t="n">
         <v>0.71</v>
@@ -29729,7 +29729,7 @@
         <v>1.57</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU144" t="n">
         <v>1.35</v>
@@ -29929,7 +29929,7 @@
         <v>2</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT145" t="n">
         <v>1.86</v>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT148" t="n">
         <v>0.71</v>
@@ -31759,7 +31759,7 @@
         <v>2.57</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU154" t="n">
         <v>1.75</v>
@@ -32365,7 +32365,7 @@
         <v>0.25</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT157" t="n">
         <v>0.57</v>
@@ -33586,7 +33586,7 @@
         <v>2.17</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU163" t="n">
         <v>1.65</v>
@@ -34192,7 +34192,7 @@
         <v>1.5</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT166" t="n">
         <v>1</v>
@@ -34395,10 +34395,10 @@
         <v>1.25</v>
       </c>
       <c r="AS167" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU167" t="n">
         <v>1.7</v>
@@ -34598,7 +34598,7 @@
         <v>1</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT168" t="n">
         <v>1.29</v>
@@ -34804,7 +34804,7 @@
         <v>1</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU169" t="n">
         <v>1.36</v>
@@ -35007,7 +35007,7 @@
         <v>1.71</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU170" t="n">
         <v>1.48</v>
@@ -35207,7 +35207,7 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT171" t="n">
         <v>0.8</v>
@@ -35413,7 +35413,7 @@
         <v>2.17</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU172" t="n">
         <v>1.14</v>
@@ -35819,7 +35819,7 @@
         <v>1.4</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU174" t="n">
         <v>1.41</v>
@@ -36022,7 +36022,7 @@
         <v>2</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU175" t="n">
         <v>1.81</v>
@@ -36222,7 +36222,7 @@
         <v>1.2</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT176" t="n">
         <v>1.29</v>
@@ -36425,7 +36425,7 @@
         <v>0.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT177" t="n">
         <v>0.71</v>
@@ -36831,7 +36831,7 @@
         <v>1.25</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT179" t="n">
         <v>1.17</v>
@@ -38255,7 +38255,7 @@
         <v>1.29</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU186" t="n">
         <v>1.33</v>
@@ -38661,7 +38661,7 @@
         <v>1.14</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU188" t="n">
         <v>1.42</v>
@@ -40891,10 +40891,10 @@
         <v>1.4</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU199" t="n">
         <v>1.88</v>
@@ -41094,7 +41094,7 @@
         <v>1.2</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT200" t="n">
         <v>1.17</v>
@@ -41297,7 +41297,7 @@
         <v>1.5</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT201" t="n">
         <v>1.29</v>
@@ -41703,7 +41703,7 @@
         <v>0.8</v>
       </c>
       <c r="AS203" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT203" t="n">
         <v>0.67</v>
@@ -41906,10 +41906,10 @@
         <v>1.75</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU204" t="n">
         <v>1.36</v>
@@ -42109,7 +42109,7 @@
         <v>1</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT205" t="n">
         <v>1.29</v>
@@ -42515,10 +42515,10 @@
         <v>1.33</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU207" t="n">
         <v>1.98</v>
@@ -42718,10 +42718,10 @@
         <v>1</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU208" t="n">
         <v>2.2</v>
@@ -43330,7 +43330,7 @@
         <v>1.4</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU211" t="n">
         <v>1.43</v>
@@ -43533,7 +43533,7 @@
         <v>1.8</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU212" t="n">
         <v>1.43</v>
@@ -43733,7 +43733,7 @@
         <v>1</v>
       </c>
       <c r="AS213" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT213" t="n">
         <v>0.8</v>
@@ -44345,7 +44345,7 @@
         <v>2.17</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU216" t="n">
         <v>1.17</v>
@@ -48457,6 +48457,1833 @@
       </c>
       <c r="BK236" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>5068001</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45052.58333333334</v>
+      </c>
+      <c r="F237" t="n">
+        <v>15</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Club Atlético Güemes</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="n">
+        <v>2</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>2</v>
+      </c>
+      <c r="N237" t="n">
+        <v>3</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['10', '74']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>3</v>
+      </c>
+      <c r="R237" t="n">
+        <v>1</v>
+      </c>
+      <c r="S237" t="n">
+        <v>4</v>
+      </c>
+      <c r="T237" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U237" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V237" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>5068004</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45052.64583333334</v>
+      </c>
+      <c r="F238" t="n">
+        <v>15</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Alvarado</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="n">
+        <v>2</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>6</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2</v>
+      </c>
+      <c r="S238" t="n">
+        <v>8</v>
+      </c>
+      <c r="T238" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2</v>
+      </c>
+      <c r="V238" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X238" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>5068006</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45052.64583333334</v>
+      </c>
+      <c r="F239" t="n">
+        <v>15</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Agropecuario</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>San Martín San Juan</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>4</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>5</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['6', '52', '61', '90+4']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R239" t="n">
+        <v>5</v>
+      </c>
+      <c r="S239" t="n">
+        <v>5</v>
+      </c>
+      <c r="T239" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V239" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X239" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>5067974</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45052.64583333334</v>
+      </c>
+      <c r="F240" t="n">
+        <v>13</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Ferro Carril Oeste</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>2</v>
+      </c>
+      <c r="M240" t="n">
+        <v>4</v>
+      </c>
+      <c r="N240" t="n">
+        <v>6</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['65', '87']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>['52', '67', '75', '81']</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>9</v>
+      </c>
+      <c r="R240" t="n">
+        <v>6</v>
+      </c>
+      <c r="S240" t="n">
+        <v>15</v>
+      </c>
+      <c r="T240" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V240" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X240" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>5067972</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45052.66666666666</v>
+      </c>
+      <c r="F241" t="n">
+        <v>13</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Racing Córdoba</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>3</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="n">
+        <v>4</v>
+      </c>
+      <c r="L241" t="n">
+        <v>3</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="n">
+        <v>4</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['23', '29', '33']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>1</v>
+      </c>
+      <c r="R241" t="n">
+        <v>4</v>
+      </c>
+      <c r="S241" t="n">
+        <v>5</v>
+      </c>
+      <c r="T241" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U241" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V241" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X241" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>5067975</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45052.73958333334</v>
+      </c>
+      <c r="F242" t="n">
+        <v>13</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Chacarita Juniors</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Gimnasia Jujuy</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>2</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="n">
+        <v>3</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['46', '64']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>7</v>
+      </c>
+      <c r="R242" t="n">
+        <v>5</v>
+      </c>
+      <c r="S242" t="n">
+        <v>12</v>
+      </c>
+      <c r="T242" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U242" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V242" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X242" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>5067980</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45052.75</v>
+      </c>
+      <c r="F243" t="n">
+        <v>13</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Villa Dálmine</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>2</v>
+      </c>
+      <c r="K243" t="n">
+        <v>2</v>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="n">
+        <v>3</v>
+      </c>
+      <c r="N243" t="n">
+        <v>4</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>['8', '45', '73']</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>10</v>
+      </c>
+      <c r="R243" t="n">
+        <v>2</v>
+      </c>
+      <c r="S243" t="n">
+        <v>12</v>
+      </c>
+      <c r="T243" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="U243" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V243" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X243" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>5067978</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45052.79166666666</v>
+      </c>
+      <c r="F244" t="n">
+        <v>13</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Estudiantes Caseros</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="n">
+        <v>2</v>
+      </c>
+      <c r="L244" t="n">
+        <v>2</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="n">
+        <v>3</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['44', '83']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>8</v>
+      </c>
+      <c r="R244" t="n">
+        <v>6</v>
+      </c>
+      <c r="S244" t="n">
+        <v>14</v>
+      </c>
+      <c r="T244" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2</v>
+      </c>
+      <c r="V244" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X244" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>5067999</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45052.81944444445</v>
+      </c>
+      <c r="F245" t="n">
+        <v>15</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Estudiantes Río Cuarto</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Almirante Brown</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>2</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>2</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['51', '87']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>4</v>
+      </c>
+      <c r="R245" t="n">
+        <v>3</v>
+      </c>
+      <c r="S245" t="n">
+        <v>7</v>
+      </c>
+      <c r="T245" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U245" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V245" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK245"/>
+  <dimension ref="A1:BK252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.57</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT21" t="n">
         <v>0.57</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT22" t="n">
         <v>0.86</v>
@@ -5166,7 +5166,7 @@
         <v>1.71</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT24" t="n">
         <v>1.57</v>
@@ -5572,7 +5572,7 @@
         <v>2.71</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>2.57</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -7399,7 +7399,7 @@
         <v>0.83</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>1.83</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT40" t="n">
         <v>1.67</v>
@@ -8820,7 +8820,7 @@
         <v>1.14</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU41" t="n">
         <v>0.74</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT42" t="n">
         <v>1.29</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -10444,7 +10444,7 @@
         <v>1.14</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU49" t="n">
         <v>1.69</v>
@@ -10647,7 +10647,7 @@
         <v>1.57</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU50" t="n">
         <v>1.29</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT55" t="n">
         <v>1</v>
@@ -12068,7 +12068,7 @@
         <v>1.57</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU57" t="n">
         <v>0.67</v>
@@ -12268,7 +12268,7 @@
         <v>3</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT58" t="n">
         <v>1.5</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
         <v>1.86</v>
@@ -13692,7 +13692,7 @@
         <v>1.83</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU65" t="n">
         <v>2.27</v>
@@ -14910,7 +14910,7 @@
         <v>1.71</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU71" t="n">
         <v>1.29</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT72" t="n">
         <v>0</v>
@@ -15925,7 +15925,7 @@
         <v>1.71</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.37</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
         <v>0</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -17549,7 +17549,7 @@
         <v>1.71</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU84" t="n">
         <v>1.84</v>
@@ -17955,7 +17955,7 @@
         <v>1.14</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU86" t="n">
         <v>1.39</v>
@@ -18564,7 +18564,7 @@
         <v>1.57</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU89" t="n">
         <v>1.63</v>
@@ -19373,7 +19373,7 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT93" t="n">
         <v>1.29</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT94" t="n">
         <v>0.57</v>
@@ -19779,7 +19779,7 @@
         <v>2</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT95" t="n">
         <v>1.86</v>
@@ -21203,7 +21203,7 @@
         <v>1.71</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU102" t="n">
         <v>1.2</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT111" t="n">
         <v>1.29</v>
@@ -23433,7 +23433,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT113" t="n">
         <v>0.57</v>
@@ -23639,7 +23639,7 @@
         <v>1.14</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU114" t="n">
         <v>1.52</v>
@@ -23839,7 +23839,7 @@
         <v>1.33</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT115" t="n">
         <v>0.71</v>
@@ -24045,7 +24045,7 @@
         <v>1.88</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU116" t="n">
         <v>2.02</v>
@@ -24654,7 +24654,7 @@
         <v>1.14</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU119" t="n">
         <v>1.33</v>
@@ -26681,7 +26681,7 @@
         <v>0.67</v>
       </c>
       <c r="AS129" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT129" t="n">
         <v>1</v>
@@ -26884,7 +26884,7 @@
         <v>1</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT130" t="n">
         <v>1</v>
@@ -27290,10 +27290,10 @@
         <v>1</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU132" t="n">
         <v>1.6</v>
@@ -27696,7 +27696,7 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT134" t="n">
         <v>1.29</v>
@@ -27902,7 +27902,7 @@
         <v>2</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU135" t="n">
         <v>1.95</v>
@@ -28308,7 +28308,7 @@
         <v>1.57</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU137" t="n">
         <v>1.04</v>
@@ -28714,7 +28714,7 @@
         <v>1.71</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU139" t="n">
         <v>1.34</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT140" t="n">
         <v>1.29</v>
@@ -29523,7 +29523,7 @@
         <v>0.75</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT143" t="n">
         <v>1.29</v>
@@ -30744,7 +30744,7 @@
         <v>1.29</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU149" t="n">
         <v>1.26</v>
@@ -31353,7 +31353,7 @@
         <v>1.71</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU152" t="n">
         <v>1.34</v>
@@ -31553,7 +31553,7 @@
         <v>0.5</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT153" t="n">
         <v>0.86</v>
@@ -32771,7 +32771,7 @@
         <v>0.75</v>
       </c>
       <c r="AS159" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT159" t="n">
         <v>1</v>
@@ -33583,7 +33583,7 @@
         <v>1</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT163" t="n">
         <v>0.67</v>
@@ -33789,7 +33789,7 @@
         <v>1.14</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU164" t="n">
         <v>1.32</v>
@@ -35210,7 +35210,7 @@
         <v>2</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU171" t="n">
         <v>1.54</v>
@@ -35410,7 +35410,7 @@
         <v>1.6</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT172" t="n">
         <v>1.38</v>
@@ -35613,10 +35613,10 @@
         <v>1</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU173" t="n">
         <v>1.53</v>
@@ -35816,7 +35816,7 @@
         <v>1</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT174" t="n">
         <v>0.71</v>
@@ -36631,7 +36631,7 @@
         <v>1.57</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU178" t="n">
         <v>1.35</v>
@@ -36834,7 +36834,7 @@
         <v>1.88</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU179" t="n">
         <v>2.02</v>
@@ -37034,10 +37034,10 @@
         <v>0.8</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU180" t="n">
         <v>1.44</v>
@@ -38455,7 +38455,7 @@
         <v>0.8</v>
       </c>
       <c r="AS187" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT187" t="n">
         <v>0.71</v>
@@ -40485,7 +40485,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT197" t="n">
         <v>1</v>
@@ -41097,7 +41097,7 @@
         <v>1.57</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU200" t="n">
         <v>1.4</v>
@@ -41503,7 +41503,7 @@
         <v>1.14</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU202" t="n">
         <v>1.35</v>
@@ -41706,7 +41706,7 @@
         <v>2.33</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU203" t="n">
         <v>1.69</v>
@@ -42315,7 +42315,7 @@
         <v>1</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU206" t="n">
         <v>1.42</v>
@@ -42924,7 +42924,7 @@
         <v>1.86</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU209" t="n">
         <v>1.3</v>
@@ -43124,10 +43124,10 @@
         <v>0.75</v>
       </c>
       <c r="AS210" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU210" t="n">
         <v>1.78</v>
@@ -43327,7 +43327,7 @@
         <v>1</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT211" t="n">
         <v>1.57</v>
@@ -43530,7 +43530,7 @@
         <v>0.75</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT212" t="n">
         <v>0.67</v>
@@ -43736,7 +43736,7 @@
         <v>2.17</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU213" t="n">
         <v>1.68</v>
@@ -44139,7 +44139,7 @@
         <v>0.4</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT215" t="n">
         <v>0.71</v>
@@ -44342,7 +44342,7 @@
         <v>0.6</v>
       </c>
       <c r="AS216" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT216" t="n">
         <v>0.57</v>
@@ -50284,6 +50284,1427 @@
       </c>
       <c r="BK245" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>5068007</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45053.625</v>
+      </c>
+      <c r="F246" t="n">
+        <v>15</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Guillermo Brown</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Defensores Unidos</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>2</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>2</v>
+      </c>
+      <c r="L246" t="n">
+        <v>3</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>3</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>['14', '25', '71']</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>5</v>
+      </c>
+      <c r="R246" t="n">
+        <v>3</v>
+      </c>
+      <c r="S246" t="n">
+        <v>8</v>
+      </c>
+      <c r="T246" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U246" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V246" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X246" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>5067979</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45053.625</v>
+      </c>
+      <c r="F247" t="n">
+        <v>13</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Deportivo Maipú</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Atlético Rafaela</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="n">
+        <v>2</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>4</v>
+      </c>
+      <c r="R247" t="n">
+        <v>6</v>
+      </c>
+      <c r="S247" t="n">
+        <v>10</v>
+      </c>
+      <c r="T247" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V247" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X247" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>5068003</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45053.625</v>
+      </c>
+      <c r="F248" t="n">
+        <v>15</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Temperley</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>5</v>
+      </c>
+      <c r="R248" t="n">
+        <v>3</v>
+      </c>
+      <c r="S248" t="n">
+        <v>8</v>
+      </c>
+      <c r="T248" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U248" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V248" t="n">
+        <v>5</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X248" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>5067976</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45053.64583333334</v>
+      </c>
+      <c r="F249" t="n">
+        <v>13</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Club Atlético Mitre</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Quilmes</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>1</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>4</v>
+      </c>
+      <c r="R249" t="n">
+        <v>1</v>
+      </c>
+      <c r="S249" t="n">
+        <v>5</v>
+      </c>
+      <c r="T249" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U249" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V249" t="n">
+        <v>4</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X249" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>5067977</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45053.64583333334</v>
+      </c>
+      <c r="F250" t="n">
+        <v>13</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Chaco For Ever</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Brown de Adrogué</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>1</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+      <c r="K250" t="n">
+        <v>2</v>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="n">
+        <v>2</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>5</v>
+      </c>
+      <c r="R250" t="n">
+        <v>1</v>
+      </c>
+      <c r="S250" t="n">
+        <v>6</v>
+      </c>
+      <c r="T250" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U250" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V250" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X250" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>5068002</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45053.875</v>
+      </c>
+      <c r="F251" t="n">
+        <v>15</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>San Martín Tucumán</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Patronato</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="n">
+        <v>2</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>2</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['35', '85']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>9</v>
+      </c>
+      <c r="R251" t="n">
+        <v>4</v>
+      </c>
+      <c r="S251" t="n">
+        <v>13</v>
+      </c>
+      <c r="T251" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U251" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V251" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X251" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>5067973</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45054.88194444445</v>
+      </c>
+      <c r="F252" t="n">
+        <v>13</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
+      <c r="K252" t="n">
+        <v>2</v>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="n">
+        <v>2</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>6</v>
+      </c>
+      <c r="R252" t="n">
+        <v>3</v>
+      </c>
+      <c r="S252" t="n">
+        <v>9</v>
+      </c>
+      <c r="T252" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U252" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V252" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X252" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK252"/>
+  <dimension ref="A1:BK253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT13" t="n">
         <v>1.57</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT30" t="n">
         <v>0.83</v>
@@ -10241,7 +10241,7 @@
         <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU48" t="n">
         <v>0.98</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT71" t="n">
         <v>0.67</v>
@@ -20391,7 +20391,7 @@
         <v>2.17</v>
       </c>
       <c r="AT98" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU98" t="n">
         <v>1.87</v>
@@ -21200,7 +21200,7 @@
         <v>2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT102" t="n">
         <v>1.5</v>
@@ -26887,7 +26887,7 @@
         <v>1.67</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU130" t="n">
         <v>1.4</v>
@@ -29117,7 +29117,7 @@
         <v>0</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT141" t="n">
         <v>0</v>
@@ -34195,7 +34195,7 @@
         <v>1.43</v>
       </c>
       <c r="AT166" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU166" t="n">
         <v>1.33</v>
@@ -37440,7 +37440,7 @@
         <v>1</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT182" t="n">
         <v>1.29</v>
@@ -40488,7 +40488,7 @@
         <v>1.5</v>
       </c>
       <c r="AT197" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU197" t="n">
         <v>1.46</v>
@@ -40953,7 +40953,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>5067966</v>
+        <v>5067944</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -40969,186 +40969,186 @@
         <v>45038.64583333334</v>
       </c>
       <c r="F200" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Atlético Rafaela</t>
         </is>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>11</v>
+      </c>
+      <c r="R200" t="n">
+        <v>3</v>
+      </c>
+      <c r="S200" t="n">
+        <v>14</v>
+      </c>
+      <c r="T200" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U200" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH200" t="n">
         <v>4</v>
       </c>
-      <c r="O200" t="inlineStr">
-        <is>
-          <t>['64', '82']</t>
-        </is>
-      </c>
-      <c r="P200" t="inlineStr">
-        <is>
-          <t>['55', '74']</t>
-        </is>
-      </c>
-      <c r="Q200" t="n">
-        <v>3</v>
-      </c>
-      <c r="R200" t="n">
-        <v>0</v>
-      </c>
-      <c r="S200" t="n">
-        <v>3</v>
-      </c>
-      <c r="T200" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U200" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V200" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W200" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X200" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Y200" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Z200" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AA200" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AB200" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC200" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AD200" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE200" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AF200" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AG200" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AH200" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI200" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AJ200" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AK200" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AL200" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM200" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN200" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AO200" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP200" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AQ200" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR200" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AS200" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AT200" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU200" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AV200" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AW200" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AX200" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AY200" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AZ200" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BA200" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="BB200" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="BC200" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BD200" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="BE200" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BF200" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG200" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH200" t="n">
-        <v>6</v>
-      </c>
       <c r="BI200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ200" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK200" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
@@ -41359,7 +41359,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>5067944</v>
+        <v>5067966</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -41375,186 +41375,186 @@
         <v>45038.64583333334</v>
       </c>
       <c r="F202" t="n">
+        <v>13</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2</v>
+      </c>
+      <c r="M202" t="n">
+        <v>2</v>
+      </c>
+      <c r="N202" t="n">
+        <v>4</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['64', '82']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['55', '74']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>3</v>
+      </c>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
+      <c r="S202" t="n">
+        <v>3</v>
+      </c>
+      <c r="T202" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V202" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK202" t="n">
         <v>11</v>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>Deportivo Madryn</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>Atlético Rafaela</t>
-        </is>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>1</v>
-      </c>
-      <c r="K202" t="n">
-        <v>1</v>
-      </c>
-      <c r="L202" t="n">
-        <v>0</v>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="n">
-        <v>1</v>
-      </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>['8']</t>
-        </is>
-      </c>
-      <c r="Q202" t="n">
-        <v>11</v>
-      </c>
-      <c r="R202" t="n">
-        <v>3</v>
-      </c>
-      <c r="S202" t="n">
-        <v>14</v>
-      </c>
-      <c r="T202" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U202" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V202" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W202" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="X202" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Y202" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Z202" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA202" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB202" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC202" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AD202" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE202" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AF202" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG202" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AH202" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AI202" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AJ202" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AK202" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL202" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM202" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN202" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AO202" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP202" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AQ202" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR202" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AS202" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AT202" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU202" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AV202" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AW202" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AX202" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY202" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ202" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA202" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB202" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC202" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD202" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE202" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF202" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG202" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH202" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI202" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ202" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK202" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="203">
@@ -42374,7 +42374,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>5067969</v>
+        <v>5067937</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -42390,186 +42390,186 @@
         <v>45039.64583333334</v>
       </c>
       <c r="F207" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>San Martín San Juan</t>
+          <t>Racing Córdoba</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
         <v>2</v>
       </c>
       <c r="K207" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L207" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M207" t="n">
         <v>2</v>
       </c>
       <c r="N207" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45', '74', '90']</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>['5', '34']</t>
+          <t>['31', '34']</t>
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R207" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S207" t="n">
         <v>8</v>
       </c>
       <c r="T207" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="U207" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="V207" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="W207" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X207" t="n">
-        <v>2.53</v>
+        <v>2.49</v>
       </c>
       <c r="Y207" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Z207" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AA207" t="n">
-        <v>8.4</v>
+        <v>8.75</v>
       </c>
       <c r="AB207" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC207" t="n">
-        <v>3.02</v>
+        <v>2.51</v>
       </c>
       <c r="AD207" t="n">
-        <v>3.02</v>
+        <v>2.76</v>
       </c>
       <c r="AE207" t="n">
-        <v>2.01</v>
+        <v>2.51</v>
       </c>
       <c r="AF207" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AG207" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="AH207" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN207" t="n">
         <v>1.4</v>
       </c>
-      <c r="AI207" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AJ207" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AK207" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL207" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM207" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AN207" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AO207" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.4</v>
+        <v>0.75</v>
       </c>
       <c r="AR207" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.38</v>
+        <v>0.71</v>
       </c>
       <c r="AU207" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="AV207" t="n">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="AW207" t="n">
-        <v>3.17</v>
+        <v>3.62</v>
       </c>
       <c r="AX207" t="n">
-        <v>2.26</v>
+        <v>1.8</v>
       </c>
       <c r="AY207" t="n">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="AZ207" t="n">
-        <v>1.9</v>
+        <v>2.35</v>
       </c>
       <c r="BA207" t="n">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="BB207" t="n">
-        <v>1.87</v>
+        <v>1.56</v>
       </c>
       <c r="BC207" t="n">
-        <v>2.34</v>
+        <v>1.92</v>
       </c>
       <c r="BD207" t="n">
-        <v>3.65</v>
+        <v>2.39</v>
       </c>
       <c r="BE207" t="n">
-        <v>5.7</v>
+        <v>3.28</v>
       </c>
       <c r="BF207" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG207" t="n">
         <v>5</v>
       </c>
       <c r="BH207" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI207" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ207" t="n">
         <v>10</v>
       </c>
       <c r="BK207" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208">
@@ -42577,7 +42577,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>5067937</v>
+        <v>5067970</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -42593,87 +42593,87 @@
         <v>45039.64583333334</v>
       </c>
       <c r="F208" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Tristán Suárez</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I208" t="n">
         <v>1</v>
       </c>
       <c r="J208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N208" t="n">
+        <v>1</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>2</v>
+      </c>
+      <c r="R208" t="n">
+        <v>1</v>
+      </c>
+      <c r="S208" t="n">
+        <v>3</v>
+      </c>
+      <c r="T208" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V208" t="n">
         <v>5</v>
       </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>['45', '74', '90']</t>
-        </is>
-      </c>
-      <c r="P208" t="inlineStr">
-        <is>
-          <t>['31', '34']</t>
-        </is>
-      </c>
-      <c r="Q208" t="n">
-        <v>5</v>
-      </c>
-      <c r="R208" t="n">
-        <v>3</v>
-      </c>
-      <c r="S208" t="n">
-        <v>8</v>
-      </c>
-      <c r="T208" t="n">
+      <c r="W208" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y208" t="n">
         <v>3.4</v>
       </c>
-      <c r="U208" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V208" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W208" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X208" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="Y208" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Z208" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AA208" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AB208" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC208" t="n">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="AD208" t="n">
-        <v>2.76</v>
+        <v>2.63</v>
       </c>
       <c r="AE208" t="n">
         <v>2.51</v>
@@ -42682,97 +42682,97 @@
         <v>1.1</v>
       </c>
       <c r="AG208" t="n">
-        <v>6.8</v>
+        <v>6.25</v>
       </c>
       <c r="AH208" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AI208" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="AJ208" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AK208" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="AL208" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AM208" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB208" t="n">
         <v>1.6</v>
       </c>
-      <c r="AN208" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO208" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP208" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AQ208" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AR208" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS208" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT208" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AU208" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AV208" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AW208" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AX208" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AY208" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AZ208" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="BA208" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB208" t="n">
-        <v>1.56</v>
-      </c>
       <c r="BC208" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="BD208" t="n">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="BE208" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="BF208" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG208" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH208" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI208" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ208" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BK208" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209">
@@ -42780,7 +42780,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>5067970</v>
+        <v>5067969</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -42800,182 +42800,182 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>San Martín San Juan</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['5', '34']</t>
         </is>
       </c>
       <c r="Q209" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R209" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S209" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T209" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U209" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V209" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="W209" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X209" t="n">
-        <v>2.35</v>
+        <v>2.53</v>
       </c>
       <c r="Y209" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Z209" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AA209" t="n">
-        <v>9.75</v>
+        <v>8.4</v>
       </c>
       <c r="AB209" t="n">
         <v>1.05</v>
       </c>
       <c r="AC209" t="n">
-        <v>2.63</v>
+        <v>3.02</v>
       </c>
       <c r="AD209" t="n">
-        <v>2.63</v>
+        <v>3.02</v>
       </c>
       <c r="AE209" t="n">
-        <v>2.51</v>
+        <v>2.01</v>
       </c>
       <c r="AF209" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AG209" t="n">
-        <v>6.25</v>
+        <v>6.3</v>
       </c>
       <c r="AH209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK209" t="n">
         <v>1.5</v>
       </c>
-      <c r="AI209" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AJ209" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AK209" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AL209" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="AM209" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="AN209" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AO209" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.4</v>
       </c>
       <c r="AR209" t="n">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.86</v>
+        <v>1.14</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU209" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="AV209" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="AW209" t="n">
-        <v>2.44</v>
+        <v>3.17</v>
       </c>
       <c r="AX209" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA209" t="n">
         <v>1.51</v>
       </c>
-      <c r="AY209" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ209" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BA209" t="n">
-        <v>1.29</v>
-      </c>
       <c r="BB209" t="n">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="BC209" t="n">
-        <v>1.99</v>
+        <v>2.34</v>
       </c>
       <c r="BD209" t="n">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="BE209" t="n">
-        <v>3.48</v>
+        <v>5.7</v>
       </c>
       <c r="BF209" t="n">
         <v>5</v>
       </c>
       <c r="BG209" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH209" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI209" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ209" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK209" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210">
@@ -44545,7 +44545,7 @@
         <v>1</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT217" t="n">
         <v>0.86</v>
@@ -44810,7 +44810,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>5067954</v>
+        <v>5067981</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -44826,183 +44826,183 @@
         <v>45045.64583333334</v>
       </c>
       <c r="F219" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="I219" t="n">
         <v>1</v>
       </c>
       <c r="J219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L219" t="n">
         <v>2</v>
       </c>
       <c r="M219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>['11', '57']</t>
+          <t>['33', '51']</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>['36']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q219" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R219" t="n">
+        <v>3</v>
+      </c>
+      <c r="S219" t="n">
         <v>6</v>
       </c>
-      <c r="S219" t="n">
-        <v>7</v>
-      </c>
       <c r="T219" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="U219" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V219" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="W219" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="X219" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Y219" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="Z219" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AA219" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB219" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC219" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="AD219" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AE219" t="n">
-        <v>3.75</v>
+        <v>2.65</v>
       </c>
       <c r="AF219" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AG219" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH219" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AI219" t="n">
         <v>2.45</v>
       </c>
       <c r="AJ219" t="n">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="AK219" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AL219" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AM219" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AN219" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AO219" t="n">
         <v>1.35</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="AQ219" t="n">
-        <v>0.83</v>
+        <v>2.67</v>
       </c>
       <c r="AR219" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.14</v>
+        <v>2.71</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.83</v>
+        <v>1.29</v>
       </c>
       <c r="AU219" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="AV219" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AW219" t="n">
-        <v>2.62</v>
+        <v>2.41</v>
       </c>
       <c r="AX219" t="n">
-        <v>1.6</v>
+        <v>1.86</v>
       </c>
       <c r="AY219" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ219" t="n">
-        <v>2.78</v>
+        <v>2.26</v>
       </c>
       <c r="BA219" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="BB219" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="BC219" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="BD219" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="BE219" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="BF219" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG219" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BH219" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI219" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ219" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BK219" t="n">
         <v>11</v>
@@ -45013,7 +45013,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>5067981</v>
+        <v>5067954</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -45029,183 +45029,183 @@
         <v>45045.64583333334</v>
       </c>
       <c r="F220" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I220" t="n">
         <v>1</v>
       </c>
       <c r="J220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L220" t="n">
         <v>2</v>
       </c>
       <c r="M220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N220" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>['33', '51']</t>
+          <t>['11', '57']</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['36']</t>
         </is>
       </c>
       <c r="Q220" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R220" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S220" t="n">
+        <v>7</v>
+      </c>
+      <c r="T220" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U220" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V220" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X220" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG220" t="n">
         <v>6</v>
       </c>
-      <c r="T220" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U220" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V220" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W220" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X220" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Y220" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Z220" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AA220" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB220" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC220" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AD220" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AE220" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AF220" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG220" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AH220" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AI220" t="n">
         <v>2.45</v>
       </c>
       <c r="AJ220" t="n">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="AK220" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AL220" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AM220" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="AN220" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AO220" t="n">
         <v>1.35</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="AQ220" t="n">
-        <v>2.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR220" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.71</v>
+        <v>1.14</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.29</v>
+        <v>0.83</v>
       </c>
       <c r="AU220" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="AV220" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AW220" t="n">
-        <v>2.41</v>
+        <v>2.62</v>
       </c>
       <c r="AX220" t="n">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="AY220" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ220" t="n">
-        <v>2.26</v>
+        <v>2.78</v>
       </c>
       <c r="BA220" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="BB220" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="BC220" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="BD220" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="BE220" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="BF220" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG220" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH220" t="n">
         <v>4</v>
       </c>
-      <c r="BH220" t="n">
-        <v>7</v>
-      </c>
       <c r="BI220" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BJ220" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BK220" t="n">
         <v>11</v>
@@ -45766,7 +45766,7 @@
         <v>1.83</v>
       </c>
       <c r="AT223" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU223" t="n">
         <v>1.69</v>
@@ -48667,7 +48667,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>5068004</v>
+        <v>5067974</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -48683,63 +48683,63 @@
         <v>45052.64583333334</v>
       </c>
       <c r="F238" t="n">
+        <v>13</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Ferro Carril Oeste</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>2</v>
+      </c>
+      <c r="M238" t="n">
+        <v>4</v>
+      </c>
+      <c r="N238" t="n">
+        <v>6</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['65', '87']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['52', '67', '75', '81']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>9</v>
+      </c>
+      <c r="R238" t="n">
+        <v>6</v>
+      </c>
+      <c r="S238" t="n">
         <v>15</v>
       </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>Alvarado</t>
-        </is>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="n">
-        <v>1</v>
-      </c>
-      <c r="K238" t="n">
-        <v>1</v>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="n">
-        <v>2</v>
-      </c>
-      <c r="O238" t="inlineStr">
-        <is>
-          <t>['90+7']</t>
-        </is>
-      </c>
-      <c r="P238" t="inlineStr">
-        <is>
-          <t>['24']</t>
-        </is>
-      </c>
-      <c r="Q238" t="n">
-        <v>6</v>
-      </c>
-      <c r="R238" t="n">
-        <v>2</v>
-      </c>
-      <c r="S238" t="n">
-        <v>8</v>
-      </c>
       <c r="T238" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="U238" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V238" t="n">
-        <v>4.75</v>
+        <v>4.35</v>
       </c>
       <c r="W238" t="n">
         <v>1.52</v>
@@ -48748,121 +48748,121 @@
         <v>2.35</v>
       </c>
       <c r="Y238" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Z238" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AA238" t="n">
         <v>9.5</v>
       </c>
       <c r="AB238" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC238" t="n">
         <v>2.04</v>
       </c>
       <c r="AD238" t="n">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="AE238" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AF238" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AG238" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK238" t="n">
         <v>1.5</v>
       </c>
-      <c r="AI238" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AJ238" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AK238" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AL238" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AM238" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX238" t="n">
         <v>1.68</v>
       </c>
-      <c r="AN238" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO238" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AP238" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AQ238" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AR238" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AS238" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AT238" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AU238" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AV238" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AW238" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AX238" t="n">
-        <v>1.63</v>
-      </c>
       <c r="AY238" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ238" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="BA238" t="n">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="BB238" t="n">
-        <v>1.84</v>
+        <v>1.5</v>
       </c>
       <c r="BC238" t="n">
-        <v>2.39</v>
+        <v>1.83</v>
       </c>
       <c r="BD238" t="n">
-        <v>3.28</v>
+        <v>2.27</v>
       </c>
       <c r="BE238" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="BF238" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG238" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BH238" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI238" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ238" t="n">
         <v>12</v>
       </c>
       <c r="BK238" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239">
@@ -48870,7 +48870,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>5068006</v>
+        <v>5068004</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -48890,158 +48890,158 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>San Martín San Juan</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K239" t="n">
         <v>1</v>
       </c>
       <c r="L239" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
       <c r="N239" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>['6', '52', '61', '90+4']</t>
+          <t>['90+7']</t>
         </is>
       </c>
       <c r="P239" t="inlineStr">
         <is>
-          <t>['83']</t>
+          <t>['24']</t>
         </is>
       </c>
       <c r="Q239" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R239" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S239" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T239" t="n">
-        <v>3.17</v>
+        <v>2.75</v>
       </c>
       <c r="U239" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V239" t="n">
-        <v>4.26</v>
+        <v>4.75</v>
       </c>
       <c r="W239" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="X239" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="Y239" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Z239" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AA239" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB239" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AC239" t="n">
-        <v>2.33</v>
+        <v>2.04</v>
       </c>
       <c r="AD239" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AE239" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AF239" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AG239" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH239" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AI239" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="AJ239" t="n">
-        <v>2.73</v>
+        <v>2.35</v>
       </c>
       <c r="AK239" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AL239" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AM239" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AN239" t="n">
         <v>1.25</v>
       </c>
       <c r="AO239" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AQ239" t="n">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
       <c r="AR239" t="n">
-        <v>1.57</v>
+        <v>0.5</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.43</v>
+        <v>1.14</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU239" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="AV239" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AW239" t="n">
-        <v>3.21</v>
+        <v>2.94</v>
       </c>
       <c r="AX239" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="AY239" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AZ239" t="n">
-        <v>2.61</v>
+        <v>2.75</v>
       </c>
       <c r="BA239" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="BB239" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="BC239" t="n">
-        <v>2.37</v>
+        <v>2.39</v>
       </c>
       <c r="BD239" t="n">
         <v>3.28</v>
@@ -49050,22 +49050,22 @@
         <v>0</v>
       </c>
       <c r="BF239" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG239" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH239" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BI239" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ239" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BK239" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240">
@@ -49073,7 +49073,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>5067974</v>
+        <v>5068006</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -49089,186 +49089,186 @@
         <v>45052.64583333334</v>
       </c>
       <c r="F240" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Tristán Suárez</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Ferro Carril Oeste</t>
+          <t>San Martín San Juan</t>
         </is>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="n">
         <v>0</v>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L240" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="n">
+        <v>5</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['6', '52', '61', '90+4']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" t="n">
+        <v>5</v>
+      </c>
+      <c r="S240" t="n">
+        <v>5</v>
+      </c>
+      <c r="T240" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U240" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V240" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X240" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Y240" t="n">
         <v>4</v>
       </c>
-      <c r="N240" t="n">
-        <v>6</v>
-      </c>
-      <c r="O240" t="inlineStr">
-        <is>
-          <t>['65', '87']</t>
-        </is>
-      </c>
-      <c r="P240" t="inlineStr">
-        <is>
-          <t>['52', '67', '75', '81']</t>
-        </is>
-      </c>
-      <c r="Q240" t="n">
-        <v>9</v>
-      </c>
-      <c r="R240" t="n">
-        <v>6</v>
-      </c>
-      <c r="S240" t="n">
-        <v>15</v>
-      </c>
-      <c r="T240" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U240" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V240" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="W240" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X240" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Y240" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Z240" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN240" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AA240" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB240" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC240" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AD240" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AE240" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AF240" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG240" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH240" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI240" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AJ240" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AK240" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL240" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM240" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AN240" t="n">
-        <v>1.22</v>
       </c>
       <c r="AO240" t="n">
         <v>1.36</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR240" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AS240" t="n">
-        <v>1</v>
+        <v>2.43</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU240" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="AV240" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AW240" t="n">
-        <v>3.35</v>
+        <v>3.21</v>
       </c>
       <c r="AX240" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="AY240" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AZ240" t="n">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="BA240" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="BB240" t="n">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="BC240" t="n">
-        <v>1.83</v>
+        <v>2.37</v>
       </c>
       <c r="BD240" t="n">
-        <v>2.27</v>
+        <v>3.28</v>
       </c>
       <c r="BE240" t="n">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="BF240" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG240" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BH240" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BI240" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BJ240" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BK240" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -50291,7 +50291,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>5068007</v>
+        <v>5068003</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -50311,35 +50311,35 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J246" t="n">
         <v>0</v>
       </c>
       <c r="K246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L246" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M246" t="n">
         <v>0</v>
       </c>
       <c r="N246" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>['14', '25', '71']</t>
+          <t>['30']</t>
         </is>
       </c>
       <c r="P246" t="inlineStr">
@@ -50357,31 +50357,31 @@
         <v>8</v>
       </c>
       <c r="T246" t="n">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="U246" t="n">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V246" t="n">
-        <v>4.73</v>
+        <v>5</v>
       </c>
       <c r="W246" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X246" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Y246" t="n">
         <v>4</v>
       </c>
       <c r="Z246" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AA246" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB246" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC246" t="n">
         <v>2.1</v>
@@ -50393,100 +50393,100 @@
         <v>4</v>
       </c>
       <c r="AF246" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AG246" t="n">
-        <v>6</v>
+        <v>6.15</v>
       </c>
       <c r="AH246" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="AI246" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ246" t="n">
         <v>2.5</v>
       </c>
-      <c r="AJ246" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AK246" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AL246" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AM246" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AN246" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO246" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP246" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AQ246" t="n">
-        <v>1</v>
-      </c>
       <c r="AR246" t="n">
-        <v>0.57</v>
+        <v>1.17</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.29</v>
+        <v>2.57</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU246" t="n">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="AV246" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AW246" t="n">
-        <v>2.58</v>
+        <v>2.89</v>
       </c>
       <c r="AX246" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AY246" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AZ246" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="BA246" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="BB246" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="BC246" t="n">
-        <v>2.03</v>
+        <v>2.28</v>
       </c>
       <c r="BD246" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="BE246" t="n">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="BF246" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ246" t="n">
         <v>5</v>
       </c>
-      <c r="BG246" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH246" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI246" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ246" t="n">
-        <v>6</v>
-      </c>
       <c r="BK246" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247">
@@ -50494,7 +50494,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>5067979</v>
+        <v>5068007</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -50510,186 +50510,186 @@
         <v>45053.625</v>
       </c>
       <c r="F247" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Atlético Rafaela</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J247" t="n">
         <v>0</v>
       </c>
       <c r="K247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L247" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N247" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>['14', '25', '71']</t>
         </is>
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>['90+3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q247" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R247" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S247" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T247" t="n">
         <v>2.91</v>
       </c>
       <c r="U247" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="V247" t="n">
-        <v>4.48</v>
+        <v>4.73</v>
       </c>
       <c r="W247" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X247" t="n">
-        <v>2.49</v>
+        <v>2.38</v>
       </c>
       <c r="Y247" t="n">
-        <v>3.74</v>
+        <v>4</v>
       </c>
       <c r="Z247" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AA247" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB247" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AC247" t="n">
         <v>2.1</v>
       </c>
       <c r="AD247" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AE247" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AF247" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG247" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH247" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="AI247" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AJ247" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="AK247" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AL247" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AM247" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="AN247" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AO247" t="n">
         <v>1.33</v>
       </c>
       <c r="AP247" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AQ247" t="n">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="AR247" t="n">
-        <v>1.6</v>
+        <v>0.57</v>
       </c>
       <c r="AS247" t="n">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AU247" t="n">
-        <v>1.74</v>
+        <v>1.45</v>
       </c>
       <c r="AV247" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="AW247" t="n">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="AX247" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AY247" t="n">
-        <v>9.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AZ247" t="n">
         <v>2.56</v>
       </c>
       <c r="BA247" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="BB247" t="n">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="BC247" t="n">
-        <v>1.76</v>
+        <v>2.03</v>
       </c>
       <c r="BD247" t="n">
-        <v>2.18</v>
+        <v>2.72</v>
       </c>
       <c r="BE247" t="n">
-        <v>2.88</v>
+        <v>3.74</v>
       </c>
       <c r="BF247" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BG247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH247" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ247" t="n">
         <v>6</v>
       </c>
-      <c r="BI247" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ247" t="n">
-        <v>15</v>
-      </c>
       <c r="BK247" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -50697,7 +50697,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>5068003</v>
+        <v>5067979</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -50713,16 +50713,16 @@
         <v>45053.625</v>
       </c>
       <c r="F248" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Deportivo Maipú</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Atlético Rafaela</t>
         </is>
       </c>
       <c r="I248" t="n">
@@ -50738,53 +50738,53 @@
         <v>1</v>
       </c>
       <c r="M248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>['30']</t>
+          <t>['27']</t>
         </is>
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+3']</t>
         </is>
       </c>
       <c r="Q248" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R248" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S248" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T248" t="n">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="U248" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="V248" t="n">
-        <v>5</v>
+        <v>4.48</v>
       </c>
       <c r="W248" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="X248" t="n">
-        <v>2.2</v>
+        <v>2.49</v>
       </c>
       <c r="Y248" t="n">
-        <v>4</v>
+        <v>3.74</v>
       </c>
       <c r="Z248" t="n">
         <v>1.22</v>
       </c>
       <c r="AA248" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AB248" t="n">
         <v>1.04</v>
@@ -50793,106 +50793,106 @@
         <v>2.1</v>
       </c>
       <c r="AD248" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AE248" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AF248" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AG248" t="n">
-        <v>6.15</v>
+        <v>6.5</v>
       </c>
       <c r="AH248" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AI248" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AJ248" t="n">
-        <v>2.85</v>
+        <v>2.45</v>
       </c>
       <c r="AK248" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AL248" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AM248" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AN248" t="n">
         <v>1.22</v>
       </c>
       <c r="AO248" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AP248" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AQ248" t="n">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="AR248" t="n">
-        <v>1.17</v>
+        <v>1.6</v>
       </c>
       <c r="AS248" t="n">
-        <v>2.57</v>
+        <v>2</v>
       </c>
       <c r="AT248" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU248" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="AV248" t="n">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="AW248" t="n">
-        <v>2.89</v>
+        <v>2.78</v>
       </c>
       <c r="AX248" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AY248" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AZ248" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="BA248" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB248" t="n">
         <v>1.41</v>
       </c>
-      <c r="BB248" t="n">
-        <v>1.74</v>
-      </c>
       <c r="BC248" t="n">
-        <v>2.28</v>
+        <v>1.76</v>
       </c>
       <c r="BD248" t="n">
-        <v>3.15</v>
+        <v>2.18</v>
       </c>
       <c r="BE248" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BF248" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BG248" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH248" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI248" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BJ248" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BK248" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249">
@@ -50900,7 +50900,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>5067976</v>
+        <v>5067977</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -50920,98 +50920,98 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Club Atlético Mitre</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="I249" t="n">
         <v>1</v>
       </c>
       <c r="J249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
       <c r="M249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>['20']</t>
+          <t>['45+2']</t>
         </is>
       </c>
       <c r="P249" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12']</t>
         </is>
       </c>
       <c r="Q249" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R249" t="n">
         <v>1</v>
       </c>
       <c r="S249" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T249" t="n">
-        <v>3.25</v>
+        <v>3.23</v>
       </c>
       <c r="U249" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V249" t="n">
-        <v>4</v>
+        <v>4.66</v>
       </c>
       <c r="W249" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="X249" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Y249" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Z249" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AA249" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB249" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AC249" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AD249" t="n">
         <v>2.8</v>
       </c>
       <c r="AE249" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AF249" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="AG249" t="n">
-        <v>5.7</v>
+        <v>4.75</v>
       </c>
       <c r="AH249" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="AI249" t="n">
-        <v>2.35</v>
+        <v>2.14</v>
       </c>
       <c r="AJ249" t="n">
         <v>2.73</v>
@@ -51020,25 +51020,25 @@
         <v>1.4</v>
       </c>
       <c r="AL249" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="AM249" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="AN249" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AO249" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AP249" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AQ249" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AR249" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AS249" t="n">
         <v>1.67</v>
@@ -51047,52 +51047,52 @@
         <v>0.67</v>
       </c>
       <c r="AU249" t="n">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="AV249" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AW249" t="n">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="AX249" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AY249" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ249" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="BA249" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="BB249" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="BC249" t="n">
-        <v>2.31</v>
+        <v>2.07</v>
       </c>
       <c r="BD249" t="n">
-        <v>3.2</v>
+        <v>2.76</v>
       </c>
       <c r="BE249" t="n">
-        <v>4.9</v>
+        <v>3.74</v>
       </c>
       <c r="BF249" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH249" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ249" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BK249" t="n">
         <v>3</v>
@@ -51103,7 +51103,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>5067977</v>
+        <v>5067976</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -51123,98 +51123,98 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Club Atlético Mitre</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I250" t="n">
         <v>1</v>
       </c>
       <c r="J250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
       <c r="M250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>['45+2']</t>
+          <t>['20']</t>
         </is>
       </c>
       <c r="P250" t="inlineStr">
         <is>
-          <t>['12']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q250" t="n">
+        <v>4</v>
+      </c>
+      <c r="R250" t="n">
+        <v>1</v>
+      </c>
+      <c r="S250" t="n">
         <v>5</v>
       </c>
-      <c r="R250" t="n">
-        <v>1</v>
-      </c>
-      <c r="S250" t="n">
-        <v>6</v>
-      </c>
       <c r="T250" t="n">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="U250" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V250" t="n">
-        <v>4.66</v>
+        <v>4</v>
       </c>
       <c r="W250" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="X250" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Y250" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Z250" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AA250" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB250" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AC250" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AD250" t="n">
         <v>2.8</v>
       </c>
       <c r="AE250" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AF250" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AG250" t="n">
-        <v>4.75</v>
+        <v>5.7</v>
       </c>
       <c r="AH250" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="AI250" t="n">
-        <v>2.14</v>
+        <v>2.35</v>
       </c>
       <c r="AJ250" t="n">
         <v>2.73</v>
@@ -51223,25 +51223,25 @@
         <v>1.4</v>
       </c>
       <c r="AL250" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="AM250" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP250" t="n">
         <v>1.45</v>
       </c>
-      <c r="AN250" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AO250" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AP250" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AQ250" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AR250" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AS250" t="n">
         <v>1.67</v>
@@ -51250,52 +51250,52 @@
         <v>0.67</v>
       </c>
       <c r="AU250" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="AV250" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AW250" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="AX250" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AY250" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AZ250" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="BA250" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="BB250" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="BC250" t="n">
-        <v>2.07</v>
+        <v>2.31</v>
       </c>
       <c r="BD250" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="BE250" t="n">
-        <v>3.74</v>
+        <v>4.9</v>
       </c>
       <c r="BF250" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG250" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH250" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BI250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ250" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BK250" t="n">
         <v>3</v>
@@ -51705,6 +51705,209 @@
       </c>
       <c r="BK252" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>5067996</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45058.875</v>
+      </c>
+      <c r="F253" t="n">
+        <v>14</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Gimnasia Jujuy</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>11</v>
+      </c>
+      <c r="R253" t="n">
+        <v>2</v>
+      </c>
+      <c r="S253" t="n">
+        <v>13</v>
+      </c>
+      <c r="T253" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V253" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X253" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK253"/>
+  <dimension ref="A1:BK270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.88</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT6" t="n">
         <v>1.38</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT8" t="n">
         <v>0.5</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.43</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT12" t="n">
         <v>0.88</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT15" t="n">
         <v>0.57</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2.57</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>2.29</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT27" t="n">
         <v>0.71</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT29" t="n">
         <v>1.38</v>
@@ -6587,7 +6587,7 @@
         <v>1.88</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU30" t="n">
         <v>1.29</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU32" t="n">
         <v>1.59</v>
@@ -7196,7 +7196,7 @@
         <v>1.88</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU33" t="n">
         <v>1.58</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT34" t="n">
         <v>0.67</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT35" t="n">
         <v>0.67</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT37" t="n">
         <v>0.71</v>
@@ -8411,10 +8411,10 @@
         <v>3</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU39" t="n">
         <v>1.2</v>
@@ -8617,7 +8617,7 @@
         <v>1.67</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT41" t="n">
         <v>0.5</v>
@@ -9023,7 +9023,7 @@
         <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU42" t="n">
         <v>0</v>
@@ -9223,10 +9223,10 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU43" t="n">
         <v>1.07</v>
@@ -9426,10 +9426,10 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU44" t="n">
         <v>1.55</v>
@@ -9632,7 +9632,7 @@
         <v>1.57</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU45" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>1.14</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU47" t="n">
         <v>1.93</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT48" t="n">
         <v>0.88</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT49" t="n">
         <v>0.71</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT50" t="n">
         <v>1.29</v>
@@ -10850,7 +10850,7 @@
         <v>1.86</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU51" t="n">
         <v>1</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU52" t="n">
         <v>1.02</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT53" t="n">
         <v>1.57</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT54" t="n">
         <v>0.67</v>
@@ -11662,7 +11662,7 @@
         <v>2.57</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU55" t="n">
         <v>1.44</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT56" t="n">
         <v>1.57</v>
@@ -12065,7 +12065,7 @@
         <v>3</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT57" t="n">
         <v>1</v>
@@ -12880,7 +12880,7 @@
         <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU61" t="n">
         <v>1.88</v>
@@ -13080,10 +13080,10 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU62" t="n">
         <v>1.28</v>
@@ -13286,7 +13286,7 @@
         <v>2.17</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT65" t="n">
         <v>1.5</v>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU67" t="n">
         <v>1.52</v>
@@ -14301,7 +14301,7 @@
         <v>1.57</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU68" t="n">
         <v>0.84</v>
@@ -14504,7 +14504,7 @@
         <v>2.33</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU69" t="n">
         <v>1.93</v>
@@ -14707,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU70" t="n">
         <v>1.9</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT73" t="n">
         <v>0.71</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT74" t="n">
         <v>1.38</v>
@@ -15719,7 +15719,7 @@
         <v>3</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT75" t="n">
         <v>1.17</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT76" t="n">
         <v>0.5</v>
@@ -16331,7 +16331,7 @@
         <v>2.29</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU78" t="n">
         <v>1.55</v>
@@ -16534,7 +16534,7 @@
         <v>1.88</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU79" t="n">
         <v>1.97</v>
@@ -16734,10 +16734,10 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU80" t="n">
         <v>1.67</v>
@@ -16937,10 +16937,10 @@
         <v>1</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU81" t="n">
         <v>1.31</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT82" t="n">
         <v>0.57</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT83" t="n">
         <v>1.57</v>
@@ -17546,7 +17546,7 @@
         <v>3</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT84" t="n">
         <v>0.67</v>
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT86" t="n">
         <v>0.71</v>
@@ -18155,7 +18155,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT87" t="n">
         <v>1.57</v>
@@ -18358,7 +18358,7 @@
         <v>2</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT88" t="n">
         <v>1.5</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT89" t="n">
         <v>1.29</v>
@@ -18767,7 +18767,7 @@
         <v>2.43</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU90" t="n">
         <v>1.68</v>
@@ -18967,7 +18967,7 @@
         <v>0</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT91" t="n">
         <v>0.67</v>
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT92" t="n">
         <v>1.14</v>
@@ -19376,7 +19376,7 @@
         <v>2</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU93" t="n">
         <v>1.81</v>
@@ -19579,7 +19579,7 @@
         <v>1.29</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU94" t="n">
         <v>1.93</v>
@@ -19782,7 +19782,7 @@
         <v>1.67</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU95" t="n">
         <v>1.86</v>
@@ -19982,10 +19982,10 @@
         <v>1.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU96" t="n">
         <v>1.3</v>
@@ -20188,7 +20188,7 @@
         <v>1.86</v>
       </c>
       <c r="AT97" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU97" t="n">
         <v>1.23</v>
@@ -20594,7 +20594,7 @@
         <v>1.14</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU99" t="n">
         <v>1.98</v>
@@ -20797,7 +20797,7 @@
         <v>1.43</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU100" t="n">
         <v>1.42</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT101" t="n">
         <v>1.67</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT103" t="n">
         <v>0.71</v>
@@ -21606,10 +21606,10 @@
         <v>0.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -21812,7 +21812,7 @@
         <v>1.57</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU105" t="n">
         <v>1.05</v>
@@ -22218,7 +22218,7 @@
         <v>1</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU107" t="n">
         <v>1.53</v>
@@ -22421,7 +22421,7 @@
         <v>2.33</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU108" t="n">
         <v>1.71</v>
@@ -22621,7 +22621,7 @@
         <v>3</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT109" t="n">
         <v>1.17</v>
@@ -22824,7 +22824,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT110" t="n">
         <v>1.38</v>
@@ -23030,7 +23030,7 @@
         <v>1.5</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU111" t="n">
         <v>1.27</v>
@@ -23233,7 +23233,7 @@
         <v>1.83</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU112" t="n">
         <v>1.59</v>
@@ -23436,7 +23436,7 @@
         <v>2.57</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.44</v>
@@ -23636,7 +23636,7 @@
         <v>2</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT114" t="n">
         <v>1</v>
@@ -23842,7 +23842,7 @@
         <v>2.29</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU115" t="n">
         <v>1.34</v>
@@ -24245,7 +24245,7 @@
         <v>0</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT117" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0.5</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT118" t="n">
         <v>0.57</v>
@@ -24651,7 +24651,7 @@
         <v>0.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT119" t="n">
         <v>0.67</v>
@@ -24857,7 +24857,7 @@
         <v>2.43</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU120" t="n">
         <v>2.05</v>
@@ -25057,7 +25057,7 @@
         <v>0.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT121" t="n">
         <v>0.86</v>
@@ -25260,7 +25260,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT122" t="n">
         <v>0.67</v>
@@ -25463,7 +25463,7 @@
         <v>0.33</v>
       </c>
       <c r="AS123" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT123" t="n">
         <v>1.57</v>
@@ -25666,7 +25666,7 @@
         <v>1.67</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT124" t="n">
         <v>1.5</v>
@@ -25869,7 +25869,7 @@
         <v>1.67</v>
       </c>
       <c r="AS125" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT125" t="n">
         <v>1.57</v>
@@ -26075,7 +26075,7 @@
         <v>2.71</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU126" t="n">
         <v>1.36</v>
@@ -26278,7 +26278,7 @@
         <v>1.43</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU127" t="n">
         <v>1.51</v>
@@ -26481,7 +26481,7 @@
         <v>1.86</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU128" t="n">
         <v>1.31</v>
@@ -26684,7 +26684,7 @@
         <v>1.29</v>
       </c>
       <c r="AT129" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU129" t="n">
         <v>1.51</v>
@@ -27087,7 +27087,7 @@
         <v>0</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT131" t="n">
         <v>1.14</v>
@@ -27493,10 +27493,10 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU133" t="n">
         <v>1.41</v>
@@ -27699,7 +27699,7 @@
         <v>1.67</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU134" t="n">
         <v>1.41</v>
@@ -27899,7 +27899,7 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT135" t="n">
         <v>0.67</v>
@@ -28105,7 +28105,7 @@
         <v>2.17</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU136" t="n">
         <v>1.88</v>
@@ -28711,7 +28711,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT139" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         <v>2.57</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU140" t="n">
         <v>1.5</v>
@@ -29526,7 +29526,7 @@
         <v>2.29</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU143" t="n">
         <v>1.15</v>
@@ -29726,7 +29726,7 @@
         <v>0.67</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT144" t="n">
         <v>0.57</v>
@@ -29932,7 +29932,7 @@
         <v>1</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU145" t="n">
         <v>2.4</v>
@@ -30132,10 +30132,10 @@
         <v>0.33</v>
       </c>
       <c r="AS146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT146" t="n">
         <v>1.14</v>
-      </c>
-      <c r="AT146" t="n">
-        <v>0.83</v>
       </c>
       <c r="AU146" t="n">
         <v>1.41</v>
@@ -30335,10 +30335,10 @@
         <v>1</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU147" t="n">
         <v>1.8</v>
@@ -30541,7 +30541,7 @@
         <v>1.14</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU148" t="n">
         <v>1.77</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT149" t="n">
         <v>1.29</v>
@@ -31147,10 +31147,10 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU151" t="n">
         <v>1.46</v>
@@ -31350,7 +31350,7 @@
         <v>1.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT152" t="n">
         <v>1.5</v>
@@ -31556,7 +31556,7 @@
         <v>1.5</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU153" t="n">
         <v>1.46</v>
@@ -31756,7 +31756,7 @@
         <v>1.33</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT154" t="n">
         <v>1.67</v>
@@ -31959,10 +31959,10 @@
         <v>1</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU155" t="n">
         <v>1.24</v>
@@ -32165,7 +32165,7 @@
         <v>2.71</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU156" t="n">
         <v>1.25</v>
@@ -32368,7 +32368,7 @@
         <v>2.43</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU157" t="n">
         <v>1.84</v>
@@ -32568,7 +32568,7 @@
         <v>1</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT158" t="n">
         <v>0.86</v>
@@ -32774,7 +32774,7 @@
         <v>1.29</v>
       </c>
       <c r="AT159" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU159" t="n">
         <v>1.42</v>
@@ -32974,10 +32974,10 @@
         <v>0.75</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU160" t="n">
         <v>1.2</v>
@@ -33177,7 +33177,7 @@
         <v>0.25</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT161" t="n">
         <v>1.14</v>
@@ -33380,10 +33380,10 @@
         <v>1.25</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT162" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU162" t="n">
         <v>1.5</v>
@@ -33786,7 +33786,7 @@
         <v>0.67</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT164" t="n">
         <v>0.67</v>
@@ -33992,7 +33992,7 @@
         <v>1.86</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU165" t="n">
         <v>1.38</v>
@@ -34601,7 +34601,7 @@
         <v>2.33</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU168" t="n">
         <v>1.65</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT170" t="n">
         <v>1.57</v>
@@ -35207,7 +35207,7 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT171" t="n">
         <v>0.67</v>
@@ -35819,7 +35819,7 @@
         <v>1.67</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU174" t="n">
         <v>1.41</v>
@@ -36019,7 +36019,7 @@
         <v>2</v>
       </c>
       <c r="AS175" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT175" t="n">
         <v>1.17</v>
@@ -36225,7 +36225,7 @@
         <v>1.14</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU176" t="n">
         <v>1.81</v>
@@ -36628,7 +36628,7 @@
         <v>1.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT178" t="n">
         <v>1.29</v>
@@ -37237,10 +37237,10 @@
         <v>1</v>
       </c>
       <c r="AS181" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU181" t="n">
         <v>1.72</v>
@@ -37443,7 +37443,7 @@
         <v>1.88</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU182" t="n">
         <v>1.1</v>
@@ -37643,10 +37643,10 @@
         <v>0.6</v>
       </c>
       <c r="AS183" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU183" t="n">
         <v>1.69</v>
@@ -37846,7 +37846,7 @@
         <v>0</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT184" t="n">
         <v>0</v>
@@ -38049,10 +38049,10 @@
         <v>0.8</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU185" t="n">
         <v>1.3</v>
@@ -38252,7 +38252,7 @@
         <v>2</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT186" t="n">
         <v>1.5</v>
@@ -38458,7 +38458,7 @@
         <v>1.29</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU187" t="n">
         <v>1.43</v>
@@ -38658,7 +38658,7 @@
         <v>1</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT188" t="n">
         <v>1.67</v>
@@ -38861,7 +38861,7 @@
         <v>0.8</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT189" t="n">
         <v>0.86</v>
@@ -39067,7 +39067,7 @@
         <v>2.71</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU190" t="n">
         <v>1.31</v>
@@ -39267,10 +39267,10 @@
         <v>1.5</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU191" t="n">
         <v>1.66</v>
@@ -39470,10 +39470,10 @@
         <v>0.8</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU192" t="n">
         <v>1.28</v>
@@ -39673,10 +39673,10 @@
         <v>1.2</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT193" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU193" t="n">
         <v>1.16</v>
@@ -39876,10 +39876,10 @@
         <v>0.8</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT194" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU194" t="n">
         <v>1.46</v>
@@ -40079,7 +40079,7 @@
         <v>0</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT195" t="n">
         <v>0</v>
@@ -40282,10 +40282,10 @@
         <v>1</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU196" t="n">
         <v>1.78</v>
@@ -40691,7 +40691,7 @@
         <v>1.83</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU198" t="n">
         <v>1.87</v>
@@ -41094,7 +41094,7 @@
         <v>1.25</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT200" t="n">
         <v>1.5</v>
@@ -41300,7 +41300,7 @@
         <v>2.43</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU201" t="n">
         <v>1.97</v>
@@ -41906,7 +41906,7 @@
         <v>1.75</v>
       </c>
       <c r="AS204" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT204" t="n">
         <v>1.17</v>
@@ -42112,7 +42112,7 @@
         <v>1.43</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU205" t="n">
         <v>1.3</v>
@@ -42518,7 +42518,7 @@
         <v>1</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU207" t="n">
         <v>2.2</v>
@@ -43936,7 +43936,7 @@
         <v>0.4</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT214" t="n">
         <v>1.14</v>
@@ -44548,7 +44548,7 @@
         <v>1.88</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU217" t="n">
         <v>1.2</v>
@@ -44748,10 +44748,10 @@
         <v>1.33</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU218" t="n">
         <v>1.48</v>
@@ -44954,7 +44954,7 @@
         <v>2.71</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU219" t="n">
         <v>1.26</v>
@@ -45154,10 +45154,10 @@
         <v>1</v>
       </c>
       <c r="AS220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT220" t="n">
         <v>1.14</v>
-      </c>
-      <c r="AT220" t="n">
-        <v>0.83</v>
       </c>
       <c r="AU220" t="n">
         <v>1.4</v>
@@ -45357,10 +45357,10 @@
         <v>1.8</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU221" t="n">
         <v>1.48</v>
@@ -45560,7 +45560,7 @@
         <v>0</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT222" t="n">
         <v>0</v>
@@ -45763,7 +45763,7 @@
         <v>1.17</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT223" t="n">
         <v>0.88</v>
@@ -45966,10 +45966,10 @@
         <v>0.17</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU224" t="n">
         <v>1.34</v>
@@ -46169,7 +46169,7 @@
         <v>0.83</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT225" t="n">
         <v>0.86</v>
@@ -46375,7 +46375,7 @@
         <v>1.83</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU226" t="n">
         <v>1.71</v>
@@ -46575,10 +46575,10 @@
         <v>0.67</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU227" t="n">
         <v>1.26</v>
@@ -46778,10 +46778,10 @@
         <v>0.67</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT228" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU228" t="n">
         <v>1.19</v>
@@ -46981,10 +46981,10 @@
         <v>0.67</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU229" t="n">
         <v>1.33</v>
@@ -47184,10 +47184,10 @@
         <v>0.83</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU230" t="n">
         <v>1.51</v>
@@ -47387,10 +47387,10 @@
         <v>0.83</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU231" t="n">
         <v>1.55</v>
@@ -47590,10 +47590,10 @@
         <v>1</v>
       </c>
       <c r="AS232" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT232" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU232" t="n">
         <v>1.75</v>
@@ -47793,7 +47793,7 @@
         <v>0</v>
       </c>
       <c r="AS233" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT233" t="n">
         <v>0</v>
@@ -47996,10 +47996,10 @@
         <v>2</v>
       </c>
       <c r="AS234" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU234" t="n">
         <v>1.39</v>
@@ -49420,7 +49420,7 @@
         <v>1.43</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU241" t="n">
         <v>1.26</v>
@@ -49823,7 +49823,7 @@
         <v>1.4</v>
       </c>
       <c r="AS243" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT243" t="n">
         <v>1.67</v>
@@ -51907,6 +51907,3457 @@
         <v>10</v>
       </c>
       <c r="BK253" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>5068023</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45059.57291666666</v>
+      </c>
+      <c r="F254" t="n">
+        <v>16</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Deportivo Morón</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>1</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>1</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>6</v>
+      </c>
+      <c r="R254" t="n">
+        <v>1</v>
+      </c>
+      <c r="S254" t="n">
+        <v>7</v>
+      </c>
+      <c r="T254" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U254" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V254" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X254" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>5067991</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45059.625</v>
+      </c>
+      <c r="F255" t="n">
+        <v>14</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Deportivo Maipú</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>1</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="n">
+        <v>2</v>
+      </c>
+      <c r="M255" t="n">
+        <v>3</v>
+      </c>
+      <c r="N255" t="n">
+        <v>5</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['38', '73']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['50', '62', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>2</v>
+      </c>
+      <c r="R255" t="n">
+        <v>4</v>
+      </c>
+      <c r="S255" t="n">
+        <v>6</v>
+      </c>
+      <c r="T255" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U255" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V255" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X255" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>5068020</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45059.64583333334</v>
+      </c>
+      <c r="F256" t="n">
+        <v>16</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>1</v>
+      </c>
+      <c r="K256" t="n">
+        <v>2</v>
+      </c>
+      <c r="L256" t="n">
+        <v>2</v>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="n">
+        <v>3</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>['8', '49']</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>8</v>
+      </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
+      <c r="S256" t="n">
+        <v>8</v>
+      </c>
+      <c r="T256" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U256" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V256" t="n">
+        <v>5</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X256" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>5068025</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>45059.64583333334</v>
+      </c>
+      <c r="F257" t="n">
+        <v>16</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Defensores de Belgrano</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Estudiantes Río Cuarto</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>4</v>
+      </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
+      <c r="S257" t="n">
+        <v>4</v>
+      </c>
+      <c r="T257" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U257" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V257" t="n">
+        <v>4</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X257" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>5068021</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45059.74652777778</v>
+      </c>
+      <c r="F258" t="n">
+        <v>16</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Patronato</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Temperley</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>1</v>
+      </c>
+      <c r="J258" t="n">
+        <v>1</v>
+      </c>
+      <c r="K258" t="n">
+        <v>2</v>
+      </c>
+      <c r="L258" t="n">
+        <v>3</v>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="n">
+        <v>4</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>['33', '67', '90+1']</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>4</v>
+      </c>
+      <c r="R258" t="n">
+        <v>6</v>
+      </c>
+      <c r="S258" t="n">
+        <v>10</v>
+      </c>
+      <c r="T258" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U258" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V258" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X258" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>5067992</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45059.75</v>
+      </c>
+      <c r="F259" t="n">
+        <v>14</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Atlético Rafaela</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1</v>
+      </c>
+      <c r="K259" t="n">
+        <v>2</v>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="n">
+        <v>3</v>
+      </c>
+      <c r="N259" t="n">
+        <v>4</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>['1', '57', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>9</v>
+      </c>
+      <c r="R259" t="n">
+        <v>1</v>
+      </c>
+      <c r="S259" t="n">
+        <v>10</v>
+      </c>
+      <c r="T259" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U259" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V259" t="n">
+        <v>4</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X259" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>5067990</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45059.75</v>
+      </c>
+      <c r="F260" t="n">
+        <v>14</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Villa Dálmine</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1</v>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>10</v>
+      </c>
+      <c r="R260" t="n">
+        <v>5</v>
+      </c>
+      <c r="S260" t="n">
+        <v>15</v>
+      </c>
+      <c r="T260" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U260" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V260" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X260" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>5068024</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45059.75694444445</v>
+      </c>
+      <c r="F261" t="n">
+        <v>16</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Almirante Brown</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>All Boys</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>2</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>2</v>
+      </c>
+      <c r="L261" t="n">
+        <v>3</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>3</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>['2', '27', '85']</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>4</v>
+      </c>
+      <c r="R261" t="n">
+        <v>7</v>
+      </c>
+      <c r="S261" t="n">
+        <v>11</v>
+      </c>
+      <c r="T261" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U261" t="n">
+        <v>2</v>
+      </c>
+      <c r="V261" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X261" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>5067995</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45059.83333333334</v>
+      </c>
+      <c r="F262" t="n">
+        <v>14</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Quilmes</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Chacarita Juniors</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1</v>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="n">
+        <v>2</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>2</v>
+      </c>
+      <c r="R262" t="n">
+        <v>6</v>
+      </c>
+      <c r="S262" t="n">
+        <v>8</v>
+      </c>
+      <c r="T262" t="n">
+        <v>3</v>
+      </c>
+      <c r="U262" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V262" t="n">
+        <v>4</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X262" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>5067994</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45060.45833333334</v>
+      </c>
+      <c r="F263" t="n">
+        <v>14</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Brown de Adrogué</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Club Atlético Mitre</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>3</v>
+      </c>
+      <c r="R263" t="n">
+        <v>2</v>
+      </c>
+      <c r="S263" t="n">
+        <v>5</v>
+      </c>
+      <c r="T263" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U263" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V263" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X263" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>5068018</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45060.64583333334</v>
+      </c>
+      <c r="F264" t="n">
+        <v>16</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Flandria</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Agropecuario</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>2</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>2</v>
+      </c>
+      <c r="L264" t="n">
+        <v>2</v>
+      </c>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="n">
+        <v>3</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['7', '30']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>9</v>
+      </c>
+      <c r="R264" t="n">
+        <v>6</v>
+      </c>
+      <c r="S264" t="n">
+        <v>15</v>
+      </c>
+      <c r="T264" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U264" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V264" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X264" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>5068019</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45060.6875</v>
+      </c>
+      <c r="F265" t="n">
+        <v>16</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Alvarado</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>2</v>
+      </c>
+      <c r="R265" t="n">
+        <v>4</v>
+      </c>
+      <c r="S265" t="n">
+        <v>6</v>
+      </c>
+      <c r="T265" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U265" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V265" t="n">
+        <v>4</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X265" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>5067997</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45060.69097222222</v>
+      </c>
+      <c r="F266" t="n">
+        <v>14</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Ferro Carril Oeste</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="n">
+        <v>2</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>2</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>['9', '46']</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>2</v>
+      </c>
+      <c r="R266" t="n">
+        <v>4</v>
+      </c>
+      <c r="S266" t="n">
+        <v>6</v>
+      </c>
+      <c r="T266" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U266" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V266" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X266" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>5067998</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45061.64583333334</v>
+      </c>
+      <c r="F267" t="n">
+        <v>14</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Racing Córdoba</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>2</v>
+      </c>
+      <c r="M267" t="n">
+        <v>2</v>
+      </c>
+      <c r="N267" t="n">
+        <v>4</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>['50', '84']</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>['46', '55']</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>2</v>
+      </c>
+      <c r="R267" t="n">
+        <v>1</v>
+      </c>
+      <c r="S267" t="n">
+        <v>3</v>
+      </c>
+      <c r="T267" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U267" t="n">
+        <v>2</v>
+      </c>
+      <c r="V267" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X267" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>5068022</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45061.79166666666</v>
+      </c>
+      <c r="F268" t="n">
+        <v>16</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Club Atlético Güemes</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>San Martín Tucumán</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="n">
+        <v>1</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>5</v>
+      </c>
+      <c r="R268" t="n">
+        <v>1</v>
+      </c>
+      <c r="S268" t="n">
+        <v>6</v>
+      </c>
+      <c r="T268" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U268" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V268" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X268" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>5067993</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45061.88194444445</v>
+      </c>
+      <c r="F269" t="n">
+        <v>14</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Estudiantes Caseros</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Chaco For Ever</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>3</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>3</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>['62', '67', '90+2']</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q269" t="n">
+        <v>3</v>
+      </c>
+      <c r="R269" t="n">
+        <v>4</v>
+      </c>
+      <c r="S269" t="n">
+        <v>7</v>
+      </c>
+      <c r="T269" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U269" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V269" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W269" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X269" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF269" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>5068017</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45061.89583333334</v>
+      </c>
+      <c r="F270" t="n">
+        <v>16</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>San Martín San Juan</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Guillermo Brown</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>1</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="n">
+        <v>2</v>
+      </c>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="n">
+        <v>3</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>['39', '84']</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>6</v>
+      </c>
+      <c r="R270" t="n">
+        <v>3</v>
+      </c>
+      <c r="S270" t="n">
+        <v>9</v>
+      </c>
+      <c r="T270" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U270" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V270" t="n">
+        <v>6</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X270" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK270" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK270"/>
+  <dimension ref="A1:BK280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT11" t="n">
         <v>1.5</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT16" t="n">
         <v>0.86</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT17" t="n">
         <v>0.5</v>
@@ -4760,7 +4760,7 @@
         <v>1.75</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.29</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>2.38</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT28" t="n">
         <v>1.14</v>
@@ -6384,7 +6384,7 @@
         <v>1.29</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU29" t="n">
         <v>1.64</v>
@@ -7399,7 +7399,7 @@
         <v>1.14</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT41" t="n">
         <v>1.5</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT45" t="n">
         <v>0.88</v>
@@ -9835,7 +9835,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT47" t="n">
         <v>0.75</v>
@@ -10444,7 +10444,7 @@
         <v>1.38</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU49" t="n">
         <v>1.69</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT51" t="n">
         <v>0.5</v>
@@ -11256,7 +11256,7 @@
         <v>1.75</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU53" t="n">
         <v>1.29</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT55" t="n">
         <v>0.88</v>
@@ -11865,7 +11865,7 @@
         <v>1.88</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU56" t="n">
         <v>1.23</v>
@@ -12271,7 +12271,7 @@
         <v>1.29</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU58" t="n">
         <v>2.6</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT59" t="n">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT60" t="n">
         <v>1.14</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT63" t="n">
         <v>0.88</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT64" t="n">
         <v>0.86</v>
@@ -13692,7 +13692,7 @@
         <v>1.71</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU65" t="n">
         <v>2.27</v>
@@ -13895,7 +13895,7 @@
         <v>1.83</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU66" t="n">
         <v>1.8</v>
@@ -14298,7 +14298,7 @@
         <v>0.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT68" t="n">
         <v>0.5</v>
@@ -15519,7 +15519,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU74" t="n">
         <v>1.12</v>
@@ -17143,7 +17143,7 @@
         <v>1.29</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU82" t="n">
         <v>1.49</v>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU84" t="n">
         <v>1.39</v>
@@ -17752,7 +17752,7 @@
         <v>1.63</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU85" t="n">
         <v>1.84</v>
@@ -17952,7 +17952,7 @@
         <v>0.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT86" t="n">
         <v>0.86</v>
@@ -18158,7 +18158,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU87" t="n">
         <v>0.83</v>
@@ -18361,7 +18361,7 @@
         <v>1.88</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU88" t="n">
         <v>1.14</v>
@@ -18561,7 +18561,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT89" t="n">
         <v>0.75</v>
@@ -18767,7 +18767,7 @@
         <v>1.75</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU90" t="n">
         <v>1.63</v>
@@ -19779,7 +19779,7 @@
         <v>2</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT95" t="n">
         <v>1.75</v>
@@ -20185,7 +20185,7 @@
         <v>0.5</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT97" t="n">
         <v>0.88</v>
@@ -20388,7 +20388,7 @@
         <v>0</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT98" t="n">
         <v>0.88</v>
@@ -20591,7 +20591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT99" t="n">
         <v>0.88</v>
@@ -20794,7 +20794,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT100" t="n">
         <v>0.88</v>
@@ -21000,7 +21000,7 @@
         <v>1.14</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU101" t="n">
         <v>1.4</v>
@@ -21203,7 +21203,7 @@
         <v>1.88</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU102" t="n">
         <v>1.2</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT106" t="n">
         <v>1.13</v>
@@ -22827,7 +22827,7 @@
         <v>1.75</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU110" t="n">
         <v>1.5</v>
@@ -23433,7 +23433,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT113" t="n">
         <v>0.5</v>
@@ -24451,7 +24451,7 @@
         <v>1.5</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.26</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT121" t="n">
         <v>0.88</v>
@@ -25466,7 +25466,7 @@
         <v>1.29</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU123" t="n">
         <v>1.69</v>
@@ -25872,7 +25872,7 @@
         <v>1.5</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU125" t="n">
         <v>1.18</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT126" t="n">
         <v>0.88</v>
@@ -26275,7 +26275,7 @@
         <v>1.33</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT127" t="n">
         <v>0.75</v>
@@ -26478,7 +26478,7 @@
         <v>1.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT128" t="n">
         <v>1.75</v>
@@ -27290,7 +27290,7 @@
         <v>1</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT132" t="n">
         <v>1.13</v>
@@ -27699,7 +27699,7 @@
         <v>2</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU134" t="n">
         <v>1.6</v>
@@ -27902,7 +27902,7 @@
         <v>1.75</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU135" t="n">
         <v>1.95</v>
@@ -28102,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT136" t="n">
         <v>0.75</v>
@@ -28305,7 +28305,7 @@
         <v>0.75</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT137" t="n">
         <v>0.5</v>
@@ -28511,7 +28511,7 @@
         <v>1</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU138" t="n">
         <v>1.42</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT140" t="n">
         <v>1.13</v>
@@ -29729,7 +29729,7 @@
         <v>1.75</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU144" t="n">
         <v>1.35</v>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT148" t="n">
         <v>0.75</v>
@@ -30744,7 +30744,7 @@
         <v>1.5</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU149" t="n">
         <v>1.26</v>
@@ -31353,7 +31353,7 @@
         <v>1.63</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU152" t="n">
         <v>1.34</v>
@@ -31759,7 +31759,7 @@
         <v>2.38</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU154" t="n">
         <v>1.75</v>
@@ -32162,7 +32162,7 @@
         <v>1</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT156" t="n">
         <v>0.88</v>
@@ -32365,7 +32365,7 @@
         <v>0.25</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT157" t="n">
         <v>0.5</v>
@@ -33786,7 +33786,7 @@
         <v>1.2</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT164" t="n">
         <v>1.13</v>
@@ -34192,7 +34192,7 @@
         <v>1.5</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT166" t="n">
         <v>0.88</v>
@@ -34398,7 +34398,7 @@
         <v>1</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU167" t="n">
         <v>1.36</v>
@@ -34598,7 +34598,7 @@
         <v>1.25</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT168" t="n">
         <v>1.57</v>
@@ -35007,7 +35007,7 @@
         <v>1.88</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU170" t="n">
         <v>1.48</v>
@@ -35210,7 +35210,7 @@
         <v>1.75</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU171" t="n">
         <v>1.54</v>
@@ -35413,7 +35413,7 @@
         <v>2.29</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU172" t="n">
         <v>1.14</v>
@@ -35816,10 +35816,10 @@
         <v>1</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU174" t="n">
         <v>1.53</v>
@@ -36222,7 +36222,7 @@
         <v>1.2</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT176" t="n">
         <v>1.13</v>
@@ -36425,7 +36425,7 @@
         <v>0.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT177" t="n">
         <v>0.71</v>
@@ -36631,7 +36631,7 @@
         <v>1.75</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU178" t="n">
         <v>1.35</v>
@@ -37034,7 +37034,7 @@
         <v>0.8</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT180" t="n">
         <v>0.5</v>
@@ -37849,7 +37849,7 @@
         <v>1.5</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU184" t="n">
         <v>1.33</v>
@@ -38864,7 +38864,7 @@
         <v>1.38</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU189" t="n">
         <v>1.42</v>
@@ -39064,7 +39064,7 @@
         <v>0.2</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT190" t="n">
         <v>0.5</v>
@@ -40894,7 +40894,7 @@
         <v>1.88</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU199" t="n">
         <v>1.88</v>
@@ -41097,7 +41097,7 @@
         <v>1</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU200" t="n">
         <v>1.35</v>
@@ -41297,7 +41297,7 @@
         <v>1.5</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT201" t="n">
         <v>1.13</v>
@@ -41500,7 +41500,7 @@
         <v>1.2</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT202" t="n">
         <v>1</v>
@@ -41706,7 +41706,7 @@
         <v>2.33</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU203" t="n">
         <v>1.69</v>
@@ -42109,7 +42109,7 @@
         <v>1</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT205" t="n">
         <v>1.13</v>
@@ -42315,7 +42315,7 @@
         <v>1</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU206" t="n">
         <v>1.42</v>
@@ -42515,10 +42515,10 @@
         <v>1.33</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU207" t="n">
         <v>1.98</v>
@@ -42921,7 +42921,7 @@
         <v>0.67</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT209" t="n">
         <v>0.5</v>
@@ -43530,7 +43530,7 @@
         <v>0.75</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT212" t="n">
         <v>0.67</v>
@@ -43733,10 +43733,10 @@
         <v>1</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU213" t="n">
         <v>1.68</v>
@@ -44139,7 +44139,7 @@
         <v>0.4</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT215" t="n">
         <v>0.71</v>
@@ -44345,7 +44345,7 @@
         <v>2.29</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU216" t="n">
         <v>1.17</v>
@@ -45154,7 +45154,7 @@
         <v>1.5</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT220" t="n">
         <v>1.13</v>
@@ -48199,7 +48199,7 @@
         <v>0.83</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT235" t="n">
         <v>0.71</v>
@@ -48605,10 +48605,10 @@
         <v>1.33</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU237" t="n">
         <v>1.4</v>
@@ -48808,10 +48808,10 @@
         <v>0.5</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU238" t="n">
         <v>1.89</v>
@@ -49214,10 +49214,10 @@
         <v>1.57</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU240" t="n">
         <v>1.95</v>
@@ -49417,7 +49417,7 @@
         <v>0.83</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT241" t="n">
         <v>0.75</v>
@@ -49826,7 +49826,7 @@
         <v>1.75</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU243" t="n">
         <v>1.41</v>
@@ -50026,7 +50026,7 @@
         <v>1.4</v>
       </c>
       <c r="AS244" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT244" t="n">
         <v>1.17</v>
@@ -50232,7 +50232,7 @@
         <v>1.88</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU245" t="n">
         <v>1.82</v>
@@ -50635,7 +50635,7 @@
         <v>1.17</v>
       </c>
       <c r="AS247" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT247" t="n">
         <v>1</v>
@@ -50841,7 +50841,7 @@
         <v>2</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU248" t="n">
         <v>1.74</v>
@@ -51041,7 +51041,7 @@
         <v>0.6</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT249" t="n">
         <v>0.67</v>
@@ -51247,7 +51247,7 @@
         <v>1.67</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU250" t="n">
         <v>1.64</v>
@@ -51450,7 +51450,7 @@
         <v>2.29</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU251" t="n">
         <v>1.2</v>
@@ -51653,7 +51653,7 @@
         <v>1.5</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU252" t="n">
         <v>1.53</v>
@@ -55359,6 +55359,2036 @@
       </c>
       <c r="BK270" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>5068036</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45066.45833333334</v>
+      </c>
+      <c r="F271" t="n">
+        <v>17</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Almirante Brown</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>2</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>2</v>
+      </c>
+      <c r="L271" t="n">
+        <v>3</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>3</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>['4', '45', '90+4']</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>4</v>
+      </c>
+      <c r="R271" t="n">
+        <v>5</v>
+      </c>
+      <c r="S271" t="n">
+        <v>9</v>
+      </c>
+      <c r="T271" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2</v>
+      </c>
+      <c r="V271" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X271" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>5068040</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45066.58333333334</v>
+      </c>
+      <c r="F272" t="n">
+        <v>17</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>5</v>
+      </c>
+      <c r="R272" t="n">
+        <v>4</v>
+      </c>
+      <c r="S272" t="n">
+        <v>9</v>
+      </c>
+      <c r="T272" t="n">
+        <v>3</v>
+      </c>
+      <c r="U272" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V272" t="n">
+        <v>4</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X272" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>5068039</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45066.58333333334</v>
+      </c>
+      <c r="F273" t="n">
+        <v>17</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Patronato</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
+      <c r="K273" t="n">
+        <v>2</v>
+      </c>
+      <c r="L273" t="n">
+        <v>3</v>
+      </c>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="n">
+        <v>4</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>['31', '46', '55']</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>4</v>
+      </c>
+      <c r="R273" t="n">
+        <v>7</v>
+      </c>
+      <c r="S273" t="n">
+        <v>11</v>
+      </c>
+      <c r="T273" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V273" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X273" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>5068038</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45066.58333333334</v>
+      </c>
+      <c r="F274" t="n">
+        <v>17</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Temperley</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Club Atlético Güemes</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>2</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>2</v>
+      </c>
+      <c r="L274" t="n">
+        <v>3</v>
+      </c>
+      <c r="M274" t="n">
+        <v>3</v>
+      </c>
+      <c r="N274" t="n">
+        <v>6</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['7', '25', '72']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>['53', '74', '89']</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>2</v>
+      </c>
+      <c r="R274" t="n">
+        <v>5</v>
+      </c>
+      <c r="S274" t="n">
+        <v>7</v>
+      </c>
+      <c r="T274" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U274" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V274" t="n">
+        <v>5</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X274" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>5068008</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45066.58333333334</v>
+      </c>
+      <c r="F275" t="n">
+        <v>15</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
+      <c r="K275" t="n">
+        <v>2</v>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="n">
+        <v>2</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>5</v>
+      </c>
+      <c r="R275" t="n">
+        <v>2</v>
+      </c>
+      <c r="S275" t="n">
+        <v>7</v>
+      </c>
+      <c r="T275" t="n">
+        <v>3</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V275" t="n">
+        <v>4</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X275" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>5068041</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45066.58333333334</v>
+      </c>
+      <c r="F276" t="n">
+        <v>17</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Agropecuario</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Alvarado</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>2</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>2</v>
+      </c>
+      <c r="L276" t="n">
+        <v>3</v>
+      </c>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="N276" t="n">
+        <v>4</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>['30', '39', '90+3']</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>5</v>
+      </c>
+      <c r="R276" t="n">
+        <v>3</v>
+      </c>
+      <c r="S276" t="n">
+        <v>8</v>
+      </c>
+      <c r="T276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V276" t="n">
+        <v>5</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X276" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>5068043</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45066.58333333334</v>
+      </c>
+      <c r="F277" t="n">
+        <v>17</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Defensores Unidos</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>San Martín San Juan</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>4</v>
+      </c>
+      <c r="R277" t="n">
+        <v>2</v>
+      </c>
+      <c r="S277" t="n">
+        <v>6</v>
+      </c>
+      <c r="T277" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2</v>
+      </c>
+      <c r="V277" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X277" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>5068014</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45066.89583333334</v>
+      </c>
+      <c r="F278" t="n">
+        <v>15</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Chaco For Ever</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Atlético Rafaela</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="n">
+        <v>1</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>10</v>
+      </c>
+      <c r="R278" t="n">
+        <v>2</v>
+      </c>
+      <c r="S278" t="n">
+        <v>12</v>
+      </c>
+      <c r="T278" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V278" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X278" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>5068015</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45066.89583333334</v>
+      </c>
+      <c r="F279" t="n">
+        <v>15</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>1</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>4</v>
+      </c>
+      <c r="R279" t="n">
+        <v>3</v>
+      </c>
+      <c r="S279" t="n">
+        <v>7</v>
+      </c>
+      <c r="T279" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U279" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V279" t="n">
+        <v>5</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X279" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>5068011</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45066.90625</v>
+      </c>
+      <c r="F280" t="n">
+        <v>15</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Quilmes</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>8</v>
+      </c>
+      <c r="R280" t="n">
+        <v>5</v>
+      </c>
+      <c r="S280" t="n">
+        <v>13</v>
+      </c>
+      <c r="T280" t="n">
+        <v>4</v>
+      </c>
+      <c r="U280" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V280" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X280" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK280"/>
+  <dimension ref="A1:BK285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT22" t="n">
         <v>0.75</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT24" t="n">
         <v>1.5</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>2.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>1.83</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT35" t="n">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>1.71</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>1.75</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU37" t="n">
         <v>1.11</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT40" t="n">
         <v>1.86</v>
@@ -12268,7 +12268,7 @@
         <v>3</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT58" t="n">
         <v>1.29</v>
@@ -12677,7 +12677,7 @@
         <v>2.5</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.64</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT61" t="n">
         <v>1.75</v>
@@ -14501,7 +14501,7 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT69" t="n">
         <v>1.5</v>
@@ -14910,7 +14910,7 @@
         <v>1.88</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU71" t="n">
         <v>1.29</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT72" t="n">
         <v>0</v>
@@ -15316,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU73" t="n">
         <v>1.46</v>
@@ -15722,7 +15722,7 @@
         <v>1.14</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.63</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT78" t="n">
         <v>0.88</v>
@@ -19170,7 +19170,7 @@
         <v>1.5</v>
       </c>
       <c r="AS92" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT92" t="n">
         <v>1.13</v>
@@ -19373,7 +19373,7 @@
         <v>0</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT93" t="n">
         <v>0.5</v>
@@ -19579,7 +19579,7 @@
         <v>1.75</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU94" t="n">
         <v>1.03</v>
@@ -21406,7 +21406,7 @@
         <v>1.88</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU103" t="n">
         <v>1.52</v>
@@ -22418,7 +22418,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT108" t="n">
         <v>0.88</v>
@@ -22624,7 +22624,7 @@
         <v>2.38</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU109" t="n">
         <v>1.87</v>
@@ -23839,7 +23839,7 @@
         <v>1.33</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT115" t="n">
         <v>0.75</v>
@@ -24654,7 +24654,7 @@
         <v>1.38</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU119" t="n">
         <v>1.33</v>
@@ -26681,7 +26681,7 @@
         <v>0.67</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT129" t="n">
         <v>0.88</v>
@@ -26884,7 +26884,7 @@
         <v>1</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT130" t="n">
         <v>0.88</v>
@@ -27090,7 +27090,7 @@
         <v>1.75</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU131" t="n">
         <v>1.56</v>
@@ -27696,7 +27696,7 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT134" t="n">
         <v>0.75</v>
@@ -29120,7 +29120,7 @@
         <v>1.88</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU141" t="n">
         <v>2.02</v>
@@ -29523,7 +29523,7 @@
         <v>0.75</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT143" t="n">
         <v>1.13</v>
@@ -32771,7 +32771,7 @@
         <v>0.75</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT159" t="n">
         <v>0.88</v>
@@ -33180,7 +33180,7 @@
         <v>1</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU161" t="n">
         <v>1.58</v>
@@ -33583,7 +33583,7 @@
         <v>1</v>
       </c>
       <c r="AS163" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT163" t="n">
         <v>0.67</v>
@@ -33992,7 +33992,7 @@
         <v>1</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU165" t="n">
         <v>1.32</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT169" t="n">
         <v>1.13</v>
@@ -35410,7 +35410,7 @@
         <v>1.6</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT172" t="n">
         <v>1.33</v>
@@ -35613,7 +35613,7 @@
         <v>1</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT173" t="n">
         <v>0.75</v>
@@ -36022,7 +36022,7 @@
         <v>1.75</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU175" t="n">
         <v>1.81</v>
@@ -36428,7 +36428,7 @@
         <v>1.75</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU177" t="n">
         <v>1.34</v>
@@ -38455,7 +38455,7 @@
         <v>0.8</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT187" t="n">
         <v>0.75</v>
@@ -41703,7 +41703,7 @@
         <v>0.8</v>
       </c>
       <c r="AS203" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT203" t="n">
         <v>0.75</v>
@@ -41909,7 +41909,7 @@
         <v>1.75</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU204" t="n">
         <v>1.36</v>
@@ -43124,7 +43124,7 @@
         <v>1</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT210" t="n">
         <v>1.57</v>
@@ -43327,10 +43327,10 @@
         <v>0.75</v>
       </c>
       <c r="AS211" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU211" t="n">
         <v>1.78</v>
@@ -43939,7 +43939,7 @@
         <v>1.75</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU214" t="n">
         <v>1.36</v>
@@ -44142,7 +44142,7 @@
         <v>2.38</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU215" t="n">
         <v>1.57</v>
@@ -44342,7 +44342,7 @@
         <v>0.6</v>
       </c>
       <c r="AS216" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT216" t="n">
         <v>0.5</v>
@@ -48202,7 +48202,7 @@
         <v>1.75</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU235" t="n">
         <v>1.29</v>
@@ -48405,7 +48405,7 @@
         <v>1</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU236" t="n">
         <v>1.38</v>
@@ -49620,7 +49620,7 @@
         <v>0.8</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT242" t="n">
         <v>0.67</v>
@@ -50029,7 +50029,7 @@
         <v>2.29</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU244" t="n">
         <v>1.74</v>
@@ -50432,7 +50432,7 @@
         <v>0.57</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT246" t="n">
         <v>0.5</v>
@@ -50838,7 +50838,7 @@
         <v>1.6</v>
       </c>
       <c r="AS248" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT248" t="n">
         <v>1.71</v>
@@ -51044,7 +51044,7 @@
         <v>1.43</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU249" t="n">
         <v>1.36</v>
@@ -51244,7 +51244,7 @@
         <v>0.8</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT250" t="n">
         <v>0.71</v>
@@ -51447,7 +51447,7 @@
         <v>1.5</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT251" t="n">
         <v>1.13</v>
@@ -55749,22 +55749,22 @@
         <v>0</v>
       </c>
       <c r="BF272" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BG272" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH272" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI272" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ272" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK272" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -56235,13 +56235,13 @@
         </is>
       </c>
       <c r="Q275" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R275" t="n">
         <v>2</v>
       </c>
       <c r="S275" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T275" t="n">
         <v>3</v>
@@ -57389,6 +57389,1021 @@
       </c>
       <c r="BK280" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>5068012</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45067.58333333334</v>
+      </c>
+      <c r="F281" t="n">
+        <v>15</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Chacarita Juniors</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Brown de Adrogué</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>8</v>
+      </c>
+      <c r="R281" t="n">
+        <v>2</v>
+      </c>
+      <c r="S281" t="n">
+        <v>10</v>
+      </c>
+      <c r="T281" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U281" t="n">
+        <v>2</v>
+      </c>
+      <c r="V281" t="n">
+        <v>6</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X281" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>5068042</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45067.625</v>
+      </c>
+      <c r="F282" t="n">
+        <v>17</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Guillermo Brown</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Flandria</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>1</v>
+      </c>
+      <c r="J282" t="n">
+        <v>1</v>
+      </c>
+      <c r="K282" t="n">
+        <v>2</v>
+      </c>
+      <c r="L282" t="n">
+        <v>3</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="n">
+        <v>4</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>['44', '58', '81']</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q282" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R282" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S282" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T282" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U282" t="n">
+        <v>2</v>
+      </c>
+      <c r="V282" t="n">
+        <v>5</v>
+      </c>
+      <c r="W282" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X282" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD282" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE282" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF282" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG282" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ282" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK282" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>5068016</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>45067.64583333334</v>
+      </c>
+      <c r="F283" t="n">
+        <v>15</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Deportivo Maipú</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Villa Dálmine</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>2</v>
+      </c>
+      <c r="M283" t="n">
+        <v>1</v>
+      </c>
+      <c r="N283" t="n">
+        <v>3</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>['54', '87']</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q283" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R283" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S283" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T283" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U283" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V283" t="n">
+        <v>7</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X283" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ283" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK283" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>5068013</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>45067.64583333334</v>
+      </c>
+      <c r="F284" t="n">
+        <v>15</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Club Atlético Mitre</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Estudiantes Caseros</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>2</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>2</v>
+      </c>
+      <c r="L284" t="n">
+        <v>3</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>3</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>['4', '45', '59']</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R284" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S284" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T284" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U284" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V284" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X284" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH284" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>5068037</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>45067.66666666666</v>
+      </c>
+      <c r="F285" t="n">
+        <v>17</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>San Martín Tucumán</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Deportivo Morón</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>2</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>2</v>
+      </c>
+      <c r="L285" t="n">
+        <v>2</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>2</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>['10', '41']</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R285" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S285" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T285" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U285" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V285" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X285" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK285"/>
+  <dimension ref="A1:BK288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT5" t="n">
         <v>0.88</v>
@@ -3136,7 +3136,7 @@
         <v>1.88</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.38</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT32" t="n">
         <v>0.88</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT46" t="n">
         <v>1.71</v>
@@ -10647,7 +10647,7 @@
         <v>2.38</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>2.09</v>
@@ -11459,7 +11459,7 @@
         <v>1.63</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU54" t="n">
         <v>2.08</v>
@@ -13489,7 +13489,7 @@
         <v>2.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU64" t="n">
         <v>1.4</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT66" t="n">
         <v>1.43</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT67" t="n">
         <v>0.75</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT77" t="n">
         <v>0</v>
@@ -17346,7 +17346,7 @@
         <v>1.75</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU83" t="n">
         <v>1.37</v>
@@ -17955,7 +17955,7 @@
         <v>2.5</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU86" t="n">
         <v>1.48</v>
@@ -18970,7 +18970,7 @@
         <v>1.38</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.36</v>
@@ -22215,7 +22215,7 @@
         <v>0.67</v>
       </c>
       <c r="AS107" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT107" t="n">
         <v>1.13</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT111" t="n">
         <v>1.5</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT112" t="n">
         <v>1.86</v>
@@ -24857,7 +24857,7 @@
         <v>1.75</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU120" t="n">
         <v>1.08</v>
@@ -25263,7 +25263,7 @@
         <v>1</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU122" t="n">
         <v>1.3</v>
@@ -25669,7 +25669,7 @@
         <v>1.75</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU124" t="n">
         <v>1.58</v>
@@ -28508,7 +28508,7 @@
         <v>1.75</v>
       </c>
       <c r="AS138" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT138" t="n">
         <v>1.33</v>
@@ -30944,7 +30944,7 @@
         <v>0</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT150" t="n">
         <v>0</v>
@@ -31553,7 +31553,7 @@
         <v>0.5</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT153" t="n">
         <v>0.88</v>
@@ -32571,7 +32571,7 @@
         <v>1.75</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU158" t="n">
         <v>1.42</v>
@@ -33586,7 +33586,7 @@
         <v>2.13</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU163" t="n">
         <v>1.65</v>
@@ -34395,7 +34395,7 @@
         <v>0.75</v>
       </c>
       <c r="AS167" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT167" t="n">
         <v>0.5</v>
@@ -34601,7 +34601,7 @@
         <v>2.29</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU168" t="n">
         <v>1.7</v>
@@ -38661,7 +38661,7 @@
         <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU188" t="n">
         <v>1.57</v>
@@ -40485,7 +40485,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT197" t="n">
         <v>0.88</v>
@@ -40688,7 +40688,7 @@
         <v>2.2</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT198" t="n">
         <v>1.75</v>
@@ -42312,7 +42312,7 @@
         <v>1.2</v>
       </c>
       <c r="AS206" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT206" t="n">
         <v>1.13</v>
@@ -43127,7 +43127,7 @@
         <v>1.86</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU210" t="n">
         <v>1.43</v>
@@ -43533,7 +43533,7 @@
         <v>1.43</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU212" t="n">
         <v>1.43</v>
@@ -46172,7 +46172,7 @@
         <v>1.88</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU225" t="n">
         <v>1.56</v>
@@ -46372,7 +46372,7 @@
         <v>1.33</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT226" t="n">
         <v>1.13</v>
@@ -48402,7 +48402,7 @@
         <v>0.83</v>
       </c>
       <c r="AS236" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT236" t="n">
         <v>1</v>
@@ -49014,7 +49014,7 @@
         <v>1</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU239" t="n">
         <v>2.07</v>
@@ -49623,7 +49623,7 @@
         <v>2.14</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU242" t="n">
         <v>1.76</v>
@@ -51650,7 +51650,7 @@
         <v>0.67</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT252" t="n">
         <v>0.75</v>
@@ -57656,13 +57656,13 @@
         </is>
       </c>
       <c r="Q282" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R282" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S282" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T282" t="n">
         <v>2.63</v>
@@ -57779,22 +57779,22 @@
         <v>3.74</v>
       </c>
       <c r="BF282" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BG282" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH282" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI282" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ282" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK282" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283">
@@ -57859,13 +57859,13 @@
         </is>
       </c>
       <c r="Q283" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R283" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S283" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T283" t="n">
         <v>2.1</v>
@@ -57982,22 +57982,22 @@
         <v>3.34</v>
       </c>
       <c r="BF283" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BG283" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH283" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BI283" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ283" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="BK283" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284">
@@ -58062,13 +58062,13 @@
         </is>
       </c>
       <c r="Q284" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R284" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S284" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T284" t="n">
         <v>2.88</v>
@@ -58185,22 +58185,22 @@
         <v>4.8</v>
       </c>
       <c r="BF284" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG284" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH284" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BI284" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ284" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK284" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285">
@@ -58265,13 +58265,13 @@
         </is>
       </c>
       <c r="Q285" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R285" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S285" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T285" t="n">
         <v>2.94</v>
@@ -58388,22 +58388,631 @@
         <v>5.9</v>
       </c>
       <c r="BF285" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG285" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH285" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI285" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ285" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK285" t="n">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>5068009</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>45068.79166666666</v>
+      </c>
+      <c r="F286" t="n">
+        <v>15</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Racing Córdoba</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Ferro Carril Oeste</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="n">
+        <v>1</v>
+      </c>
+      <c r="N286" t="n">
+        <v>2</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q286" t="n">
+        <v>1</v>
+      </c>
+      <c r="R286" t="n">
+        <v>6</v>
+      </c>
+      <c r="S286" t="n">
+        <v>7</v>
+      </c>
+      <c r="T286" t="n">
+        <v>3</v>
+      </c>
+      <c r="U286" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V286" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X286" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>5068010</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>45068.85763888889</v>
+      </c>
+      <c r="F287" t="n">
+        <v>15</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Gimnasia Jujuy</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>1</v>
+      </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="n">
+        <v>2</v>
+      </c>
+      <c r="N287" t="n">
+        <v>3</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>['42', '73']</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>8</v>
+      </c>
+      <c r="R287" t="n">
+        <v>12</v>
+      </c>
+      <c r="S287" t="n">
+        <v>20</v>
+      </c>
+      <c r="T287" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U287" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V287" t="n">
+        <v>4</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X287" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>5068035</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>45068.88194444445</v>
+      </c>
+      <c r="F288" t="n">
+        <v>17</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>All Boys</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Defensores de Belgrano</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>1</v>
+      </c>
+      <c r="J288" t="n">
+        <v>1</v>
+      </c>
+      <c r="K288" t="n">
+        <v>2</v>
+      </c>
+      <c r="L288" t="n">
+        <v>2</v>
+      </c>
+      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+      <c r="N288" t="n">
+        <v>3</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>['9', '59']</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>3</v>
+      </c>
+      <c r="R288" t="n">
+        <v>11</v>
+      </c>
+      <c r="S288" t="n">
+        <v>14</v>
+      </c>
+      <c r="T288" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U288" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V288" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X288" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="381">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -880,6 +880,45 @@
     <t>['22', '40']</t>
   </si>
   <si>
+    <t>['30', '79', '90+3']</t>
+  </si>
+  <si>
+    <t>['32', '51']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['6', '27']</t>
+  </si>
+  <si>
+    <t>['15', '43']</t>
+  </si>
+  <si>
+    <t>['27', '84']</t>
+  </si>
+  <si>
+    <t>['19', '85']</t>
+  </si>
+  <si>
+    <t>['49', '65']</t>
+  </si>
+  <si>
+    <t>['23', '90+3']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['65', '80', '87']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
     <t>['77']</t>
   </si>
   <si>
@@ -904,9 +943,6 @@
     <t>['70', '85']</t>
   </si>
   <si>
-    <t>['67']</t>
-  </si>
-  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -914,9 +950,6 @@
   </si>
   <si>
     <t>['29', '40']</t>
-  </si>
-  <si>
-    <t>['60']</t>
   </si>
   <si>
     <t>['61']</t>
@@ -1018,9 +1051,6 @@
     <t>['33', '40', '73']</t>
   </si>
   <si>
-    <t>['1']</t>
-  </si>
-  <si>
     <t>['58', '80']</t>
   </si>
   <si>
@@ -1087,9 +1117,6 @@
     <t>['63']</t>
   </si>
   <si>
-    <t>['75']</t>
-  </si>
-  <si>
     <t>['53', '74', '89']</t>
   </si>
   <si>
@@ -1115,6 +1142,21 @@
   </si>
   <si>
     <t>['5', '55']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['49', '67']</t>
+  </si>
+  <si>
+    <t>['26', '45+2']</t>
+  </si>
+  <si>
+    <t>['78', '88']</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK306"/>
+  <dimension ref="A1:BK324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2293,7 +2335,7 @@
         <v>103</v>
       </c>
       <c r="P5" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2675,7 +2717,7 @@
         <v>104</v>
       </c>
       <c r="P7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -3439,7 +3481,7 @@
         <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3526,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT11">
         <v>1.67</v>
@@ -3911,7 +3953,7 @@
         <v>2</v>
       </c>
       <c r="AT13">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4290,10 +4332,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT15">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4394,7 +4436,7 @@
         <v>110</v>
       </c>
       <c r="P16" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4481,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT16">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4672,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT17">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4967,7 +5009,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5439,7 +5481,7 @@
         <v>1.56</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5627,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT22">
         <v>1</v>
@@ -5818,10 +5860,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6009,10 +6051,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT24">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6113,7 +6155,7 @@
         <v>115</v>
       </c>
       <c r="P25" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6200,10 +6242,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT25">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6495,7 +6537,7 @@
         <v>117</v>
       </c>
       <c r="P27" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6773,10 +6815,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -7068,7 +7110,7 @@
         <v>120</v>
       </c>
       <c r="P30" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -7259,7 +7301,7 @@
         <v>121</v>
       </c>
       <c r="P31" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -7450,7 +7492,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7728,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT33">
         <v>1</v>
@@ -7832,7 +7874,7 @@
         <v>123</v>
       </c>
       <c r="P34" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7922,7 +7964,7 @@
         <v>1.13</v>
       </c>
       <c r="AT34">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8110,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT35">
         <v>0</v>
@@ -8301,10 +8343,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT36">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8495,7 +8537,7 @@
         <v>1.89</v>
       </c>
       <c r="AT37">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU37">
         <v>1.11</v>
@@ -8596,7 +8638,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8686,7 +8728,7 @@
         <v>1</v>
       </c>
       <c r="AT38">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -9065,10 +9107,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT40">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -9256,7 +9298,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT41">
         <v>1.67</v>
@@ -9360,7 +9402,7 @@
         <v>129</v>
       </c>
       <c r="P42" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -10020,7 +10062,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT45">
         <v>0.78</v>
@@ -10211,10 +10253,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT46">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10402,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT47">
         <v>1</v>
@@ -10506,7 +10548,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10888,7 +10930,7 @@
         <v>134</v>
       </c>
       <c r="P50" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10978,7 +11020,7 @@
         <v>2.11</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU50">
         <v>2.09</v>
@@ -11166,10 +11208,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT51">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU51">
         <v>1</v>
@@ -11270,7 +11312,7 @@
         <v>102</v>
       </c>
       <c r="P52" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11551,7 +11593,7 @@
         <v>1.56</v>
       </c>
       <c r="AT53">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU53">
         <v>1.29</v>
@@ -11742,7 +11784,7 @@
         <v>1.78</v>
       </c>
       <c r="AT54">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU54">
         <v>2.08</v>
@@ -11930,7 +11972,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT55">
         <v>0.89</v>
@@ -12121,10 +12163,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT56">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU56">
         <v>1.23</v>
@@ -12315,7 +12357,7 @@
         <v>1.67</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU57">
         <v>0.67</v>
@@ -12503,10 +12545,10 @@
         <v>3</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT58">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU58">
         <v>2.6</v>
@@ -12694,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT59">
         <v>0</v>
@@ -12885,10 +12927,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU60">
         <v>1.64</v>
@@ -12989,7 +13031,7 @@
         <v>102</v>
       </c>
       <c r="P61" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13458,7 +13500,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT63">
         <v>1.11</v>
@@ -13649,10 +13691,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT64">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU64">
         <v>1.4</v>
@@ -13753,7 +13795,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -13840,10 +13882,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT65">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU65">
         <v>2.27</v>
@@ -14031,10 +14073,10 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT66">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU66">
         <v>1.8</v>
@@ -14413,7 +14455,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT68">
         <v>1.67</v>
@@ -14517,7 +14559,7 @@
         <v>102</v>
       </c>
       <c r="P69" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14607,7 +14649,7 @@
         <v>1</v>
       </c>
       <c r="AT69">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU69">
         <v>1.9</v>
@@ -14795,7 +14837,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT70">
         <v>0.5600000000000001</v>
@@ -14989,7 +15031,7 @@
         <v>2</v>
       </c>
       <c r="AT71">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU71">
         <v>1.29</v>
@@ -15177,7 +15219,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT72">
         <v>0</v>
@@ -15281,7 +15323,7 @@
         <v>149</v>
       </c>
       <c r="P73" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15371,7 +15413,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU73">
         <v>1.46</v>
@@ -16132,7 +16174,7 @@
         <v>0</v>
       </c>
       <c r="AS77">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT77">
         <v>0</v>
@@ -16323,7 +16365,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT78">
         <v>0.78</v>
@@ -16427,7 +16469,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17090,7 +17132,7 @@
         <v>1.5</v>
       </c>
       <c r="AT82">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU82">
         <v>1.49</v>
@@ -17191,7 +17233,7 @@
         <v>157</v>
       </c>
       <c r="P83" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -17281,7 +17323,7 @@
         <v>1.56</v>
       </c>
       <c r="AT83">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU83">
         <v>1.37</v>
@@ -17469,10 +17511,10 @@
         <v>0.5</v>
       </c>
       <c r="AS84">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT84">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU84">
         <v>1.48</v>
@@ -17663,7 +17705,7 @@
         <v>1.78</v>
       </c>
       <c r="AT85">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU85">
         <v>1.84</v>
@@ -17764,7 +17806,7 @@
         <v>102</v>
       </c>
       <c r="P86" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17955,7 +17997,7 @@
         <v>160</v>
       </c>
       <c r="P87" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18045,7 +18087,7 @@
         <v>1.67</v>
       </c>
       <c r="AT87">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU87">
         <v>0.83</v>
@@ -18146,7 +18188,7 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -18233,10 +18275,10 @@
         <v>2</v>
       </c>
       <c r="AS88">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT88">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU88">
         <v>1.14</v>
@@ -18427,7 +18469,7 @@
         <v>1.89</v>
       </c>
       <c r="AT89">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU89">
         <v>1.63</v>
@@ -18615,7 +18657,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT90">
         <v>1</v>
@@ -18719,7 +18761,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18809,7 +18851,7 @@
         <v>1.56</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU91">
         <v>1.36</v>
@@ -19191,7 +19233,7 @@
         <v>1.56</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU93">
         <v>1.03</v>
@@ -19292,7 +19334,7 @@
         <v>102</v>
       </c>
       <c r="P94" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19379,10 +19421,10 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT94">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU94">
         <v>1.93</v>
@@ -19570,7 +19612,7 @@
         <v>2</v>
       </c>
       <c r="AS95">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT95">
         <v>1.56</v>
@@ -19952,7 +19994,7 @@
         <v>0.5</v>
       </c>
       <c r="AS97">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT97">
         <v>0.89</v>
@@ -20056,7 +20098,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="Q98">
         <v>10</v>
@@ -20143,7 +20185,7 @@
         <v>0</v>
       </c>
       <c r="AS98">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT98">
         <v>0.78</v>
@@ -20247,7 +20289,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20334,7 +20376,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT99">
         <v>0.78</v>
@@ -20525,7 +20567,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT100">
         <v>1.11</v>
@@ -20719,7 +20761,7 @@
         <v>1.13</v>
       </c>
       <c r="AT101">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU101">
         <v>1.4</v>
@@ -20910,7 +20952,7 @@
         <v>2</v>
       </c>
       <c r="AT102">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU102">
         <v>1.2</v>
@@ -21101,7 +21143,7 @@
         <v>2</v>
       </c>
       <c r="AT103">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU103">
         <v>1.52</v>
@@ -21480,7 +21522,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT105">
         <v>1</v>
@@ -21966,7 +22008,7 @@
         <v>172</v>
       </c>
       <c r="P108" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22053,7 +22095,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT108">
         <v>1.11</v>
@@ -22539,7 +22581,7 @@
         <v>174</v>
       </c>
       <c r="P111" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22626,7 +22668,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT111">
         <v>1.67</v>
@@ -22817,10 +22859,10 @@
         <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT112">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU112">
         <v>1.59</v>
@@ -23008,7 +23050,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT113">
         <v>0.5600000000000001</v>
@@ -23202,7 +23244,7 @@
         <v>1</v>
       </c>
       <c r="AT114">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU114">
         <v>1.52</v>
@@ -23390,7 +23432,7 @@
         <v>1.33</v>
       </c>
       <c r="AS115">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT115">
         <v>0.67</v>
@@ -23772,7 +23814,7 @@
         <v>0</v>
       </c>
       <c r="AS117">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT117">
         <v>0</v>
@@ -23966,7 +24008,7 @@
         <v>1.67</v>
       </c>
       <c r="AT118">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU118">
         <v>1.26</v>
@@ -24154,7 +24196,7 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT119">
         <v>0.78</v>
@@ -24258,7 +24300,7 @@
         <v>135</v>
       </c>
       <c r="P120" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24348,7 +24390,7 @@
         <v>1.56</v>
       </c>
       <c r="AT120">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU120">
         <v>1.33</v>
@@ -24449,7 +24491,7 @@
         <v>179</v>
       </c>
       <c r="P121" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24539,7 +24581,7 @@
         <v>1.56</v>
       </c>
       <c r="AT121">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU121">
         <v>1.08</v>
@@ -24640,7 +24682,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24730,7 +24772,7 @@
         <v>1.22</v>
       </c>
       <c r="AT122">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU122">
         <v>1.3</v>
@@ -24831,7 +24873,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24921,7 +24963,7 @@
         <v>1.5</v>
       </c>
       <c r="AT123">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU123">
         <v>1.69</v>
@@ -25112,7 +25154,7 @@
         <v>1.56</v>
       </c>
       <c r="AT124">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU124">
         <v>1.58</v>
@@ -25303,7 +25345,7 @@
         <v>1.67</v>
       </c>
       <c r="AT125">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU125">
         <v>1.18</v>
@@ -25491,7 +25533,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT126">
         <v>0.78</v>
@@ -25595,7 +25637,7 @@
         <v>102</v>
       </c>
       <c r="P127" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="Q127">
         <v>11</v>
@@ -25682,7 +25724,7 @@
         <v>1.67</v>
       </c>
       <c r="AS127">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT127">
         <v>1.56</v>
@@ -25786,7 +25828,7 @@
         <v>184</v>
       </c>
       <c r="P128" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25873,7 +25915,7 @@
         <v>1.33</v>
       </c>
       <c r="AS128">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT128">
         <v>1</v>
@@ -26064,7 +26106,7 @@
         <v>0.67</v>
       </c>
       <c r="AS129">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT129">
         <v>0.89</v>
@@ -26168,7 +26210,7 @@
         <v>102</v>
       </c>
       <c r="P130" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26255,7 +26297,7 @@
         <v>1</v>
       </c>
       <c r="AS130">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT130">
         <v>0.78</v>
@@ -26359,7 +26401,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26449,7 +26491,7 @@
         <v>1.89</v>
       </c>
       <c r="AT131">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU131">
         <v>1.56</v>
@@ -26828,10 +26870,10 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT133">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU133">
         <v>1.41</v>
@@ -26932,7 +26974,7 @@
         <v>187</v>
       </c>
       <c r="P134" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27019,7 +27061,7 @@
         <v>1</v>
       </c>
       <c r="AS134">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT134">
         <v>1.33</v>
@@ -27213,7 +27255,7 @@
         <v>1.56</v>
       </c>
       <c r="AT135">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU135">
         <v>1.95</v>
@@ -27314,7 +27356,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="Q136">
         <v>1</v>
@@ -27401,7 +27443,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT136">
         <v>0.67</v>
@@ -27592,7 +27634,7 @@
         <v>0.75</v>
       </c>
       <c r="AS137">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT137">
         <v>0.78</v>
@@ -27977,7 +28019,7 @@
         <v>2</v>
       </c>
       <c r="AT139">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU139">
         <v>1.34</v>
@@ -28165,7 +28207,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT140">
         <v>1</v>
@@ -28550,7 +28592,7 @@
         <v>1.67</v>
       </c>
       <c r="AT142">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU142">
         <v>2.02</v>
@@ -28651,7 +28693,7 @@
         <v>102</v>
       </c>
       <c r="P143" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -28738,7 +28780,7 @@
         <v>0.75</v>
       </c>
       <c r="AS143">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT143">
         <v>1</v>
@@ -28932,7 +28974,7 @@
         <v>1.67</v>
       </c>
       <c r="AT144">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU144">
         <v>1.35</v>
@@ -29033,7 +29075,7 @@
         <v>122</v>
       </c>
       <c r="P145" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -29415,7 +29457,7 @@
         <v>194</v>
       </c>
       <c r="P147" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29502,7 +29544,7 @@
         <v>1</v>
       </c>
       <c r="AS147">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT147">
         <v>1.67</v>
@@ -29606,7 +29648,7 @@
         <v>195</v>
       </c>
       <c r="P148" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29693,7 +29735,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT148">
         <v>0.67</v>
@@ -29797,7 +29839,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29887,7 +29929,7 @@
         <v>1.67</v>
       </c>
       <c r="AT149">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU149">
         <v>1.26</v>
@@ -30075,7 +30117,7 @@
         <v>0</v>
       </c>
       <c r="AS150">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT150">
         <v>0</v>
@@ -30269,7 +30311,7 @@
         <v>1.13</v>
       </c>
       <c r="AT151">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU151">
         <v>1.46</v>
@@ -30460,7 +30502,7 @@
         <v>1.78</v>
       </c>
       <c r="AT152">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU152">
         <v>1.34</v>
@@ -30648,7 +30690,7 @@
         <v>0.5</v>
       </c>
       <c r="AS153">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT153">
         <v>1.11</v>
@@ -30842,7 +30884,7 @@
         <v>2.11</v>
       </c>
       <c r="AT154">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU154">
         <v>1.75</v>
@@ -31221,7 +31263,7 @@
         <v>1</v>
       </c>
       <c r="AS156">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT156">
         <v>0.78</v>
@@ -31415,7 +31457,7 @@
         <v>1.89</v>
       </c>
       <c r="AT157">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU157">
         <v>1.42</v>
@@ -31603,7 +31645,7 @@
         <v>0.25</v>
       </c>
       <c r="AS158">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT158">
         <v>0.5600000000000001</v>
@@ -31707,7 +31749,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -31794,7 +31836,7 @@
         <v>0.75</v>
       </c>
       <c r="AS159">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT159">
         <v>0.78</v>
@@ -31988,7 +32030,7 @@
         <v>1.67</v>
       </c>
       <c r="AT160">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU160">
         <v>1.2</v>
@@ -32179,7 +32221,7 @@
         <v>1</v>
       </c>
       <c r="AT161">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU161">
         <v>1.58</v>
@@ -32367,7 +32409,7 @@
         <v>1.25</v>
       </c>
       <c r="AS162">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT162">
         <v>0.89</v>
@@ -32471,7 +32513,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32561,7 +32603,7 @@
         <v>2.22</v>
       </c>
       <c r="AT163">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU163">
         <v>1.65</v>
@@ -32752,7 +32794,7 @@
         <v>1.22</v>
       </c>
       <c r="AT164">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU164">
         <v>1.32</v>
@@ -32940,7 +32982,7 @@
         <v>1.2</v>
       </c>
       <c r="AS165">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT165">
         <v>1</v>
@@ -33044,7 +33086,7 @@
         <v>205</v>
       </c>
       <c r="P166" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33131,7 +33173,7 @@
         <v>1.5</v>
       </c>
       <c r="AS166">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT166">
         <v>0.78</v>
@@ -33235,7 +33277,7 @@
         <v>206</v>
       </c>
       <c r="P167" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33322,10 +33364,10 @@
         <v>1.25</v>
       </c>
       <c r="AS167">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT167">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU167">
         <v>1.7</v>
@@ -33513,7 +33555,7 @@
         <v>1</v>
       </c>
       <c r="AS168">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT168">
         <v>1.33</v>
@@ -33707,7 +33749,7 @@
         <v>1.22</v>
       </c>
       <c r="AT169">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU169">
         <v>1.36</v>
@@ -33898,7 +33940,7 @@
         <v>2</v>
       </c>
       <c r="AT170">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU170">
         <v>1.48</v>
@@ -34089,7 +34131,7 @@
         <v>1.56</v>
       </c>
       <c r="AT171">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU171">
         <v>1.54</v>
@@ -34277,7 +34319,7 @@
         <v>1.6</v>
       </c>
       <c r="AS172">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT172">
         <v>1.33</v>
@@ -34381,7 +34423,7 @@
         <v>209</v>
       </c>
       <c r="P173" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34468,7 +34510,7 @@
         <v>1</v>
       </c>
       <c r="AS173">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT173">
         <v>0.78</v>
@@ -34572,7 +34614,7 @@
         <v>115</v>
       </c>
       <c r="P174" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34659,7 +34701,7 @@
         <v>1</v>
       </c>
       <c r="AS174">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT174">
         <v>0.67</v>
@@ -34954,7 +34996,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -35041,7 +35083,7 @@
         <v>1.2</v>
       </c>
       <c r="AS176">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT176">
         <v>1</v>
@@ -35232,10 +35274,10 @@
         <v>0.5</v>
       </c>
       <c r="AS177">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT177">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU177">
         <v>1.34</v>
@@ -35426,7 +35468,7 @@
         <v>1.67</v>
       </c>
       <c r="AT178">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU178">
         <v>1.35</v>
@@ -35617,7 +35659,7 @@
         <v>1.67</v>
       </c>
       <c r="AT179">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU179">
         <v>2.02</v>
@@ -35805,7 +35847,7 @@
         <v>0.8</v>
       </c>
       <c r="AS180">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT180">
         <v>0.78</v>
@@ -35909,7 +35951,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -36100,7 +36142,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36291,7 +36333,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="Q183">
         <v>10</v>
@@ -36381,7 +36423,7 @@
         <v>1.5</v>
       </c>
       <c r="AT183">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU183">
         <v>1.69</v>
@@ -36864,7 +36906,7 @@
         <v>219</v>
       </c>
       <c r="P186" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -36954,7 +36996,7 @@
         <v>1.67</v>
       </c>
       <c r="AT186">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU186">
         <v>1.33</v>
@@ -37055,7 +37097,7 @@
         <v>220</v>
       </c>
       <c r="P187" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37142,7 +37184,7 @@
         <v>0.8</v>
       </c>
       <c r="AS187">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT187">
         <v>0.67</v>
@@ -37336,7 +37378,7 @@
         <v>1</v>
       </c>
       <c r="AT188">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU188">
         <v>1.57</v>
@@ -37437,7 +37479,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="Q189">
         <v>0</v>
@@ -37524,7 +37566,7 @@
         <v>0.2</v>
       </c>
       <c r="AS189">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT189">
         <v>0.5600000000000001</v>
@@ -37628,7 +37670,7 @@
         <v>102</v>
       </c>
       <c r="P190" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="Q190">
         <v>12</v>
@@ -37718,7 +37760,7 @@
         <v>1.56</v>
       </c>
       <c r="AT190">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU190">
         <v>1.42</v>
@@ -37819,7 +37861,7 @@
         <v>102</v>
       </c>
       <c r="P191" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="Q191">
         <v>10</v>
@@ -37909,7 +37951,7 @@
         <v>2.11</v>
       </c>
       <c r="AT191">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU191">
         <v>1.66</v>
@@ -38479,7 +38521,7 @@
         <v>0.8</v>
       </c>
       <c r="AS194">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT194">
         <v>0.78</v>
@@ -38861,7 +38903,7 @@
         <v>1</v>
       </c>
       <c r="AS196">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT196">
         <v>1.11</v>
@@ -38965,7 +39007,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39052,7 +39094,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT197">
         <v>0.78</v>
@@ -39156,7 +39198,7 @@
         <v>106</v>
       </c>
       <c r="P198" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="Q198">
         <v>8</v>
@@ -39243,7 +39285,7 @@
         <v>2.2</v>
       </c>
       <c r="AS198">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT198">
         <v>1.56</v>
@@ -39347,7 +39389,7 @@
         <v>105</v>
       </c>
       <c r="P199" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q199">
         <v>5</v>
@@ -39437,7 +39479,7 @@
         <v>1.67</v>
       </c>
       <c r="AT199">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU199">
         <v>1.88</v>
@@ -39625,7 +39667,7 @@
         <v>1.5</v>
       </c>
       <c r="AS200">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT200">
         <v>1</v>
@@ -39729,7 +39771,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39816,10 +39858,10 @@
         <v>1.2</v>
       </c>
       <c r="AS201">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT201">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU201">
         <v>1.4</v>
@@ -39920,7 +39962,7 @@
         <v>102</v>
       </c>
       <c r="P202" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="Q202">
         <v>11</v>
@@ -40010,7 +40052,7 @@
         <v>1.22</v>
       </c>
       <c r="AT202">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU202">
         <v>1.35</v>
@@ -40111,7 +40153,7 @@
         <v>227</v>
       </c>
       <c r="P203" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40198,7 +40240,7 @@
         <v>0.8</v>
       </c>
       <c r="AS203">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT203">
         <v>0.78</v>
@@ -40493,7 +40535,7 @@
         <v>102</v>
       </c>
       <c r="P205" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="Q205">
         <v>8</v>
@@ -40580,7 +40622,7 @@
         <v>1</v>
       </c>
       <c r="AS205">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT205">
         <v>1.33</v>
@@ -40684,7 +40726,7 @@
         <v>102</v>
       </c>
       <c r="P206" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="Q206">
         <v>6</v>
@@ -40774,7 +40816,7 @@
         <v>1.22</v>
       </c>
       <c r="AT206">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU206">
         <v>1.42</v>
@@ -40875,7 +40917,7 @@
         <v>102</v>
       </c>
       <c r="P207" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -40962,7 +41004,7 @@
         <v>1.33</v>
       </c>
       <c r="AS207">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT207">
         <v>1.33</v>
@@ -41153,7 +41195,7 @@
         <v>0.67</v>
       </c>
       <c r="AS208">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT208">
         <v>0.78</v>
@@ -41257,7 +41299,7 @@
         <v>230</v>
       </c>
       <c r="P209" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41538,7 +41580,7 @@
         <v>2.22</v>
       </c>
       <c r="AT210">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU210">
         <v>1.78</v>
@@ -41639,7 +41681,7 @@
         <v>102</v>
       </c>
       <c r="P211" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41726,10 +41768,10 @@
         <v>1</v>
       </c>
       <c r="AS211">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT211">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU211">
         <v>1.43</v>
@@ -41917,10 +41959,10 @@
         <v>0.75</v>
       </c>
       <c r="AS212">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT212">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU212">
         <v>1.43</v>
@@ -42108,10 +42150,10 @@
         <v>1</v>
       </c>
       <c r="AS213">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT213">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU213">
         <v>1.68</v>
@@ -42302,7 +42344,7 @@
         <v>1.67</v>
       </c>
       <c r="AT214">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU214">
         <v>1.36</v>
@@ -42403,7 +42445,7 @@
         <v>102</v>
       </c>
       <c r="P215" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="Q215">
         <v>7</v>
@@ -42490,10 +42532,10 @@
         <v>0.4</v>
       </c>
       <c r="AS215">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT215">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU215">
         <v>1.57</v>
@@ -42681,10 +42723,10 @@
         <v>0.6</v>
       </c>
       <c r="AS216">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT216">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU216">
         <v>1.17</v>
@@ -43254,7 +43296,7 @@
         <v>1.5</v>
       </c>
       <c r="AS219">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT219">
         <v>1</v>
@@ -43639,7 +43681,7 @@
         <v>1.56</v>
       </c>
       <c r="AT221">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU221">
         <v>1.48</v>
@@ -44018,7 +44060,7 @@
         <v>1.17</v>
       </c>
       <c r="AS223">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT223">
         <v>0.78</v>
@@ -44122,7 +44164,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="Q224">
         <v>2</v>
@@ -44403,7 +44445,7 @@
         <v>2</v>
       </c>
       <c r="AT225">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU225">
         <v>1.56</v>
@@ -44504,7 +44546,7 @@
         <v>239</v>
       </c>
       <c r="P226" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44591,7 +44633,7 @@
         <v>1.33</v>
       </c>
       <c r="AS226">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT226">
         <v>1.33</v>
@@ -44886,7 +44928,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -45167,7 +45209,7 @@
         <v>1.67</v>
       </c>
       <c r="AT229">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU229">
         <v>1.33</v>
@@ -45268,7 +45310,7 @@
         <v>157</v>
       </c>
       <c r="P230" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45546,7 +45588,7 @@
         <v>0.83</v>
       </c>
       <c r="AS231">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT231">
         <v>0.67</v>
@@ -46310,10 +46352,10 @@
         <v>0.83</v>
       </c>
       <c r="AS235">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT235">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU235">
         <v>1.29</v>
@@ -46414,7 +46456,7 @@
         <v>102</v>
       </c>
       <c r="P236" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -46504,7 +46546,7 @@
         <v>1.22</v>
       </c>
       <c r="AT236">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU236">
         <v>1.38</v>
@@ -46605,7 +46647,7 @@
         <v>244</v>
       </c>
       <c r="P237" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46692,10 +46734,10 @@
         <v>1.33</v>
       </c>
       <c r="AS237">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT237">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU237">
         <v>1.4</v>
@@ -46883,10 +46925,10 @@
         <v>0.5</v>
       </c>
       <c r="AS238">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT238">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU238">
         <v>1.89</v>
@@ -47074,7 +47116,7 @@
         <v>1.57</v>
       </c>
       <c r="AS239">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT239">
         <v>1.33</v>
@@ -47178,7 +47220,7 @@
         <v>247</v>
       </c>
       <c r="P240" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Q240">
         <v>9</v>
@@ -47268,7 +47310,7 @@
         <v>1</v>
       </c>
       <c r="AT240">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU240">
         <v>2.07</v>
@@ -47369,7 +47411,7 @@
         <v>248</v>
       </c>
       <c r="P241" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47456,7 +47498,7 @@
         <v>0.83</v>
       </c>
       <c r="AS241">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT241">
         <v>0.67</v>
@@ -47560,7 +47602,7 @@
         <v>249</v>
       </c>
       <c r="P242" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q242">
         <v>7</v>
@@ -47647,10 +47689,10 @@
         <v>0.8</v>
       </c>
       <c r="AS242">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT242">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU242">
         <v>1.76</v>
@@ -47751,7 +47793,7 @@
         <v>250</v>
       </c>
       <c r="P243" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="Q243">
         <v>10</v>
@@ -47841,7 +47883,7 @@
         <v>1.56</v>
       </c>
       <c r="AT243">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU243">
         <v>1.41</v>
@@ -48029,7 +48071,7 @@
         <v>1.4</v>
       </c>
       <c r="AS244">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT244">
         <v>1</v>
@@ -48223,7 +48265,7 @@
         <v>1.67</v>
       </c>
       <c r="AT245">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU245">
         <v>1.82</v>
@@ -48411,7 +48453,7 @@
         <v>0.57</v>
       </c>
       <c r="AS246">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT246">
         <v>0.78</v>
@@ -48605,7 +48647,7 @@
         <v>2.22</v>
       </c>
       <c r="AT247">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU247">
         <v>1.74</v>
@@ -48793,10 +48835,10 @@
         <v>1.17</v>
       </c>
       <c r="AS248">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT248">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU248">
         <v>1.7</v>
@@ -48984,10 +49026,10 @@
         <v>0.6</v>
       </c>
       <c r="AS249">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT249">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU249">
         <v>1.36</v>
@@ -49175,10 +49217,10 @@
         <v>0.8</v>
       </c>
       <c r="AS250">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT250">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU250">
         <v>1.64</v>
@@ -49366,10 +49408,10 @@
         <v>1.5</v>
       </c>
       <c r="AS251">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT251">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU251">
         <v>1.2</v>
@@ -49557,7 +49599,7 @@
         <v>0.67</v>
       </c>
       <c r="AS252">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT252">
         <v>0.78</v>
@@ -50043,7 +50085,7 @@
         <v>259</v>
       </c>
       <c r="P255" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50133,7 +50175,7 @@
         <v>1.22</v>
       </c>
       <c r="AT255">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU255">
         <v>1.4</v>
@@ -50515,7 +50557,7 @@
         <v>1.67</v>
       </c>
       <c r="AT257">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU257">
         <v>1.3</v>
@@ -50807,7 +50849,7 @@
         <v>102</v>
       </c>
       <c r="P259" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="Q259">
         <v>10</v>
@@ -50998,7 +51040,7 @@
         <v>262</v>
       </c>
       <c r="P260" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="Q260">
         <v>9</v>
@@ -51380,7 +51422,7 @@
         <v>107</v>
       </c>
       <c r="P262" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="Q262">
         <v>2</v>
@@ -52335,7 +52377,7 @@
         <v>266</v>
       </c>
       <c r="P267" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -52422,7 +52464,7 @@
         <v>0.71</v>
       </c>
       <c r="AS267">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT267">
         <v>0.67</v>
@@ -52526,7 +52568,7 @@
         <v>102</v>
       </c>
       <c r="P268" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -52995,7 +53037,7 @@
         <v>1.29</v>
       </c>
       <c r="AS270">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT270">
         <v>1</v>
@@ -53186,10 +53228,10 @@
         <v>1.5</v>
       </c>
       <c r="AS271">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT271">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU271">
         <v>1.44</v>
@@ -53377,7 +53419,7 @@
         <v>1.38</v>
       </c>
       <c r="AS272">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT272">
         <v>1.33</v>
@@ -53481,7 +53523,7 @@
         <v>270</v>
       </c>
       <c r="P273" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="Q273">
         <v>4</v>
@@ -53568,7 +53610,7 @@
         <v>0.71</v>
       </c>
       <c r="AS273">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT273">
         <v>0.78</v>
@@ -53672,7 +53714,7 @@
         <v>271</v>
       </c>
       <c r="P274" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="Q274">
         <v>5</v>
@@ -53759,10 +53801,10 @@
         <v>0.57</v>
       </c>
       <c r="AS274">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT274">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU274">
         <v>1.87</v>
@@ -53950,10 +53992,10 @@
         <v>1</v>
       </c>
       <c r="AS275">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT275">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU275">
         <v>1.25</v>
@@ -54054,7 +54096,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -54141,10 +54183,10 @@
         <v>1.29</v>
       </c>
       <c r="AS276">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT276">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU276">
         <v>1.81</v>
@@ -54245,7 +54287,7 @@
         <v>273</v>
       </c>
       <c r="P277" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="Q277">
         <v>2</v>
@@ -54332,10 +54374,10 @@
         <v>1.57</v>
       </c>
       <c r="AS277">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT277">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU277">
         <v>1.62</v>
@@ -54436,7 +54478,7 @@
         <v>102</v>
       </c>
       <c r="P278" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="Q278">
         <v>10</v>
@@ -54523,10 +54565,10 @@
         <v>1.5</v>
       </c>
       <c r="AS278">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT278">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU278">
         <v>1.5</v>
@@ -54714,10 +54756,10 @@
         <v>1.67</v>
       </c>
       <c r="AS279">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT279">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU279">
         <v>1.77</v>
@@ -54908,7 +54950,7 @@
         <v>1</v>
       </c>
       <c r="AT280">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU280">
         <v>2</v>
@@ -55096,10 +55138,10 @@
         <v>0.67</v>
       </c>
       <c r="AS281">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT281">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU281">
         <v>1.7</v>
@@ -55287,10 +55329,10 @@
         <v>0.71</v>
       </c>
       <c r="AS282">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT282">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU282">
         <v>1.41</v>
@@ -55391,7 +55433,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="Q283">
         <v>7</v>
@@ -55669,7 +55711,7 @@
         <v>1.17</v>
       </c>
       <c r="AS284">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT284">
         <v>1</v>
@@ -55860,10 +55902,10 @@
         <v>1.14</v>
       </c>
       <c r="AS285">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT285">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU285">
         <v>1.14</v>
@@ -56051,10 +56093,10 @@
         <v>1.57</v>
       </c>
       <c r="AS286">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT286">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU286">
         <v>1.62</v>
@@ -56155,7 +56197,7 @@
         <v>250</v>
       </c>
       <c r="P287" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q287">
         <v>8</v>
@@ -56242,10 +56284,10 @@
         <v>0.67</v>
       </c>
       <c r="AS287">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT287">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU287">
         <v>1.58</v>
@@ -56346,7 +56388,7 @@
         <v>278</v>
       </c>
       <c r="P288" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -56436,7 +56478,7 @@
         <v>1.22</v>
       </c>
       <c r="AT288">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU288">
         <v>1.35</v>
@@ -56728,7 +56770,7 @@
         <v>200</v>
       </c>
       <c r="P290" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="Q290">
         <v>6</v>
@@ -57110,7 +57152,7 @@
         <v>102</v>
       </c>
       <c r="P292" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Q292">
         <v>3</v>
@@ -57874,7 +57916,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="Q296">
         <v>9</v>
@@ -58065,7 +58107,7 @@
         <v>283</v>
       </c>
       <c r="P297" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -58256,7 +58298,7 @@
         <v>284</v>
       </c>
       <c r="P298" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Q298">
         <v>6</v>
@@ -58447,7 +58489,7 @@
         <v>102</v>
       </c>
       <c r="P299" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q299">
         <v>7</v>
@@ -59211,7 +59253,7 @@
         <v>286</v>
       </c>
       <c r="P303" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -59593,7 +59635,7 @@
         <v>287</v>
       </c>
       <c r="P305" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Q305">
         <v>6</v>
@@ -59926,6 +59968,3444 @@
       </c>
       <c r="BK306">
         <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:63">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>5068049</v>
+      </c>
+      <c r="C307" t="s">
+        <v>63</v>
+      </c>
+      <c r="D307" t="s">
+        <v>64</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45079.79166666666</v>
+      </c>
+      <c r="F307">
+        <v>17</v>
+      </c>
+      <c r="G307" t="s">
+        <v>94</v>
+      </c>
+      <c r="H307" t="s">
+        <v>75</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+      <c r="L307">
+        <v>3</v>
+      </c>
+      <c r="M307">
+        <v>0</v>
+      </c>
+      <c r="N307">
+        <v>3</v>
+      </c>
+      <c r="O307" t="s">
+        <v>288</v>
+      </c>
+      <c r="P307" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q307">
+        <v>2</v>
+      </c>
+      <c r="R307">
+        <v>4</v>
+      </c>
+      <c r="S307">
+        <v>6</v>
+      </c>
+      <c r="T307">
+        <v>2.88</v>
+      </c>
+      <c r="U307">
+        <v>2</v>
+      </c>
+      <c r="V307">
+        <v>4.5</v>
+      </c>
+      <c r="W307">
+        <v>1.52</v>
+      </c>
+      <c r="X307">
+        <v>2.44</v>
+      </c>
+      <c r="Y307">
+        <v>3.48</v>
+      </c>
+      <c r="Z307">
+        <v>1.28</v>
+      </c>
+      <c r="AA307">
+        <v>9.5</v>
+      </c>
+      <c r="AB307">
+        <v>1.04</v>
+      </c>
+      <c r="AC307">
+        <v>2.1</v>
+      </c>
+      <c r="AD307">
+        <v>3.1</v>
+      </c>
+      <c r="AE307">
+        <v>3.27</v>
+      </c>
+      <c r="AF307">
+        <v>1.06</v>
+      </c>
+      <c r="AG307">
+        <v>6.7</v>
+      </c>
+      <c r="AH307">
+        <v>1.44</v>
+      </c>
+      <c r="AI307">
+        <v>2.53</v>
+      </c>
+      <c r="AJ307">
+        <v>2.34</v>
+      </c>
+      <c r="AK307">
+        <v>1.53</v>
+      </c>
+      <c r="AL307">
+        <v>2.08</v>
+      </c>
+      <c r="AM307">
+        <v>1.71</v>
+      </c>
+      <c r="AN307">
+        <v>1.28</v>
+      </c>
+      <c r="AO307">
+        <v>1.34</v>
+      </c>
+      <c r="AP307">
+        <v>1.71</v>
+      </c>
+      <c r="AQ307">
+        <v>2.14</v>
+      </c>
+      <c r="AR307">
+        <v>1.71</v>
+      </c>
+      <c r="AS307">
+        <v>2.25</v>
+      </c>
+      <c r="AT307">
+        <v>1.5</v>
+      </c>
+      <c r="AU307">
+        <v>1.69</v>
+      </c>
+      <c r="AV307">
+        <v>1.12</v>
+      </c>
+      <c r="AW307">
+        <v>2.81</v>
+      </c>
+      <c r="AX307">
+        <v>1.62</v>
+      </c>
+      <c r="AY307">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ307">
+        <v>2.77</v>
+      </c>
+      <c r="BA307">
+        <v>1.21</v>
+      </c>
+      <c r="BB307">
+        <v>1.48</v>
+      </c>
+      <c r="BC307">
+        <v>1.76</v>
+      </c>
+      <c r="BD307">
+        <v>2.18</v>
+      </c>
+      <c r="BE307">
+        <v>2.7</v>
+      </c>
+      <c r="BF307">
+        <v>5</v>
+      </c>
+      <c r="BG307">
+        <v>2</v>
+      </c>
+      <c r="BH307">
+        <v>6</v>
+      </c>
+      <c r="BI307">
+        <v>1</v>
+      </c>
+      <c r="BJ307">
+        <v>11</v>
+      </c>
+      <c r="BK307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:63">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>5068045</v>
+      </c>
+      <c r="C308" t="s">
+        <v>63</v>
+      </c>
+      <c r="D308" t="s">
+        <v>64</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45080.52083333334</v>
+      </c>
+      <c r="F308">
+        <v>17</v>
+      </c>
+      <c r="G308" t="s">
+        <v>95</v>
+      </c>
+      <c r="H308" t="s">
+        <v>76</v>
+      </c>
+      <c r="I308">
+        <v>1</v>
+      </c>
+      <c r="J308">
+        <v>1</v>
+      </c>
+      <c r="K308">
+        <v>2</v>
+      </c>
+      <c r="L308">
+        <v>2</v>
+      </c>
+      <c r="M308">
+        <v>1</v>
+      </c>
+      <c r="N308">
+        <v>3</v>
+      </c>
+      <c r="O308" t="s">
+        <v>289</v>
+      </c>
+      <c r="P308" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q308">
+        <v>3</v>
+      </c>
+      <c r="R308">
+        <v>6</v>
+      </c>
+      <c r="S308">
+        <v>9</v>
+      </c>
+      <c r="T308">
+        <v>3.4</v>
+      </c>
+      <c r="U308">
+        <v>2.1</v>
+      </c>
+      <c r="V308">
+        <v>3.4</v>
+      </c>
+      <c r="W308">
+        <v>1.43</v>
+      </c>
+      <c r="X308">
+        <v>2.71</v>
+      </c>
+      <c r="Y308">
+        <v>3</v>
+      </c>
+      <c r="Z308">
+        <v>1.36</v>
+      </c>
+      <c r="AA308">
+        <v>7.9</v>
+      </c>
+      <c r="AB308">
+        <v>1.06</v>
+      </c>
+      <c r="AC308">
+        <v>2.25</v>
+      </c>
+      <c r="AD308">
+        <v>2.9</v>
+      </c>
+      <c r="AE308">
+        <v>3.3</v>
+      </c>
+      <c r="AF308">
+        <v>1.05</v>
+      </c>
+      <c r="AG308">
+        <v>7.1</v>
+      </c>
+      <c r="AH308">
+        <v>1.5</v>
+      </c>
+      <c r="AI308">
+        <v>2.5</v>
+      </c>
+      <c r="AJ308">
+        <v>2.48</v>
+      </c>
+      <c r="AK308">
+        <v>1.5</v>
+      </c>
+      <c r="AL308">
+        <v>1.82</v>
+      </c>
+      <c r="AM308">
+        <v>1.94</v>
+      </c>
+      <c r="AN308">
+        <v>1.48</v>
+      </c>
+      <c r="AO308">
+        <v>1.33</v>
+      </c>
+      <c r="AP308">
+        <v>1.48</v>
+      </c>
+      <c r="AQ308">
+        <v>1.71</v>
+      </c>
+      <c r="AR308">
+        <v>1</v>
+      </c>
+      <c r="AS308">
+        <v>1.88</v>
+      </c>
+      <c r="AT308">
+        <v>0.88</v>
+      </c>
+      <c r="AU308">
+        <v>1.62</v>
+      </c>
+      <c r="AV308">
+        <v>1.24</v>
+      </c>
+      <c r="AW308">
+        <v>2.86</v>
+      </c>
+      <c r="AX308">
+        <v>1.77</v>
+      </c>
+      <c r="AY308">
+        <v>8.9</v>
+      </c>
+      <c r="AZ308">
+        <v>2.4</v>
+      </c>
+      <c r="BA308">
+        <v>1.25</v>
+      </c>
+      <c r="BB308">
+        <v>1.53</v>
+      </c>
+      <c r="BC308">
+        <v>1.85</v>
+      </c>
+      <c r="BD308">
+        <v>2.3</v>
+      </c>
+      <c r="BE308">
+        <v>3.2</v>
+      </c>
+      <c r="BF308">
+        <v>4</v>
+      </c>
+      <c r="BG308">
+        <v>3</v>
+      </c>
+      <c r="BH308">
+        <v>2</v>
+      </c>
+      <c r="BI308">
+        <v>3</v>
+      </c>
+      <c r="BJ308">
+        <v>6</v>
+      </c>
+      <c r="BK308">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:63">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>5068066</v>
+      </c>
+      <c r="C309" t="s">
+        <v>63</v>
+      </c>
+      <c r="D309" t="s">
+        <v>64</v>
+      </c>
+      <c r="E309" s="2">
+        <v>45080.625</v>
+      </c>
+      <c r="F309">
+        <v>19</v>
+      </c>
+      <c r="G309" t="s">
+        <v>78</v>
+      </c>
+      <c r="H309" t="s">
+        <v>73</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>1</v>
+      </c>
+      <c r="M309">
+        <v>1</v>
+      </c>
+      <c r="N309">
+        <v>2</v>
+      </c>
+      <c r="O309" t="s">
+        <v>290</v>
+      </c>
+      <c r="P309" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q309">
+        <v>11</v>
+      </c>
+      <c r="R309">
+        <v>6</v>
+      </c>
+      <c r="S309">
+        <v>17</v>
+      </c>
+      <c r="T309">
+        <v>3.1</v>
+      </c>
+      <c r="U309">
+        <v>1.95</v>
+      </c>
+      <c r="V309">
+        <v>4</v>
+      </c>
+      <c r="W309">
+        <v>1.53</v>
+      </c>
+      <c r="X309">
+        <v>2.41</v>
+      </c>
+      <c r="Y309">
+        <v>3.48</v>
+      </c>
+      <c r="Z309">
+        <v>1.28</v>
+      </c>
+      <c r="AA309">
+        <v>9.5</v>
+      </c>
+      <c r="AB309">
+        <v>1.04</v>
+      </c>
+      <c r="AC309">
+        <v>2.2</v>
+      </c>
+      <c r="AD309">
+        <v>2.88</v>
+      </c>
+      <c r="AE309">
+        <v>3.5</v>
+      </c>
+      <c r="AF309">
+        <v>1.08</v>
+      </c>
+      <c r="AG309">
+        <v>5.95</v>
+      </c>
+      <c r="AH309">
+        <v>1.55</v>
+      </c>
+      <c r="AI309">
+        <v>2.4</v>
+      </c>
+      <c r="AJ309">
+        <v>2.73</v>
+      </c>
+      <c r="AK309">
+        <v>1.4</v>
+      </c>
+      <c r="AL309">
+        <v>2.05</v>
+      </c>
+      <c r="AM309">
+        <v>1.73</v>
+      </c>
+      <c r="AN309">
+        <v>1.33</v>
+      </c>
+      <c r="AO309">
+        <v>1.35</v>
+      </c>
+      <c r="AP309">
+        <v>1.63</v>
+      </c>
+      <c r="AQ309">
+        <v>1.75</v>
+      </c>
+      <c r="AR309">
+        <v>1.5</v>
+      </c>
+      <c r="AS309">
+        <v>1.67</v>
+      </c>
+      <c r="AT309">
+        <v>1.44</v>
+      </c>
+      <c r="AU309">
+        <v>1.2</v>
+      </c>
+      <c r="AV309">
+        <v>1.13</v>
+      </c>
+      <c r="AW309">
+        <v>2.33</v>
+      </c>
+      <c r="AX309">
+        <v>1.69</v>
+      </c>
+      <c r="AY309">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ309">
+        <v>2.62</v>
+      </c>
+      <c r="BA309">
+        <v>1.57</v>
+      </c>
+      <c r="BB309">
+        <v>1.95</v>
+      </c>
+      <c r="BC309">
+        <v>2.5</v>
+      </c>
+      <c r="BD309">
+        <v>3.64</v>
+      </c>
+      <c r="BE309">
+        <v>6.7</v>
+      </c>
+      <c r="BF309">
+        <v>9</v>
+      </c>
+      <c r="BG309">
+        <v>2</v>
+      </c>
+      <c r="BH309">
+        <v>10</v>
+      </c>
+      <c r="BI309">
+        <v>2</v>
+      </c>
+      <c r="BJ309">
+        <v>19</v>
+      </c>
+      <c r="BK309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:63">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>5068048</v>
+      </c>
+      <c r="C310" t="s">
+        <v>63</v>
+      </c>
+      <c r="D310" t="s">
+        <v>64</v>
+      </c>
+      <c r="E310" s="2">
+        <v>45080.625</v>
+      </c>
+      <c r="F310">
+        <v>17</v>
+      </c>
+      <c r="G310" t="s">
+        <v>96</v>
+      </c>
+      <c r="H310" t="s">
+        <v>77</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>1</v>
+      </c>
+      <c r="K310">
+        <v>1</v>
+      </c>
+      <c r="L310">
+        <v>1</v>
+      </c>
+      <c r="M310">
+        <v>1</v>
+      </c>
+      <c r="N310">
+        <v>2</v>
+      </c>
+      <c r="O310" t="s">
+        <v>291</v>
+      </c>
+      <c r="P310" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q310">
+        <v>11</v>
+      </c>
+      <c r="R310">
+        <v>4</v>
+      </c>
+      <c r="S310">
+        <v>15</v>
+      </c>
+      <c r="T310">
+        <v>3.25</v>
+      </c>
+      <c r="U310">
+        <v>2</v>
+      </c>
+      <c r="V310">
+        <v>3.6</v>
+      </c>
+      <c r="W310">
+        <v>1.5</v>
+      </c>
+      <c r="X310">
+        <v>2.49</v>
+      </c>
+      <c r="Y310">
+        <v>3.34</v>
+      </c>
+      <c r="Z310">
+        <v>1.3</v>
+      </c>
+      <c r="AA310">
+        <v>9.1</v>
+      </c>
+      <c r="AB310">
+        <v>1.05</v>
+      </c>
+      <c r="AC310">
+        <v>2.38</v>
+      </c>
+      <c r="AD310">
+        <v>3</v>
+      </c>
+      <c r="AE310">
+        <v>3</v>
+      </c>
+      <c r="AF310">
+        <v>1.06</v>
+      </c>
+      <c r="AG310">
+        <v>7</v>
+      </c>
+      <c r="AH310">
+        <v>1.44</v>
+      </c>
+      <c r="AI310">
+        <v>2.54</v>
+      </c>
+      <c r="AJ310">
+        <v>2.4</v>
+      </c>
+      <c r="AK310">
+        <v>1.53</v>
+      </c>
+      <c r="AL310">
+        <v>1.97</v>
+      </c>
+      <c r="AM310">
+        <v>1.8</v>
+      </c>
+      <c r="AN310">
+        <v>1.42</v>
+      </c>
+      <c r="AO310">
+        <v>1.33</v>
+      </c>
+      <c r="AP310">
+        <v>1.5</v>
+      </c>
+      <c r="AQ310">
+        <v>1</v>
+      </c>
+      <c r="AR310">
+        <v>1</v>
+      </c>
+      <c r="AS310">
+        <v>1</v>
+      </c>
+      <c r="AT310">
+        <v>1</v>
+      </c>
+      <c r="AU310">
+        <v>2.05</v>
+      </c>
+      <c r="AV310">
+        <v>1.24</v>
+      </c>
+      <c r="AW310">
+        <v>3.29</v>
+      </c>
+      <c r="AX310">
+        <v>1.64</v>
+      </c>
+      <c r="AY310">
+        <v>9.4</v>
+      </c>
+      <c r="AZ310">
+        <v>2.65</v>
+      </c>
+      <c r="BA310">
+        <v>1.18</v>
+      </c>
+      <c r="BB310">
+        <v>1.4</v>
+      </c>
+      <c r="BC310">
+        <v>1.67</v>
+      </c>
+      <c r="BD310">
+        <v>2.05</v>
+      </c>
+      <c r="BE310">
+        <v>2.6</v>
+      </c>
+      <c r="BF310">
+        <v>9</v>
+      </c>
+      <c r="BG310">
+        <v>6</v>
+      </c>
+      <c r="BH310">
+        <v>7</v>
+      </c>
+      <c r="BI310">
+        <v>1</v>
+      </c>
+      <c r="BJ310">
+        <v>16</v>
+      </c>
+      <c r="BK310">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:63">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>5068067</v>
+      </c>
+      <c r="C311" t="s">
+        <v>63</v>
+      </c>
+      <c r="D311" t="s">
+        <v>64</v>
+      </c>
+      <c r="E311" s="2">
+        <v>45080.64583333334</v>
+      </c>
+      <c r="F311">
+        <v>19</v>
+      </c>
+      <c r="G311" t="s">
+        <v>91</v>
+      </c>
+      <c r="H311" t="s">
+        <v>67</v>
+      </c>
+      <c r="I311">
+        <v>2</v>
+      </c>
+      <c r="J311">
+        <v>1</v>
+      </c>
+      <c r="K311">
+        <v>3</v>
+      </c>
+      <c r="L311">
+        <v>2</v>
+      </c>
+      <c r="M311">
+        <v>1</v>
+      </c>
+      <c r="N311">
+        <v>3</v>
+      </c>
+      <c r="O311" t="s">
+        <v>292</v>
+      </c>
+      <c r="P311" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q311">
+        <v>5</v>
+      </c>
+      <c r="R311">
+        <v>6</v>
+      </c>
+      <c r="S311">
+        <v>11</v>
+      </c>
+      <c r="T311">
+        <v>2.6</v>
+      </c>
+      <c r="U311">
+        <v>2</v>
+      </c>
+      <c r="V311">
+        <v>5.5</v>
+      </c>
+      <c r="W311">
+        <v>1.55</v>
+      </c>
+      <c r="X311">
+        <v>2.38</v>
+      </c>
+      <c r="Y311">
+        <v>3.56</v>
+      </c>
+      <c r="Z311">
+        <v>1.27</v>
+      </c>
+      <c r="AA311">
+        <v>10</v>
+      </c>
+      <c r="AB311">
+        <v>1.03</v>
+      </c>
+      <c r="AC311">
+        <v>2.1</v>
+      </c>
+      <c r="AD311">
+        <v>2.8</v>
+      </c>
+      <c r="AE311">
+        <v>3.5</v>
+      </c>
+      <c r="AF311">
+        <v>1.08</v>
+      </c>
+      <c r="AG311">
+        <v>6.5</v>
+      </c>
+      <c r="AH311">
+        <v>1.53</v>
+      </c>
+      <c r="AI311">
+        <v>2.35</v>
+      </c>
+      <c r="AJ311">
+        <v>2.2</v>
+      </c>
+      <c r="AK311">
+        <v>1.62</v>
+      </c>
+      <c r="AL311">
+        <v>2.32</v>
+      </c>
+      <c r="AM311">
+        <v>1.58</v>
+      </c>
+      <c r="AN311">
+        <v>1.21</v>
+      </c>
+      <c r="AO311">
+        <v>1.31</v>
+      </c>
+      <c r="AP311">
+        <v>1.73</v>
+      </c>
+      <c r="AQ311">
+        <v>2.5</v>
+      </c>
+      <c r="AR311">
+        <v>1.13</v>
+      </c>
+      <c r="AS311">
+        <v>2.56</v>
+      </c>
+      <c r="AT311">
+        <v>1</v>
+      </c>
+      <c r="AU311">
+        <v>1.81</v>
+      </c>
+      <c r="AV311">
+        <v>1.1</v>
+      </c>
+      <c r="AW311">
+        <v>2.91</v>
+      </c>
+      <c r="AX311">
+        <v>1.76</v>
+      </c>
+      <c r="AY311">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ311">
+        <v>2.43</v>
+      </c>
+      <c r="BA311">
+        <v>1.29</v>
+      </c>
+      <c r="BB311">
+        <v>1.57</v>
+      </c>
+      <c r="BC311">
+        <v>1.95</v>
+      </c>
+      <c r="BD311">
+        <v>2.4</v>
+      </c>
+      <c r="BE311">
+        <v>3.42</v>
+      </c>
+      <c r="BF311">
+        <v>4</v>
+      </c>
+      <c r="BG311">
+        <v>4</v>
+      </c>
+      <c r="BH311">
+        <v>3</v>
+      </c>
+      <c r="BI311">
+        <v>3</v>
+      </c>
+      <c r="BJ311">
+        <v>7</v>
+      </c>
+      <c r="BK311">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:63">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>5068051</v>
+      </c>
+      <c r="C312" t="s">
+        <v>63</v>
+      </c>
+      <c r="D312" t="s">
+        <v>64</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45080.6875</v>
+      </c>
+      <c r="F312">
+        <v>17</v>
+      </c>
+      <c r="G312" t="s">
+        <v>98</v>
+      </c>
+      <c r="H312" t="s">
+        <v>83</v>
+      </c>
+      <c r="I312">
+        <v>2</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>2</v>
+      </c>
+      <c r="L312">
+        <v>2</v>
+      </c>
+      <c r="M312">
+        <v>0</v>
+      </c>
+      <c r="N312">
+        <v>2</v>
+      </c>
+      <c r="O312" t="s">
+        <v>293</v>
+      </c>
+      <c r="P312" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q312">
+        <v>4</v>
+      </c>
+      <c r="R312">
+        <v>3</v>
+      </c>
+      <c r="S312">
+        <v>7</v>
+      </c>
+      <c r="T312">
+        <v>2.88</v>
+      </c>
+      <c r="U312">
+        <v>2.1</v>
+      </c>
+      <c r="V312">
+        <v>4</v>
+      </c>
+      <c r="W312">
+        <v>1.46</v>
+      </c>
+      <c r="X312">
+        <v>2.61</v>
+      </c>
+      <c r="Y312">
+        <v>3.16</v>
+      </c>
+      <c r="Z312">
+        <v>1.33</v>
+      </c>
+      <c r="AA312">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB312">
+        <v>1.06</v>
+      </c>
+      <c r="AC312">
+        <v>1.6</v>
+      </c>
+      <c r="AD312">
+        <v>3.2</v>
+      </c>
+      <c r="AE312">
+        <v>5.75</v>
+      </c>
+      <c r="AF312">
+        <v>1.06</v>
+      </c>
+      <c r="AG312">
+        <v>6.8</v>
+      </c>
+      <c r="AH312">
+        <v>1.5</v>
+      </c>
+      <c r="AI312">
+        <v>2.55</v>
+      </c>
+      <c r="AJ312">
+        <v>2.45</v>
+      </c>
+      <c r="AK312">
+        <v>1.5</v>
+      </c>
+      <c r="AL312">
+        <v>1.92</v>
+      </c>
+      <c r="AM312">
+        <v>1.84</v>
+      </c>
+      <c r="AN312">
+        <v>1.27</v>
+      </c>
+      <c r="AO312">
+        <v>1.3</v>
+      </c>
+      <c r="AP312">
+        <v>2.08</v>
+      </c>
+      <c r="AQ312">
+        <v>1.43</v>
+      </c>
+      <c r="AR312">
+        <v>0</v>
+      </c>
+      <c r="AS312">
+        <v>1.63</v>
+      </c>
+      <c r="AT312">
+        <v>0</v>
+      </c>
+      <c r="AU312">
+        <v>1.58</v>
+      </c>
+      <c r="AV312">
+        <v>1.1</v>
+      </c>
+      <c r="AW312">
+        <v>2.68</v>
+      </c>
+      <c r="AX312">
+        <v>1.39</v>
+      </c>
+      <c r="AY312">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ312">
+        <v>3.68</v>
+      </c>
+      <c r="BA312">
+        <v>1.27</v>
+      </c>
+      <c r="BB312">
+        <v>1.57</v>
+      </c>
+      <c r="BC312">
+        <v>1.91</v>
+      </c>
+      <c r="BD312">
+        <v>2.4</v>
+      </c>
+      <c r="BE312">
+        <v>3.34</v>
+      </c>
+      <c r="BF312">
+        <v>7</v>
+      </c>
+      <c r="BG312">
+        <v>3</v>
+      </c>
+      <c r="BH312">
+        <v>6</v>
+      </c>
+      <c r="BI312">
+        <v>5</v>
+      </c>
+      <c r="BJ312">
+        <v>13</v>
+      </c>
+      <c r="BK312">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:63">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>5068052</v>
+      </c>
+      <c r="C313" t="s">
+        <v>63</v>
+      </c>
+      <c r="D313" t="s">
+        <v>64</v>
+      </c>
+      <c r="E313" s="2">
+        <v>45080.79861111111</v>
+      </c>
+      <c r="F313">
+        <v>17</v>
+      </c>
+      <c r="G313" t="s">
+        <v>101</v>
+      </c>
+      <c r="H313" t="s">
+        <v>89</v>
+      </c>
+      <c r="I313">
+        <v>1</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>1</v>
+      </c>
+      <c r="L313">
+        <v>2</v>
+      </c>
+      <c r="M313">
+        <v>1</v>
+      </c>
+      <c r="N313">
+        <v>3</v>
+      </c>
+      <c r="O313" t="s">
+        <v>294</v>
+      </c>
+      <c r="P313" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q313">
+        <v>6</v>
+      </c>
+      <c r="R313">
+        <v>4</v>
+      </c>
+      <c r="S313">
+        <v>10</v>
+      </c>
+      <c r="T313">
+        <v>3</v>
+      </c>
+      <c r="U313">
+        <v>2.05</v>
+      </c>
+      <c r="V313">
+        <v>3.75</v>
+      </c>
+      <c r="W313">
+        <v>1.42</v>
+      </c>
+      <c r="X313">
+        <v>2.65</v>
+      </c>
+      <c r="Y313">
+        <v>2.9</v>
+      </c>
+      <c r="Z313">
+        <v>1.36</v>
+      </c>
+      <c r="AA313">
+        <v>7.3</v>
+      </c>
+      <c r="AB313">
+        <v>1.06</v>
+      </c>
+      <c r="AC313">
+        <v>2.05</v>
+      </c>
+      <c r="AD313">
+        <v>3.1</v>
+      </c>
+      <c r="AE313">
+        <v>3.3</v>
+      </c>
+      <c r="AF313">
+        <v>1.04</v>
+      </c>
+      <c r="AG313">
+        <v>7.6</v>
+      </c>
+      <c r="AH313">
+        <v>1.36</v>
+      </c>
+      <c r="AI313">
+        <v>2.83</v>
+      </c>
+      <c r="AJ313">
+        <v>2.05</v>
+      </c>
+      <c r="AK313">
+        <v>1.67</v>
+      </c>
+      <c r="AL313">
+        <v>1.92</v>
+      </c>
+      <c r="AM313">
+        <v>1.84</v>
+      </c>
+      <c r="AN313">
+        <v>1.31</v>
+      </c>
+      <c r="AO313">
+        <v>1.33</v>
+      </c>
+      <c r="AP313">
+        <v>1.69</v>
+      </c>
+      <c r="AQ313">
+        <v>2.29</v>
+      </c>
+      <c r="AR313">
+        <v>1.86</v>
+      </c>
+      <c r="AS313">
+        <v>2.38</v>
+      </c>
+      <c r="AT313">
+        <v>1.63</v>
+      </c>
+      <c r="AU313">
+        <v>1.81</v>
+      </c>
+      <c r="AV313">
+        <v>1.3</v>
+      </c>
+      <c r="AW313">
+        <v>3.11</v>
+      </c>
+      <c r="AX313">
+        <v>1.63</v>
+      </c>
+      <c r="AY313">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ313">
+        <v>2.69</v>
+      </c>
+      <c r="BA313">
+        <v>1.19</v>
+      </c>
+      <c r="BB313">
+        <v>1.44</v>
+      </c>
+      <c r="BC313">
+        <v>1.73</v>
+      </c>
+      <c r="BD313">
+        <v>2.1</v>
+      </c>
+      <c r="BE313">
+        <v>2.63</v>
+      </c>
+      <c r="BF313">
+        <v>7</v>
+      </c>
+      <c r="BG313">
+        <v>7</v>
+      </c>
+      <c r="BH313">
+        <v>5</v>
+      </c>
+      <c r="BI313">
+        <v>7</v>
+      </c>
+      <c r="BJ313">
+        <v>12</v>
+      </c>
+      <c r="BK313">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="314" spans="1:63">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>5068064</v>
+      </c>
+      <c r="C314" t="s">
+        <v>63</v>
+      </c>
+      <c r="D314" t="s">
+        <v>64</v>
+      </c>
+      <c r="E314" s="2">
+        <v>45080.88194444445</v>
+      </c>
+      <c r="F314">
+        <v>19</v>
+      </c>
+      <c r="G314" t="s">
+        <v>80</v>
+      </c>
+      <c r="H314" t="s">
+        <v>72</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+      <c r="M314">
+        <v>1</v>
+      </c>
+      <c r="N314">
+        <v>2</v>
+      </c>
+      <c r="O314" t="s">
+        <v>175</v>
+      </c>
+      <c r="P314" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q314">
+        <v>7</v>
+      </c>
+      <c r="R314">
+        <v>2</v>
+      </c>
+      <c r="S314">
+        <v>9</v>
+      </c>
+      <c r="T314">
+        <v>3</v>
+      </c>
+      <c r="U314">
+        <v>1.95</v>
+      </c>
+      <c r="V314">
+        <v>4</v>
+      </c>
+      <c r="W314">
+        <v>1.49</v>
+      </c>
+      <c r="X314">
+        <v>2.44</v>
+      </c>
+      <c r="Y314">
+        <v>3.2</v>
+      </c>
+      <c r="Z314">
+        <v>1.29</v>
+      </c>
+      <c r="AA314">
+        <v>8.6</v>
+      </c>
+      <c r="AB314">
+        <v>1.03</v>
+      </c>
+      <c r="AC314">
+        <v>2</v>
+      </c>
+      <c r="AD314">
+        <v>2.9</v>
+      </c>
+      <c r="AE314">
+        <v>3.6</v>
+      </c>
+      <c r="AF314">
+        <v>1.07</v>
+      </c>
+      <c r="AG314">
+        <v>6.25</v>
+      </c>
+      <c r="AH314">
+        <v>1.5</v>
+      </c>
+      <c r="AI314">
+        <v>2.45</v>
+      </c>
+      <c r="AJ314">
+        <v>2.55</v>
+      </c>
+      <c r="AK314">
+        <v>1.47</v>
+      </c>
+      <c r="AL314">
+        <v>2.08</v>
+      </c>
+      <c r="AM314">
+        <v>1.71</v>
+      </c>
+      <c r="AN314">
+        <v>1.24</v>
+      </c>
+      <c r="AO314">
+        <v>1.35</v>
+      </c>
+      <c r="AP314">
+        <v>1.78</v>
+      </c>
+      <c r="AQ314">
+        <v>2.38</v>
+      </c>
+      <c r="AR314">
+        <v>1.29</v>
+      </c>
+      <c r="AS314">
+        <v>2.22</v>
+      </c>
+      <c r="AT314">
+        <v>1.25</v>
+      </c>
+      <c r="AU314">
+        <v>1.6</v>
+      </c>
+      <c r="AV314">
+        <v>0.93</v>
+      </c>
+      <c r="AW314">
+        <v>2.53</v>
+      </c>
+      <c r="AX314">
+        <v>1.6</v>
+      </c>
+      <c r="AY314">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ314">
+        <v>2.88</v>
+      </c>
+      <c r="BA314">
+        <v>1.5</v>
+      </c>
+      <c r="BB314">
+        <v>1.85</v>
+      </c>
+      <c r="BC314">
+        <v>2.3</v>
+      </c>
+      <c r="BD314">
+        <v>3.74</v>
+      </c>
+      <c r="BE314">
+        <v>5.2</v>
+      </c>
+      <c r="BF314">
+        <v>4</v>
+      </c>
+      <c r="BG314">
+        <v>6</v>
+      </c>
+      <c r="BH314">
+        <v>10</v>
+      </c>
+      <c r="BI314">
+        <v>1</v>
+      </c>
+      <c r="BJ314">
+        <v>14</v>
+      </c>
+      <c r="BK314">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:63">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>5068062</v>
+      </c>
+      <c r="C315" t="s">
+        <v>63</v>
+      </c>
+      <c r="D315" t="s">
+        <v>64</v>
+      </c>
+      <c r="E315" s="2">
+        <v>45081.5</v>
+      </c>
+      <c r="F315">
+        <v>19</v>
+      </c>
+      <c r="G315" t="s">
+        <v>99</v>
+      </c>
+      <c r="H315" t="s">
+        <v>66</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>1</v>
+      </c>
+      <c r="L315">
+        <v>2</v>
+      </c>
+      <c r="M315">
+        <v>0</v>
+      </c>
+      <c r="N315">
+        <v>2</v>
+      </c>
+      <c r="O315" t="s">
+        <v>295</v>
+      </c>
+      <c r="P315" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q315">
+        <v>1</v>
+      </c>
+      <c r="R315">
+        <v>10</v>
+      </c>
+      <c r="S315">
+        <v>11</v>
+      </c>
+      <c r="T315">
+        <v>3</v>
+      </c>
+      <c r="U315">
+        <v>1.91</v>
+      </c>
+      <c r="V315">
+        <v>4.5</v>
+      </c>
+      <c r="W315">
+        <v>1.47</v>
+      </c>
+      <c r="X315">
+        <v>2.5</v>
+      </c>
+      <c r="Y315">
+        <v>3.56</v>
+      </c>
+      <c r="Z315">
+        <v>1.27</v>
+      </c>
+      <c r="AA315">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB315">
+        <v>1.03</v>
+      </c>
+      <c r="AC315">
+        <v>2.3</v>
+      </c>
+      <c r="AD315">
+        <v>2.88</v>
+      </c>
+      <c r="AE315">
+        <v>3.25</v>
+      </c>
+      <c r="AF315">
+        <v>1.09</v>
+      </c>
+      <c r="AG315">
+        <v>6</v>
+      </c>
+      <c r="AH315">
+        <v>1.58</v>
+      </c>
+      <c r="AI315">
+        <v>2.3</v>
+      </c>
+      <c r="AJ315">
+        <v>2.47</v>
+      </c>
+      <c r="AK315">
+        <v>1.42</v>
+      </c>
+      <c r="AL315">
+        <v>2.21</v>
+      </c>
+      <c r="AM315">
+        <v>1.62</v>
+      </c>
+      <c r="AN315">
+        <v>1.25</v>
+      </c>
+      <c r="AO315">
+        <v>1.38</v>
+      </c>
+      <c r="AP315">
+        <v>1.56</v>
+      </c>
+      <c r="AQ315">
+        <v>1.75</v>
+      </c>
+      <c r="AR315">
+        <v>0.5</v>
+      </c>
+      <c r="AS315">
+        <v>1.89</v>
+      </c>
+      <c r="AT315">
+        <v>0.44</v>
+      </c>
+      <c r="AU315">
+        <v>1.38</v>
+      </c>
+      <c r="AV315">
+        <v>1.3</v>
+      </c>
+      <c r="AW315">
+        <v>2.68</v>
+      </c>
+      <c r="AX315">
+        <v>1.9</v>
+      </c>
+      <c r="AY315">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ315">
+        <v>2.24</v>
+      </c>
+      <c r="BA315">
+        <v>1.48</v>
+      </c>
+      <c r="BB315">
+        <v>1.82</v>
+      </c>
+      <c r="BC315">
+        <v>2.27</v>
+      </c>
+      <c r="BD315">
+        <v>3.18</v>
+      </c>
+      <c r="BE315">
+        <v>5.4</v>
+      </c>
+      <c r="BF315">
+        <v>3</v>
+      </c>
+      <c r="BG315">
+        <v>6</v>
+      </c>
+      <c r="BH315">
+        <v>6</v>
+      </c>
+      <c r="BI315">
+        <v>6</v>
+      </c>
+      <c r="BJ315">
+        <v>9</v>
+      </c>
+      <c r="BK315">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="316" spans="1:63">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>5068065</v>
+      </c>
+      <c r="C316" t="s">
+        <v>63</v>
+      </c>
+      <c r="D316" t="s">
+        <v>64</v>
+      </c>
+      <c r="E316" s="2">
+        <v>45081.625</v>
+      </c>
+      <c r="F316">
+        <v>19</v>
+      </c>
+      <c r="G316" t="s">
+        <v>79</v>
+      </c>
+      <c r="H316" t="s">
+        <v>65</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>1</v>
+      </c>
+      <c r="K316">
+        <v>1</v>
+      </c>
+      <c r="L316">
+        <v>2</v>
+      </c>
+      <c r="M316">
+        <v>1</v>
+      </c>
+      <c r="N316">
+        <v>3</v>
+      </c>
+      <c r="O316" t="s">
+        <v>296</v>
+      </c>
+      <c r="P316" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q316">
+        <v>3</v>
+      </c>
+      <c r="R316">
+        <v>5</v>
+      </c>
+      <c r="S316">
+        <v>8</v>
+      </c>
+      <c r="T316">
+        <v>3.6</v>
+      </c>
+      <c r="U316">
+        <v>1.91</v>
+      </c>
+      <c r="V316">
+        <v>3.5</v>
+      </c>
+      <c r="W316">
+        <v>1.54</v>
+      </c>
+      <c r="X316">
+        <v>2.39</v>
+      </c>
+      <c r="Y316">
+        <v>3.56</v>
+      </c>
+      <c r="Z316">
+        <v>1.27</v>
+      </c>
+      <c r="AA316">
+        <v>9.9</v>
+      </c>
+      <c r="AB316">
+        <v>1.04</v>
+      </c>
+      <c r="AC316">
+        <v>2.7</v>
+      </c>
+      <c r="AD316">
+        <v>3.16</v>
+      </c>
+      <c r="AE316">
+        <v>2.7</v>
+      </c>
+      <c r="AF316">
+        <v>1.08</v>
+      </c>
+      <c r="AG316">
+        <v>6.2</v>
+      </c>
+      <c r="AH316">
+        <v>1.53</v>
+      </c>
+      <c r="AI316">
+        <v>2.38</v>
+      </c>
+      <c r="AJ316">
+        <v>2.37</v>
+      </c>
+      <c r="AK316">
+        <v>1.53</v>
+      </c>
+      <c r="AL316">
+        <v>2.06</v>
+      </c>
+      <c r="AM316">
+        <v>1.73</v>
+      </c>
+      <c r="AN316">
+        <v>1.43</v>
+      </c>
+      <c r="AO316">
+        <v>1.38</v>
+      </c>
+      <c r="AP316">
+        <v>1.46</v>
+      </c>
+      <c r="AQ316">
+        <v>1.38</v>
+      </c>
+      <c r="AR316">
+        <v>1</v>
+      </c>
+      <c r="AS316">
+        <v>1.56</v>
+      </c>
+      <c r="AT316">
+        <v>0.89</v>
+      </c>
+      <c r="AU316">
+        <v>1.87</v>
+      </c>
+      <c r="AV316">
+        <v>1.12</v>
+      </c>
+      <c r="AW316">
+        <v>2.99</v>
+      </c>
+      <c r="AX316">
+        <v>2.08</v>
+      </c>
+      <c r="AY316">
+        <v>8</v>
+      </c>
+      <c r="AZ316">
+        <v>2.05</v>
+      </c>
+      <c r="BA316">
+        <v>1.61</v>
+      </c>
+      <c r="BB316">
+        <v>2.03</v>
+      </c>
+      <c r="BC316">
+        <v>2.72</v>
+      </c>
+      <c r="BD316">
+        <v>3.84</v>
+      </c>
+      <c r="BE316">
+        <v>7</v>
+      </c>
+      <c r="BF316">
+        <v>4</v>
+      </c>
+      <c r="BG316">
+        <v>7</v>
+      </c>
+      <c r="BH316">
+        <v>7</v>
+      </c>
+      <c r="BI316">
+        <v>2</v>
+      </c>
+      <c r="BJ316">
+        <v>11</v>
+      </c>
+      <c r="BK316">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:63">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>5068068</v>
+      </c>
+      <c r="C317" t="s">
+        <v>63</v>
+      </c>
+      <c r="D317" t="s">
+        <v>64</v>
+      </c>
+      <c r="E317" s="2">
+        <v>45081.625</v>
+      </c>
+      <c r="F317">
+        <v>19</v>
+      </c>
+      <c r="G317" t="s">
+        <v>87</v>
+      </c>
+      <c r="H317" t="s">
+        <v>71</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>0</v>
+      </c>
+      <c r="L317">
+        <v>1</v>
+      </c>
+      <c r="M317">
+        <v>2</v>
+      </c>
+      <c r="N317">
+        <v>3</v>
+      </c>
+      <c r="O317" t="s">
+        <v>197</v>
+      </c>
+      <c r="P317" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q317">
+        <v>5</v>
+      </c>
+      <c r="R317">
+        <v>6</v>
+      </c>
+      <c r="S317">
+        <v>11</v>
+      </c>
+      <c r="T317">
+        <v>3.1</v>
+      </c>
+      <c r="U317">
+        <v>1.95</v>
+      </c>
+      <c r="V317">
+        <v>4.33</v>
+      </c>
+      <c r="W317">
+        <v>1.52</v>
+      </c>
+      <c r="X317">
+        <v>2.36</v>
+      </c>
+      <c r="Y317">
+        <v>3.4</v>
+      </c>
+      <c r="Z317">
+        <v>1.27</v>
+      </c>
+      <c r="AA317">
+        <v>9</v>
+      </c>
+      <c r="AB317">
+        <v>1.03</v>
+      </c>
+      <c r="AC317">
+        <v>2.29</v>
+      </c>
+      <c r="AD317">
+        <v>3.14</v>
+      </c>
+      <c r="AE317">
+        <v>3.34</v>
+      </c>
+      <c r="AF317">
+        <v>1.07</v>
+      </c>
+      <c r="AG317">
+        <v>6.45</v>
+      </c>
+      <c r="AH317">
+        <v>1.44</v>
+      </c>
+      <c r="AI317">
+        <v>2.4</v>
+      </c>
+      <c r="AJ317">
+        <v>2.45</v>
+      </c>
+      <c r="AK317">
+        <v>1.5</v>
+      </c>
+      <c r="AL317">
+        <v>2.16</v>
+      </c>
+      <c r="AM317">
+        <v>1.66</v>
+      </c>
+      <c r="AN317">
+        <v>1.32</v>
+      </c>
+      <c r="AO317">
+        <v>1.36</v>
+      </c>
+      <c r="AP317">
+        <v>1.63</v>
+      </c>
+      <c r="AQ317">
+        <v>1.5</v>
+      </c>
+      <c r="AR317">
+        <v>1</v>
+      </c>
+      <c r="AS317">
+        <v>1.33</v>
+      </c>
+      <c r="AT317">
+        <v>1.22</v>
+      </c>
+      <c r="AU317">
+        <v>1.49</v>
+      </c>
+      <c r="AV317">
+        <v>1.15</v>
+      </c>
+      <c r="AW317">
+        <v>2.64</v>
+      </c>
+      <c r="AX317">
+        <v>1.75</v>
+      </c>
+      <c r="AY317">
+        <v>7</v>
+      </c>
+      <c r="AZ317">
+        <v>2.66</v>
+      </c>
+      <c r="BA317">
+        <v>1.48</v>
+      </c>
+      <c r="BB317">
+        <v>1.8</v>
+      </c>
+      <c r="BC317">
+        <v>2.25</v>
+      </c>
+      <c r="BD317">
+        <v>2.63</v>
+      </c>
+      <c r="BE317">
+        <v>4</v>
+      </c>
+      <c r="BF317">
+        <v>6</v>
+      </c>
+      <c r="BG317">
+        <v>8</v>
+      </c>
+      <c r="BH317">
+        <v>5</v>
+      </c>
+      <c r="BI317">
+        <v>3</v>
+      </c>
+      <c r="BJ317">
+        <v>11</v>
+      </c>
+      <c r="BK317">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:63">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>5068069</v>
+      </c>
+      <c r="C318" t="s">
+        <v>63</v>
+      </c>
+      <c r="D318" t="s">
+        <v>64</v>
+      </c>
+      <c r="E318" s="2">
+        <v>45081.64583333334</v>
+      </c>
+      <c r="F318">
+        <v>19</v>
+      </c>
+      <c r="G318" t="s">
+        <v>88</v>
+      </c>
+      <c r="H318" t="s">
+        <v>69</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
+      <c r="L318">
+        <v>0</v>
+      </c>
+      <c r="M318">
+        <v>0</v>
+      </c>
+      <c r="N318">
+        <v>0</v>
+      </c>
+      <c r="O318" t="s">
+        <v>102</v>
+      </c>
+      <c r="P318" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q318">
+        <v>3</v>
+      </c>
+      <c r="R318">
+        <v>4</v>
+      </c>
+      <c r="S318">
+        <v>7</v>
+      </c>
+      <c r="T318">
+        <v>2.3</v>
+      </c>
+      <c r="U318">
+        <v>2.05</v>
+      </c>
+      <c r="V318">
+        <v>6</v>
+      </c>
+      <c r="W318">
+        <v>1.55</v>
+      </c>
+      <c r="X318">
+        <v>2.38</v>
+      </c>
+      <c r="Y318">
+        <v>3.56</v>
+      </c>
+      <c r="Z318">
+        <v>1.27</v>
+      </c>
+      <c r="AA318">
+        <v>8</v>
+      </c>
+      <c r="AB318">
+        <v>1.05</v>
+      </c>
+      <c r="AC318">
+        <v>1.7</v>
+      </c>
+      <c r="AD318">
+        <v>3.54</v>
+      </c>
+      <c r="AE318">
+        <v>5.45</v>
+      </c>
+      <c r="AF318">
+        <v>1.06</v>
+      </c>
+      <c r="AG318">
+        <v>7.95</v>
+      </c>
+      <c r="AH318">
+        <v>1.51</v>
+      </c>
+      <c r="AI318">
+        <v>2.4</v>
+      </c>
+      <c r="AJ318">
+        <v>2.4</v>
+      </c>
+      <c r="AK318">
+        <v>1.5</v>
+      </c>
+      <c r="AL318">
+        <v>2.31</v>
+      </c>
+      <c r="AM318">
+        <v>1.58</v>
+      </c>
+      <c r="AN318">
+        <v>1.15</v>
+      </c>
+      <c r="AO318">
+        <v>1.25</v>
+      </c>
+      <c r="AP318">
+        <v>2.05</v>
+      </c>
+      <c r="AQ318">
+        <v>2.5</v>
+      </c>
+      <c r="AR318">
+        <v>0.5</v>
+      </c>
+      <c r="AS318">
+        <v>2.33</v>
+      </c>
+      <c r="AT318">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU318">
+        <v>1.33</v>
+      </c>
+      <c r="AV318">
+        <v>1.08</v>
+      </c>
+      <c r="AW318">
+        <v>2.41</v>
+      </c>
+      <c r="AX318">
+        <v>1.71</v>
+      </c>
+      <c r="AY318">
+        <v>8.4</v>
+      </c>
+      <c r="AZ318">
+        <v>2.57</v>
+      </c>
+      <c r="BA318">
+        <v>1.52</v>
+      </c>
+      <c r="BB318">
+        <v>1.88</v>
+      </c>
+      <c r="BC318">
+        <v>2.37</v>
+      </c>
+      <c r="BD318">
+        <v>3.28</v>
+      </c>
+      <c r="BE318">
+        <v>5.9</v>
+      </c>
+      <c r="BF318">
+        <v>3</v>
+      </c>
+      <c r="BG318">
+        <v>2</v>
+      </c>
+      <c r="BH318">
+        <v>6</v>
+      </c>
+      <c r="BI318">
+        <v>3</v>
+      </c>
+      <c r="BJ318">
+        <v>9</v>
+      </c>
+      <c r="BK318">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:63">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>5068070</v>
+      </c>
+      <c r="C319" t="s">
+        <v>63</v>
+      </c>
+      <c r="D319" t="s">
+        <v>64</v>
+      </c>
+      <c r="E319" s="2">
+        <v>45081.70833333334</v>
+      </c>
+      <c r="F319">
+        <v>19</v>
+      </c>
+      <c r="G319" t="s">
+        <v>86</v>
+      </c>
+      <c r="H319" t="s">
+        <v>84</v>
+      </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>1</v>
+      </c>
+      <c r="L319">
+        <v>2</v>
+      </c>
+      <c r="M319">
+        <v>0</v>
+      </c>
+      <c r="N319">
+        <v>2</v>
+      </c>
+      <c r="O319" t="s">
+        <v>297</v>
+      </c>
+      <c r="P319" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q319">
+        <v>5</v>
+      </c>
+      <c r="R319">
+        <v>1</v>
+      </c>
+      <c r="S319">
+        <v>6</v>
+      </c>
+      <c r="T319">
+        <v>2.2</v>
+      </c>
+      <c r="U319">
+        <v>2.1</v>
+      </c>
+      <c r="V319">
+        <v>7</v>
+      </c>
+      <c r="W319">
+        <v>1.49</v>
+      </c>
+      <c r="X319">
+        <v>2.45</v>
+      </c>
+      <c r="Y319">
+        <v>3.1</v>
+      </c>
+      <c r="Z319">
+        <v>1.31</v>
+      </c>
+      <c r="AA319">
+        <v>8.5</v>
+      </c>
+      <c r="AB319">
+        <v>1.06</v>
+      </c>
+      <c r="AC319">
+        <v>1.81</v>
+      </c>
+      <c r="AD319">
+        <v>3.42</v>
+      </c>
+      <c r="AE319">
+        <v>4.76</v>
+      </c>
+      <c r="AF319">
+        <v>1.1</v>
+      </c>
+      <c r="AG319">
+        <v>6.75</v>
+      </c>
+      <c r="AH319">
+        <v>1.42</v>
+      </c>
+      <c r="AI319">
+        <v>2.65</v>
+      </c>
+      <c r="AJ319">
+        <v>2.37</v>
+      </c>
+      <c r="AK319">
+        <v>1.5</v>
+      </c>
+      <c r="AL319">
+        <v>2.2</v>
+      </c>
+      <c r="AM319">
+        <v>1.55</v>
+      </c>
+      <c r="AN319">
+        <v>1.11</v>
+      </c>
+      <c r="AO319">
+        <v>1.28</v>
+      </c>
+      <c r="AP319">
+        <v>2.25</v>
+      </c>
+      <c r="AQ319">
+        <v>1.88</v>
+      </c>
+      <c r="AR319">
+        <v>0.63</v>
+      </c>
+      <c r="AS319">
+        <v>2</v>
+      </c>
+      <c r="AT319">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU319">
+        <v>1.65</v>
+      </c>
+      <c r="AV319">
+        <v>1.11</v>
+      </c>
+      <c r="AW319">
+        <v>2.76</v>
+      </c>
+      <c r="AX319">
+        <v>1.53</v>
+      </c>
+      <c r="AY319">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ319">
+        <v>3.06</v>
+      </c>
+      <c r="BA319">
+        <v>1.48</v>
+      </c>
+      <c r="BB319">
+        <v>1.81</v>
+      </c>
+      <c r="BC319">
+        <v>2.27</v>
+      </c>
+      <c r="BD319">
+        <v>3.14</v>
+      </c>
+      <c r="BE319">
+        <v>4.8</v>
+      </c>
+      <c r="BF319">
+        <v>8</v>
+      </c>
+      <c r="BG319">
+        <v>3</v>
+      </c>
+      <c r="BH319">
+        <v>5</v>
+      </c>
+      <c r="BI319">
+        <v>5</v>
+      </c>
+      <c r="BJ319">
+        <v>13</v>
+      </c>
+      <c r="BK319">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:63">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>5068044</v>
+      </c>
+      <c r="C320" t="s">
+        <v>63</v>
+      </c>
+      <c r="D320" t="s">
+        <v>64</v>
+      </c>
+      <c r="E320" s="2">
+        <v>45081.75</v>
+      </c>
+      <c r="F320">
+        <v>17</v>
+      </c>
+      <c r="G320" t="s">
+        <v>74</v>
+      </c>
+      <c r="H320" t="s">
+        <v>93</v>
+      </c>
+      <c r="I320">
+        <v>1</v>
+      </c>
+      <c r="J320">
+        <v>2</v>
+      </c>
+      <c r="K320">
+        <v>3</v>
+      </c>
+      <c r="L320">
+        <v>1</v>
+      </c>
+      <c r="M320">
+        <v>2</v>
+      </c>
+      <c r="N320">
+        <v>3</v>
+      </c>
+      <c r="O320" t="s">
+        <v>298</v>
+      </c>
+      <c r="P320" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q320">
+        <v>6</v>
+      </c>
+      <c r="R320">
+        <v>6</v>
+      </c>
+      <c r="S320">
+        <v>12</v>
+      </c>
+      <c r="T320">
+        <v>3.1</v>
+      </c>
+      <c r="U320">
+        <v>1.95</v>
+      </c>
+      <c r="V320">
+        <v>4</v>
+      </c>
+      <c r="W320">
+        <v>1.53</v>
+      </c>
+      <c r="X320">
+        <v>2.41</v>
+      </c>
+      <c r="Y320">
+        <v>3.48</v>
+      </c>
+      <c r="Z320">
+        <v>1.28</v>
+      </c>
+      <c r="AA320">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB320">
+        <v>1.04</v>
+      </c>
+      <c r="AC320">
+        <v>2.31</v>
+      </c>
+      <c r="AD320">
+        <v>3.32</v>
+      </c>
+      <c r="AE320">
+        <v>3.12</v>
+      </c>
+      <c r="AF320">
+        <v>1.08</v>
+      </c>
+      <c r="AG320">
+        <v>6.5</v>
+      </c>
+      <c r="AH320">
+        <v>1.47</v>
+      </c>
+      <c r="AI320">
+        <v>2.5</v>
+      </c>
+      <c r="AJ320">
+        <v>2.12</v>
+      </c>
+      <c r="AK320">
+        <v>1.72</v>
+      </c>
+      <c r="AL320">
+        <v>2.06</v>
+      </c>
+      <c r="AM320">
+        <v>1.73</v>
+      </c>
+      <c r="AN320">
+        <v>1.33</v>
+      </c>
+      <c r="AO320">
+        <v>1.36</v>
+      </c>
+      <c r="AP320">
+        <v>1.61</v>
+      </c>
+      <c r="AQ320">
+        <v>1.38</v>
+      </c>
+      <c r="AR320">
+        <v>1.5</v>
+      </c>
+      <c r="AS320">
+        <v>1.22</v>
+      </c>
+      <c r="AT320">
+        <v>1.67</v>
+      </c>
+      <c r="AU320">
+        <v>1.27</v>
+      </c>
+      <c r="AV320">
+        <v>1.43</v>
+      </c>
+      <c r="AW320">
+        <v>2.7</v>
+      </c>
+      <c r="AX320">
+        <v>1.69</v>
+      </c>
+      <c r="AY320">
+        <v>9</v>
+      </c>
+      <c r="AZ320">
+        <v>2.56</v>
+      </c>
+      <c r="BA320">
+        <v>1.25</v>
+      </c>
+      <c r="BB320">
+        <v>1.53</v>
+      </c>
+      <c r="BC320">
+        <v>1.88</v>
+      </c>
+      <c r="BD320">
+        <v>2.34</v>
+      </c>
+      <c r="BE320">
+        <v>3.2</v>
+      </c>
+      <c r="BF320">
+        <v>6</v>
+      </c>
+      <c r="BG320">
+        <v>5</v>
+      </c>
+      <c r="BH320">
+        <v>7</v>
+      </c>
+      <c r="BI320">
+        <v>6</v>
+      </c>
+      <c r="BJ320">
+        <v>13</v>
+      </c>
+      <c r="BK320">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="321" spans="1:63">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>5068063</v>
+      </c>
+      <c r="C321" t="s">
+        <v>63</v>
+      </c>
+      <c r="D321" t="s">
+        <v>64</v>
+      </c>
+      <c r="E321" s="2">
+        <v>45081.84027777778</v>
+      </c>
+      <c r="F321">
+        <v>19</v>
+      </c>
+      <c r="G321" t="s">
+        <v>85</v>
+      </c>
+      <c r="H321" t="s">
+        <v>70</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>1</v>
+      </c>
+      <c r="K321">
+        <v>1</v>
+      </c>
+      <c r="L321">
+        <v>3</v>
+      </c>
+      <c r="M321">
+        <v>1</v>
+      </c>
+      <c r="N321">
+        <v>4</v>
+      </c>
+      <c r="O321" t="s">
+        <v>299</v>
+      </c>
+      <c r="P321" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q321">
+        <v>5</v>
+      </c>
+      <c r="R321">
+        <v>1</v>
+      </c>
+      <c r="S321">
+        <v>6</v>
+      </c>
+      <c r="T321">
+        <v>2.75</v>
+      </c>
+      <c r="U321">
+        <v>1.83</v>
+      </c>
+      <c r="V321">
+        <v>5.5</v>
+      </c>
+      <c r="W321">
+        <v>1.65</v>
+      </c>
+      <c r="X321">
+        <v>2.1</v>
+      </c>
+      <c r="Y321">
+        <v>3.9</v>
+      </c>
+      <c r="Z321">
+        <v>1.2</v>
+      </c>
+      <c r="AA321">
+        <v>9.25</v>
+      </c>
+      <c r="AB321">
+        <v>1.03</v>
+      </c>
+      <c r="AC321">
+        <v>2.07</v>
+      </c>
+      <c r="AD321">
+        <v>3.22</v>
+      </c>
+      <c r="AE321">
+        <v>3.82</v>
+      </c>
+      <c r="AF321">
+        <v>1.13</v>
+      </c>
+      <c r="AG321">
+        <v>5.95</v>
+      </c>
+      <c r="AH321">
+        <v>1.57</v>
+      </c>
+      <c r="AI321">
+        <v>2.25</v>
+      </c>
+      <c r="AJ321">
+        <v>2.4</v>
+      </c>
+      <c r="AK321">
+        <v>1.44</v>
+      </c>
+      <c r="AL321">
+        <v>2.45</v>
+      </c>
+      <c r="AM321">
+        <v>1.5</v>
+      </c>
+      <c r="AN321">
+        <v>1.22</v>
+      </c>
+      <c r="AO321">
+        <v>1.38</v>
+      </c>
+      <c r="AP321">
+        <v>1.78</v>
+      </c>
+      <c r="AQ321">
+        <v>2.38</v>
+      </c>
+      <c r="AR321">
+        <v>0.75</v>
+      </c>
+      <c r="AS321">
+        <v>2.44</v>
+      </c>
+      <c r="AT321">
+        <v>0.67</v>
+      </c>
+      <c r="AU321">
+        <v>1.16</v>
+      </c>
+      <c r="AV321">
+        <v>1.35</v>
+      </c>
+      <c r="AW321">
+        <v>2.51</v>
+      </c>
+      <c r="AX321">
+        <v>1.69</v>
+      </c>
+      <c r="AY321">
+        <v>8.4</v>
+      </c>
+      <c r="AZ321">
+        <v>2.61</v>
+      </c>
+      <c r="BA321">
+        <v>1.5</v>
+      </c>
+      <c r="BB321">
+        <v>1.85</v>
+      </c>
+      <c r="BC321">
+        <v>2.31</v>
+      </c>
+      <c r="BD321">
+        <v>3.2</v>
+      </c>
+      <c r="BE321">
+        <v>4.8</v>
+      </c>
+      <c r="BF321">
+        <v>6</v>
+      </c>
+      <c r="BG321">
+        <v>2</v>
+      </c>
+      <c r="BH321">
+        <v>3</v>
+      </c>
+      <c r="BI321">
+        <v>2</v>
+      </c>
+      <c r="BJ321">
+        <v>9</v>
+      </c>
+      <c r="BK321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:63">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>5068050</v>
+      </c>
+      <c r="C322" t="s">
+        <v>63</v>
+      </c>
+      <c r="D322" t="s">
+        <v>64</v>
+      </c>
+      <c r="E322" s="2">
+        <v>45082.60416666666</v>
+      </c>
+      <c r="F322">
+        <v>17</v>
+      </c>
+      <c r="G322" t="s">
+        <v>97</v>
+      </c>
+      <c r="H322" t="s">
+        <v>81</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
+      <c r="L322">
+        <v>1</v>
+      </c>
+      <c r="M322">
+        <v>0</v>
+      </c>
+      <c r="N322">
+        <v>1</v>
+      </c>
+      <c r="O322" t="s">
+        <v>239</v>
+      </c>
+      <c r="P322" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q322">
+        <v>5</v>
+      </c>
+      <c r="R322">
+        <v>5</v>
+      </c>
+      <c r="S322">
+        <v>10</v>
+      </c>
+      <c r="T322">
+        <v>2.75</v>
+      </c>
+      <c r="U322">
+        <v>1.95</v>
+      </c>
+      <c r="V322">
+        <v>5</v>
+      </c>
+      <c r="W322">
+        <v>1.56</v>
+      </c>
+      <c r="X322">
+        <v>2.34</v>
+      </c>
+      <c r="Y322">
+        <v>3.64</v>
+      </c>
+      <c r="Z322">
+        <v>1.26</v>
+      </c>
+      <c r="AA322">
+        <v>10.25</v>
+      </c>
+      <c r="AB322">
+        <v>1.03</v>
+      </c>
+      <c r="AC322">
+        <v>1.95</v>
+      </c>
+      <c r="AD322">
+        <v>2.87</v>
+      </c>
+      <c r="AE322">
+        <v>3.9</v>
+      </c>
+      <c r="AF322">
+        <v>1.07</v>
+      </c>
+      <c r="AG322">
+        <v>6.4</v>
+      </c>
+      <c r="AH322">
+        <v>1.53</v>
+      </c>
+      <c r="AI322">
+        <v>2.35</v>
+      </c>
+      <c r="AJ322">
+        <v>2.56</v>
+      </c>
+      <c r="AK322">
+        <v>1.45</v>
+      </c>
+      <c r="AL322">
+        <v>2.19</v>
+      </c>
+      <c r="AM322">
+        <v>1.63</v>
+      </c>
+      <c r="AN322">
+        <v>1.25</v>
+      </c>
+      <c r="AO322">
+        <v>1.35</v>
+      </c>
+      <c r="AP322">
+        <v>1.78</v>
+      </c>
+      <c r="AQ322">
+        <v>1.86</v>
+      </c>
+      <c r="AR322">
+        <v>1.43</v>
+      </c>
+      <c r="AS322">
+        <v>2</v>
+      </c>
+      <c r="AT322">
+        <v>1.25</v>
+      </c>
+      <c r="AU322">
+        <v>1.59</v>
+      </c>
+      <c r="AV322">
+        <v>1.62</v>
+      </c>
+      <c r="AW322">
+        <v>3.21</v>
+      </c>
+      <c r="AX322">
+        <v>1.66</v>
+      </c>
+      <c r="AY322">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ322">
+        <v>2.72</v>
+      </c>
+      <c r="BA322">
+        <v>1.38</v>
+      </c>
+      <c r="BB322">
+        <v>1.74</v>
+      </c>
+      <c r="BC322">
+        <v>2.18</v>
+      </c>
+      <c r="BD322">
+        <v>2.88</v>
+      </c>
+      <c r="BE322">
+        <v>4.3</v>
+      </c>
+      <c r="BF322">
+        <v>3</v>
+      </c>
+      <c r="BG322">
+        <v>5</v>
+      </c>
+      <c r="BH322">
+        <v>9</v>
+      </c>
+      <c r="BI322">
+        <v>2</v>
+      </c>
+      <c r="BJ322">
+        <v>12</v>
+      </c>
+      <c r="BK322">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:63">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>5068047</v>
+      </c>
+      <c r="C323" t="s">
+        <v>63</v>
+      </c>
+      <c r="D323" t="s">
+        <v>64</v>
+      </c>
+      <c r="E323" s="2">
+        <v>45082.73958333334</v>
+      </c>
+      <c r="F323">
+        <v>17</v>
+      </c>
+      <c r="G323" t="s">
+        <v>100</v>
+      </c>
+      <c r="H323" t="s">
+        <v>82</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>1</v>
+      </c>
+      <c r="M323">
+        <v>2</v>
+      </c>
+      <c r="N323">
+        <v>3</v>
+      </c>
+      <c r="O323" t="s">
+        <v>300</v>
+      </c>
+      <c r="P323" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q323">
+        <v>3</v>
+      </c>
+      <c r="R323">
+        <v>1</v>
+      </c>
+      <c r="S323">
+        <v>4</v>
+      </c>
+      <c r="T323">
+        <v>3.1</v>
+      </c>
+      <c r="U323">
+        <v>1.91</v>
+      </c>
+      <c r="V323">
+        <v>4.33</v>
+      </c>
+      <c r="W323">
+        <v>1.6</v>
+      </c>
+      <c r="X323">
+        <v>2.15</v>
+      </c>
+      <c r="Y323">
+        <v>3.8</v>
+      </c>
+      <c r="Z323">
+        <v>1.22</v>
+      </c>
+      <c r="AA323">
+        <v>11.5</v>
+      </c>
+      <c r="AB323">
+        <v>1.03</v>
+      </c>
+      <c r="AC323">
+        <v>2.15</v>
+      </c>
+      <c r="AD323">
+        <v>2.85</v>
+      </c>
+      <c r="AE323">
+        <v>3.35</v>
+      </c>
+      <c r="AF323">
+        <v>1.12</v>
+      </c>
+      <c r="AG323">
+        <v>5.5</v>
+      </c>
+      <c r="AH323">
+        <v>1.53</v>
+      </c>
+      <c r="AI323">
+        <v>2.33</v>
+      </c>
+      <c r="AJ323">
+        <v>2.6</v>
+      </c>
+      <c r="AK323">
+        <v>1.44</v>
+      </c>
+      <c r="AL323">
+        <v>2.23</v>
+      </c>
+      <c r="AM323">
+        <v>1.62</v>
+      </c>
+      <c r="AN323">
+        <v>1.32</v>
+      </c>
+      <c r="AO323">
+        <v>1.38</v>
+      </c>
+      <c r="AP323">
+        <v>1.61</v>
+      </c>
+      <c r="AQ323">
+        <v>1.29</v>
+      </c>
+      <c r="AR323">
+        <v>0.71</v>
+      </c>
+      <c r="AS323">
+        <v>1.13</v>
+      </c>
+      <c r="AT323">
+        <v>1</v>
+      </c>
+      <c r="AU323">
+        <v>1.52</v>
+      </c>
+      <c r="AV323">
+        <v>1.03</v>
+      </c>
+      <c r="AW323">
+        <v>2.55</v>
+      </c>
+      <c r="AX323">
+        <v>1.63</v>
+      </c>
+      <c r="AY323">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ323">
+        <v>2.73</v>
+      </c>
+      <c r="BA323">
+        <v>1.33</v>
+      </c>
+      <c r="BB323">
+        <v>1.68</v>
+      </c>
+      <c r="BC323">
+        <v>2.09</v>
+      </c>
+      <c r="BD323">
+        <v>2.76</v>
+      </c>
+      <c r="BE323">
+        <v>3.84</v>
+      </c>
+      <c r="BF323">
+        <v>5</v>
+      </c>
+      <c r="BG323">
+        <v>5</v>
+      </c>
+      <c r="BH323">
+        <v>4</v>
+      </c>
+      <c r="BI323">
+        <v>2</v>
+      </c>
+      <c r="BJ323">
+        <v>9</v>
+      </c>
+      <c r="BK323">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:63">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>5068046</v>
+      </c>
+      <c r="C324" t="s">
+        <v>63</v>
+      </c>
+      <c r="D324" t="s">
+        <v>64</v>
+      </c>
+      <c r="E324" s="2">
+        <v>45082.88194444445</v>
+      </c>
+      <c r="F324">
+        <v>17</v>
+      </c>
+      <c r="G324" t="s">
+        <v>92</v>
+      </c>
+      <c r="H324" t="s">
+        <v>90</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>1</v>
+      </c>
+      <c r="K324">
+        <v>1</v>
+      </c>
+      <c r="L324">
+        <v>0</v>
+      </c>
+      <c r="M324">
+        <v>1</v>
+      </c>
+      <c r="N324">
+        <v>1</v>
+      </c>
+      <c r="O324" t="s">
+        <v>102</v>
+      </c>
+      <c r="P324" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q324">
+        <v>4</v>
+      </c>
+      <c r="R324">
+        <v>0</v>
+      </c>
+      <c r="S324">
+        <v>4</v>
+      </c>
+      <c r="T324">
+        <v>3.2</v>
+      </c>
+      <c r="U324">
+        <v>1.95</v>
+      </c>
+      <c r="V324">
+        <v>4</v>
+      </c>
+      <c r="W324">
+        <v>1.54</v>
+      </c>
+      <c r="X324">
+        <v>2.39</v>
+      </c>
+      <c r="Y324">
+        <v>3.56</v>
+      </c>
+      <c r="Z324">
+        <v>1.27</v>
+      </c>
+      <c r="AA324">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB324">
+        <v>1.04</v>
+      </c>
+      <c r="AC324">
+        <v>2.5</v>
+      </c>
+      <c r="AD324">
+        <v>3.2</v>
+      </c>
+      <c r="AE324">
+        <v>2.5</v>
+      </c>
+      <c r="AF324">
+        <v>1.09</v>
+      </c>
+      <c r="AG324">
+        <v>6.75</v>
+      </c>
+      <c r="AH324">
+        <v>1.5</v>
+      </c>
+      <c r="AI324">
+        <v>2.45</v>
+      </c>
+      <c r="AJ324">
+        <v>2.35</v>
+      </c>
+      <c r="AK324">
+        <v>1.53</v>
+      </c>
+      <c r="AL324">
+        <v>2.06</v>
+      </c>
+      <c r="AM324">
+        <v>1.73</v>
+      </c>
+      <c r="AN324">
+        <v>1.36</v>
+      </c>
+      <c r="AO324">
+        <v>1.34</v>
+      </c>
+      <c r="AP324">
+        <v>1.57</v>
+      </c>
+      <c r="AQ324">
+        <v>1.71</v>
+      </c>
+      <c r="AR324">
+        <v>0.71</v>
+      </c>
+      <c r="AS324">
+        <v>1.5</v>
+      </c>
+      <c r="AT324">
+        <v>1</v>
+      </c>
+      <c r="AU324">
+        <v>1.56</v>
+      </c>
+      <c r="AV324">
+        <v>1.08</v>
+      </c>
+      <c r="AW324">
+        <v>2.64</v>
+      </c>
+      <c r="AX324">
+        <v>1.75</v>
+      </c>
+      <c r="AY324">
+        <v>8.5</v>
+      </c>
+      <c r="AZ324">
+        <v>2.47</v>
+      </c>
+      <c r="BA324">
+        <v>1.39</v>
+      </c>
+      <c r="BB324">
+        <v>1.72</v>
+      </c>
+      <c r="BC324">
+        <v>2.2</v>
+      </c>
+      <c r="BD324">
+        <v>2.53</v>
+      </c>
+      <c r="BE324">
+        <v>4.3</v>
+      </c>
+      <c r="BF324">
+        <v>6</v>
+      </c>
+      <c r="BG324">
+        <v>2</v>
+      </c>
+      <c r="BH324">
+        <v>11</v>
+      </c>
+      <c r="BI324">
+        <v>1</v>
+      </c>
+      <c r="BJ324">
+        <v>17</v>
+      </c>
+      <c r="BK324">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="382">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -919,6 +919,9 @@
     <t>['75']</t>
   </si>
   <si>
+    <t>['20', '89']</t>
+  </si>
+  <si>
     <t>['77']</t>
   </si>
   <si>
@@ -1518,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK324"/>
+  <dimension ref="A1:BK327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2144,7 +2147,7 @@
         <v>103</v>
       </c>
       <c r="P4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2717,7 +2720,7 @@
         <v>104</v>
       </c>
       <c r="P7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -3481,7 +3484,7 @@
         <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -4335,7 +4338,7 @@
         <v>2.22</v>
       </c>
       <c r="AT15">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4526,7 +4529,7 @@
         <v>1.56</v>
       </c>
       <c r="AT16">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4818,7 +4821,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5200,7 +5203,7 @@
         <v>112</v>
       </c>
       <c r="P20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5669,10 +5672,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5860,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT23">
         <v>1.22</v>
@@ -5964,7 +5967,7 @@
         <v>114</v>
       </c>
       <c r="P24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6537,7 +6540,7 @@
         <v>117</v>
       </c>
       <c r="P27" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -7492,7 +7495,7 @@
         <v>121</v>
       </c>
       <c r="P32" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7683,7 +7686,7 @@
         <v>122</v>
       </c>
       <c r="P33" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q33">
         <v>10</v>
@@ -7874,7 +7877,7 @@
         <v>123</v>
       </c>
       <c r="P34" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8638,7 +8641,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -10062,7 +10065,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT45">
         <v>0.78</v>
@@ -10447,7 +10450,7 @@
         <v>1.56</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU47">
         <v>1.93</v>
@@ -10548,7 +10551,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10930,7 +10933,7 @@
         <v>102</v>
       </c>
       <c r="P50" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11312,7 +11315,7 @@
         <v>135</v>
       </c>
       <c r="P52" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11593,7 +11596,7 @@
         <v>1.67</v>
       </c>
       <c r="AT53">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU53">
         <v>1</v>
@@ -12163,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT56">
         <v>1.44</v>
@@ -13031,7 +13034,7 @@
         <v>102</v>
       </c>
       <c r="P61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13795,7 +13798,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -14559,7 +14562,7 @@
         <v>102</v>
       </c>
       <c r="P69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14837,7 +14840,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT70">
         <v>0.5600000000000001</v>
@@ -15323,7 +15326,7 @@
         <v>149</v>
       </c>
       <c r="P73" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16365,7 +16368,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT78">
         <v>0.78</v>
@@ -16469,7 +16472,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17132,7 +17135,7 @@
         <v>1.5</v>
       </c>
       <c r="AT82">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU82">
         <v>1.49</v>
@@ -17233,7 +17236,7 @@
         <v>157</v>
       </c>
       <c r="P83" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -17806,7 +17809,7 @@
         <v>102</v>
       </c>
       <c r="P86" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17997,7 +18000,7 @@
         <v>160</v>
       </c>
       <c r="P87" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18188,7 +18191,7 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -18275,7 +18278,7 @@
         <v>2</v>
       </c>
       <c r="AS88">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT88">
         <v>1.25</v>
@@ -18469,7 +18472,7 @@
         <v>2.56</v>
       </c>
       <c r="AT89">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU89">
         <v>1.68</v>
@@ -18761,7 +18764,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19334,7 +19337,7 @@
         <v>102</v>
       </c>
       <c r="P94" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19424,7 +19427,7 @@
         <v>1.33</v>
       </c>
       <c r="AT94">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU94">
         <v>1.93</v>
@@ -20098,7 +20101,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q98">
         <v>10</v>
@@ -20289,7 +20292,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -21713,7 +21716,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT106">
         <v>1</v>
@@ -22008,7 +22011,7 @@
         <v>172</v>
       </c>
       <c r="P108" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22581,7 +22584,7 @@
         <v>174</v>
       </c>
       <c r="P111" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23432,7 +23435,7 @@
         <v>1.33</v>
       </c>
       <c r="AS115">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT115">
         <v>0.67</v>
@@ -24008,7 +24011,7 @@
         <v>1.67</v>
       </c>
       <c r="AT118">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU118">
         <v>1.26</v>
@@ -24109,7 +24112,7 @@
         <v>136</v>
       </c>
       <c r="P119" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24491,7 +24494,7 @@
         <v>179</v>
       </c>
       <c r="P121" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24682,7 +24685,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24873,7 +24876,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25637,7 +25640,7 @@
         <v>102</v>
       </c>
       <c r="P127" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q127">
         <v>11</v>
@@ -25828,7 +25831,7 @@
         <v>184</v>
       </c>
       <c r="P128" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25918,7 +25921,7 @@
         <v>2.33</v>
       </c>
       <c r="AT128">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU128">
         <v>1.36</v>
@@ -26210,7 +26213,7 @@
         <v>102</v>
       </c>
       <c r="P130" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26401,7 +26404,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26679,10 +26682,10 @@
         <v>1</v>
       </c>
       <c r="AS132">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT132">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU132">
         <v>1.41</v>
@@ -26974,7 +26977,7 @@
         <v>187</v>
       </c>
       <c r="P134" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27356,7 +27359,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q136">
         <v>1</v>
@@ -27634,7 +27637,7 @@
         <v>0.75</v>
       </c>
       <c r="AS137">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT137">
         <v>0.78</v>
@@ -28693,7 +28696,7 @@
         <v>102</v>
       </c>
       <c r="P143" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -28780,7 +28783,7 @@
         <v>0.75</v>
       </c>
       <c r="AS143">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT143">
         <v>1</v>
@@ -28974,7 +28977,7 @@
         <v>1.67</v>
       </c>
       <c r="AT144">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU144">
         <v>1.35</v>
@@ -29075,7 +29078,7 @@
         <v>121</v>
       </c>
       <c r="P145" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -29457,7 +29460,7 @@
         <v>194</v>
       </c>
       <c r="P147" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29648,7 +29651,7 @@
         <v>195</v>
       </c>
       <c r="P148" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29839,7 +29842,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31075,7 +31078,7 @@
         <v>1.56</v>
       </c>
       <c r="AT155">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU155">
         <v>1.24</v>
@@ -31749,7 +31752,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -32030,7 +32033,7 @@
         <v>1.67</v>
       </c>
       <c r="AT160">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU160">
         <v>1.2</v>
@@ -32409,7 +32412,7 @@
         <v>1.25</v>
       </c>
       <c r="AS162">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT162">
         <v>0.89</v>
@@ -32513,7 +32516,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -33086,7 +33089,7 @@
         <v>205</v>
       </c>
       <c r="P166" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33277,7 +33280,7 @@
         <v>206</v>
       </c>
       <c r="P167" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33749,7 +33752,7 @@
         <v>1.22</v>
       </c>
       <c r="AT169">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU169">
         <v>1.36</v>
@@ -34319,7 +34322,7 @@
         <v>1.6</v>
       </c>
       <c r="AS172">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT172">
         <v>1.33</v>
@@ -34423,7 +34426,7 @@
         <v>209</v>
       </c>
       <c r="P173" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34614,7 +34617,7 @@
         <v>114</v>
       </c>
       <c r="P174" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34996,7 +34999,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -35274,7 +35277,7 @@
         <v>0.5</v>
       </c>
       <c r="AS177">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT177">
         <v>0.5600000000000001</v>
@@ -35951,7 +35954,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -36232,7 +36235,7 @@
         <v>1.5</v>
       </c>
       <c r="AT182">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU182">
         <v>1.69</v>
@@ -36333,7 +36336,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36715,7 +36718,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -37097,7 +37100,7 @@
         <v>220</v>
       </c>
       <c r="P187" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37288,7 +37291,7 @@
         <v>102</v>
       </c>
       <c r="P188" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q188">
         <v>12</v>
@@ -37670,7 +37673,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q190">
         <v>0</v>
@@ -37861,7 +37864,7 @@
         <v>102</v>
       </c>
       <c r="P191" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q191">
         <v>10</v>
@@ -38142,7 +38145,7 @@
         <v>1.89</v>
       </c>
       <c r="AT192">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU192">
         <v>1.28</v>
@@ -38521,7 +38524,7 @@
         <v>0.8</v>
       </c>
       <c r="AS194">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT194">
         <v>0.78</v>
@@ -39007,7 +39010,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39198,7 +39201,7 @@
         <v>105</v>
       </c>
       <c r="P198" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q198">
         <v>8</v>
@@ -39771,7 +39774,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39858,7 +39861,7 @@
         <v>1.2</v>
       </c>
       <c r="AS201">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT201">
         <v>1.22</v>
@@ -39962,7 +39965,7 @@
         <v>102</v>
       </c>
       <c r="P202" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q202">
         <v>11</v>
@@ -40153,7 +40156,7 @@
         <v>227</v>
       </c>
       <c r="P203" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40535,7 +40538,7 @@
         <v>102</v>
       </c>
       <c r="P205" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q205">
         <v>8</v>
@@ -40726,7 +40729,7 @@
         <v>102</v>
       </c>
       <c r="P206" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q206">
         <v>6</v>
@@ -40917,7 +40920,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41299,7 +41302,7 @@
         <v>102</v>
       </c>
       <c r="P209" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41681,7 +41684,7 @@
         <v>102</v>
       </c>
       <c r="P211" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -42445,7 +42448,7 @@
         <v>102</v>
       </c>
       <c r="P215" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q215">
         <v>7</v>
@@ -42723,10 +42726,10 @@
         <v>0.6</v>
       </c>
       <c r="AS216">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT216">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU216">
         <v>1.17</v>
@@ -44164,7 +44167,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q224">
         <v>2</v>
@@ -44546,7 +44549,7 @@
         <v>239</v>
       </c>
       <c r="P226" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44928,7 +44931,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -45209,7 +45212,7 @@
         <v>1.67</v>
       </c>
       <c r="AT229">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU229">
         <v>1.33</v>
@@ -45310,7 +45313,7 @@
         <v>157</v>
       </c>
       <c r="P230" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45400,7 +45403,7 @@
         <v>1</v>
       </c>
       <c r="AT230">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU230">
         <v>1.51</v>
@@ -45588,7 +45591,7 @@
         <v>0.83</v>
       </c>
       <c r="AS231">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT231">
         <v>0.67</v>
@@ -46456,7 +46459,7 @@
         <v>102</v>
       </c>
       <c r="P236" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -46647,7 +46650,7 @@
         <v>244</v>
       </c>
       <c r="P237" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46734,7 +46737,7 @@
         <v>1.33</v>
       </c>
       <c r="AS237">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT237">
         <v>1.44</v>
@@ -47029,7 +47032,7 @@
         <v>246</v>
       </c>
       <c r="P239" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q239">
         <v>9</v>
@@ -47310,7 +47313,7 @@
         <v>1.56</v>
       </c>
       <c r="AT240">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU240">
         <v>1.89</v>
@@ -47411,7 +47414,7 @@
         <v>248</v>
       </c>
       <c r="P241" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47793,7 +47796,7 @@
         <v>250</v>
       </c>
       <c r="P243" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q243">
         <v>10</v>
@@ -49408,7 +49411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS251">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT251">
         <v>1</v>
@@ -50085,7 +50088,7 @@
         <v>259</v>
       </c>
       <c r="P255" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50366,7 +50369,7 @@
         <v>1.67</v>
       </c>
       <c r="AT256">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU256">
         <v>1.3</v>
@@ -50849,7 +50852,7 @@
         <v>102</v>
       </c>
       <c r="P259" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q259">
         <v>10</v>
@@ -51040,7 +51043,7 @@
         <v>262</v>
       </c>
       <c r="P260" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q260">
         <v>9</v>
@@ -51321,7 +51324,7 @@
         <v>2</v>
       </c>
       <c r="AT261">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU261">
         <v>1.59</v>
@@ -51422,7 +51425,7 @@
         <v>107</v>
       </c>
       <c r="P262" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q262">
         <v>2</v>
@@ -52377,7 +52380,7 @@
         <v>266</v>
       </c>
       <c r="P267" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -52568,7 +52571,7 @@
         <v>102</v>
       </c>
       <c r="P268" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -53037,7 +53040,7 @@
         <v>1.29</v>
       </c>
       <c r="AS270">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT270">
         <v>1</v>
@@ -53228,7 +53231,7 @@
         <v>1.5</v>
       </c>
       <c r="AS271">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT271">
         <v>1.25</v>
@@ -53523,7 +53526,7 @@
         <v>270</v>
       </c>
       <c r="P273" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q273">
         <v>4</v>
@@ -53905,7 +53908,7 @@
         <v>271</v>
       </c>
       <c r="P275" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q275">
         <v>2</v>
@@ -54096,7 +54099,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -54377,7 +54380,7 @@
         <v>2.56</v>
       </c>
       <c r="AT277">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU277">
         <v>1.87</v>
@@ -54669,7 +54672,7 @@
         <v>102</v>
       </c>
       <c r="P279" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -55902,7 +55905,7 @@
         <v>1.14</v>
       </c>
       <c r="AS285">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT285">
         <v>0.89</v>
@@ -56197,7 +56200,7 @@
         <v>250</v>
       </c>
       <c r="P287" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q287">
         <v>8</v>
@@ -56388,7 +56391,7 @@
         <v>278</v>
       </c>
       <c r="P288" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -56770,7 +56773,7 @@
         <v>200</v>
       </c>
       <c r="P290" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q290">
         <v>6</v>
@@ -56860,7 +56863,7 @@
         <v>1.67</v>
       </c>
       <c r="AT290">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU290">
         <v>1.78</v>
@@ -57152,7 +57155,7 @@
         <v>102</v>
       </c>
       <c r="P292" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q292">
         <v>3</v>
@@ -57916,7 +57919,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q296">
         <v>9</v>
@@ -58107,7 +58110,7 @@
         <v>283</v>
       </c>
       <c r="P297" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -58298,7 +58301,7 @@
         <v>102</v>
       </c>
       <c r="P298" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q298">
         <v>7</v>
@@ -58489,7 +58492,7 @@
         <v>284</v>
       </c>
       <c r="P299" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q299">
         <v>6</v>
@@ -59253,7 +59256,7 @@
         <v>286</v>
       </c>
       <c r="P303" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -59635,7 +59638,7 @@
         <v>287</v>
       </c>
       <c r="P305" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q305">
         <v>6</v>
@@ -60399,7 +60402,7 @@
         <v>290</v>
       </c>
       <c r="P309" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q309">
         <v>11</v>
@@ -60590,7 +60593,7 @@
         <v>291</v>
       </c>
       <c r="P310" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q310">
         <v>11</v>
@@ -61354,7 +61357,7 @@
         <v>175</v>
       </c>
       <c r="P314" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q314">
         <v>7</v>
@@ -61632,10 +61635,10 @@
         <v>0.5</v>
       </c>
       <c r="AS315">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT315">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU315">
         <v>1.38</v>
@@ -61927,7 +61930,7 @@
         <v>197</v>
       </c>
       <c r="P317" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q317">
         <v>5</v>
@@ -62208,7 +62211,7 @@
         <v>2.33</v>
       </c>
       <c r="AT318">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU318">
         <v>1.33</v>
@@ -62396,7 +62399,7 @@
         <v>0.63</v>
       </c>
       <c r="AS319">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT319">
         <v>0.5600000000000001</v>
@@ -62500,7 +62503,7 @@
         <v>298</v>
       </c>
       <c r="P320" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q320">
         <v>6</v>
@@ -62691,7 +62694,7 @@
         <v>299</v>
       </c>
       <c r="P321" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q321">
         <v>5</v>
@@ -62778,7 +62781,7 @@
         <v>0.75</v>
       </c>
       <c r="AS321">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT321">
         <v>0.67</v>
@@ -63073,7 +63076,7 @@
         <v>300</v>
       </c>
       <c r="P323" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q323">
         <v>3</v>
@@ -63406,6 +63409,579 @@
       </c>
       <c r="BK324">
         <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:63">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>6161889</v>
+      </c>
+      <c r="C325" t="s">
+        <v>63</v>
+      </c>
+      <c r="D325" t="s">
+        <v>64</v>
+      </c>
+      <c r="E325" s="2">
+        <v>45085.84027777778</v>
+      </c>
+      <c r="F325">
+        <v>20</v>
+      </c>
+      <c r="G325" t="s">
+        <v>85</v>
+      </c>
+      <c r="H325" t="s">
+        <v>66</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+      <c r="L325">
+        <v>0</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>0</v>
+      </c>
+      <c r="O325" t="s">
+        <v>102</v>
+      </c>
+      <c r="P325" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q325">
+        <v>6</v>
+      </c>
+      <c r="R325">
+        <v>2</v>
+      </c>
+      <c r="S325">
+        <v>8</v>
+      </c>
+      <c r="T325">
+        <v>2.96</v>
+      </c>
+      <c r="U325">
+        <v>1.93</v>
+      </c>
+      <c r="V325">
+        <v>5.04</v>
+      </c>
+      <c r="W325">
+        <v>1.63</v>
+      </c>
+      <c r="X325">
+        <v>2.3</v>
+      </c>
+      <c r="Y325">
+        <v>3.92</v>
+      </c>
+      <c r="Z325">
+        <v>1.23</v>
+      </c>
+      <c r="AA325">
+        <v>11</v>
+      </c>
+      <c r="AB325">
+        <v>1.02</v>
+      </c>
+      <c r="AC325">
+        <v>1.94</v>
+      </c>
+      <c r="AD325">
+        <v>2.97</v>
+      </c>
+      <c r="AE325">
+        <v>3.9</v>
+      </c>
+      <c r="AF325">
+        <v>1.12</v>
+      </c>
+      <c r="AG325">
+        <v>5.5</v>
+      </c>
+      <c r="AH325">
+        <v>1.58</v>
+      </c>
+      <c r="AI325">
+        <v>2.3</v>
+      </c>
+      <c r="AJ325">
+        <v>2.62</v>
+      </c>
+      <c r="AK325">
+        <v>1.37</v>
+      </c>
+      <c r="AL325">
+        <v>2.4</v>
+      </c>
+      <c r="AM325">
+        <v>1.57</v>
+      </c>
+      <c r="AN325">
+        <v>1.24</v>
+      </c>
+      <c r="AO325">
+        <v>1.39</v>
+      </c>
+      <c r="AP325">
+        <v>1.76</v>
+      </c>
+      <c r="AQ325">
+        <v>2.44</v>
+      </c>
+      <c r="AR325">
+        <v>0.44</v>
+      </c>
+      <c r="AS325">
+        <v>2.3</v>
+      </c>
+      <c r="AT325">
+        <v>0.5</v>
+      </c>
+      <c r="AU325">
+        <v>1.21</v>
+      </c>
+      <c r="AV325">
+        <v>1.35</v>
+      </c>
+      <c r="AW325">
+        <v>2.56</v>
+      </c>
+      <c r="AX325">
+        <v>1.44</v>
+      </c>
+      <c r="AY325">
+        <v>7.3</v>
+      </c>
+      <c r="AZ325">
+        <v>3.86</v>
+      </c>
+      <c r="BA325">
+        <v>1.55</v>
+      </c>
+      <c r="BB325">
+        <v>1.93</v>
+      </c>
+      <c r="BC325">
+        <v>2.43</v>
+      </c>
+      <c r="BD325">
+        <v>3.5</v>
+      </c>
+      <c r="BE325">
+        <v>5.1</v>
+      </c>
+      <c r="BF325">
+        <v>3</v>
+      </c>
+      <c r="BG325">
+        <v>2</v>
+      </c>
+      <c r="BH325">
+        <v>16</v>
+      </c>
+      <c r="BI325">
+        <v>3</v>
+      </c>
+      <c r="BJ325">
+        <v>19</v>
+      </c>
+      <c r="BK325">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:63">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>6161890</v>
+      </c>
+      <c r="C326" t="s">
+        <v>63</v>
+      </c>
+      <c r="D326" t="s">
+        <v>64</v>
+      </c>
+      <c r="E326" s="2">
+        <v>45086.79166666666</v>
+      </c>
+      <c r="F326">
+        <v>20</v>
+      </c>
+      <c r="G326" t="s">
+        <v>99</v>
+      </c>
+      <c r="H326" t="s">
+        <v>67</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>1</v>
+      </c>
+      <c r="L326">
+        <v>2</v>
+      </c>
+      <c r="M326">
+        <v>0</v>
+      </c>
+      <c r="N326">
+        <v>2</v>
+      </c>
+      <c r="O326" t="s">
+        <v>301</v>
+      </c>
+      <c r="P326" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q326">
+        <v>4</v>
+      </c>
+      <c r="R326">
+        <v>5</v>
+      </c>
+      <c r="S326">
+        <v>9</v>
+      </c>
+      <c r="T326">
+        <v>2.45</v>
+      </c>
+      <c r="U326">
+        <v>1.86</v>
+      </c>
+      <c r="V326">
+        <v>5.25</v>
+      </c>
+      <c r="W326">
+        <v>1.58</v>
+      </c>
+      <c r="X326">
+        <v>2.25</v>
+      </c>
+      <c r="Y326">
+        <v>3.85</v>
+      </c>
+      <c r="Z326">
+        <v>1.23</v>
+      </c>
+      <c r="AA326">
+        <v>13</v>
+      </c>
+      <c r="AB326">
+        <v>1.04</v>
+      </c>
+      <c r="AC326">
+        <v>1.7</v>
+      </c>
+      <c r="AD326">
+        <v>3.1</v>
+      </c>
+      <c r="AE326">
+        <v>5.5</v>
+      </c>
+      <c r="AF326">
+        <v>1.11</v>
+      </c>
+      <c r="AG326">
+        <v>6.75</v>
+      </c>
+      <c r="AH326">
+        <v>1.5</v>
+      </c>
+      <c r="AI326">
+        <v>2.5</v>
+      </c>
+      <c r="AJ326">
+        <v>2.36</v>
+      </c>
+      <c r="AK326">
+        <v>1.46</v>
+      </c>
+      <c r="AL326">
+        <v>2.35</v>
+      </c>
+      <c r="AM326">
+        <v>1.54</v>
+      </c>
+      <c r="AN326">
+        <v>1.17</v>
+      </c>
+      <c r="AO326">
+        <v>1.33</v>
+      </c>
+      <c r="AP326">
+        <v>2</v>
+      </c>
+      <c r="AQ326">
+        <v>1.89</v>
+      </c>
+      <c r="AR326">
+        <v>1</v>
+      </c>
+      <c r="AS326">
+        <v>2</v>
+      </c>
+      <c r="AT326">
+        <v>0.9</v>
+      </c>
+      <c r="AU326">
+        <v>1.34</v>
+      </c>
+      <c r="AV326">
+        <v>1.04</v>
+      </c>
+      <c r="AW326">
+        <v>2.38</v>
+      </c>
+      <c r="AX326">
+        <v>1.65</v>
+      </c>
+      <c r="AY326">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ326">
+        <v>2.74</v>
+      </c>
+      <c r="BA326">
+        <v>1.37</v>
+      </c>
+      <c r="BB326">
+        <v>1.72</v>
+      </c>
+      <c r="BC326">
+        <v>2.15</v>
+      </c>
+      <c r="BD326">
+        <v>2.84</v>
+      </c>
+      <c r="BE326">
+        <v>4.2</v>
+      </c>
+      <c r="BF326">
+        <v>6</v>
+      </c>
+      <c r="BG326">
+        <v>4</v>
+      </c>
+      <c r="BH326">
+        <v>6</v>
+      </c>
+      <c r="BI326">
+        <v>4</v>
+      </c>
+      <c r="BJ326">
+        <v>12</v>
+      </c>
+      <c r="BK326">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:63">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>6161882</v>
+      </c>
+      <c r="C327" t="s">
+        <v>63</v>
+      </c>
+      <c r="D327" t="s">
+        <v>64</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45086.89583333334</v>
+      </c>
+      <c r="F327">
+        <v>20</v>
+      </c>
+      <c r="G327" t="s">
+        <v>86</v>
+      </c>
+      <c r="H327" t="s">
+        <v>69</v>
+      </c>
+      <c r="I327">
+        <v>1</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>1</v>
+      </c>
+      <c r="L327">
+        <v>1</v>
+      </c>
+      <c r="M327">
+        <v>1</v>
+      </c>
+      <c r="N327">
+        <v>2</v>
+      </c>
+      <c r="O327" t="s">
+        <v>114</v>
+      </c>
+      <c r="P327" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q327">
+        <v>2</v>
+      </c>
+      <c r="R327">
+        <v>4</v>
+      </c>
+      <c r="S327">
+        <v>6</v>
+      </c>
+      <c r="T327">
+        <v>2.5</v>
+      </c>
+      <c r="U327">
+        <v>2.05</v>
+      </c>
+      <c r="V327">
+        <v>5.5</v>
+      </c>
+      <c r="W327">
+        <v>1.52</v>
+      </c>
+      <c r="X327">
+        <v>2.35</v>
+      </c>
+      <c r="Y327">
+        <v>3.6</v>
+      </c>
+      <c r="Z327">
+        <v>1.25</v>
+      </c>
+      <c r="AA327">
+        <v>10.5</v>
+      </c>
+      <c r="AB327">
+        <v>1.04</v>
+      </c>
+      <c r="AC327">
+        <v>1.57</v>
+      </c>
+      <c r="AD327">
+        <v>3.76</v>
+      </c>
+      <c r="AE327">
+        <v>6.45</v>
+      </c>
+      <c r="AF327">
+        <v>1.08</v>
+      </c>
+      <c r="AG327">
+        <v>7</v>
+      </c>
+      <c r="AH327">
+        <v>1.49</v>
+      </c>
+      <c r="AI327">
+        <v>2.48</v>
+      </c>
+      <c r="AJ327">
+        <v>2.4</v>
+      </c>
+      <c r="AK327">
+        <v>1.53</v>
+      </c>
+      <c r="AL327">
+        <v>2.18</v>
+      </c>
+      <c r="AM327">
+        <v>1.65</v>
+      </c>
+      <c r="AN327">
+        <v>1.2</v>
+      </c>
+      <c r="AO327">
+        <v>1.32</v>
+      </c>
+      <c r="AP327">
+        <v>1.94</v>
+      </c>
+      <c r="AQ327">
+        <v>2</v>
+      </c>
+      <c r="AR327">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS327">
+        <v>1.9</v>
+      </c>
+      <c r="AT327">
+        <v>0.6</v>
+      </c>
+      <c r="AU327">
+        <v>1.67</v>
+      </c>
+      <c r="AV327">
+        <v>1.08</v>
+      </c>
+      <c r="AW327">
+        <v>2.75</v>
+      </c>
+      <c r="AX327">
+        <v>1.48</v>
+      </c>
+      <c r="AY327">
+        <v>8.4</v>
+      </c>
+      <c r="AZ327">
+        <v>3.44</v>
+      </c>
+      <c r="BA327">
+        <v>1.73</v>
+      </c>
+      <c r="BB327">
+        <v>2.25</v>
+      </c>
+      <c r="BC327">
+        <v>3.04</v>
+      </c>
+      <c r="BD327">
+        <v>4.5</v>
+      </c>
+      <c r="BE327">
+        <v>7</v>
+      </c>
+      <c r="BF327">
+        <v>7</v>
+      </c>
+      <c r="BG327">
+        <v>5</v>
+      </c>
+      <c r="BH327">
+        <v>12</v>
+      </c>
+      <c r="BI327">
+        <v>5</v>
+      </c>
+      <c r="BJ327">
+        <v>19</v>
+      </c>
+      <c r="BK327">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="383">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -922,10 +922,13 @@
     <t>['20', '89']</t>
   </si>
   <si>
-    <t>['77']</t>
+    <t>['36', '44', '84']</t>
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['77']</t>
   </si>
   <si>
     <t>['24', '71']</t>
@@ -1521,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK327"/>
+  <dimension ref="A1:BK333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2147,7 +2150,7 @@
         <v>103</v>
       </c>
       <c r="P4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -3484,7 +3487,7 @@
         <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -4335,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT15">
         <v>0.5</v>
@@ -4717,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4821,7 +4824,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4908,10 +4911,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT18">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5203,7 +5206,7 @@
         <v>112</v>
       </c>
       <c r="P20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5866,7 +5869,7 @@
         <v>1.9</v>
       </c>
       <c r="AT23">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5967,7 +5970,7 @@
         <v>114</v>
       </c>
       <c r="P24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6054,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -6245,10 +6248,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT25">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6540,7 +6543,7 @@
         <v>117</v>
       </c>
       <c r="P27" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6818,10 +6821,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT28">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -7495,7 +7498,7 @@
         <v>121</v>
       </c>
       <c r="P32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7686,7 +7689,7 @@
         <v>122</v>
       </c>
       <c r="P33" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q33">
         <v>10</v>
@@ -7877,7 +7880,7 @@
         <v>123</v>
       </c>
       <c r="P34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8641,7 +8644,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -10447,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT47">
         <v>0.9</v>
@@ -10551,7 +10554,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10933,7 +10936,7 @@
         <v>102</v>
       </c>
       <c r="P50" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11315,7 +11318,7 @@
         <v>135</v>
       </c>
       <c r="P52" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11593,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT53">
         <v>0.5</v>
@@ -11975,7 +11978,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT55">
         <v>0.89</v>
@@ -12169,7 +12172,7 @@
         <v>1.9</v>
       </c>
       <c r="AT56">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU56">
         <v>1.23</v>
@@ -12360,7 +12363,7 @@
         <v>1.67</v>
       </c>
       <c r="AT57">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU57">
         <v>0.67</v>
@@ -12739,10 +12742,10 @@
         <v>3</v>
       </c>
       <c r="AS59">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT59">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU59">
         <v>2.6</v>
@@ -12930,10 +12933,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT60">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU60">
         <v>1.64</v>
@@ -13034,7 +13037,7 @@
         <v>102</v>
       </c>
       <c r="P61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13694,10 +13697,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT64">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU64">
         <v>1.4</v>
@@ -13798,7 +13801,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -14562,7 +14565,7 @@
         <v>102</v>
       </c>
       <c r="P69" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -15326,7 +15329,7 @@
         <v>149</v>
       </c>
       <c r="P73" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16472,7 +16475,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17236,7 +17239,7 @@
         <v>157</v>
       </c>
       <c r="P83" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -17705,10 +17708,10 @@
         <v>0.5</v>
       </c>
       <c r="AS85">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT85">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU85">
         <v>1.48</v>
@@ -17809,7 +17812,7 @@
         <v>102</v>
       </c>
       <c r="P86" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -18000,7 +18003,7 @@
         <v>160</v>
       </c>
       <c r="P87" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18090,7 +18093,7 @@
         <v>1.67</v>
       </c>
       <c r="AT87">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU87">
         <v>0.83</v>
@@ -18191,7 +18194,7 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -18281,7 +18284,7 @@
         <v>1.9</v>
       </c>
       <c r="AT88">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU88">
         <v>1.14</v>
@@ -18469,7 +18472,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT89">
         <v>0.9</v>
@@ -18764,7 +18767,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19236,7 +19239,7 @@
         <v>1.56</v>
       </c>
       <c r="AT93">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU93">
         <v>1.03</v>
@@ -19337,7 +19340,7 @@
         <v>102</v>
       </c>
       <c r="P94" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19424,7 +19427,7 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT94">
         <v>0.5</v>
@@ -19997,7 +20000,7 @@
         <v>0.5</v>
       </c>
       <c r="AS97">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT97">
         <v>0.89</v>
@@ -20101,7 +20104,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q98">
         <v>10</v>
@@ -20292,7 +20295,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20379,7 +20382,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT99">
         <v>0.78</v>
@@ -22011,7 +22014,7 @@
         <v>172</v>
       </c>
       <c r="P108" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22584,7 +22587,7 @@
         <v>174</v>
       </c>
       <c r="P111" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23053,7 +23056,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT113">
         <v>0.5600000000000001</v>
@@ -23247,7 +23250,7 @@
         <v>1</v>
       </c>
       <c r="AT114">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU114">
         <v>1.52</v>
@@ -24112,7 +24115,7 @@
         <v>136</v>
       </c>
       <c r="P119" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24390,7 +24393,7 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT120">
         <v>0.78</v>
@@ -24494,7 +24497,7 @@
         <v>179</v>
       </c>
       <c r="P121" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24584,7 +24587,7 @@
         <v>1.56</v>
       </c>
       <c r="AT121">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU121">
         <v>1.08</v>
@@ -24685,7 +24688,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24876,7 +24879,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24966,7 +24969,7 @@
         <v>1.5</v>
       </c>
       <c r="AT123">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU123">
         <v>1.69</v>
@@ -25157,7 +25160,7 @@
         <v>1.67</v>
       </c>
       <c r="AT124">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU124">
         <v>1.18</v>
@@ -25536,7 +25539,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT126">
         <v>0.78</v>
@@ -25640,7 +25643,7 @@
         <v>102</v>
       </c>
       <c r="P127" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q127">
         <v>11</v>
@@ -25831,7 +25834,7 @@
         <v>184</v>
       </c>
       <c r="P128" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25918,7 +25921,7 @@
         <v>1.33</v>
       </c>
       <c r="AS128">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT128">
         <v>0.9</v>
@@ -26109,7 +26112,7 @@
         <v>0.67</v>
       </c>
       <c r="AS129">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT129">
         <v>0.89</v>
@@ -26213,7 +26216,7 @@
         <v>102</v>
       </c>
       <c r="P130" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26404,7 +26407,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26494,7 +26497,7 @@
         <v>1.89</v>
       </c>
       <c r="AT131">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU131">
         <v>1.56</v>
@@ -26977,7 +26980,7 @@
         <v>187</v>
       </c>
       <c r="P134" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27359,7 +27362,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q136">
         <v>1</v>
@@ -28022,7 +28025,7 @@
         <v>2</v>
       </c>
       <c r="AT139">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU139">
         <v>1.34</v>
@@ -28210,7 +28213,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT140">
         <v>1</v>
@@ -28696,7 +28699,7 @@
         <v>102</v>
       </c>
       <c r="P143" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -29078,7 +29081,7 @@
         <v>121</v>
       </c>
       <c r="P145" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -29460,7 +29463,7 @@
         <v>194</v>
       </c>
       <c r="P147" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29651,7 +29654,7 @@
         <v>195</v>
       </c>
       <c r="P148" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29738,7 +29741,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT148">
         <v>0.67</v>
@@ -29842,7 +29845,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31266,7 +31269,7 @@
         <v>1</v>
       </c>
       <c r="AS156">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT156">
         <v>0.78</v>
@@ -31460,7 +31463,7 @@
         <v>1.89</v>
       </c>
       <c r="AT157">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU157">
         <v>1.42</v>
@@ -31648,7 +31651,7 @@
         <v>0.25</v>
       </c>
       <c r="AS158">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT158">
         <v>0.5600000000000001</v>
@@ -31752,7 +31755,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -31839,7 +31842,7 @@
         <v>0.75</v>
       </c>
       <c r="AS159">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT159">
         <v>0.78</v>
@@ -32224,7 +32227,7 @@
         <v>1</v>
       </c>
       <c r="AT161">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU161">
         <v>1.58</v>
@@ -32516,7 +32519,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32794,7 +32797,7 @@
         <v>1.2</v>
       </c>
       <c r="AS164">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT164">
         <v>1</v>
@@ -33089,7 +33092,7 @@
         <v>205</v>
       </c>
       <c r="P166" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33280,7 +33283,7 @@
         <v>206</v>
       </c>
       <c r="P167" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33943,7 +33946,7 @@
         <v>2</v>
       </c>
       <c r="AT170">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU170">
         <v>1.48</v>
@@ -34426,7 +34429,7 @@
         <v>209</v>
       </c>
       <c r="P173" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34617,7 +34620,7 @@
         <v>114</v>
       </c>
       <c r="P174" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34999,7 +35002,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -35086,7 +35089,7 @@
         <v>1.2</v>
       </c>
       <c r="AS176">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT176">
         <v>1</v>
@@ -35662,7 +35665,7 @@
         <v>1.67</v>
       </c>
       <c r="AT179">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU179">
         <v>2.02</v>
@@ -35850,7 +35853,7 @@
         <v>0.8</v>
       </c>
       <c r="AS180">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT180">
         <v>0.78</v>
@@ -35954,7 +35957,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -36336,7 +36339,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36718,7 +36721,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36808,7 +36811,7 @@
         <v>1.67</v>
       </c>
       <c r="AT185">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU185">
         <v>1.33</v>
@@ -37100,7 +37103,7 @@
         <v>220</v>
       </c>
       <c r="P187" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37187,7 +37190,7 @@
         <v>0.8</v>
       </c>
       <c r="AS187">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT187">
         <v>0.67</v>
@@ -37291,7 +37294,7 @@
         <v>102</v>
       </c>
       <c r="P188" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q188">
         <v>12</v>
@@ -37572,7 +37575,7 @@
         <v>1</v>
       </c>
       <c r="AT189">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU189">
         <v>1.57</v>
@@ -37673,7 +37676,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q190">
         <v>0</v>
@@ -37760,7 +37763,7 @@
         <v>0.2</v>
       </c>
       <c r="AS190">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT190">
         <v>0.5600000000000001</v>
@@ -37864,7 +37867,7 @@
         <v>102</v>
       </c>
       <c r="P191" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q191">
         <v>10</v>
@@ -39010,7 +39013,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39201,7 +39204,7 @@
         <v>105</v>
       </c>
       <c r="P198" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q198">
         <v>8</v>
@@ -39482,7 +39485,7 @@
         <v>1.67</v>
       </c>
       <c r="AT199">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU199">
         <v>1.88</v>
@@ -39670,7 +39673,7 @@
         <v>1.5</v>
       </c>
       <c r="AS200">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT200">
         <v>1</v>
@@ -39774,7 +39777,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39864,7 +39867,7 @@
         <v>2</v>
       </c>
       <c r="AT201">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU201">
         <v>1.4</v>
@@ -39965,7 +39968,7 @@
         <v>102</v>
       </c>
       <c r="P202" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q202">
         <v>11</v>
@@ -40156,7 +40159,7 @@
         <v>227</v>
       </c>
       <c r="P203" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40538,7 +40541,7 @@
         <v>102</v>
       </c>
       <c r="P205" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q205">
         <v>8</v>
@@ -40729,7 +40732,7 @@
         <v>102</v>
       </c>
       <c r="P206" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q206">
         <v>6</v>
@@ -40920,7 +40923,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41198,7 +41201,7 @@
         <v>0.67</v>
       </c>
       <c r="AS208">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT208">
         <v>0.78</v>
@@ -41302,7 +41305,7 @@
         <v>102</v>
       </c>
       <c r="P209" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41389,7 +41392,7 @@
         <v>1.33</v>
       </c>
       <c r="AS209">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT209">
         <v>1.33</v>
@@ -41684,7 +41687,7 @@
         <v>102</v>
       </c>
       <c r="P211" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -42347,7 +42350,7 @@
         <v>1.67</v>
       </c>
       <c r="AT214">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU214">
         <v>1.36</v>
@@ -42448,7 +42451,7 @@
         <v>102</v>
       </c>
       <c r="P215" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q215">
         <v>7</v>
@@ -42535,7 +42538,7 @@
         <v>0.4</v>
       </c>
       <c r="AS215">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT215">
         <v>0.5600000000000001</v>
@@ -43299,7 +43302,7 @@
         <v>1.5</v>
       </c>
       <c r="AS219">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT219">
         <v>1</v>
@@ -44167,7 +44170,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q224">
         <v>2</v>
@@ -44448,7 +44451,7 @@
         <v>2</v>
       </c>
       <c r="AT225">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU225">
         <v>1.56</v>
@@ -44549,7 +44552,7 @@
         <v>239</v>
       </c>
       <c r="P226" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44931,7 +44934,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -45313,7 +45316,7 @@
         <v>157</v>
       </c>
       <c r="P230" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -46355,7 +46358,7 @@
         <v>0.83</v>
       </c>
       <c r="AS235">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT235">
         <v>0.5600000000000001</v>
@@ -46459,7 +46462,7 @@
         <v>102</v>
       </c>
       <c r="P236" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -46549,7 +46552,7 @@
         <v>1.22</v>
       </c>
       <c r="AT236">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU236">
         <v>1.38</v>
@@ -46650,7 +46653,7 @@
         <v>244</v>
       </c>
       <c r="P237" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46740,7 +46743,7 @@
         <v>2</v>
       </c>
       <c r="AT237">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU237">
         <v>1.4</v>
@@ -46928,7 +46931,7 @@
         <v>1.57</v>
       </c>
       <c r="AS238">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT238">
         <v>1.33</v>
@@ -47032,7 +47035,7 @@
         <v>246</v>
       </c>
       <c r="P239" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q239">
         <v>9</v>
@@ -47310,7 +47313,7 @@
         <v>0.5</v>
       </c>
       <c r="AS240">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT240">
         <v>0.6</v>
@@ -47414,7 +47417,7 @@
         <v>248</v>
       </c>
       <c r="P241" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47796,7 +47799,7 @@
         <v>250</v>
       </c>
       <c r="P243" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q243">
         <v>10</v>
@@ -48268,7 +48271,7 @@
         <v>1.67</v>
       </c>
       <c r="AT245">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU245">
         <v>1.82</v>
@@ -48456,10 +48459,10 @@
         <v>1.17</v>
       </c>
       <c r="AS246">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT246">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU246">
         <v>1.7</v>
@@ -48647,7 +48650,7 @@
         <v>0.57</v>
       </c>
       <c r="AS247">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT247">
         <v>0.78</v>
@@ -50088,7 +50091,7 @@
         <v>259</v>
       </c>
       <c r="P255" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50852,7 +50855,7 @@
         <v>102</v>
       </c>
       <c r="P259" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q259">
         <v>10</v>
@@ -51043,7 +51046,7 @@
         <v>262</v>
       </c>
       <c r="P260" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q260">
         <v>9</v>
@@ -51425,7 +51428,7 @@
         <v>107</v>
       </c>
       <c r="P262" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q262">
         <v>2</v>
@@ -52380,7 +52383,7 @@
         <v>266</v>
       </c>
       <c r="P267" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -52571,7 +52574,7 @@
         <v>102</v>
       </c>
       <c r="P268" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -53234,7 +53237,7 @@
         <v>2</v>
       </c>
       <c r="AT271">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU271">
         <v>1.44</v>
@@ -53422,10 +53425,10 @@
         <v>1</v>
       </c>
       <c r="AS272">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT272">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU272">
         <v>1.25</v>
@@ -53526,7 +53529,7 @@
         <v>270</v>
       </c>
       <c r="P273" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q273">
         <v>4</v>
@@ -53804,7 +53807,7 @@
         <v>1.38</v>
       </c>
       <c r="AS274">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT274">
         <v>1.33</v>
@@ -53908,7 +53911,7 @@
         <v>271</v>
       </c>
       <c r="P275" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q275">
         <v>2</v>
@@ -53995,10 +53998,10 @@
         <v>1.57</v>
       </c>
       <c r="AS275">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT275">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU275">
         <v>1.62</v>
@@ -54099,7 +54102,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -54186,7 +54189,7 @@
         <v>1.29</v>
       </c>
       <c r="AS276">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT276">
         <v>1</v>
@@ -54377,7 +54380,7 @@
         <v>0.57</v>
       </c>
       <c r="AS277">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT277">
         <v>0.6</v>
@@ -54672,7 +54675,7 @@
         <v>102</v>
       </c>
       <c r="P279" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -55332,7 +55335,7 @@
         <v>0.71</v>
       </c>
       <c r="AS282">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT282">
         <v>0.5600000000000001</v>
@@ -55908,7 +55911,7 @@
         <v>2.3</v>
       </c>
       <c r="AT285">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU285">
         <v>1.14</v>
@@ -56200,7 +56203,7 @@
         <v>250</v>
       </c>
       <c r="P287" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q287">
         <v>8</v>
@@ -56391,7 +56394,7 @@
         <v>278</v>
       </c>
       <c r="P288" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -56481,7 +56484,7 @@
         <v>1.22</v>
       </c>
       <c r="AT288">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU288">
         <v>1.35</v>
@@ -56773,7 +56776,7 @@
         <v>200</v>
       </c>
       <c r="P290" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q290">
         <v>6</v>
@@ -57155,7 +57158,7 @@
         <v>102</v>
       </c>
       <c r="P292" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q292">
         <v>3</v>
@@ -57919,7 +57922,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q296">
         <v>9</v>
@@ -58110,7 +58113,7 @@
         <v>283</v>
       </c>
       <c r="P297" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -58301,7 +58304,7 @@
         <v>102</v>
       </c>
       <c r="P298" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q298">
         <v>7</v>
@@ -58492,7 +58495,7 @@
         <v>284</v>
       </c>
       <c r="P299" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q299">
         <v>6</v>
@@ -59256,7 +59259,7 @@
         <v>286</v>
       </c>
       <c r="P303" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -59638,7 +59641,7 @@
         <v>287</v>
       </c>
       <c r="P305" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q305">
         <v>6</v>
@@ -60402,7 +60405,7 @@
         <v>290</v>
       </c>
       <c r="P309" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q309">
         <v>11</v>
@@ -60593,7 +60596,7 @@
         <v>291</v>
       </c>
       <c r="P310" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q310">
         <v>11</v>
@@ -60680,10 +60683,10 @@
         <v>1.5</v>
       </c>
       <c r="AS310">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT310">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU310">
         <v>1.2</v>
@@ -60871,7 +60874,7 @@
         <v>1.13</v>
       </c>
       <c r="AS311">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT311">
         <v>1</v>
@@ -61357,7 +61360,7 @@
         <v>175</v>
       </c>
       <c r="P314" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q314">
         <v>7</v>
@@ -61444,10 +61447,10 @@
         <v>1.29</v>
       </c>
       <c r="AS314">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT314">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU314">
         <v>1.6</v>
@@ -61826,10 +61829,10 @@
         <v>1</v>
       </c>
       <c r="AS316">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT316">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU316">
         <v>1.87</v>
@@ -61930,7 +61933,7 @@
         <v>197</v>
       </c>
       <c r="P317" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q317">
         <v>5</v>
@@ -62017,10 +62020,10 @@
         <v>1</v>
       </c>
       <c r="AS317">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT317">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU317">
         <v>1.49</v>
@@ -62208,7 +62211,7 @@
         <v>0.5</v>
       </c>
       <c r="AS318">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT318">
         <v>0.6</v>
@@ -62503,7 +62506,7 @@
         <v>298</v>
       </c>
       <c r="P320" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q320">
         <v>6</v>
@@ -62694,7 +62697,7 @@
         <v>299</v>
       </c>
       <c r="P321" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q321">
         <v>5</v>
@@ -62784,7 +62787,7 @@
         <v>2.3</v>
       </c>
       <c r="AT321">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU321">
         <v>1.16</v>
@@ -63076,7 +63079,7 @@
         <v>300</v>
       </c>
       <c r="P323" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q323">
         <v>3</v>
@@ -63982,6 +63985,1152 @@
       </c>
       <c r="BK327">
         <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:63">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>6161887</v>
+      </c>
+      <c r="C328" t="s">
+        <v>63</v>
+      </c>
+      <c r="D328" t="s">
+        <v>64</v>
+      </c>
+      <c r="E328" s="2">
+        <v>45087.61458333334</v>
+      </c>
+      <c r="F328">
+        <v>20</v>
+      </c>
+      <c r="G328" t="s">
+        <v>81</v>
+      </c>
+      <c r="H328" t="s">
+        <v>71</v>
+      </c>
+      <c r="I328">
+        <v>2</v>
+      </c>
+      <c r="J328">
+        <v>1</v>
+      </c>
+      <c r="K328">
+        <v>3</v>
+      </c>
+      <c r="L328">
+        <v>3</v>
+      </c>
+      <c r="M328">
+        <v>1</v>
+      </c>
+      <c r="N328">
+        <v>4</v>
+      </c>
+      <c r="O328" t="s">
+        <v>302</v>
+      </c>
+      <c r="P328" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q328">
+        <v>4</v>
+      </c>
+      <c r="R328">
+        <v>2</v>
+      </c>
+      <c r="S328">
+        <v>6</v>
+      </c>
+      <c r="T328">
+        <v>3.75</v>
+      </c>
+      <c r="U328">
+        <v>2</v>
+      </c>
+      <c r="V328">
+        <v>3.2</v>
+      </c>
+      <c r="W328">
+        <v>1.53</v>
+      </c>
+      <c r="X328">
+        <v>2.35</v>
+      </c>
+      <c r="Y328">
+        <v>3.6</v>
+      </c>
+      <c r="Z328">
+        <v>1.25</v>
+      </c>
+      <c r="AA328">
+        <v>10.5</v>
+      </c>
+      <c r="AB328">
+        <v>1.04</v>
+      </c>
+      <c r="AC328">
+        <v>2.75</v>
+      </c>
+      <c r="AD328">
+        <v>3.2</v>
+      </c>
+      <c r="AE328">
+        <v>2.3</v>
+      </c>
+      <c r="AF328">
+        <v>1.06</v>
+      </c>
+      <c r="AG328">
+        <v>7</v>
+      </c>
+      <c r="AH328">
+        <v>1.46</v>
+      </c>
+      <c r="AI328">
+        <v>2.5</v>
+      </c>
+      <c r="AJ328">
+        <v>2.37</v>
+      </c>
+      <c r="AK328">
+        <v>1.52</v>
+      </c>
+      <c r="AL328">
+        <v>2.05</v>
+      </c>
+      <c r="AM328">
+        <v>1.72</v>
+      </c>
+      <c r="AN328">
+        <v>1.51</v>
+      </c>
+      <c r="AO328">
+        <v>1.36</v>
+      </c>
+      <c r="AP328">
+        <v>1.41</v>
+      </c>
+      <c r="AQ328">
+        <v>1.56</v>
+      </c>
+      <c r="AR328">
+        <v>1.25</v>
+      </c>
+      <c r="AS328">
+        <v>1.7</v>
+      </c>
+      <c r="AT328">
+        <v>1.11</v>
+      </c>
+      <c r="AU328">
+        <v>1.84</v>
+      </c>
+      <c r="AV328">
+        <v>0.97</v>
+      </c>
+      <c r="AW328">
+        <v>2.81</v>
+      </c>
+      <c r="AX328">
+        <v>1.91</v>
+      </c>
+      <c r="AY328">
+        <v>8.1</v>
+      </c>
+      <c r="AZ328">
+        <v>2.24</v>
+      </c>
+      <c r="BA328">
+        <v>1.54</v>
+      </c>
+      <c r="BB328">
+        <v>1.92</v>
+      </c>
+      <c r="BC328">
+        <v>2.42</v>
+      </c>
+      <c r="BD328">
+        <v>3.42</v>
+      </c>
+      <c r="BE328">
+        <v>5.1</v>
+      </c>
+      <c r="BF328">
+        <v>4</v>
+      </c>
+      <c r="BG328">
+        <v>4</v>
+      </c>
+      <c r="BH328">
+        <v>5</v>
+      </c>
+      <c r="BI328">
+        <v>3</v>
+      </c>
+      <c r="BJ328">
+        <v>9</v>
+      </c>
+      <c r="BK328">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:63">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>6161884</v>
+      </c>
+      <c r="C329" t="s">
+        <v>63</v>
+      </c>
+      <c r="D329" t="s">
+        <v>64</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45087.625</v>
+      </c>
+      <c r="F329">
+        <v>20</v>
+      </c>
+      <c r="G329" t="s">
+        <v>88</v>
+      </c>
+      <c r="H329" t="s">
+        <v>68</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
+      <c r="L329">
+        <v>0</v>
+      </c>
+      <c r="M329">
+        <v>0</v>
+      </c>
+      <c r="N329">
+        <v>0</v>
+      </c>
+      <c r="O329" t="s">
+        <v>102</v>
+      </c>
+      <c r="P329" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q329">
+        <v>1</v>
+      </c>
+      <c r="R329">
+        <v>3</v>
+      </c>
+      <c r="S329">
+        <v>4</v>
+      </c>
+      <c r="T329">
+        <v>3</v>
+      </c>
+      <c r="U329">
+        <v>2</v>
+      </c>
+      <c r="V329">
+        <v>4</v>
+      </c>
+      <c r="W329">
+        <v>1.51</v>
+      </c>
+      <c r="X329">
+        <v>2.37</v>
+      </c>
+      <c r="Y329">
+        <v>3.4</v>
+      </c>
+      <c r="Z329">
+        <v>1.3</v>
+      </c>
+      <c r="AA329">
+        <v>9.1</v>
+      </c>
+      <c r="AB329">
+        <v>1.04</v>
+      </c>
+      <c r="AC329">
+        <v>2.5</v>
+      </c>
+      <c r="AD329">
+        <v>3.05</v>
+      </c>
+      <c r="AE329">
+        <v>2.57</v>
+      </c>
+      <c r="AF329">
+        <v>1.05</v>
+      </c>
+      <c r="AG329">
+        <v>7.1</v>
+      </c>
+      <c r="AH329">
+        <v>1.41</v>
+      </c>
+      <c r="AI329">
+        <v>2.64</v>
+      </c>
+      <c r="AJ329">
+        <v>2.39</v>
+      </c>
+      <c r="AK329">
+        <v>1.51</v>
+      </c>
+      <c r="AL329">
+        <v>1.97</v>
+      </c>
+      <c r="AM329">
+        <v>1.78</v>
+      </c>
+      <c r="AN329">
+        <v>1.41</v>
+      </c>
+      <c r="AO329">
+        <v>1.35</v>
+      </c>
+      <c r="AP329">
+        <v>1.53</v>
+      </c>
+      <c r="AQ329">
+        <v>1.33</v>
+      </c>
+      <c r="AR329">
+        <v>1</v>
+      </c>
+      <c r="AS329">
+        <v>1.3</v>
+      </c>
+      <c r="AT329">
+        <v>1</v>
+      </c>
+      <c r="AU329">
+        <v>1.51</v>
+      </c>
+      <c r="AV329">
+        <v>1.11</v>
+      </c>
+      <c r="AW329">
+        <v>2.62</v>
+      </c>
+      <c r="AX329">
+        <v>1.95</v>
+      </c>
+      <c r="AY329">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ329">
+        <v>2.15</v>
+      </c>
+      <c r="BA329">
+        <v>1.29</v>
+      </c>
+      <c r="BB329">
+        <v>1.61</v>
+      </c>
+      <c r="BC329">
+        <v>1.99</v>
+      </c>
+      <c r="BD329">
+        <v>2.51</v>
+      </c>
+      <c r="BE329">
+        <v>3.48</v>
+      </c>
+      <c r="BF329">
+        <v>3</v>
+      </c>
+      <c r="BG329">
+        <v>2</v>
+      </c>
+      <c r="BH329">
+        <v>6</v>
+      </c>
+      <c r="BI329">
+        <v>6</v>
+      </c>
+      <c r="BJ329">
+        <v>9</v>
+      </c>
+      <c r="BK329">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330" spans="1:63">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>6161885</v>
+      </c>
+      <c r="C330" t="s">
+        <v>63</v>
+      </c>
+      <c r="D330" t="s">
+        <v>64</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45087.64583333334</v>
+      </c>
+      <c r="F330">
+        <v>20</v>
+      </c>
+      <c r="G330" t="s">
+        <v>91</v>
+      </c>
+      <c r="H330" t="s">
+        <v>73</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+      <c r="L330">
+        <v>1</v>
+      </c>
+      <c r="M330">
+        <v>0</v>
+      </c>
+      <c r="N330">
+        <v>1</v>
+      </c>
+      <c r="O330" t="s">
+        <v>159</v>
+      </c>
+      <c r="P330" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q330">
+        <v>5</v>
+      </c>
+      <c r="R330">
+        <v>2</v>
+      </c>
+      <c r="S330">
+        <v>7</v>
+      </c>
+      <c r="T330">
+        <v>2.5</v>
+      </c>
+      <c r="U330">
+        <v>2.05</v>
+      </c>
+      <c r="V330">
+        <v>5</v>
+      </c>
+      <c r="W330">
+        <v>1.5</v>
+      </c>
+      <c r="X330">
+        <v>2.37</v>
+      </c>
+      <c r="Y330">
+        <v>3.5</v>
+      </c>
+      <c r="Z330">
+        <v>1.26</v>
+      </c>
+      <c r="AA330">
+        <v>10</v>
+      </c>
+      <c r="AB330">
+        <v>1.04</v>
+      </c>
+      <c r="AC330">
+        <v>1.67</v>
+      </c>
+      <c r="AD330">
+        <v>3.4</v>
+      </c>
+      <c r="AE330">
+        <v>5</v>
+      </c>
+      <c r="AF330">
+        <v>1.05</v>
+      </c>
+      <c r="AG330">
+        <v>7</v>
+      </c>
+      <c r="AH330">
+        <v>1.5</v>
+      </c>
+      <c r="AI330">
+        <v>2.5</v>
+      </c>
+      <c r="AJ330">
+        <v>2.45</v>
+      </c>
+      <c r="AK330">
+        <v>1.5</v>
+      </c>
+      <c r="AL330">
+        <v>2.13</v>
+      </c>
+      <c r="AM330">
+        <v>1.67</v>
+      </c>
+      <c r="AN330">
+        <v>1.2</v>
+      </c>
+      <c r="AO330">
+        <v>1.31</v>
+      </c>
+      <c r="AP330">
+        <v>1.96</v>
+      </c>
+      <c r="AQ330">
+        <v>2.56</v>
+      </c>
+      <c r="AR330">
+        <v>1.44</v>
+      </c>
+      <c r="AS330">
+        <v>2.6</v>
+      </c>
+      <c r="AT330">
+        <v>1.3</v>
+      </c>
+      <c r="AU330">
+        <v>1.73</v>
+      </c>
+      <c r="AV330">
+        <v>1.09</v>
+      </c>
+      <c r="AW330">
+        <v>2.82</v>
+      </c>
+      <c r="AX330">
+        <v>1.7</v>
+      </c>
+      <c r="AY330">
+        <v>8.5</v>
+      </c>
+      <c r="AZ330">
+        <v>2.58</v>
+      </c>
+      <c r="BA330">
+        <v>1.47</v>
+      </c>
+      <c r="BB330">
+        <v>1.8</v>
+      </c>
+      <c r="BC330">
+        <v>2.25</v>
+      </c>
+      <c r="BD330">
+        <v>3.08</v>
+      </c>
+      <c r="BE330">
+        <v>4.6</v>
+      </c>
+      <c r="BF330">
+        <v>4</v>
+      </c>
+      <c r="BG330">
+        <v>3</v>
+      </c>
+      <c r="BH330">
+        <v>3</v>
+      </c>
+      <c r="BI330">
+        <v>2</v>
+      </c>
+      <c r="BJ330">
+        <v>7</v>
+      </c>
+      <c r="BK330">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:63">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>6161883</v>
+      </c>
+      <c r="C331" t="s">
+        <v>63</v>
+      </c>
+      <c r="D331" t="s">
+        <v>64</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45087.64583333334</v>
+      </c>
+      <c r="F331">
+        <v>20</v>
+      </c>
+      <c r="G331" t="s">
+        <v>87</v>
+      </c>
+      <c r="H331" t="s">
+        <v>72</v>
+      </c>
+      <c r="I331">
+        <v>1</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>1</v>
+      </c>
+      <c r="L331">
+        <v>1</v>
+      </c>
+      <c r="M331">
+        <v>0</v>
+      </c>
+      <c r="N331">
+        <v>1</v>
+      </c>
+      <c r="O331" t="s">
+        <v>157</v>
+      </c>
+      <c r="P331" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q331">
+        <v>5</v>
+      </c>
+      <c r="R331">
+        <v>4</v>
+      </c>
+      <c r="S331">
+        <v>9</v>
+      </c>
+      <c r="T331">
+        <v>3.1</v>
+      </c>
+      <c r="U331">
+        <v>1.91</v>
+      </c>
+      <c r="V331">
+        <v>4.33</v>
+      </c>
+      <c r="W331">
+        <v>1.58</v>
+      </c>
+      <c r="X331">
+        <v>2.2</v>
+      </c>
+      <c r="Y331">
+        <v>3.64</v>
+      </c>
+      <c r="Z331">
+        <v>1.26</v>
+      </c>
+      <c r="AA331">
+        <v>10.25</v>
+      </c>
+      <c r="AB331">
+        <v>1.03</v>
+      </c>
+      <c r="AC331">
+        <v>2.63</v>
+      </c>
+      <c r="AD331">
+        <v>2.8</v>
+      </c>
+      <c r="AE331">
+        <v>2.73</v>
+      </c>
+      <c r="AF331">
+        <v>1.07</v>
+      </c>
+      <c r="AG331">
+        <v>6.4</v>
+      </c>
+      <c r="AH331">
+        <v>1.56</v>
+      </c>
+      <c r="AI331">
+        <v>2.27</v>
+      </c>
+      <c r="AJ331">
+        <v>2.5</v>
+      </c>
+      <c r="AK331">
+        <v>1.47</v>
+      </c>
+      <c r="AL331">
+        <v>2.13</v>
+      </c>
+      <c r="AM331">
+        <v>1.67</v>
+      </c>
+      <c r="AN331">
+        <v>1.33</v>
+      </c>
+      <c r="AO331">
+        <v>1.36</v>
+      </c>
+      <c r="AP331">
+        <v>1.61</v>
+      </c>
+      <c r="AQ331">
+        <v>2.33</v>
+      </c>
+      <c r="AR331">
+        <v>1.22</v>
+      </c>
+      <c r="AS331">
+        <v>2.4</v>
+      </c>
+      <c r="AT331">
+        <v>1.1</v>
+      </c>
+      <c r="AU331">
+        <v>1.33</v>
+      </c>
+      <c r="AV331">
+        <v>1.23</v>
+      </c>
+      <c r="AW331">
+        <v>2.56</v>
+      </c>
+      <c r="AX331">
+        <v>1.93</v>
+      </c>
+      <c r="AY331">
+        <v>8.4</v>
+      </c>
+      <c r="AZ331">
+        <v>2.19</v>
+      </c>
+      <c r="BA331">
+        <v>1.45</v>
+      </c>
+      <c r="BB331">
+        <v>1.79</v>
+      </c>
+      <c r="BC331">
+        <v>2.25</v>
+      </c>
+      <c r="BD331">
+        <v>2.93</v>
+      </c>
+      <c r="BE331">
+        <v>4.15</v>
+      </c>
+      <c r="BF331">
+        <v>6</v>
+      </c>
+      <c r="BG331">
+        <v>6</v>
+      </c>
+      <c r="BH331">
+        <v>4</v>
+      </c>
+      <c r="BI331">
+        <v>6</v>
+      </c>
+      <c r="BJ331">
+        <v>10</v>
+      </c>
+      <c r="BK331">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:63">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>6161886</v>
+      </c>
+      <c r="C332" t="s">
+        <v>63</v>
+      </c>
+      <c r="D332" t="s">
+        <v>64</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45087.64583333334</v>
+      </c>
+      <c r="F332">
+        <v>20</v>
+      </c>
+      <c r="G332" t="s">
+        <v>80</v>
+      </c>
+      <c r="H332" t="s">
+        <v>65</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+      <c r="L332">
+        <v>0</v>
+      </c>
+      <c r="M332">
+        <v>1</v>
+      </c>
+      <c r="N332">
+        <v>1</v>
+      </c>
+      <c r="O332" t="s">
+        <v>102</v>
+      </c>
+      <c r="P332" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q332">
+        <v>5</v>
+      </c>
+      <c r="R332">
+        <v>1</v>
+      </c>
+      <c r="S332">
+        <v>6</v>
+      </c>
+      <c r="T332">
+        <v>3.25</v>
+      </c>
+      <c r="U332">
+        <v>1.91</v>
+      </c>
+      <c r="V332">
+        <v>4</v>
+      </c>
+      <c r="W332">
+        <v>1.6</v>
+      </c>
+      <c r="X332">
+        <v>2.15</v>
+      </c>
+      <c r="Y332">
+        <v>3.72</v>
+      </c>
+      <c r="Z332">
+        <v>1.25</v>
+      </c>
+      <c r="AA332">
+        <v>10.5</v>
+      </c>
+      <c r="AB332">
+        <v>1.03</v>
+      </c>
+      <c r="AC332">
+        <v>2.2</v>
+      </c>
+      <c r="AD332">
+        <v>2.7</v>
+      </c>
+      <c r="AE332">
+        <v>3.7</v>
+      </c>
+      <c r="AF332">
+        <v>1.08</v>
+      </c>
+      <c r="AG332">
+        <v>6.2</v>
+      </c>
+      <c r="AH332">
+        <v>1.73</v>
+      </c>
+      <c r="AI332">
+        <v>2.01</v>
+      </c>
+      <c r="AJ332">
+        <v>3.04</v>
+      </c>
+      <c r="AK332">
+        <v>1.33</v>
+      </c>
+      <c r="AL332">
+        <v>2.16</v>
+      </c>
+      <c r="AM332">
+        <v>1.65</v>
+      </c>
+      <c r="AN332">
+        <v>1.34</v>
+      </c>
+      <c r="AO332">
+        <v>1.37</v>
+      </c>
+      <c r="AP332">
+        <v>1.58</v>
+      </c>
+      <c r="AQ332">
+        <v>1.67</v>
+      </c>
+      <c r="AR332">
+        <v>0.89</v>
+      </c>
+      <c r="AS332">
+        <v>1.5</v>
+      </c>
+      <c r="AT332">
+        <v>1.1</v>
+      </c>
+      <c r="AU332">
+        <v>1.36</v>
+      </c>
+      <c r="AV332">
+        <v>1.18</v>
+      </c>
+      <c r="AW332">
+        <v>2.54</v>
+      </c>
+      <c r="AX332">
+        <v>1.79</v>
+      </c>
+      <c r="AY332">
+        <v>8.1</v>
+      </c>
+      <c r="AZ332">
+        <v>2.43</v>
+      </c>
+      <c r="BA332">
+        <v>1.62</v>
+      </c>
+      <c r="BB332">
+        <v>2.03</v>
+      </c>
+      <c r="BC332">
+        <v>2.6</v>
+      </c>
+      <c r="BD332">
+        <v>3.74</v>
+      </c>
+      <c r="BE332">
+        <v>5.7</v>
+      </c>
+      <c r="BF332">
+        <v>4</v>
+      </c>
+      <c r="BG332">
+        <v>2</v>
+      </c>
+      <c r="BH332">
+        <v>6</v>
+      </c>
+      <c r="BI332">
+        <v>3</v>
+      </c>
+      <c r="BJ332">
+        <v>10</v>
+      </c>
+      <c r="BK332">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:63">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>6161888</v>
+      </c>
+      <c r="C333" t="s">
+        <v>63</v>
+      </c>
+      <c r="D333" t="s">
+        <v>64</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45087.69097222222</v>
+      </c>
+      <c r="F333">
+        <v>20</v>
+      </c>
+      <c r="G333" t="s">
+        <v>78</v>
+      </c>
+      <c r="H333" t="s">
+        <v>70</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>1</v>
+      </c>
+      <c r="K333">
+        <v>1</v>
+      </c>
+      <c r="L333">
+        <v>1</v>
+      </c>
+      <c r="M333">
+        <v>1</v>
+      </c>
+      <c r="N333">
+        <v>2</v>
+      </c>
+      <c r="O333" t="s">
+        <v>303</v>
+      </c>
+      <c r="P333" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q333">
+        <v>2</v>
+      </c>
+      <c r="R333">
+        <v>9</v>
+      </c>
+      <c r="S333">
+        <v>11</v>
+      </c>
+      <c r="T333">
+        <v>2.88</v>
+      </c>
+      <c r="U333">
+        <v>1.95</v>
+      </c>
+      <c r="V333">
+        <v>4.5</v>
+      </c>
+      <c r="W333">
+        <v>1.55</v>
+      </c>
+      <c r="X333">
+        <v>2.25</v>
+      </c>
+      <c r="Y333">
+        <v>3.56</v>
+      </c>
+      <c r="Z333">
+        <v>1.27</v>
+      </c>
+      <c r="AA333">
+        <v>10</v>
+      </c>
+      <c r="AB333">
+        <v>1.03</v>
+      </c>
+      <c r="AC333">
+        <v>2.27</v>
+      </c>
+      <c r="AD333">
+        <v>2.8</v>
+      </c>
+      <c r="AE333">
+        <v>3.3</v>
+      </c>
+      <c r="AF333">
+        <v>1.06</v>
+      </c>
+      <c r="AG333">
+        <v>6.45</v>
+      </c>
+      <c r="AH333">
+        <v>1.56</v>
+      </c>
+      <c r="AI333">
+        <v>2.27</v>
+      </c>
+      <c r="AJ333">
+        <v>2.45</v>
+      </c>
+      <c r="AK333">
+        <v>1.5</v>
+      </c>
+      <c r="AL333">
+        <v>2.16</v>
+      </c>
+      <c r="AM333">
+        <v>1.65</v>
+      </c>
+      <c r="AN333">
+        <v>1.26</v>
+      </c>
+      <c r="AO333">
+        <v>1.35</v>
+      </c>
+      <c r="AP333">
+        <v>1.75</v>
+      </c>
+      <c r="AQ333">
+        <v>2.22</v>
+      </c>
+      <c r="AR333">
+        <v>0.67</v>
+      </c>
+      <c r="AS333">
+        <v>2.1</v>
+      </c>
+      <c r="AT333">
+        <v>0.7</v>
+      </c>
+      <c r="AU333">
+        <v>1.6</v>
+      </c>
+      <c r="AV333">
+        <v>1.29</v>
+      </c>
+      <c r="AW333">
+        <v>2.89</v>
+      </c>
+      <c r="AX333">
+        <v>1.77</v>
+      </c>
+      <c r="AY333">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ333">
+        <v>2.45</v>
+      </c>
+      <c r="BA333">
+        <v>1.44</v>
+      </c>
+      <c r="BB333">
+        <v>1.77</v>
+      </c>
+      <c r="BC333">
+        <v>2.22</v>
+      </c>
+      <c r="BD333">
+        <v>3.42</v>
+      </c>
+      <c r="BE333">
+        <v>5.1</v>
+      </c>
+      <c r="BF333">
+        <v>7</v>
+      </c>
+      <c r="BG333">
+        <v>5</v>
+      </c>
+      <c r="BH333">
+        <v>2</v>
+      </c>
+      <c r="BI333">
+        <v>7</v>
+      </c>
+      <c r="BJ333">
+        <v>9</v>
+      </c>
+      <c r="BK333">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="391">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -928,6 +928,30 @@
     <t>['57']</t>
   </si>
   <si>
+    <t>['23', '54']</t>
+  </si>
+  <si>
+    <t>['48', '83']</t>
+  </si>
+  <si>
+    <t>['43', '73']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['28', '71']</t>
+  </si>
+  <si>
+    <t>['53', '90+3']</t>
+  </si>
+  <si>
+    <t>['12', '34', '88']</t>
+  </si>
+  <si>
+    <t>['31', '71', '81']</t>
+  </si>
+  <si>
     <t>['77']</t>
   </si>
   <si>
@@ -1524,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK333"/>
+  <dimension ref="A1:BK346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1855,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT2">
         <v>0.67</v>
@@ -2046,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT3">
         <v>0.78</v>
@@ -2150,7 +2174,7 @@
         <v>103</v>
       </c>
       <c r="P4" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2619,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT6">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2810,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT7">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3004,7 +3028,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3192,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT9">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3386,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3487,7 +3511,7 @@
         <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -4723,7 +4747,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4824,7 +4848,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5206,7 +5230,7 @@
         <v>112</v>
       </c>
       <c r="P20" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5970,7 +5994,7 @@
         <v>114</v>
       </c>
       <c r="P24" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6543,7 +6567,7 @@
         <v>117</v>
       </c>
       <c r="P27" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -7015,7 +7039,7 @@
         <v>1.5</v>
       </c>
       <c r="AT29">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU29">
         <v>1.64</v>
@@ -7206,7 +7230,7 @@
         <v>2</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU30">
         <v>1.29</v>
@@ -7498,7 +7522,7 @@
         <v>121</v>
       </c>
       <c r="P32" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7588,7 +7612,7 @@
         <v>1.22</v>
       </c>
       <c r="AT32">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU32">
         <v>1.59</v>
@@ -7689,7 +7713,7 @@
         <v>122</v>
       </c>
       <c r="P33" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q33">
         <v>10</v>
@@ -7776,10 +7800,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT33">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU33">
         <v>1.58</v>
@@ -7880,7 +7904,7 @@
         <v>123</v>
       </c>
       <c r="P34" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7967,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -8349,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT36">
         <v>0</v>
@@ -8540,10 +8564,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT37">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU37">
         <v>1.11</v>
@@ -8644,7 +8668,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8734,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="AT38">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -8922,7 +8946,7 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT39">
         <v>0.67</v>
@@ -9113,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT40">
         <v>1.63</v>
@@ -9307,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="AT41">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU41">
         <v>0.74</v>
@@ -9686,7 +9710,7 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT43">
         <v>1</v>
@@ -9880,7 +9904,7 @@
         <v>2</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU44">
         <v>1.55</v>
@@ -10262,7 +10286,7 @@
         <v>1.13</v>
       </c>
       <c r="AT46">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10554,7 +10578,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10936,7 +10960,7 @@
         <v>102</v>
       </c>
       <c r="P50" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11318,7 +11342,7 @@
         <v>135</v>
       </c>
       <c r="P52" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11408,7 +11432,7 @@
         <v>2.11</v>
       </c>
       <c r="AT52">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU52">
         <v>2.09</v>
@@ -12360,7 +12384,7 @@
         <v>3</v>
       </c>
       <c r="AS57">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT57">
         <v>1.1</v>
@@ -12745,7 +12769,7 @@
         <v>1.3</v>
       </c>
       <c r="AT59">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU59">
         <v>2.6</v>
@@ -13037,7 +13061,7 @@
         <v>102</v>
       </c>
       <c r="P61" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13506,7 +13530,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT63">
         <v>1.11</v>
@@ -13801,7 +13825,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -13891,7 +13915,7 @@
         <v>1.88</v>
       </c>
       <c r="AT65">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU65">
         <v>2.27</v>
@@ -14082,7 +14106,7 @@
         <v>1.5</v>
       </c>
       <c r="AT66">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU66">
         <v>1.8</v>
@@ -14461,7 +14485,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT68">
         <v>1.67</v>
@@ -14565,7 +14589,7 @@
         <v>102</v>
       </c>
       <c r="P69" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14846,7 +14870,7 @@
         <v>2</v>
       </c>
       <c r="AT70">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU70">
         <v>0.84</v>
@@ -15225,7 +15249,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT72">
         <v>0</v>
@@ -15329,7 +15353,7 @@
         <v>149</v>
       </c>
       <c r="P73" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15419,7 +15443,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU73">
         <v>1.46</v>
@@ -15607,10 +15631,10 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT74">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU74">
         <v>1.12</v>
@@ -15798,7 +15822,7 @@
         <v>3</v>
       </c>
       <c r="AS75">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT75">
         <v>1</v>
@@ -15992,7 +16016,7 @@
         <v>2</v>
       </c>
       <c r="AT76">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU76">
         <v>1.37</v>
@@ -16374,7 +16398,7 @@
         <v>2.3</v>
       </c>
       <c r="AT78">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU78">
         <v>1.55</v>
@@ -16475,7 +16499,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16562,10 +16586,10 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU79">
         <v>1.97</v>
@@ -16756,7 +16780,7 @@
         <v>2.11</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU80">
         <v>1.67</v>
@@ -16944,7 +16968,7 @@
         <v>1</v>
       </c>
       <c r="AS81">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -17239,7 +17263,7 @@
         <v>157</v>
       </c>
       <c r="P83" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -17812,7 +17836,7 @@
         <v>102</v>
       </c>
       <c r="P86" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -18003,7 +18027,7 @@
         <v>160</v>
       </c>
       <c r="P87" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18090,7 +18114,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT87">
         <v>1.3</v>
@@ -18194,7 +18218,7 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -18284,7 +18308,7 @@
         <v>1.9</v>
       </c>
       <c r="AT88">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU88">
         <v>1.14</v>
@@ -18663,7 +18687,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT90">
         <v>1</v>
@@ -18767,7 +18791,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18857,7 +18881,7 @@
         <v>1.56</v>
       </c>
       <c r="AT91">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU91">
         <v>1.36</v>
@@ -19340,7 +19364,7 @@
         <v>102</v>
       </c>
       <c r="P94" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -20104,7 +20128,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q98">
         <v>10</v>
@@ -20191,7 +20215,7 @@
         <v>0</v>
       </c>
       <c r="AS98">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT98">
         <v>0.78</v>
@@ -20295,7 +20319,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20764,10 +20788,10 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT101">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU101">
         <v>1.4</v>
@@ -20958,7 +20982,7 @@
         <v>2</v>
       </c>
       <c r="AT102">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU102">
         <v>1.2</v>
@@ -21149,7 +21173,7 @@
         <v>2</v>
       </c>
       <c r="AT103">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU103">
         <v>1.52</v>
@@ -21340,7 +21364,7 @@
         <v>1.78</v>
       </c>
       <c r="AT104">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU104">
         <v>1.47</v>
@@ -21722,7 +21746,7 @@
         <v>2</v>
       </c>
       <c r="AT106">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU106">
         <v>1.05</v>
@@ -22014,7 +22038,7 @@
         <v>172</v>
       </c>
       <c r="P108" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22101,7 +22125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT108">
         <v>1.11</v>
@@ -22483,10 +22507,10 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT110">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU110">
         <v>1.5</v>
@@ -22587,7 +22611,7 @@
         <v>174</v>
       </c>
       <c r="P111" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23059,7 +23083,7 @@
         <v>2.1</v>
       </c>
       <c r="AT113">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU113">
         <v>1.44</v>
@@ -23629,10 +23653,10 @@
         <v>1</v>
       </c>
       <c r="AS116">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT116">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU116">
         <v>2.02</v>
@@ -24011,7 +24035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS118">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT118">
         <v>0.6</v>
@@ -24115,7 +24139,7 @@
         <v>136</v>
       </c>
       <c r="P119" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24497,7 +24521,7 @@
         <v>179</v>
       </c>
       <c r="P121" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24688,7 +24712,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24778,7 +24802,7 @@
         <v>1.22</v>
       </c>
       <c r="AT122">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU122">
         <v>1.3</v>
@@ -24879,7 +24903,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25157,10 +25181,10 @@
         <v>1.67</v>
       </c>
       <c r="AS124">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT124">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU124">
         <v>1.18</v>
@@ -25542,7 +25566,7 @@
         <v>1.5</v>
       </c>
       <c r="AT126">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU126">
         <v>1.31</v>
@@ -25643,7 +25667,7 @@
         <v>102</v>
       </c>
       <c r="P127" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q127">
         <v>11</v>
@@ -25834,7 +25858,7 @@
         <v>184</v>
       </c>
       <c r="P128" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -26216,7 +26240,7 @@
         <v>102</v>
       </c>
       <c r="P130" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26303,7 +26327,7 @@
         <v>1</v>
       </c>
       <c r="AS130">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT130">
         <v>0.78</v>
@@ -26407,7 +26431,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26494,7 +26518,7 @@
         <v>0</v>
       </c>
       <c r="AS131">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT131">
         <v>1.1</v>
@@ -26980,7 +27004,7 @@
         <v>187</v>
       </c>
       <c r="P134" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27362,7 +27386,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q136">
         <v>1</v>
@@ -27449,7 +27473,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT136">
         <v>0.67</v>
@@ -27643,7 +27667,7 @@
         <v>2</v>
       </c>
       <c r="AT137">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU137">
         <v>1.04</v>
@@ -27834,7 +27858,7 @@
         <v>1.22</v>
       </c>
       <c r="AT138">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU138">
         <v>1.42</v>
@@ -28216,7 +28240,7 @@
         <v>2.1</v>
       </c>
       <c r="AT140">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU140">
         <v>1.5</v>
@@ -28595,10 +28619,10 @@
         <v>0.67</v>
       </c>
       <c r="AS142">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT142">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU142">
         <v>2.02</v>
@@ -28699,7 +28723,7 @@
         <v>102</v>
       </c>
       <c r="P143" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -28977,7 +29001,7 @@
         <v>0.67</v>
       </c>
       <c r="AS144">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT144">
         <v>0.6</v>
@@ -29081,7 +29105,7 @@
         <v>121</v>
       </c>
       <c r="P145" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -29362,7 +29386,7 @@
         <v>1.56</v>
       </c>
       <c r="AT146">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU146">
         <v>1.41</v>
@@ -29463,7 +29487,7 @@
         <v>194</v>
       </c>
       <c r="P147" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29654,7 +29678,7 @@
         <v>195</v>
       </c>
       <c r="P148" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29845,7 +29869,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29932,7 +29956,7 @@
         <v>1</v>
       </c>
       <c r="AS149">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT149">
         <v>1</v>
@@ -30314,7 +30338,7 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT151">
         <v>1.63</v>
@@ -30508,7 +30532,7 @@
         <v>1.78</v>
       </c>
       <c r="AT152">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU152">
         <v>1.34</v>
@@ -30890,7 +30914,7 @@
         <v>2.11</v>
       </c>
       <c r="AT154">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU154">
         <v>1.75</v>
@@ -31460,7 +31484,7 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT157">
         <v>0.7</v>
@@ -31654,7 +31678,7 @@
         <v>2.6</v>
       </c>
       <c r="AT158">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU158">
         <v>1.84</v>
@@ -31755,7 +31779,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -31845,7 +31869,7 @@
         <v>1.3</v>
       </c>
       <c r="AT159">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU159">
         <v>1.42</v>
@@ -32033,7 +32057,7 @@
         <v>0.75</v>
       </c>
       <c r="AS160">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT160">
         <v>0.5</v>
@@ -32519,7 +32543,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32609,7 +32633,7 @@
         <v>2.22</v>
       </c>
       <c r="AT163">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU163">
         <v>1.65</v>
@@ -32800,7 +32824,7 @@
         <v>1.5</v>
       </c>
       <c r="AT164">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU164">
         <v>1.38</v>
@@ -33092,7 +33116,7 @@
         <v>205</v>
       </c>
       <c r="P166" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33283,7 +33307,7 @@
         <v>206</v>
       </c>
       <c r="P167" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33370,7 +33394,7 @@
         <v>1.25</v>
       </c>
       <c r="AS167">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT167">
         <v>1.67</v>
@@ -33561,7 +33585,7 @@
         <v>1</v>
       </c>
       <c r="AS168">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT168">
         <v>1.33</v>
@@ -34328,7 +34352,7 @@
         <v>2.3</v>
       </c>
       <c r="AT172">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU172">
         <v>1.14</v>
@@ -34429,7 +34453,7 @@
         <v>209</v>
       </c>
       <c r="P173" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34620,7 +34644,7 @@
         <v>114</v>
       </c>
       <c r="P174" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34707,7 +34731,7 @@
         <v>1</v>
       </c>
       <c r="AS174">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT174">
         <v>0.67</v>
@@ -35002,7 +35026,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -35283,7 +35307,7 @@
         <v>2</v>
       </c>
       <c r="AT177">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU177">
         <v>1.34</v>
@@ -35471,7 +35495,7 @@
         <v>1.5</v>
       </c>
       <c r="AS178">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT178">
         <v>1</v>
@@ -35662,7 +35686,7 @@
         <v>1.25</v>
       </c>
       <c r="AS179">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT179">
         <v>1.1</v>
@@ -35856,7 +35880,7 @@
         <v>2.1</v>
       </c>
       <c r="AT180">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU180">
         <v>1.44</v>
@@ -35957,7 +35981,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -36047,7 +36071,7 @@
         <v>1.56</v>
       </c>
       <c r="AT181">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU181">
         <v>1.72</v>
@@ -36339,7 +36363,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36721,7 +36745,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36808,10 +36832,10 @@
         <v>2</v>
       </c>
       <c r="AS185">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT185">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU185">
         <v>1.33</v>
@@ -37103,7 +37127,7 @@
         <v>220</v>
       </c>
       <c r="P187" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37294,7 +37318,7 @@
         <v>102</v>
       </c>
       <c r="P188" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q188">
         <v>12</v>
@@ -37384,7 +37408,7 @@
         <v>1.56</v>
       </c>
       <c r="AT188">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU188">
         <v>1.42</v>
@@ -37676,7 +37700,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q190">
         <v>0</v>
@@ -37766,7 +37790,7 @@
         <v>2.4</v>
       </c>
       <c r="AT190">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU190">
         <v>1.31</v>
@@ -37867,7 +37891,7 @@
         <v>102</v>
       </c>
       <c r="P191" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q191">
         <v>10</v>
@@ -38145,7 +38169,7 @@
         <v>0.8</v>
       </c>
       <c r="AS192">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT192">
         <v>0.9</v>
@@ -38336,7 +38360,7 @@
         <v>1.2</v>
       </c>
       <c r="AS193">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT193">
         <v>0.89</v>
@@ -38530,7 +38554,7 @@
         <v>1.9</v>
       </c>
       <c r="AT194">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU194">
         <v>1.46</v>
@@ -38718,7 +38742,7 @@
         <v>0</v>
       </c>
       <c r="AS195">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT195">
         <v>0</v>
@@ -39013,7 +39037,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39204,7 +39228,7 @@
         <v>105</v>
       </c>
       <c r="P198" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q198">
         <v>8</v>
@@ -39482,7 +39506,7 @@
         <v>1.4</v>
       </c>
       <c r="AS199">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT199">
         <v>1.3</v>
@@ -39777,7 +39801,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39968,7 +39992,7 @@
         <v>102</v>
       </c>
       <c r="P202" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q202">
         <v>11</v>
@@ -40058,7 +40082,7 @@
         <v>1.22</v>
       </c>
       <c r="AT202">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU202">
         <v>1.35</v>
@@ -40159,7 +40183,7 @@
         <v>227</v>
       </c>
       <c r="P203" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40246,7 +40270,7 @@
         <v>0.8</v>
       </c>
       <c r="AS203">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT203">
         <v>0.78</v>
@@ -40541,7 +40565,7 @@
         <v>102</v>
       </c>
       <c r="P205" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q205">
         <v>8</v>
@@ -40732,7 +40756,7 @@
         <v>102</v>
       </c>
       <c r="P206" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q206">
         <v>6</v>
@@ -40923,7 +40947,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41204,7 +41228,7 @@
         <v>1.5</v>
       </c>
       <c r="AT208">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU208">
         <v>1.3</v>
@@ -41305,7 +41329,7 @@
         <v>102</v>
       </c>
       <c r="P209" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41395,7 +41419,7 @@
         <v>1.7</v>
       </c>
       <c r="AT209">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU209">
         <v>1.98</v>
@@ -41687,7 +41711,7 @@
         <v>102</v>
       </c>
       <c r="P211" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41774,7 +41798,7 @@
         <v>1</v>
       </c>
       <c r="AS211">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT211">
         <v>1.67</v>
@@ -41968,7 +41992,7 @@
         <v>1.63</v>
       </c>
       <c r="AT212">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU212">
         <v>1.43</v>
@@ -42156,7 +42180,7 @@
         <v>1</v>
       </c>
       <c r="AS213">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT213">
         <v>1</v>
@@ -42347,7 +42371,7 @@
         <v>0.4</v>
       </c>
       <c r="AS214">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT214">
         <v>1.1</v>
@@ -42451,7 +42475,7 @@
         <v>102</v>
       </c>
       <c r="P215" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q215">
         <v>7</v>
@@ -42541,7 +42565,7 @@
         <v>2.1</v>
       </c>
       <c r="AT215">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU215">
         <v>1.57</v>
@@ -43305,7 +43329,7 @@
         <v>2.4</v>
       </c>
       <c r="AT219">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU219">
         <v>1.26</v>
@@ -43496,7 +43520,7 @@
         <v>1.22</v>
       </c>
       <c r="AT220">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU220">
         <v>1.4</v>
@@ -44170,7 +44194,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q224">
         <v>2</v>
@@ -44260,7 +44284,7 @@
         <v>1.56</v>
       </c>
       <c r="AT224">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU224">
         <v>1.34</v>
@@ -44552,7 +44576,7 @@
         <v>239</v>
       </c>
       <c r="P226" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44830,7 +44854,7 @@
         <v>0.67</v>
       </c>
       <c r="AS227">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT227">
         <v>0.78</v>
@@ -44934,7 +44958,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -45021,10 +45045,10 @@
         <v>0.67</v>
       </c>
       <c r="AS228">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT228">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU228">
         <v>1.19</v>
@@ -45212,7 +45236,7 @@
         <v>0.67</v>
       </c>
       <c r="AS229">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT229">
         <v>0.5</v>
@@ -45316,7 +45340,7 @@
         <v>157</v>
       </c>
       <c r="P230" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -46167,7 +46191,7 @@
         <v>2</v>
       </c>
       <c r="AS234">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT234">
         <v>1.56</v>
@@ -46361,7 +46385,7 @@
         <v>1.5</v>
       </c>
       <c r="AT235">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU235">
         <v>1.29</v>
@@ -46462,7 +46486,7 @@
         <v>102</v>
       </c>
       <c r="P236" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -46653,7 +46677,7 @@
         <v>244</v>
       </c>
       <c r="P237" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46934,7 +46958,7 @@
         <v>2.6</v>
       </c>
       <c r="AT238">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU238">
         <v>1.95</v>
@@ -47035,7 +47059,7 @@
         <v>246</v>
       </c>
       <c r="P239" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q239">
         <v>9</v>
@@ -47417,7 +47441,7 @@
         <v>248</v>
       </c>
       <c r="P241" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47695,10 +47719,10 @@
         <v>0.8</v>
       </c>
       <c r="AS242">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT242">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU242">
         <v>1.76</v>
@@ -47799,7 +47823,7 @@
         <v>250</v>
       </c>
       <c r="P243" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="Q243">
         <v>10</v>
@@ -47889,7 +47913,7 @@
         <v>1.56</v>
       </c>
       <c r="AT243">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU243">
         <v>1.41</v>
@@ -48077,7 +48101,7 @@
         <v>1.4</v>
       </c>
       <c r="AS244">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT244">
         <v>1</v>
@@ -48268,10 +48292,10 @@
         <v>1.8</v>
       </c>
       <c r="AS245">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT245">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU245">
         <v>1.82</v>
@@ -48653,7 +48677,7 @@
         <v>1.3</v>
       </c>
       <c r="AT247">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU247">
         <v>1.45</v>
@@ -48844,7 +48868,7 @@
         <v>2.22</v>
       </c>
       <c r="AT248">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU248">
         <v>1.74</v>
@@ -49032,7 +49056,7 @@
         <v>0.8</v>
       </c>
       <c r="AS249">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT249">
         <v>1</v>
@@ -49987,7 +50011,7 @@
         <v>1</v>
       </c>
       <c r="AS254">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT254">
         <v>0.89</v>
@@ -50091,7 +50115,7 @@
         <v>259</v>
       </c>
       <c r="P255" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50369,7 +50393,7 @@
         <v>0.57</v>
       </c>
       <c r="AS256">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT256">
         <v>0.5</v>
@@ -50560,10 +50584,10 @@
         <v>0.57</v>
       </c>
       <c r="AS257">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT257">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU257">
         <v>1.27</v>
@@ -50754,7 +50778,7 @@
         <v>1.5</v>
       </c>
       <c r="AT258">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU258">
         <v>1.72</v>
@@ -50855,7 +50879,7 @@
         <v>102</v>
       </c>
       <c r="P259" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q259">
         <v>10</v>
@@ -50945,7 +50969,7 @@
         <v>1.56</v>
       </c>
       <c r="AT259">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU259">
         <v>1.58</v>
@@ -51046,7 +51070,7 @@
         <v>262</v>
       </c>
       <c r="P260" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q260">
         <v>9</v>
@@ -51428,7 +51452,7 @@
         <v>107</v>
       </c>
       <c r="P262" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Q262">
         <v>2</v>
@@ -51900,7 +51924,7 @@
         <v>1.56</v>
       </c>
       <c r="AT264">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU264">
         <v>1.33</v>
@@ -52088,7 +52112,7 @@
         <v>0.71</v>
       </c>
       <c r="AS265">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT265">
         <v>0.67</v>
@@ -52279,7 +52303,7 @@
         <v>1.29</v>
       </c>
       <c r="AS266">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT266">
         <v>1.33</v>
@@ -52383,7 +52407,7 @@
         <v>266</v>
       </c>
       <c r="P267" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -52574,7 +52598,7 @@
         <v>102</v>
       </c>
       <c r="P268" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -53237,7 +53261,7 @@
         <v>2</v>
       </c>
       <c r="AT271">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU271">
         <v>1.44</v>
@@ -53529,7 +53553,7 @@
         <v>270</v>
       </c>
       <c r="P273" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q273">
         <v>4</v>
@@ -53810,7 +53834,7 @@
         <v>2.4</v>
       </c>
       <c r="AT274">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU274">
         <v>1.34</v>
@@ -53911,7 +53935,7 @@
         <v>271</v>
       </c>
       <c r="P275" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q275">
         <v>2</v>
@@ -54102,7 +54126,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -54571,10 +54595,10 @@
         <v>1.67</v>
       </c>
       <c r="AS278">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT278">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU278">
         <v>1.77</v>
@@ -54675,7 +54699,7 @@
         <v>102</v>
       </c>
       <c r="P279" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -54765,7 +54789,7 @@
         <v>1.63</v>
       </c>
       <c r="AT279">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU279">
         <v>1.5</v>
@@ -55144,7 +55168,7 @@
         <v>0.67</v>
       </c>
       <c r="AS281">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT281">
         <v>1</v>
@@ -55338,7 +55362,7 @@
         <v>1.3</v>
       </c>
       <c r="AT282">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU282">
         <v>1.41</v>
@@ -55526,7 +55550,7 @@
         <v>1.17</v>
       </c>
       <c r="AS283">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT283">
         <v>1</v>
@@ -56203,7 +56227,7 @@
         <v>250</v>
       </c>
       <c r="P287" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q287">
         <v>8</v>
@@ -56293,7 +56317,7 @@
         <v>1.13</v>
       </c>
       <c r="AT287">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU287">
         <v>1.58</v>
@@ -56394,7 +56418,7 @@
         <v>278</v>
       </c>
       <c r="P288" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -56672,10 +56696,10 @@
         <v>1.13</v>
       </c>
       <c r="AS289">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT289">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU289">
         <v>1.4</v>
@@ -56776,7 +56800,7 @@
         <v>200</v>
       </c>
       <c r="P290" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Q290">
         <v>6</v>
@@ -56863,7 +56887,7 @@
         <v>0.75</v>
       </c>
       <c r="AS290">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT290">
         <v>0.9</v>
@@ -57158,7 +57182,7 @@
         <v>102</v>
       </c>
       <c r="P292" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="Q292">
         <v>3</v>
@@ -57439,7 +57463,7 @@
         <v>1</v>
       </c>
       <c r="AT293">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU293">
         <v>1.26</v>
@@ -57818,10 +57842,10 @@
         <v>0.88</v>
       </c>
       <c r="AS295">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT295">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU295">
         <v>1.16</v>
@@ -57922,7 +57946,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q296">
         <v>9</v>
@@ -58113,7 +58137,7 @@
         <v>283</v>
       </c>
       <c r="P297" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -58304,7 +58328,7 @@
         <v>102</v>
       </c>
       <c r="P298" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q298">
         <v>7</v>
@@ -58394,7 +58418,7 @@
         <v>1.56</v>
       </c>
       <c r="AT298">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU298">
         <v>1.31</v>
@@ -58495,7 +58519,7 @@
         <v>284</v>
       </c>
       <c r="P299" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q299">
         <v>6</v>
@@ -58585,7 +58609,7 @@
         <v>2.22</v>
       </c>
       <c r="AT299">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU299">
         <v>2.02</v>
@@ -58964,7 +58988,7 @@
         <v>1.13</v>
       </c>
       <c r="AS301">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT301">
         <v>1</v>
@@ -59259,7 +59283,7 @@
         <v>286</v>
       </c>
       <c r="P303" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -59641,7 +59665,7 @@
         <v>287</v>
       </c>
       <c r="P305" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q305">
         <v>6</v>
@@ -59728,7 +59752,7 @@
         <v>0.75</v>
       </c>
       <c r="AS305">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT305">
         <v>0.78</v>
@@ -59919,7 +59943,7 @@
         <v>0.88</v>
       </c>
       <c r="AS306">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT306">
         <v>0.89</v>
@@ -60110,10 +60134,10 @@
         <v>1.71</v>
       </c>
       <c r="AS307">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT307">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU307">
         <v>1.69</v>
@@ -60304,7 +60328,7 @@
         <v>1.88</v>
       </c>
       <c r="AT308">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU308">
         <v>1.62</v>
@@ -60405,7 +60429,7 @@
         <v>290</v>
       </c>
       <c r="P309" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q309">
         <v>11</v>
@@ -60596,7 +60620,7 @@
         <v>291</v>
       </c>
       <c r="P310" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q310">
         <v>11</v>
@@ -61256,7 +61280,7 @@
         <v>1.86</v>
       </c>
       <c r="AS313">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT313">
         <v>1.63</v>
@@ -61360,7 +61384,7 @@
         <v>175</v>
       </c>
       <c r="P314" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="Q314">
         <v>7</v>
@@ -61450,7 +61474,7 @@
         <v>2.1</v>
       </c>
       <c r="AT314">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU314">
         <v>1.6</v>
@@ -61933,7 +61957,7 @@
         <v>197</v>
       </c>
       <c r="P317" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q317">
         <v>5</v>
@@ -62405,7 +62429,7 @@
         <v>1.9</v>
       </c>
       <c r="AT319">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU319">
         <v>1.65</v>
@@ -62506,7 +62530,7 @@
         <v>298</v>
       </c>
       <c r="P320" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q320">
         <v>6</v>
@@ -62697,7 +62721,7 @@
         <v>299</v>
       </c>
       <c r="P321" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q321">
         <v>5</v>
@@ -62975,10 +62999,10 @@
         <v>1.43</v>
       </c>
       <c r="AS322">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT322">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU322">
         <v>1.59</v>
@@ -63079,7 +63103,7 @@
         <v>300</v>
       </c>
       <c r="P323" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="Q323">
         <v>3</v>
@@ -64124,7 +64148,7 @@
         <v>1.7</v>
       </c>
       <c r="AT328">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU328">
         <v>1.84</v>
@@ -64798,7 +64822,7 @@
         <v>102</v>
       </c>
       <c r="P332" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q332">
         <v>5</v>
@@ -65131,6 +65155,2489 @@
       </c>
       <c r="BK333">
         <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:63">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>5067916</v>
+      </c>
+      <c r="C334" t="s">
+        <v>63</v>
+      </c>
+      <c r="D334" t="s">
+        <v>64</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45091.71527777778</v>
+      </c>
+      <c r="F334">
+        <v>10</v>
+      </c>
+      <c r="G334" t="s">
+        <v>68</v>
+      </c>
+      <c r="H334" t="s">
+        <v>71</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+      <c r="L334">
+        <v>0</v>
+      </c>
+      <c r="M334">
+        <v>1</v>
+      </c>
+      <c r="N334">
+        <v>1</v>
+      </c>
+      <c r="O334" t="s">
+        <v>102</v>
+      </c>
+      <c r="P334" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q334">
+        <v>2</v>
+      </c>
+      <c r="R334">
+        <v>3</v>
+      </c>
+      <c r="S334">
+        <v>5</v>
+      </c>
+      <c r="T334">
+        <v>2.63</v>
+      </c>
+      <c r="U334">
+        <v>2</v>
+      </c>
+      <c r="V334">
+        <v>4.5</v>
+      </c>
+      <c r="W334">
+        <v>1.5</v>
+      </c>
+      <c r="X334">
+        <v>2.4</v>
+      </c>
+      <c r="Y334">
+        <v>3.3</v>
+      </c>
+      <c r="Z334">
+        <v>1.29</v>
+      </c>
+      <c r="AA334">
+        <v>8</v>
+      </c>
+      <c r="AB334">
+        <v>1.06</v>
+      </c>
+      <c r="AC334">
+        <v>2.08</v>
+      </c>
+      <c r="AD334">
+        <v>3.1</v>
+      </c>
+      <c r="AE334">
+        <v>3.7</v>
+      </c>
+      <c r="AF334">
+        <v>1.09</v>
+      </c>
+      <c r="AG334">
+        <v>6</v>
+      </c>
+      <c r="AH334">
+        <v>1.48</v>
+      </c>
+      <c r="AI334">
+        <v>2.5</v>
+      </c>
+      <c r="AJ334">
+        <v>2.48</v>
+      </c>
+      <c r="AK334">
+        <v>1.5</v>
+      </c>
+      <c r="AL334">
+        <v>2.1</v>
+      </c>
+      <c r="AM334">
+        <v>1.65</v>
+      </c>
+      <c r="AN334">
+        <v>1.25</v>
+      </c>
+      <c r="AO334">
+        <v>1.33</v>
+      </c>
+      <c r="AP334">
+        <v>1.83</v>
+      </c>
+      <c r="AQ334">
+        <v>1.5</v>
+      </c>
+      <c r="AR334">
+        <v>1.11</v>
+      </c>
+      <c r="AS334">
+        <v>1.5</v>
+      </c>
+      <c r="AT334">
+        <v>1.3</v>
+      </c>
+      <c r="AU334">
+        <v>1.8</v>
+      </c>
+      <c r="AV334">
+        <v>0.99</v>
+      </c>
+      <c r="AW334">
+        <v>2.79</v>
+      </c>
+      <c r="AX334">
+        <v>1.56</v>
+      </c>
+      <c r="AY334">
+        <v>8.9</v>
+      </c>
+      <c r="AZ334">
+        <v>2.94</v>
+      </c>
+      <c r="BA334">
+        <v>1.43</v>
+      </c>
+      <c r="BB334">
+        <v>1.72</v>
+      </c>
+      <c r="BC334">
+        <v>2.15</v>
+      </c>
+      <c r="BD334">
+        <v>2.7</v>
+      </c>
+      <c r="BE334">
+        <v>4.3</v>
+      </c>
+      <c r="BF334">
+        <v>3</v>
+      </c>
+      <c r="BG334">
+        <v>4</v>
+      </c>
+      <c r="BH334">
+        <v>9</v>
+      </c>
+      <c r="BI334">
+        <v>2</v>
+      </c>
+      <c r="BJ334">
+        <v>12</v>
+      </c>
+      <c r="BK334">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:63">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>6161901</v>
+      </c>
+      <c r="C335" t="s">
+        <v>63</v>
+      </c>
+      <c r="D335" t="s">
+        <v>64</v>
+      </c>
+      <c r="E335" s="2">
+        <v>45093.83680555555</v>
+      </c>
+      <c r="F335">
+        <v>21</v>
+      </c>
+      <c r="G335" t="s">
+        <v>66</v>
+      </c>
+      <c r="H335" t="s">
+        <v>78</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>0</v>
+      </c>
+      <c r="L335">
+        <v>1</v>
+      </c>
+      <c r="M335">
+        <v>0</v>
+      </c>
+      <c r="N335">
+        <v>1</v>
+      </c>
+      <c r="O335" t="s">
+        <v>290</v>
+      </c>
+      <c r="P335" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q335">
+        <v>4</v>
+      </c>
+      <c r="R335">
+        <v>8</v>
+      </c>
+      <c r="S335">
+        <v>12</v>
+      </c>
+      <c r="T335">
+        <v>3.6</v>
+      </c>
+      <c r="U335">
+        <v>1.95</v>
+      </c>
+      <c r="V335">
+        <v>3.5</v>
+      </c>
+      <c r="W335">
+        <v>1.58</v>
+      </c>
+      <c r="X335">
+        <v>2.2</v>
+      </c>
+      <c r="Y335">
+        <v>3.8</v>
+      </c>
+      <c r="Z335">
+        <v>1.22</v>
+      </c>
+      <c r="AA335">
+        <v>11.5</v>
+      </c>
+      <c r="AB335">
+        <v>1.03</v>
+      </c>
+      <c r="AC335">
+        <v>2.38</v>
+      </c>
+      <c r="AD335">
+        <v>3</v>
+      </c>
+      <c r="AE335">
+        <v>2.8</v>
+      </c>
+      <c r="AF335">
+        <v>1.1</v>
+      </c>
+      <c r="AG335">
+        <v>6.25</v>
+      </c>
+      <c r="AH335">
+        <v>1.5</v>
+      </c>
+      <c r="AI335">
+        <v>2.48</v>
+      </c>
+      <c r="AJ335">
+        <v>2.65</v>
+      </c>
+      <c r="AK335">
+        <v>1.44</v>
+      </c>
+      <c r="AL335">
+        <v>2.15</v>
+      </c>
+      <c r="AM335">
+        <v>1.61</v>
+      </c>
+      <c r="AN335">
+        <v>1.44</v>
+      </c>
+      <c r="AO335">
+        <v>1.33</v>
+      </c>
+      <c r="AP335">
+        <v>1.4</v>
+      </c>
+      <c r="AQ335">
+        <v>1.67</v>
+      </c>
+      <c r="AR335">
+        <v>0.78</v>
+      </c>
+      <c r="AS335">
+        <v>1.8</v>
+      </c>
+      <c r="AT335">
+        <v>0.7</v>
+      </c>
+      <c r="AU335">
+        <v>1.79</v>
+      </c>
+      <c r="AV335">
+        <v>1.36</v>
+      </c>
+      <c r="AW335">
+        <v>3.15</v>
+      </c>
+      <c r="AX335">
+        <v>1.72</v>
+      </c>
+      <c r="AY335">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ335">
+        <v>2.55</v>
+      </c>
+      <c r="BA335">
+        <v>1.52</v>
+      </c>
+      <c r="BB335">
+        <v>1.88</v>
+      </c>
+      <c r="BC335">
+        <v>2.37</v>
+      </c>
+      <c r="BD335">
+        <v>3.28</v>
+      </c>
+      <c r="BE335">
+        <v>5.7</v>
+      </c>
+      <c r="BF335">
+        <v>4</v>
+      </c>
+      <c r="BG335">
+        <v>4</v>
+      </c>
+      <c r="BH335">
+        <v>7</v>
+      </c>
+      <c r="BI335">
+        <v>6</v>
+      </c>
+      <c r="BJ335">
+        <v>11</v>
+      </c>
+      <c r="BK335">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:63">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>6161868</v>
+      </c>
+      <c r="C336" t="s">
+        <v>63</v>
+      </c>
+      <c r="D336" t="s">
+        <v>64</v>
+      </c>
+      <c r="E336" s="2">
+        <v>45094.625</v>
+      </c>
+      <c r="F336">
+        <v>18</v>
+      </c>
+      <c r="G336" t="s">
+        <v>96</v>
+      </c>
+      <c r="H336" t="s">
+        <v>75</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>0</v>
+      </c>
+      <c r="L336">
+        <v>0</v>
+      </c>
+      <c r="M336">
+        <v>0</v>
+      </c>
+      <c r="N336">
+        <v>0</v>
+      </c>
+      <c r="O336" t="s">
+        <v>102</v>
+      </c>
+      <c r="P336" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q336">
+        <v>3</v>
+      </c>
+      <c r="R336">
+        <v>5</v>
+      </c>
+      <c r="S336">
+        <v>8</v>
+      </c>
+      <c r="T336">
+        <v>4</v>
+      </c>
+      <c r="U336">
+        <v>1.91</v>
+      </c>
+      <c r="V336">
+        <v>3.4</v>
+      </c>
+      <c r="W336">
+        <v>1.57</v>
+      </c>
+      <c r="X336">
+        <v>2.25</v>
+      </c>
+      <c r="Y336">
+        <v>3.75</v>
+      </c>
+      <c r="Z336">
+        <v>1.22</v>
+      </c>
+      <c r="AA336">
+        <v>10</v>
+      </c>
+      <c r="AB336">
+        <v>1.03</v>
+      </c>
+      <c r="AC336">
+        <v>2.75</v>
+      </c>
+      <c r="AD336">
+        <v>3</v>
+      </c>
+      <c r="AE336">
+        <v>2.38</v>
+      </c>
+      <c r="AF336">
+        <v>1.08</v>
+      </c>
+      <c r="AG336">
+        <v>6</v>
+      </c>
+      <c r="AH336">
+        <v>1.5</v>
+      </c>
+      <c r="AI336">
+        <v>2.5</v>
+      </c>
+      <c r="AJ336">
+        <v>2.25</v>
+      </c>
+      <c r="AK336">
+        <v>1.62</v>
+      </c>
+      <c r="AL336">
+        <v>2.2</v>
+      </c>
+      <c r="AM336">
+        <v>1.64</v>
+      </c>
+      <c r="AN336">
+        <v>1.5</v>
+      </c>
+      <c r="AO336">
+        <v>1.33</v>
+      </c>
+      <c r="AP336">
+        <v>1.36</v>
+      </c>
+      <c r="AQ336">
+        <v>1</v>
+      </c>
+      <c r="AR336">
+        <v>1.5</v>
+      </c>
+      <c r="AS336">
+        <v>1</v>
+      </c>
+      <c r="AT336">
+        <v>1.44</v>
+      </c>
+      <c r="AU336">
+        <v>2.07</v>
+      </c>
+      <c r="AV336">
+        <v>1.03</v>
+      </c>
+      <c r="AW336">
+        <v>3.1</v>
+      </c>
+      <c r="AX336">
+        <v>1.84</v>
+      </c>
+      <c r="AY336">
+        <v>9.5</v>
+      </c>
+      <c r="AZ336">
+        <v>2.25</v>
+      </c>
+      <c r="BA336">
+        <v>0</v>
+      </c>
+      <c r="BB336">
+        <v>1.26</v>
+      </c>
+      <c r="BC336">
+        <v>1.54</v>
+      </c>
+      <c r="BD336">
+        <v>1.87</v>
+      </c>
+      <c r="BE336">
+        <v>2.3</v>
+      </c>
+      <c r="BF336">
+        <v>3</v>
+      </c>
+      <c r="BG336">
+        <v>0</v>
+      </c>
+      <c r="BH336">
+        <v>4</v>
+      </c>
+      <c r="BI336">
+        <v>5</v>
+      </c>
+      <c r="BJ336">
+        <v>7</v>
+      </c>
+      <c r="BK336">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:63">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>6161867</v>
+      </c>
+      <c r="C337" t="s">
+        <v>63</v>
+      </c>
+      <c r="D337" t="s">
+        <v>64</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45094.62847222222</v>
+      </c>
+      <c r="F337">
+        <v>18</v>
+      </c>
+      <c r="G337" t="s">
+        <v>95</v>
+      </c>
+      <c r="H337" t="s">
+        <v>82</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+      <c r="L337">
+        <v>0</v>
+      </c>
+      <c r="M337">
+        <v>0</v>
+      </c>
+      <c r="N337">
+        <v>0</v>
+      </c>
+      <c r="O337" t="s">
+        <v>102</v>
+      </c>
+      <c r="P337" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q337">
+        <v>8</v>
+      </c>
+      <c r="R337">
+        <v>2</v>
+      </c>
+      <c r="S337">
+        <v>10</v>
+      </c>
+      <c r="T337">
+        <v>2.75</v>
+      </c>
+      <c r="U337">
+        <v>1.95</v>
+      </c>
+      <c r="V337">
+        <v>5</v>
+      </c>
+      <c r="W337">
+        <v>1.53</v>
+      </c>
+      <c r="X337">
+        <v>2.38</v>
+      </c>
+      <c r="Y337">
+        <v>3.75</v>
+      </c>
+      <c r="Z337">
+        <v>1.22</v>
+      </c>
+      <c r="AA337">
+        <v>9.5</v>
+      </c>
+      <c r="AB337">
+        <v>1.04</v>
+      </c>
+      <c r="AC337">
+        <v>1.91</v>
+      </c>
+      <c r="AD337">
+        <v>3.1</v>
+      </c>
+      <c r="AE337">
+        <v>3.75</v>
+      </c>
+      <c r="AF337">
+        <v>1.06</v>
+      </c>
+      <c r="AG337">
+        <v>6.5</v>
+      </c>
+      <c r="AH337">
+        <v>1.44</v>
+      </c>
+      <c r="AI337">
+        <v>2.62</v>
+      </c>
+      <c r="AJ337">
+        <v>2.25</v>
+      </c>
+      <c r="AK337">
+        <v>1.62</v>
+      </c>
+      <c r="AL337">
+        <v>2.1</v>
+      </c>
+      <c r="AM337">
+        <v>1.7</v>
+      </c>
+      <c r="AN337">
+        <v>1.22</v>
+      </c>
+      <c r="AO337">
+        <v>1.33</v>
+      </c>
+      <c r="AP337">
+        <v>1.73</v>
+      </c>
+      <c r="AQ337">
+        <v>2.25</v>
+      </c>
+      <c r="AR337">
+        <v>1.25</v>
+      </c>
+      <c r="AS337">
+        <v>2.11</v>
+      </c>
+      <c r="AT337">
+        <v>1.22</v>
+      </c>
+      <c r="AU337">
+        <v>1.63</v>
+      </c>
+      <c r="AV337">
+        <v>1.58</v>
+      </c>
+      <c r="AW337">
+        <v>3.21</v>
+      </c>
+      <c r="AX337">
+        <v>1.4</v>
+      </c>
+      <c r="AY337">
+        <v>9.9</v>
+      </c>
+      <c r="AZ337">
+        <v>3.6</v>
+      </c>
+      <c r="BA337">
+        <v>1.25</v>
+      </c>
+      <c r="BB337">
+        <v>1.53</v>
+      </c>
+      <c r="BC337">
+        <v>1.88</v>
+      </c>
+      <c r="BD337">
+        <v>2.34</v>
+      </c>
+      <c r="BE337">
+        <v>3.18</v>
+      </c>
+      <c r="BF337">
+        <v>12</v>
+      </c>
+      <c r="BG337">
+        <v>3</v>
+      </c>
+      <c r="BH337">
+        <v>11</v>
+      </c>
+      <c r="BI337">
+        <v>4</v>
+      </c>
+      <c r="BJ337">
+        <v>23</v>
+      </c>
+      <c r="BK337">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:63">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>6161864</v>
+      </c>
+      <c r="C338" t="s">
+        <v>63</v>
+      </c>
+      <c r="D338" t="s">
+        <v>64</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45094.71180555555</v>
+      </c>
+      <c r="F338">
+        <v>18</v>
+      </c>
+      <c r="G338" t="s">
+        <v>101</v>
+      </c>
+      <c r="H338" t="s">
+        <v>74</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338">
+        <v>1</v>
+      </c>
+      <c r="K338">
+        <v>2</v>
+      </c>
+      <c r="L338">
+        <v>2</v>
+      </c>
+      <c r="M338">
+        <v>1</v>
+      </c>
+      <c r="N338">
+        <v>3</v>
+      </c>
+      <c r="O338" t="s">
+        <v>304</v>
+      </c>
+      <c r="P338" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q338">
+        <v>8</v>
+      </c>
+      <c r="R338">
+        <v>1</v>
+      </c>
+      <c r="S338">
+        <v>9</v>
+      </c>
+      <c r="T338">
+        <v>2.25</v>
+      </c>
+      <c r="U338">
+        <v>2.2</v>
+      </c>
+      <c r="V338">
+        <v>5.5</v>
+      </c>
+      <c r="W338">
+        <v>1.4</v>
+      </c>
+      <c r="X338">
+        <v>2.75</v>
+      </c>
+      <c r="Y338">
+        <v>3</v>
+      </c>
+      <c r="Z338">
+        <v>1.33</v>
+      </c>
+      <c r="AA338">
+        <v>7.5</v>
+      </c>
+      <c r="AB338">
+        <v>1.06</v>
+      </c>
+      <c r="AC338">
+        <v>1.62</v>
+      </c>
+      <c r="AD338">
+        <v>3.5</v>
+      </c>
+      <c r="AE338">
+        <v>5</v>
+      </c>
+      <c r="AF338">
+        <v>1.03</v>
+      </c>
+      <c r="AG338">
+        <v>10</v>
+      </c>
+      <c r="AH338">
+        <v>1.29</v>
+      </c>
+      <c r="AI338">
+        <v>3.25</v>
+      </c>
+      <c r="AJ338">
+        <v>2.1</v>
+      </c>
+      <c r="AK338">
+        <v>1.7</v>
+      </c>
+      <c r="AL338">
+        <v>1.95</v>
+      </c>
+      <c r="AM338">
+        <v>1.81</v>
+      </c>
+      <c r="AN338">
+        <v>1.14</v>
+      </c>
+      <c r="AO338">
+        <v>1.25</v>
+      </c>
+      <c r="AP338">
+        <v>2.1</v>
+      </c>
+      <c r="AQ338">
+        <v>2.38</v>
+      </c>
+      <c r="AR338">
+        <v>1</v>
+      </c>
+      <c r="AS338">
+        <v>2.44</v>
+      </c>
+      <c r="AT338">
+        <v>0.89</v>
+      </c>
+      <c r="AU338">
+        <v>1.83</v>
+      </c>
+      <c r="AV338">
+        <v>1.37</v>
+      </c>
+      <c r="AW338">
+        <v>3.2</v>
+      </c>
+      <c r="AX338">
+        <v>1.58</v>
+      </c>
+      <c r="AY338">
+        <v>9.4</v>
+      </c>
+      <c r="AZ338">
+        <v>2.82</v>
+      </c>
+      <c r="BA338">
+        <v>1.2</v>
+      </c>
+      <c r="BB338">
+        <v>1.44</v>
+      </c>
+      <c r="BC338">
+        <v>1.74</v>
+      </c>
+      <c r="BD338">
+        <v>2.15</v>
+      </c>
+      <c r="BE338">
+        <v>2.63</v>
+      </c>
+      <c r="BF338">
+        <v>4</v>
+      </c>
+      <c r="BG338">
+        <v>4</v>
+      </c>
+      <c r="BH338">
+        <v>9</v>
+      </c>
+      <c r="BI338">
+        <v>4</v>
+      </c>
+      <c r="BJ338">
+        <v>13</v>
+      </c>
+      <c r="BK338">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:63">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>6161904</v>
+      </c>
+      <c r="C339" t="s">
+        <v>63</v>
+      </c>
+      <c r="D339" t="s">
+        <v>64</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45094.79166666666</v>
+      </c>
+      <c r="F339">
+        <v>21</v>
+      </c>
+      <c r="G339" t="s">
+        <v>65</v>
+      </c>
+      <c r="H339" t="s">
+        <v>91</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>1</v>
+      </c>
+      <c r="K339">
+        <v>1</v>
+      </c>
+      <c r="L339">
+        <v>2</v>
+      </c>
+      <c r="M339">
+        <v>1</v>
+      </c>
+      <c r="N339">
+        <v>3</v>
+      </c>
+      <c r="O339" t="s">
+        <v>305</v>
+      </c>
+      <c r="P339" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q339">
+        <v>12</v>
+      </c>
+      <c r="R339">
+        <v>4</v>
+      </c>
+      <c r="S339">
+        <v>16</v>
+      </c>
+      <c r="T339">
+        <v>3.6</v>
+      </c>
+      <c r="U339">
+        <v>1.95</v>
+      </c>
+      <c r="V339">
+        <v>3.4</v>
+      </c>
+      <c r="W339">
+        <v>1.55</v>
+      </c>
+      <c r="X339">
+        <v>2.25</v>
+      </c>
+      <c r="Y339">
+        <v>3.6</v>
+      </c>
+      <c r="Z339">
+        <v>1.25</v>
+      </c>
+      <c r="AA339">
+        <v>10.5</v>
+      </c>
+      <c r="AB339">
+        <v>1.04</v>
+      </c>
+      <c r="AC339">
+        <v>2.7</v>
+      </c>
+      <c r="AD339">
+        <v>2.9</v>
+      </c>
+      <c r="AE339">
+        <v>2.5</v>
+      </c>
+      <c r="AF339">
+        <v>1.07</v>
+      </c>
+      <c r="AG339">
+        <v>6.5</v>
+      </c>
+      <c r="AH339">
+        <v>1.6</v>
+      </c>
+      <c r="AI339">
+        <v>2.25</v>
+      </c>
+      <c r="AJ339">
+        <v>2.8</v>
+      </c>
+      <c r="AK339">
+        <v>1.4</v>
+      </c>
+      <c r="AL339">
+        <v>2.05</v>
+      </c>
+      <c r="AM339">
+        <v>1.66</v>
+      </c>
+      <c r="AN339">
+        <v>1.46</v>
+      </c>
+      <c r="AO339">
+        <v>1.36</v>
+      </c>
+      <c r="AP339">
+        <v>1.41</v>
+      </c>
+      <c r="AQ339">
+        <v>1.67</v>
+      </c>
+      <c r="AR339">
+        <v>1</v>
+      </c>
+      <c r="AS339">
+        <v>1.8</v>
+      </c>
+      <c r="AT339">
+        <v>0.9</v>
+      </c>
+      <c r="AU339">
+        <v>1.16</v>
+      </c>
+      <c r="AV339">
+        <v>1.28</v>
+      </c>
+      <c r="AW339">
+        <v>2.44</v>
+      </c>
+      <c r="AX339">
+        <v>1.73</v>
+      </c>
+      <c r="AY339">
+        <v>8.4</v>
+      </c>
+      <c r="AZ339">
+        <v>2.53</v>
+      </c>
+      <c r="BA339">
+        <v>1.53</v>
+      </c>
+      <c r="BB339">
+        <v>1.91</v>
+      </c>
+      <c r="BC339">
+        <v>2.4</v>
+      </c>
+      <c r="BD339">
+        <v>3.34</v>
+      </c>
+      <c r="BE339">
+        <v>0</v>
+      </c>
+      <c r="BF339">
+        <v>10</v>
+      </c>
+      <c r="BG339">
+        <v>5</v>
+      </c>
+      <c r="BH339">
+        <v>12</v>
+      </c>
+      <c r="BI339">
+        <v>3</v>
+      </c>
+      <c r="BJ339">
+        <v>22</v>
+      </c>
+      <c r="BK339">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:63">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>6161908</v>
+      </c>
+      <c r="C340" t="s">
+        <v>63</v>
+      </c>
+      <c r="D340" t="s">
+        <v>64</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45094.79166666666</v>
+      </c>
+      <c r="F340">
+        <v>21</v>
+      </c>
+      <c r="G340" t="s">
+        <v>69</v>
+      </c>
+      <c r="H340" t="s">
+        <v>79</v>
+      </c>
+      <c r="I340">
+        <v>1</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>1</v>
+      </c>
+      <c r="L340">
+        <v>2</v>
+      </c>
+      <c r="M340">
+        <v>0</v>
+      </c>
+      <c r="N340">
+        <v>2</v>
+      </c>
+      <c r="O340" t="s">
+        <v>306</v>
+      </c>
+      <c r="P340" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q340">
+        <v>9</v>
+      </c>
+      <c r="R340">
+        <v>5</v>
+      </c>
+      <c r="S340">
+        <v>14</v>
+      </c>
+      <c r="T340">
+        <v>3</v>
+      </c>
+      <c r="U340">
+        <v>1.95</v>
+      </c>
+      <c r="V340">
+        <v>4.33</v>
+      </c>
+      <c r="W340">
+        <v>1.55</v>
+      </c>
+      <c r="X340">
+        <v>2.25</v>
+      </c>
+      <c r="Y340">
+        <v>3.75</v>
+      </c>
+      <c r="Z340">
+        <v>1.23</v>
+      </c>
+      <c r="AA340">
+        <v>11</v>
+      </c>
+      <c r="AB340">
+        <v>1.04</v>
+      </c>
+      <c r="AC340">
+        <v>2.1</v>
+      </c>
+      <c r="AD340">
+        <v>3.1</v>
+      </c>
+      <c r="AE340">
+        <v>3.2</v>
+      </c>
+      <c r="AF340">
+        <v>1.06</v>
+      </c>
+      <c r="AG340">
+        <v>6.5</v>
+      </c>
+      <c r="AH340">
+        <v>1.6</v>
+      </c>
+      <c r="AI340">
+        <v>2.3</v>
+      </c>
+      <c r="AJ340">
+        <v>2.8</v>
+      </c>
+      <c r="AK340">
+        <v>1.4</v>
+      </c>
+      <c r="AL340">
+        <v>2.15</v>
+      </c>
+      <c r="AM340">
+        <v>1.62</v>
+      </c>
+      <c r="AN340">
+        <v>1.31</v>
+      </c>
+      <c r="AO340">
+        <v>1.32</v>
+      </c>
+      <c r="AP340">
+        <v>1.65</v>
+      </c>
+      <c r="AQ340">
+        <v>1.67</v>
+      </c>
+      <c r="AR340">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS340">
+        <v>1.8</v>
+      </c>
+      <c r="AT340">
+        <v>0.5</v>
+      </c>
+      <c r="AU340">
+        <v>1.13</v>
+      </c>
+      <c r="AV340">
+        <v>1.11</v>
+      </c>
+      <c r="AW340">
+        <v>2.24</v>
+      </c>
+      <c r="AX340">
+        <v>1.9</v>
+      </c>
+      <c r="AY340">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ340">
+        <v>2.25</v>
+      </c>
+      <c r="BA340">
+        <v>1.52</v>
+      </c>
+      <c r="BB340">
+        <v>1.88</v>
+      </c>
+      <c r="BC340">
+        <v>2.36</v>
+      </c>
+      <c r="BD340">
+        <v>3.28</v>
+      </c>
+      <c r="BE340">
+        <v>0</v>
+      </c>
+      <c r="BF340">
+        <v>5</v>
+      </c>
+      <c r="BG340">
+        <v>0</v>
+      </c>
+      <c r="BH340">
+        <v>7</v>
+      </c>
+      <c r="BI340">
+        <v>5</v>
+      </c>
+      <c r="BJ340">
+        <v>12</v>
+      </c>
+      <c r="BK340">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:63">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>6161906</v>
+      </c>
+      <c r="C341" t="s">
+        <v>63</v>
+      </c>
+      <c r="D341" t="s">
+        <v>64</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45095.54861111111</v>
+      </c>
+      <c r="F341">
+        <v>21</v>
+      </c>
+      <c r="G341" t="s">
+        <v>68</v>
+      </c>
+      <c r="H341" t="s">
+        <v>87</v>
+      </c>
+      <c r="I341">
+        <v>1</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>1</v>
+      </c>
+      <c r="L341">
+        <v>1</v>
+      </c>
+      <c r="M341">
+        <v>0</v>
+      </c>
+      <c r="N341">
+        <v>1</v>
+      </c>
+      <c r="O341" t="s">
+        <v>307</v>
+      </c>
+      <c r="P341" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q341">
+        <v>4</v>
+      </c>
+      <c r="R341">
+        <v>1</v>
+      </c>
+      <c r="S341">
+        <v>5</v>
+      </c>
+      <c r="T341">
+        <v>2.35</v>
+      </c>
+      <c r="U341">
+        <v>1.98</v>
+      </c>
+      <c r="V341">
+        <v>5.25</v>
+      </c>
+      <c r="W341">
+        <v>1.49</v>
+      </c>
+      <c r="X341">
+        <v>2.4</v>
+      </c>
+      <c r="Y341">
+        <v>3.25</v>
+      </c>
+      <c r="Z341">
+        <v>1.29</v>
+      </c>
+      <c r="AA341">
+        <v>9</v>
+      </c>
+      <c r="AB341">
+        <v>1.06</v>
+      </c>
+      <c r="AC341">
+        <v>1.77</v>
+      </c>
+      <c r="AD341">
+        <v>3.35</v>
+      </c>
+      <c r="AE341">
+        <v>3.9</v>
+      </c>
+      <c r="AF341">
+        <v>1.05</v>
+      </c>
+      <c r="AG341">
+        <v>7.1</v>
+      </c>
+      <c r="AH341">
+        <v>1.41</v>
+      </c>
+      <c r="AI341">
+        <v>2.64</v>
+      </c>
+      <c r="AJ341">
+        <v>2.25</v>
+      </c>
+      <c r="AK341">
+        <v>1.57</v>
+      </c>
+      <c r="AL341">
+        <v>2.2</v>
+      </c>
+      <c r="AM341">
+        <v>1.6</v>
+      </c>
+      <c r="AN341">
+        <v>1.15</v>
+      </c>
+      <c r="AO341">
+        <v>1.29</v>
+      </c>
+      <c r="AP341">
+        <v>2.1</v>
+      </c>
+      <c r="AQ341">
+        <v>1.33</v>
+      </c>
+      <c r="AR341">
+        <v>0.78</v>
+      </c>
+      <c r="AS341">
+        <v>1.5</v>
+      </c>
+      <c r="AT341">
+        <v>0.7</v>
+      </c>
+      <c r="AU341">
+        <v>1.76</v>
+      </c>
+      <c r="AV341">
+        <v>1.01</v>
+      </c>
+      <c r="AW341">
+        <v>2.77</v>
+      </c>
+      <c r="AX341">
+        <v>1.38</v>
+      </c>
+      <c r="AY341">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ341">
+        <v>3.76</v>
+      </c>
+      <c r="BA341">
+        <v>1.33</v>
+      </c>
+      <c r="BB341">
+        <v>1.57</v>
+      </c>
+      <c r="BC341">
+        <v>1.94</v>
+      </c>
+      <c r="BD341">
+        <v>2.43</v>
+      </c>
+      <c r="BE341">
+        <v>3.74</v>
+      </c>
+      <c r="BF341">
+        <v>3</v>
+      </c>
+      <c r="BG341">
+        <v>3</v>
+      </c>
+      <c r="BH341">
+        <v>8</v>
+      </c>
+      <c r="BI341">
+        <v>4</v>
+      </c>
+      <c r="BJ341">
+        <v>11</v>
+      </c>
+      <c r="BK341">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:63">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>6161902</v>
+      </c>
+      <c r="C342" t="s">
+        <v>63</v>
+      </c>
+      <c r="D342" t="s">
+        <v>64</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45095.625</v>
+      </c>
+      <c r="F342">
+        <v>21</v>
+      </c>
+      <c r="G342" t="s">
+        <v>70</v>
+      </c>
+      <c r="H342" t="s">
+        <v>81</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>1</v>
+      </c>
+      <c r="L342">
+        <v>2</v>
+      </c>
+      <c r="M342">
+        <v>0</v>
+      </c>
+      <c r="N342">
+        <v>2</v>
+      </c>
+      <c r="O342" t="s">
+        <v>308</v>
+      </c>
+      <c r="P342" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q342">
+        <v>7</v>
+      </c>
+      <c r="R342">
+        <v>4</v>
+      </c>
+      <c r="S342">
+        <v>11</v>
+      </c>
+      <c r="T342">
+        <v>2.63</v>
+      </c>
+      <c r="U342">
+        <v>2</v>
+      </c>
+      <c r="V342">
+        <v>4.75</v>
+      </c>
+      <c r="W342">
+        <v>1.52</v>
+      </c>
+      <c r="X342">
+        <v>2.35</v>
+      </c>
+      <c r="Y342">
+        <v>3.4</v>
+      </c>
+      <c r="Z342">
+        <v>1.27</v>
+      </c>
+      <c r="AA342">
+        <v>9.75</v>
+      </c>
+      <c r="AB342">
+        <v>1.05</v>
+      </c>
+      <c r="AC342">
+        <v>2.06</v>
+      </c>
+      <c r="AD342">
+        <v>3.2</v>
+      </c>
+      <c r="AE342">
+        <v>3.3</v>
+      </c>
+      <c r="AF342">
+        <v>1.08</v>
+      </c>
+      <c r="AG342">
+        <v>7.25</v>
+      </c>
+      <c r="AH342">
+        <v>1.41</v>
+      </c>
+      <c r="AI342">
+        <v>2.65</v>
+      </c>
+      <c r="AJ342">
+        <v>2.43</v>
+      </c>
+      <c r="AK342">
+        <v>1.52</v>
+      </c>
+      <c r="AL342">
+        <v>2.1</v>
+      </c>
+      <c r="AM342">
+        <v>1.65</v>
+      </c>
+      <c r="AN342">
+        <v>1.22</v>
+      </c>
+      <c r="AO342">
+        <v>1.3</v>
+      </c>
+      <c r="AP342">
+        <v>1.88</v>
+      </c>
+      <c r="AQ342">
+        <v>1.67</v>
+      </c>
+      <c r="AR342">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS342">
+        <v>1.8</v>
+      </c>
+      <c r="AT342">
+        <v>0.5</v>
+      </c>
+      <c r="AU342">
+        <v>1.31</v>
+      </c>
+      <c r="AV342">
+        <v>1.14</v>
+      </c>
+      <c r="AW342">
+        <v>2.45</v>
+      </c>
+      <c r="AX342">
+        <v>1.41</v>
+      </c>
+      <c r="AY342">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ342">
+        <v>3.62</v>
+      </c>
+      <c r="BA342">
+        <v>1.56</v>
+      </c>
+      <c r="BB342">
+        <v>1.96</v>
+      </c>
+      <c r="BC342">
+        <v>2.45</v>
+      </c>
+      <c r="BD342">
+        <v>3.08</v>
+      </c>
+      <c r="BE342">
+        <v>0</v>
+      </c>
+      <c r="BF342">
+        <v>3</v>
+      </c>
+      <c r="BG342">
+        <v>0</v>
+      </c>
+      <c r="BH342">
+        <v>0</v>
+      </c>
+      <c r="BI342">
+        <v>3</v>
+      </c>
+      <c r="BJ342">
+        <v>3</v>
+      </c>
+      <c r="BK342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:63">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>6161907</v>
+      </c>
+      <c r="C343" t="s">
+        <v>63</v>
+      </c>
+      <c r="D343" t="s">
+        <v>64</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45095.63194444445</v>
+      </c>
+      <c r="F343">
+        <v>21</v>
+      </c>
+      <c r="G343" t="s">
+        <v>72</v>
+      </c>
+      <c r="H343" t="s">
+        <v>86</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>0</v>
+      </c>
+      <c r="L343">
+        <v>2</v>
+      </c>
+      <c r="M343">
+        <v>0</v>
+      </c>
+      <c r="N343">
+        <v>2</v>
+      </c>
+      <c r="O343" t="s">
+        <v>309</v>
+      </c>
+      <c r="P343" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q343">
+        <v>6</v>
+      </c>
+      <c r="R343">
+        <v>3</v>
+      </c>
+      <c r="S343">
+        <v>9</v>
+      </c>
+      <c r="T343">
+        <v>3.1</v>
+      </c>
+      <c r="U343">
+        <v>1.95</v>
+      </c>
+      <c r="V343">
+        <v>4</v>
+      </c>
+      <c r="W343">
+        <v>1.55</v>
+      </c>
+      <c r="X343">
+        <v>2.25</v>
+      </c>
+      <c r="Y343">
+        <v>3.7</v>
+      </c>
+      <c r="Z343">
+        <v>1.24</v>
+      </c>
+      <c r="AA343">
+        <v>11</v>
+      </c>
+      <c r="AB343">
+        <v>1.04</v>
+      </c>
+      <c r="AC343">
+        <v>2.55</v>
+      </c>
+      <c r="AD343">
+        <v>3.05</v>
+      </c>
+      <c r="AE343">
+        <v>2.65</v>
+      </c>
+      <c r="AF343">
+        <v>1.1</v>
+      </c>
+      <c r="AG343">
+        <v>6.5</v>
+      </c>
+      <c r="AH343">
+        <v>1.52</v>
+      </c>
+      <c r="AI343">
+        <v>2.43</v>
+      </c>
+      <c r="AJ343">
+        <v>2.55</v>
+      </c>
+      <c r="AK343">
+        <v>1.47</v>
+      </c>
+      <c r="AL343">
+        <v>2.1</v>
+      </c>
+      <c r="AM343">
+        <v>1.65</v>
+      </c>
+      <c r="AN343">
+        <v>1.35</v>
+      </c>
+      <c r="AO343">
+        <v>1.34</v>
+      </c>
+      <c r="AP343">
+        <v>1.57</v>
+      </c>
+      <c r="AQ343">
+        <v>1.89</v>
+      </c>
+      <c r="AR343">
+        <v>1.33</v>
+      </c>
+      <c r="AS343">
+        <v>2</v>
+      </c>
+      <c r="AT343">
+        <v>1.2</v>
+      </c>
+      <c r="AU343">
+        <v>1.41</v>
+      </c>
+      <c r="AV343">
+        <v>1.25</v>
+      </c>
+      <c r="AW343">
+        <v>2.66</v>
+      </c>
+      <c r="AX343">
+        <v>1.82</v>
+      </c>
+      <c r="AY343">
+        <v>5.8</v>
+      </c>
+      <c r="AZ343">
+        <v>2.64</v>
+      </c>
+      <c r="BA343">
+        <v>1.54</v>
+      </c>
+      <c r="BB343">
+        <v>1.96</v>
+      </c>
+      <c r="BC343">
+        <v>2.6</v>
+      </c>
+      <c r="BD343">
+        <v>3.7</v>
+      </c>
+      <c r="BE343">
+        <v>0</v>
+      </c>
+      <c r="BF343">
+        <v>7</v>
+      </c>
+      <c r="BG343">
+        <v>3</v>
+      </c>
+      <c r="BH343">
+        <v>9</v>
+      </c>
+      <c r="BI343">
+        <v>5</v>
+      </c>
+      <c r="BJ343">
+        <v>16</v>
+      </c>
+      <c r="BK343">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:63">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>6161905</v>
+      </c>
+      <c r="C344" t="s">
+        <v>63</v>
+      </c>
+      <c r="D344" t="s">
+        <v>64</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45095.64583333334</v>
+      </c>
+      <c r="F344">
+        <v>21</v>
+      </c>
+      <c r="G344" t="s">
+        <v>73</v>
+      </c>
+      <c r="H344" t="s">
+        <v>88</v>
+      </c>
+      <c r="I344">
+        <v>1</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>1</v>
+      </c>
+      <c r="L344">
+        <v>1</v>
+      </c>
+      <c r="M344">
+        <v>1</v>
+      </c>
+      <c r="N344">
+        <v>2</v>
+      </c>
+      <c r="O344" t="s">
+        <v>282</v>
+      </c>
+      <c r="P344" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q344">
+        <v>5</v>
+      </c>
+      <c r="R344">
+        <v>2</v>
+      </c>
+      <c r="S344">
+        <v>7</v>
+      </c>
+      <c r="T344">
+        <v>3.4</v>
+      </c>
+      <c r="U344">
+        <v>1.83</v>
+      </c>
+      <c r="V344">
+        <v>4</v>
+      </c>
+      <c r="W344">
+        <v>1.6</v>
+      </c>
+      <c r="X344">
+        <v>2.2</v>
+      </c>
+      <c r="Y344">
+        <v>3.5</v>
+      </c>
+      <c r="Z344">
+        <v>1.25</v>
+      </c>
+      <c r="AA344">
+        <v>10.5</v>
+      </c>
+      <c r="AB344">
+        <v>1.04</v>
+      </c>
+      <c r="AC344">
+        <v>2.4</v>
+      </c>
+      <c r="AD344">
+        <v>2.65</v>
+      </c>
+      <c r="AE344">
+        <v>3.25</v>
+      </c>
+      <c r="AF344">
+        <v>1.13</v>
+      </c>
+      <c r="AG344">
+        <v>5.5</v>
+      </c>
+      <c r="AH344">
+        <v>1.58</v>
+      </c>
+      <c r="AI344">
+        <v>2.28</v>
+      </c>
+      <c r="AJ344">
+        <v>2.55</v>
+      </c>
+      <c r="AK344">
+        <v>1.47</v>
+      </c>
+      <c r="AL344">
+        <v>2.1</v>
+      </c>
+      <c r="AM344">
+        <v>1.63</v>
+      </c>
+      <c r="AN344">
+        <v>1.3</v>
+      </c>
+      <c r="AO344">
+        <v>1.43</v>
+      </c>
+      <c r="AP344">
+        <v>1.53</v>
+      </c>
+      <c r="AQ344">
+        <v>1</v>
+      </c>
+      <c r="AR344">
+        <v>1</v>
+      </c>
+      <c r="AS344">
+        <v>1</v>
+      </c>
+      <c r="AT344">
+        <v>1</v>
+      </c>
+      <c r="AU344">
+        <v>1.32</v>
+      </c>
+      <c r="AV344">
+        <v>1.27</v>
+      </c>
+      <c r="AW344">
+        <v>2.59</v>
+      </c>
+      <c r="AX344">
+        <v>1.71</v>
+      </c>
+      <c r="AY344">
+        <v>8.6</v>
+      </c>
+      <c r="AZ344">
+        <v>2.55</v>
+      </c>
+      <c r="BA344">
+        <v>1.47</v>
+      </c>
+      <c r="BB344">
+        <v>1.81</v>
+      </c>
+      <c r="BC344">
+        <v>2.26</v>
+      </c>
+      <c r="BD344">
+        <v>3.14</v>
+      </c>
+      <c r="BE344">
+        <v>0</v>
+      </c>
+      <c r="BF344">
+        <v>6</v>
+      </c>
+      <c r="BG344">
+        <v>5</v>
+      </c>
+      <c r="BH344">
+        <v>4</v>
+      </c>
+      <c r="BI344">
+        <v>4</v>
+      </c>
+      <c r="BJ344">
+        <v>10</v>
+      </c>
+      <c r="BK344">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:63">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>6161866</v>
+      </c>
+      <c r="C345" t="s">
+        <v>63</v>
+      </c>
+      <c r="D345" t="s">
+        <v>64</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45095.64583333334</v>
+      </c>
+      <c r="F345">
+        <v>18</v>
+      </c>
+      <c r="G345" t="s">
+        <v>97</v>
+      </c>
+      <c r="H345" t="s">
+        <v>84</v>
+      </c>
+      <c r="I345">
+        <v>2</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>2</v>
+      </c>
+      <c r="L345">
+        <v>3</v>
+      </c>
+      <c r="M345">
+        <v>1</v>
+      </c>
+      <c r="N345">
+        <v>4</v>
+      </c>
+      <c r="O345" t="s">
+        <v>310</v>
+      </c>
+      <c r="P345" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q345">
+        <v>1</v>
+      </c>
+      <c r="R345">
+        <v>1</v>
+      </c>
+      <c r="S345">
+        <v>2</v>
+      </c>
+      <c r="T345">
+        <v>2.2</v>
+      </c>
+      <c r="U345">
+        <v>2.05</v>
+      </c>
+      <c r="V345">
+        <v>7</v>
+      </c>
+      <c r="W345">
+        <v>1.51</v>
+      </c>
+      <c r="X345">
+        <v>2.46</v>
+      </c>
+      <c r="Y345">
+        <v>3.42</v>
+      </c>
+      <c r="Z345">
+        <v>1.29</v>
+      </c>
+      <c r="AA345">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB345">
+        <v>1.04</v>
+      </c>
+      <c r="AC345">
+        <v>1.83</v>
+      </c>
+      <c r="AD345">
+        <v>3.25</v>
+      </c>
+      <c r="AE345">
+        <v>4.1</v>
+      </c>
+      <c r="AF345">
+        <v>1.08</v>
+      </c>
+      <c r="AG345">
+        <v>7.25</v>
+      </c>
+      <c r="AH345">
+        <v>1.42</v>
+      </c>
+      <c r="AI345">
+        <v>2.6</v>
+      </c>
+      <c r="AJ345">
+        <v>2.35</v>
+      </c>
+      <c r="AK345">
+        <v>1.56</v>
+      </c>
+      <c r="AL345">
+        <v>2.4</v>
+      </c>
+      <c r="AM345">
+        <v>1.54</v>
+      </c>
+      <c r="AN345">
+        <v>1.1</v>
+      </c>
+      <c r="AO345">
+        <v>1.27</v>
+      </c>
+      <c r="AP345">
+        <v>2.41</v>
+      </c>
+      <c r="AQ345">
+        <v>2</v>
+      </c>
+      <c r="AR345">
+        <v>0</v>
+      </c>
+      <c r="AS345">
+        <v>2.11</v>
+      </c>
+      <c r="AT345">
+        <v>0</v>
+      </c>
+      <c r="AU345">
+        <v>1.56</v>
+      </c>
+      <c r="AV345">
+        <v>1.12</v>
+      </c>
+      <c r="AW345">
+        <v>2.68</v>
+      </c>
+      <c r="AX345">
+        <v>1.56</v>
+      </c>
+      <c r="AY345">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ345">
+        <v>2.95</v>
+      </c>
+      <c r="BA345">
+        <v>1.47</v>
+      </c>
+      <c r="BB345">
+        <v>1.8</v>
+      </c>
+      <c r="BC345">
+        <v>2.25</v>
+      </c>
+      <c r="BD345">
+        <v>3.08</v>
+      </c>
+      <c r="BE345">
+        <v>0</v>
+      </c>
+      <c r="BF345">
+        <v>5</v>
+      </c>
+      <c r="BG345">
+        <v>2</v>
+      </c>
+      <c r="BH345">
+        <v>5</v>
+      </c>
+      <c r="BI345">
+        <v>2</v>
+      </c>
+      <c r="BJ345">
+        <v>10</v>
+      </c>
+      <c r="BK345">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:63">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>6161872</v>
+      </c>
+      <c r="C346" t="s">
+        <v>63</v>
+      </c>
+      <c r="D346" t="s">
+        <v>64</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45095.71527777778</v>
+      </c>
+      <c r="F346">
+        <v>18</v>
+      </c>
+      <c r="G346" t="s">
+        <v>93</v>
+      </c>
+      <c r="H346" t="s">
+        <v>76</v>
+      </c>
+      <c r="I346">
+        <v>1</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>1</v>
+      </c>
+      <c r="L346">
+        <v>3</v>
+      </c>
+      <c r="M346">
+        <v>0</v>
+      </c>
+      <c r="N346">
+        <v>3</v>
+      </c>
+      <c r="O346" t="s">
+        <v>311</v>
+      </c>
+      <c r="P346" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q346">
+        <v>8</v>
+      </c>
+      <c r="R346">
+        <v>4</v>
+      </c>
+      <c r="S346">
+        <v>12</v>
+      </c>
+      <c r="T346">
+        <v>2.88</v>
+      </c>
+      <c r="U346">
+        <v>1.95</v>
+      </c>
+      <c r="V346">
+        <v>4.5</v>
+      </c>
+      <c r="W346">
+        <v>1.53</v>
+      </c>
+      <c r="X346">
+        <v>2.41</v>
+      </c>
+      <c r="Y346">
+        <v>3.56</v>
+      </c>
+      <c r="Z346">
+        <v>1.27</v>
+      </c>
+      <c r="AA346">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB346">
+        <v>1.04</v>
+      </c>
+      <c r="AC346">
+        <v>2.2</v>
+      </c>
+      <c r="AD346">
+        <v>3</v>
+      </c>
+      <c r="AE346">
+        <v>3.2</v>
+      </c>
+      <c r="AF346">
+        <v>1.1</v>
+      </c>
+      <c r="AG346">
+        <v>6.25</v>
+      </c>
+      <c r="AH346">
+        <v>1.49</v>
+      </c>
+      <c r="AI346">
+        <v>2.45</v>
+      </c>
+      <c r="AJ346">
+        <v>2.5</v>
+      </c>
+      <c r="AK346">
+        <v>1.5</v>
+      </c>
+      <c r="AL346">
+        <v>2.09</v>
+      </c>
+      <c r="AM346">
+        <v>1.71</v>
+      </c>
+      <c r="AN346">
+        <v>1.3</v>
+      </c>
+      <c r="AO346">
+        <v>1.35</v>
+      </c>
+      <c r="AP346">
+        <v>1.69</v>
+      </c>
+      <c r="AQ346">
+        <v>1.13</v>
+      </c>
+      <c r="AR346">
+        <v>0.88</v>
+      </c>
+      <c r="AS346">
+        <v>1.33</v>
+      </c>
+      <c r="AT346">
+        <v>0.78</v>
+      </c>
+      <c r="AU346">
+        <v>1.33</v>
+      </c>
+      <c r="AV346">
+        <v>1.23</v>
+      </c>
+      <c r="AW346">
+        <v>2.56</v>
+      </c>
+      <c r="AX346">
+        <v>1.73</v>
+      </c>
+      <c r="AY346">
+        <v>8.9</v>
+      </c>
+      <c r="AZ346">
+        <v>2.49</v>
+      </c>
+      <c r="BA346">
+        <v>1.29</v>
+      </c>
+      <c r="BB346">
+        <v>1.6</v>
+      </c>
+      <c r="BC346">
+        <v>1.98</v>
+      </c>
+      <c r="BD346">
+        <v>2.49</v>
+      </c>
+      <c r="BE346">
+        <v>3.42</v>
+      </c>
+      <c r="BF346">
+        <v>10</v>
+      </c>
+      <c r="BG346">
+        <v>3</v>
+      </c>
+      <c r="BH346">
+        <v>7</v>
+      </c>
+      <c r="BI346">
+        <v>5</v>
+      </c>
+      <c r="BJ346">
+        <v>17</v>
+      </c>
+      <c r="BK346">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="394">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -952,6 +952,12 @@
     <t>['31', '71', '81']</t>
   </si>
   <si>
+    <t>['10', '19', '48']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['77']</t>
   </si>
   <si>
@@ -1177,9 +1183,6 @@
     <t>['45+1']</t>
   </si>
   <si>
-    <t>['76']</t>
-  </si>
-  <si>
     <t>['49', '67']</t>
   </si>
   <si>
@@ -1187,6 +1190,12 @@
   </si>
   <si>
     <t>['78', '88']</t>
+  </si>
+  <si>
+    <t>['8', '27']</t>
+  </si>
+  <si>
+    <t>['59', '84']</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK346"/>
+  <dimension ref="A1:BK352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1882,7 +1891,7 @@
         <v>1.8</v>
       </c>
       <c r="AT2">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2073,7 +2082,7 @@
         <v>1.8</v>
       </c>
       <c r="AT3">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2174,7 +2183,7 @@
         <v>103</v>
       </c>
       <c r="P4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2261,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT4">
         <v>0.89</v>
@@ -3025,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT8">
         <v>0.5</v>
@@ -3511,7 +3520,7 @@
         <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -4848,7 +4857,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5230,7 +5239,7 @@
         <v>112</v>
       </c>
       <c r="P20" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5994,7 +6003,7 @@
         <v>114</v>
       </c>
       <c r="P24" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6567,7 +6576,7 @@
         <v>117</v>
       </c>
       <c r="P27" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -7418,10 +7427,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7522,7 +7531,7 @@
         <v>121</v>
       </c>
       <c r="P32" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7609,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT32">
         <v>0.7</v>
@@ -7713,7 +7722,7 @@
         <v>122</v>
       </c>
       <c r="P33" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q33">
         <v>10</v>
@@ -7904,7 +7913,7 @@
         <v>123</v>
       </c>
       <c r="P34" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8182,10 +8191,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -8668,7 +8677,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8949,7 +8958,7 @@
         <v>1.8</v>
       </c>
       <c r="AT39">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU39">
         <v>1.2</v>
@@ -9140,7 +9149,7 @@
         <v>2.11</v>
       </c>
       <c r="AT40">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -9519,7 +9528,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT42">
         <v>1.67</v>
@@ -9901,7 +9910,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT44">
         <v>0.9</v>
@@ -10095,7 +10104,7 @@
         <v>2</v>
       </c>
       <c r="AT45">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10283,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT46">
         <v>1.44</v>
@@ -10578,7 +10587,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10960,7 +10969,7 @@
         <v>102</v>
       </c>
       <c r="P50" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11342,7 +11351,7 @@
         <v>135</v>
       </c>
       <c r="P52" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -13061,7 +13070,7 @@
         <v>102</v>
       </c>
       <c r="P61" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13825,7 +13834,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -13912,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT65">
         <v>1.44</v>
@@ -14103,7 +14112,7 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT66">
         <v>1.22</v>
@@ -14294,10 +14303,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT67">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU67">
         <v>1.52</v>
@@ -14589,7 +14598,7 @@
         <v>102</v>
       </c>
       <c r="P69" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14679,7 +14688,7 @@
         <v>1</v>
       </c>
       <c r="AT69">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU69">
         <v>1.9</v>
@@ -15061,7 +15070,7 @@
         <v>2</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU71">
         <v>1.29</v>
@@ -15353,7 +15362,7 @@
         <v>149</v>
       </c>
       <c r="P73" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15825,7 +15834,7 @@
         <v>1.33</v>
       </c>
       <c r="AT75">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU75">
         <v>1.63</v>
@@ -16013,7 +16022,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT76">
         <v>0.7</v>
@@ -16204,7 +16213,7 @@
         <v>0</v>
       </c>
       <c r="AS77">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT77">
         <v>0</v>
@@ -16499,7 +16508,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17263,7 +17272,7 @@
         <v>157</v>
       </c>
       <c r="P83" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -17836,7 +17845,7 @@
         <v>102</v>
       </c>
       <c r="P86" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -18027,7 +18036,7 @@
         <v>160</v>
       </c>
       <c r="P87" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18218,7 +18227,7 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -18791,7 +18800,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19364,7 +19373,7 @@
         <v>102</v>
       </c>
       <c r="P94" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19642,7 +19651,7 @@
         <v>2</v>
       </c>
       <c r="AS95">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT95">
         <v>1.56</v>
@@ -20128,7 +20137,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q98">
         <v>10</v>
@@ -20319,7 +20328,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20409,7 +20418,7 @@
         <v>1.7</v>
       </c>
       <c r="AT99">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU99">
         <v>1.98</v>
@@ -21170,7 +21179,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT103">
         <v>0.5</v>
@@ -21934,7 +21943,7 @@
         <v>0.67</v>
       </c>
       <c r="AS107">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT107">
         <v>1</v>
@@ -22038,7 +22047,7 @@
         <v>172</v>
       </c>
       <c r="P108" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22319,7 +22328,7 @@
         <v>2.11</v>
       </c>
       <c r="AT109">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU109">
         <v>1.87</v>
@@ -22611,7 +22620,7 @@
         <v>174</v>
       </c>
       <c r="P111" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22698,7 +22707,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT111">
         <v>1.67</v>
@@ -22889,10 +22898,10 @@
         <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT112">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU112">
         <v>1.59</v>
@@ -23465,7 +23474,7 @@
         <v>2.3</v>
       </c>
       <c r="AT115">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU115">
         <v>1.34</v>
@@ -23844,7 +23853,7 @@
         <v>0</v>
       </c>
       <c r="AS117">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT117">
         <v>0</v>
@@ -24139,7 +24148,7 @@
         <v>136</v>
       </c>
       <c r="P119" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24229,7 +24238,7 @@
         <v>1.56</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU119">
         <v>1.33</v>
@@ -24420,7 +24429,7 @@
         <v>2.6</v>
       </c>
       <c r="AT120">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU120">
         <v>2.05</v>
@@ -24521,7 +24530,7 @@
         <v>179</v>
       </c>
       <c r="P121" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24712,7 +24721,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24903,7 +24912,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25667,7 +25676,7 @@
         <v>102</v>
       </c>
       <c r="P127" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q127">
         <v>11</v>
@@ -25858,7 +25867,7 @@
         <v>184</v>
       </c>
       <c r="P128" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -26240,7 +26249,7 @@
         <v>102</v>
       </c>
       <c r="P130" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26431,7 +26440,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -27004,7 +27013,7 @@
         <v>187</v>
       </c>
       <c r="P134" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27091,7 +27100,7 @@
         <v>1</v>
       </c>
       <c r="AS134">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT134">
         <v>1.33</v>
@@ -27386,7 +27395,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q136">
         <v>1</v>
@@ -27855,7 +27864,7 @@
         <v>1.75</v>
       </c>
       <c r="AS138">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT138">
         <v>1.2</v>
@@ -28046,7 +28055,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT139">
         <v>1.1</v>
@@ -28723,7 +28732,7 @@
         <v>102</v>
       </c>
       <c r="P143" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -29105,7 +29114,7 @@
         <v>121</v>
       </c>
       <c r="P145" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -29487,7 +29496,7 @@
         <v>194</v>
       </c>
       <c r="P147" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29574,7 +29583,7 @@
         <v>1</v>
       </c>
       <c r="AS147">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT147">
         <v>1.67</v>
@@ -29678,7 +29687,7 @@
         <v>195</v>
       </c>
       <c r="P148" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29768,7 +29777,7 @@
         <v>1.7</v>
       </c>
       <c r="AT148">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU148">
         <v>1.77</v>
@@ -29869,7 +29878,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -30147,7 +30156,7 @@
         <v>0</v>
       </c>
       <c r="AS150">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT150">
         <v>0</v>
@@ -30341,7 +30350,7 @@
         <v>1.33</v>
       </c>
       <c r="AT151">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU151">
         <v>1.46</v>
@@ -30720,7 +30729,7 @@
         <v>0.5</v>
       </c>
       <c r="AS153">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT153">
         <v>1.11</v>
@@ -31296,7 +31305,7 @@
         <v>2.4</v>
       </c>
       <c r="AT156">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU156">
         <v>1.25</v>
@@ -31779,7 +31788,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -32543,7 +32552,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -33015,7 +33024,7 @@
         <v>1.22</v>
       </c>
       <c r="AT165">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU165">
         <v>1.32</v>
@@ -33116,7 +33125,7 @@
         <v>205</v>
       </c>
       <c r="P166" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33307,7 +33316,7 @@
         <v>206</v>
       </c>
       <c r="P167" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33776,7 +33785,7 @@
         <v>0.75</v>
       </c>
       <c r="AS169">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT169">
         <v>0.6</v>
@@ -33967,7 +33976,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT170">
         <v>1.3</v>
@@ -34453,7 +34462,7 @@
         <v>209</v>
       </c>
       <c r="P173" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34540,7 +34549,7 @@
         <v>1</v>
       </c>
       <c r="AS173">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT173">
         <v>0.78</v>
@@ -34644,7 +34653,7 @@
         <v>114</v>
       </c>
       <c r="P174" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34925,7 +34934,7 @@
         <v>1.56</v>
       </c>
       <c r="AT175">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU175">
         <v>1.81</v>
@@ -35026,7 +35035,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -35981,7 +35990,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -36363,7 +36372,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36644,7 +36653,7 @@
         <v>1.56</v>
       </c>
       <c r="AT184">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU184">
         <v>1.3</v>
@@ -36745,7 +36754,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -37127,7 +37136,7 @@
         <v>220</v>
       </c>
       <c r="P187" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37217,7 +37226,7 @@
         <v>1.3</v>
       </c>
       <c r="AT187">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU187">
         <v>1.43</v>
@@ -37318,7 +37327,7 @@
         <v>102</v>
       </c>
       <c r="P188" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q188">
         <v>12</v>
@@ -37700,7 +37709,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q190">
         <v>0</v>
@@ -37891,7 +37900,7 @@
         <v>102</v>
       </c>
       <c r="P191" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q191">
         <v>10</v>
@@ -37981,7 +37990,7 @@
         <v>2.11</v>
       </c>
       <c r="AT191">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU191">
         <v>1.66</v>
@@ -38933,7 +38942,7 @@
         <v>1</v>
       </c>
       <c r="AS196">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT196">
         <v>1.11</v>
@@ -39037,7 +39046,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39124,7 +39133,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT197">
         <v>0.78</v>
@@ -39228,7 +39237,7 @@
         <v>105</v>
       </c>
       <c r="P198" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q198">
         <v>8</v>
@@ -39315,7 +39324,7 @@
         <v>2.2</v>
       </c>
       <c r="AS198">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT198">
         <v>1.56</v>
@@ -39801,7 +39810,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39992,7 +40001,7 @@
         <v>102</v>
       </c>
       <c r="P202" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q202">
         <v>11</v>
@@ -40183,7 +40192,7 @@
         <v>227</v>
       </c>
       <c r="P203" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40464,7 +40473,7 @@
         <v>1.56</v>
       </c>
       <c r="AT204">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU204">
         <v>1.36</v>
@@ -40565,7 +40574,7 @@
         <v>102</v>
       </c>
       <c r="P205" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q205">
         <v>8</v>
@@ -40756,7 +40765,7 @@
         <v>102</v>
       </c>
       <c r="P206" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q206">
         <v>6</v>
@@ -40843,7 +40852,7 @@
         <v>1.2</v>
       </c>
       <c r="AS206">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT206">
         <v>1</v>
@@ -40947,7 +40956,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41329,7 +41338,7 @@
         <v>102</v>
       </c>
       <c r="P209" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41610,7 +41619,7 @@
         <v>2.22</v>
       </c>
       <c r="AT210">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU210">
         <v>1.78</v>
@@ -41711,7 +41720,7 @@
         <v>102</v>
       </c>
       <c r="P211" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41989,7 +41998,7 @@
         <v>0.75</v>
       </c>
       <c r="AS212">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT212">
         <v>0.78</v>
@@ -42475,7 +42484,7 @@
         <v>102</v>
       </c>
       <c r="P215" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q215">
         <v>7</v>
@@ -43711,7 +43720,7 @@
         <v>1.56</v>
       </c>
       <c r="AT221">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU221">
         <v>1.48</v>
@@ -44090,7 +44099,7 @@
         <v>1.17</v>
       </c>
       <c r="AS223">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT223">
         <v>0.78</v>
@@ -44194,7 +44203,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q224">
         <v>2</v>
@@ -44472,7 +44481,7 @@
         <v>0.83</v>
       </c>
       <c r="AS225">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT225">
         <v>0.7</v>
@@ -44576,7 +44585,7 @@
         <v>239</v>
       </c>
       <c r="P226" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44663,7 +44672,7 @@
         <v>1.33</v>
       </c>
       <c r="AS226">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT226">
         <v>1.33</v>
@@ -44857,7 +44866,7 @@
         <v>2</v>
       </c>
       <c r="AT227">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU227">
         <v>1.26</v>
@@ -44958,7 +44967,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -45340,7 +45349,7 @@
         <v>157</v>
       </c>
       <c r="P230" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45621,7 +45630,7 @@
         <v>1.9</v>
       </c>
       <c r="AT231">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU231">
         <v>1.55</v>
@@ -46486,7 +46495,7 @@
         <v>102</v>
       </c>
       <c r="P236" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -46573,7 +46582,7 @@
         <v>0.83</v>
       </c>
       <c r="AS236">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT236">
         <v>1.1</v>
@@ -46677,7 +46686,7 @@
         <v>244</v>
       </c>
       <c r="P237" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -47059,7 +47068,7 @@
         <v>246</v>
       </c>
       <c r="P239" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q239">
         <v>9</v>
@@ -47441,7 +47450,7 @@
         <v>248</v>
       </c>
       <c r="P241" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47823,7 +47832,7 @@
         <v>250</v>
       </c>
       <c r="P243" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q243">
         <v>10</v>
@@ -48104,7 +48113,7 @@
         <v>2.44</v>
       </c>
       <c r="AT244">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU244">
         <v>1.74</v>
@@ -49247,10 +49256,10 @@
         <v>0.6</v>
       </c>
       <c r="AS250">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT250">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU250">
         <v>1.36</v>
@@ -49629,7 +49638,7 @@
         <v>0.67</v>
       </c>
       <c r="AS252">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT252">
         <v>0.78</v>
@@ -50115,7 +50124,7 @@
         <v>259</v>
       </c>
       <c r="P255" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50205,7 +50214,7 @@
         <v>1.22</v>
       </c>
       <c r="AT255">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU255">
         <v>1.4</v>
@@ -50879,7 +50888,7 @@
         <v>102</v>
       </c>
       <c r="P259" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q259">
         <v>10</v>
@@ -51070,7 +51079,7 @@
         <v>262</v>
       </c>
       <c r="P260" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q260">
         <v>9</v>
@@ -51348,7 +51357,7 @@
         <v>0.86</v>
       </c>
       <c r="AS261">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT261">
         <v>0.9</v>
@@ -51452,7 +51461,7 @@
         <v>107</v>
       </c>
       <c r="P262" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q262">
         <v>2</v>
@@ -52115,7 +52124,7 @@
         <v>1.8</v>
       </c>
       <c r="AT265">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU265">
         <v>1.13</v>
@@ -52407,7 +52416,7 @@
         <v>266</v>
       </c>
       <c r="P267" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -52494,7 +52503,7 @@
         <v>0.71</v>
       </c>
       <c r="AS267">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT267">
         <v>0.67</v>
@@ -52598,7 +52607,7 @@
         <v>102</v>
       </c>
       <c r="P268" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -52688,7 +52697,7 @@
         <v>1</v>
       </c>
       <c r="AT268">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU268">
         <v>1.3</v>
@@ -53553,7 +53562,7 @@
         <v>270</v>
       </c>
       <c r="P273" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q273">
         <v>4</v>
@@ -53935,7 +53944,7 @@
         <v>271</v>
       </c>
       <c r="P275" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q275">
         <v>2</v>
@@ -54126,7 +54135,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -54699,7 +54708,7 @@
         <v>102</v>
       </c>
       <c r="P279" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -54786,7 +54795,7 @@
         <v>1.5</v>
       </c>
       <c r="AS279">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT279">
         <v>1.44</v>
@@ -55171,7 +55180,7 @@
         <v>2.11</v>
       </c>
       <c r="AT281">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU281">
         <v>1.7</v>
@@ -55553,7 +55562,7 @@
         <v>2.11</v>
       </c>
       <c r="AT283">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU283">
         <v>1.67</v>
@@ -56123,7 +56132,7 @@
         <v>1.57</v>
       </c>
       <c r="AS286">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT286">
         <v>1.67</v>
@@ -56227,7 +56236,7 @@
         <v>250</v>
       </c>
       <c r="P287" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q287">
         <v>8</v>
@@ -56314,7 +56323,7 @@
         <v>0.67</v>
       </c>
       <c r="AS287">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT287">
         <v>0.78</v>
@@ -56418,7 +56427,7 @@
         <v>278</v>
       </c>
       <c r="P288" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -56505,7 +56514,7 @@
         <v>0.86</v>
       </c>
       <c r="AS288">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT288">
         <v>0.7</v>
@@ -56800,7 +56809,7 @@
         <v>200</v>
       </c>
       <c r="P290" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q290">
         <v>6</v>
@@ -57182,7 +57191,7 @@
         <v>102</v>
       </c>
       <c r="P292" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q292">
         <v>3</v>
@@ -57651,10 +57660,10 @@
         <v>0.88</v>
       </c>
       <c r="AS294">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT294">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU294">
         <v>1.56</v>
@@ -57946,7 +57955,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q296">
         <v>9</v>
@@ -58137,7 +58146,7 @@
         <v>283</v>
       </c>
       <c r="P297" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -58328,7 +58337,7 @@
         <v>102</v>
       </c>
       <c r="P298" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q298">
         <v>7</v>
@@ -58519,7 +58528,7 @@
         <v>284</v>
       </c>
       <c r="P299" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q299">
         <v>6</v>
@@ -58800,7 +58809,7 @@
         <v>1.5</v>
       </c>
       <c r="AT300">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU300">
         <v>1.75</v>
@@ -59283,7 +59292,7 @@
         <v>286</v>
       </c>
       <c r="P303" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -59665,7 +59674,7 @@
         <v>287</v>
       </c>
       <c r="P305" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q305">
         <v>6</v>
@@ -60325,7 +60334,7 @@
         <v>1</v>
       </c>
       <c r="AS308">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT308">
         <v>0.78</v>
@@ -60429,7 +60438,7 @@
         <v>290</v>
       </c>
       <c r="P309" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q309">
         <v>11</v>
@@ -60519,7 +60528,7 @@
         <v>1</v>
       </c>
       <c r="AT309">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU309">
         <v>2.05</v>
@@ -60620,7 +60629,7 @@
         <v>291</v>
       </c>
       <c r="P310" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q310">
         <v>11</v>
@@ -61089,7 +61098,7 @@
         <v>0</v>
       </c>
       <c r="AS312">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT312">
         <v>0</v>
@@ -61283,7 +61292,7 @@
         <v>2.44</v>
       </c>
       <c r="AT313">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU313">
         <v>1.81</v>
@@ -61384,7 +61393,7 @@
         <v>175</v>
       </c>
       <c r="P314" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="Q314">
         <v>7</v>
@@ -61957,7 +61966,7 @@
         <v>197</v>
       </c>
       <c r="P317" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q317">
         <v>5</v>
@@ -62530,7 +62539,7 @@
         <v>298</v>
       </c>
       <c r="P320" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q320">
         <v>6</v>
@@ -62721,7 +62730,7 @@
         <v>299</v>
       </c>
       <c r="P321" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q321">
         <v>5</v>
@@ -63103,7 +63112,7 @@
         <v>300</v>
       </c>
       <c r="P323" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q323">
         <v>3</v>
@@ -63190,10 +63199,10 @@
         <v>0.71</v>
       </c>
       <c r="AS323">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT323">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU323">
         <v>1.52</v>
@@ -63381,7 +63390,7 @@
         <v>0.71</v>
       </c>
       <c r="AS324">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT324">
         <v>1</v>
@@ -64822,7 +64831,7 @@
         <v>102</v>
       </c>
       <c r="P332" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q332">
         <v>5</v>
@@ -65204,7 +65213,7 @@
         <v>102</v>
       </c>
       <c r="P334" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q334">
         <v>2</v>
@@ -66353,13 +66362,13 @@
         <v>102</v>
       </c>
       <c r="Q340">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R340">
         <v>5</v>
       </c>
       <c r="S340">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T340">
         <v>3</v>
@@ -67638,6 +67647,1152 @@
       </c>
       <c r="BK346">
         <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:63">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>6161900</v>
+      </c>
+      <c r="C347" t="s">
+        <v>63</v>
+      </c>
+      <c r="D347" t="s">
+        <v>64</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45095.79861111111</v>
+      </c>
+      <c r="F347">
+        <v>21</v>
+      </c>
+      <c r="G347" t="s">
+        <v>67</v>
+      </c>
+      <c r="H347" t="s">
+        <v>85</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+      <c r="L347">
+        <v>0</v>
+      </c>
+      <c r="M347">
+        <v>1</v>
+      </c>
+      <c r="N347">
+        <v>1</v>
+      </c>
+      <c r="O347" t="s">
+        <v>102</v>
+      </c>
+      <c r="P347" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q347">
+        <v>8</v>
+      </c>
+      <c r="R347">
+        <v>7</v>
+      </c>
+      <c r="S347">
+        <v>15</v>
+      </c>
+      <c r="T347">
+        <v>4</v>
+      </c>
+      <c r="U347">
+        <v>1.91</v>
+      </c>
+      <c r="V347">
+        <v>3.4</v>
+      </c>
+      <c r="W347">
+        <v>1.57</v>
+      </c>
+      <c r="X347">
+        <v>2.2</v>
+      </c>
+      <c r="Y347">
+        <v>3.4</v>
+      </c>
+      <c r="Z347">
+        <v>1.27</v>
+      </c>
+      <c r="AA347">
+        <v>9.75</v>
+      </c>
+      <c r="AB347">
+        <v>1.05</v>
+      </c>
+      <c r="AC347">
+        <v>3.1</v>
+      </c>
+      <c r="AD347">
+        <v>2.65</v>
+      </c>
+      <c r="AE347">
+        <v>2.5</v>
+      </c>
+      <c r="AF347">
+        <v>1.12</v>
+      </c>
+      <c r="AG347">
+        <v>5.5</v>
+      </c>
+      <c r="AH347">
+        <v>1.53</v>
+      </c>
+      <c r="AI347">
+        <v>2.4</v>
+      </c>
+      <c r="AJ347">
+        <v>2.55</v>
+      </c>
+      <c r="AK347">
+        <v>1.48</v>
+      </c>
+      <c r="AL347">
+        <v>2.05</v>
+      </c>
+      <c r="AM347">
+        <v>1.68</v>
+      </c>
+      <c r="AN347">
+        <v>1.47</v>
+      </c>
+      <c r="AO347">
+        <v>1.43</v>
+      </c>
+      <c r="AP347">
+        <v>1.33</v>
+      </c>
+      <c r="AQ347">
+        <v>1.22</v>
+      </c>
+      <c r="AR347">
+        <v>0.78</v>
+      </c>
+      <c r="AS347">
+        <v>1.1</v>
+      </c>
+      <c r="AT347">
+        <v>1</v>
+      </c>
+      <c r="AU347">
+        <v>1.32</v>
+      </c>
+      <c r="AV347">
+        <v>1.26</v>
+      </c>
+      <c r="AW347">
+        <v>2.58</v>
+      </c>
+      <c r="AX347">
+        <v>2.51</v>
+      </c>
+      <c r="AY347">
+        <v>8.6</v>
+      </c>
+      <c r="AZ347">
+        <v>1.73</v>
+      </c>
+      <c r="BA347">
+        <v>1.42</v>
+      </c>
+      <c r="BB347">
+        <v>1.78</v>
+      </c>
+      <c r="BC347">
+        <v>2.23</v>
+      </c>
+      <c r="BD347">
+        <v>3.04</v>
+      </c>
+      <c r="BE347">
+        <v>0</v>
+      </c>
+      <c r="BF347">
+        <v>2</v>
+      </c>
+      <c r="BG347">
+        <v>3</v>
+      </c>
+      <c r="BH347">
+        <v>3</v>
+      </c>
+      <c r="BI347">
+        <v>7</v>
+      </c>
+      <c r="BJ347">
+        <v>5</v>
+      </c>
+      <c r="BK347">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348" spans="1:63">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>6161903</v>
+      </c>
+      <c r="C348" t="s">
+        <v>63</v>
+      </c>
+      <c r="D348" t="s">
+        <v>64</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45096.625</v>
+      </c>
+      <c r="F348">
+        <v>21</v>
+      </c>
+      <c r="G348" t="s">
+        <v>71</v>
+      </c>
+      <c r="H348" t="s">
+        <v>80</v>
+      </c>
+      <c r="I348">
+        <v>1</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>1</v>
+      </c>
+      <c r="L348">
+        <v>1</v>
+      </c>
+      <c r="M348">
+        <v>0</v>
+      </c>
+      <c r="N348">
+        <v>1</v>
+      </c>
+      <c r="O348" t="s">
+        <v>158</v>
+      </c>
+      <c r="P348" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q348">
+        <v>2</v>
+      </c>
+      <c r="R348">
+        <v>9</v>
+      </c>
+      <c r="S348">
+        <v>11</v>
+      </c>
+      <c r="T348">
+        <v>2.75</v>
+      </c>
+      <c r="U348">
+        <v>1.91</v>
+      </c>
+      <c r="V348">
+        <v>5</v>
+      </c>
+      <c r="W348">
+        <v>1.05</v>
+      </c>
+      <c r="X348">
+        <v>1.46</v>
+      </c>
+      <c r="Y348">
+        <v>3.92</v>
+      </c>
+      <c r="Z348">
+        <v>1.23</v>
+      </c>
+      <c r="AA348">
+        <v>11.2</v>
+      </c>
+      <c r="AB348">
+        <v>1.02</v>
+      </c>
+      <c r="AC348">
+        <v>2.12</v>
+      </c>
+      <c r="AD348">
+        <v>3.05</v>
+      </c>
+      <c r="AE348">
+        <v>3.35</v>
+      </c>
+      <c r="AF348">
+        <v>1.11</v>
+      </c>
+      <c r="AG348">
+        <v>6</v>
+      </c>
+      <c r="AH348">
+        <v>1.57</v>
+      </c>
+      <c r="AI348">
+        <v>2.26</v>
+      </c>
+      <c r="AJ348">
+        <v>2.48</v>
+      </c>
+      <c r="AK348">
+        <v>1.42</v>
+      </c>
+      <c r="AL348">
+        <v>2.36</v>
+      </c>
+      <c r="AM348">
+        <v>1.56</v>
+      </c>
+      <c r="AN348">
+        <v>1.23</v>
+      </c>
+      <c r="AO348">
+        <v>1.36</v>
+      </c>
+      <c r="AP348">
+        <v>1.78</v>
+      </c>
+      <c r="AQ348">
+        <v>2</v>
+      </c>
+      <c r="AR348">
+        <v>0.67</v>
+      </c>
+      <c r="AS348">
+        <v>2.1</v>
+      </c>
+      <c r="AT348">
+        <v>0.6</v>
+      </c>
+      <c r="AU348">
+        <v>1.56</v>
+      </c>
+      <c r="AV348">
+        <v>1.07</v>
+      </c>
+      <c r="AW348">
+        <v>2.63</v>
+      </c>
+      <c r="AX348">
+        <v>1.84</v>
+      </c>
+      <c r="AY348">
+        <v>6.95</v>
+      </c>
+      <c r="AZ348">
+        <v>2.46</v>
+      </c>
+      <c r="BA348">
+        <v>1.58</v>
+      </c>
+      <c r="BB348">
+        <v>1.98</v>
+      </c>
+      <c r="BC348">
+        <v>2.52</v>
+      </c>
+      <c r="BD348">
+        <v>3.64</v>
+      </c>
+      <c r="BE348">
+        <v>0</v>
+      </c>
+      <c r="BF348">
+        <v>2</v>
+      </c>
+      <c r="BG348">
+        <v>3</v>
+      </c>
+      <c r="BH348">
+        <v>3</v>
+      </c>
+      <c r="BI348">
+        <v>13</v>
+      </c>
+      <c r="BJ348">
+        <v>5</v>
+      </c>
+      <c r="BK348">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="349" spans="1:63">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>6161871</v>
+      </c>
+      <c r="C349" t="s">
+        <v>63</v>
+      </c>
+      <c r="D349" t="s">
+        <v>64</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45096.625</v>
+      </c>
+      <c r="F349">
+        <v>18</v>
+      </c>
+      <c r="G349" t="s">
+        <v>94</v>
+      </c>
+      <c r="H349" t="s">
+        <v>90</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
+      <c r="L349">
+        <v>1</v>
+      </c>
+      <c r="M349">
+        <v>1</v>
+      </c>
+      <c r="N349">
+        <v>2</v>
+      </c>
+      <c r="O349" t="s">
+        <v>188</v>
+      </c>
+      <c r="P349" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q349">
+        <v>6</v>
+      </c>
+      <c r="R349">
+        <v>0</v>
+      </c>
+      <c r="S349">
+        <v>6</v>
+      </c>
+      <c r="T349">
+        <v>3.2</v>
+      </c>
+      <c r="U349">
+        <v>1.95</v>
+      </c>
+      <c r="V349">
+        <v>4</v>
+      </c>
+      <c r="W349">
+        <v>1.02</v>
+      </c>
+      <c r="X349">
+        <v>1.53</v>
+      </c>
+      <c r="Y349">
+        <v>3.64</v>
+      </c>
+      <c r="Z349">
+        <v>1.26</v>
+      </c>
+      <c r="AA349">
+        <v>10.2</v>
+      </c>
+      <c r="AB349">
+        <v>1.03</v>
+      </c>
+      <c r="AC349">
+        <v>2.4</v>
+      </c>
+      <c r="AD349">
+        <v>3.25</v>
+      </c>
+      <c r="AE349">
+        <v>2.65</v>
+      </c>
+      <c r="AF349">
+        <v>1.07</v>
+      </c>
+      <c r="AG349">
+        <v>6.35</v>
+      </c>
+      <c r="AH349">
+        <v>1.5</v>
+      </c>
+      <c r="AI349">
+        <v>2.48</v>
+      </c>
+      <c r="AJ349">
+        <v>2.39</v>
+      </c>
+      <c r="AK349">
+        <v>1.51</v>
+      </c>
+      <c r="AL349">
+        <v>2.11</v>
+      </c>
+      <c r="AM349">
+        <v>1.69</v>
+      </c>
+      <c r="AN349">
+        <v>1.35</v>
+      </c>
+      <c r="AO349">
+        <v>1.36</v>
+      </c>
+      <c r="AP349">
+        <v>1.59</v>
+      </c>
+      <c r="AQ349">
+        <v>1.88</v>
+      </c>
+      <c r="AR349">
+        <v>1</v>
+      </c>
+      <c r="AS349">
+        <v>1.78</v>
+      </c>
+      <c r="AT349">
+        <v>1</v>
+      </c>
+      <c r="AU349">
+        <v>1.58</v>
+      </c>
+      <c r="AV349">
+        <v>1.02</v>
+      </c>
+      <c r="AW349">
+        <v>2.6</v>
+      </c>
+      <c r="AX349">
+        <v>1.65</v>
+      </c>
+      <c r="AY349">
+        <v>7.6</v>
+      </c>
+      <c r="AZ349">
+        <v>2.81</v>
+      </c>
+      <c r="BA349">
+        <v>1.29</v>
+      </c>
+      <c r="BB349">
+        <v>1.6</v>
+      </c>
+      <c r="BC349">
+        <v>2</v>
+      </c>
+      <c r="BD349">
+        <v>2.48</v>
+      </c>
+      <c r="BE349">
+        <v>3.48</v>
+      </c>
+      <c r="BF349">
+        <v>4</v>
+      </c>
+      <c r="BG349">
+        <v>4</v>
+      </c>
+      <c r="BH349">
+        <v>7</v>
+      </c>
+      <c r="BI349">
+        <v>2</v>
+      </c>
+      <c r="BJ349">
+        <v>11</v>
+      </c>
+      <c r="BK349">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:63">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>6161869</v>
+      </c>
+      <c r="C350" t="s">
+        <v>63</v>
+      </c>
+      <c r="D350" t="s">
+        <v>64</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45096.625</v>
+      </c>
+      <c r="F350">
+        <v>18</v>
+      </c>
+      <c r="G350" t="s">
+        <v>100</v>
+      </c>
+      <c r="H350" t="s">
+        <v>77</v>
+      </c>
+      <c r="I350">
+        <v>2</v>
+      </c>
+      <c r="J350">
+        <v>2</v>
+      </c>
+      <c r="K350">
+        <v>4</v>
+      </c>
+      <c r="L350">
+        <v>3</v>
+      </c>
+      <c r="M350">
+        <v>2</v>
+      </c>
+      <c r="N350">
+        <v>5</v>
+      </c>
+      <c r="O350" t="s">
+        <v>312</v>
+      </c>
+      <c r="P350" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q350">
+        <v>2</v>
+      </c>
+      <c r="R350">
+        <v>6</v>
+      </c>
+      <c r="S350">
+        <v>8</v>
+      </c>
+      <c r="T350">
+        <v>3.2</v>
+      </c>
+      <c r="U350">
+        <v>1.91</v>
+      </c>
+      <c r="V350">
+        <v>4.33</v>
+      </c>
+      <c r="W350">
+        <v>1.05</v>
+      </c>
+      <c r="X350">
+        <v>1.46</v>
+      </c>
+      <c r="Y350">
+        <v>3.92</v>
+      </c>
+      <c r="Z350">
+        <v>1.23</v>
+      </c>
+      <c r="AA350">
+        <v>11.2</v>
+      </c>
+      <c r="AB350">
+        <v>1.02</v>
+      </c>
+      <c r="AC350">
+        <v>2.32</v>
+      </c>
+      <c r="AD350">
+        <v>2.95</v>
+      </c>
+      <c r="AE350">
+        <v>3.05</v>
+      </c>
+      <c r="AF350">
+        <v>1.09</v>
+      </c>
+      <c r="AG350">
+        <v>5.85</v>
+      </c>
+      <c r="AH350">
+        <v>1.56</v>
+      </c>
+      <c r="AI350">
+        <v>2.27</v>
+      </c>
+      <c r="AJ350">
+        <v>2.52</v>
+      </c>
+      <c r="AK350">
+        <v>1.4</v>
+      </c>
+      <c r="AL350">
+        <v>2.27</v>
+      </c>
+      <c r="AM350">
+        <v>1.6</v>
+      </c>
+      <c r="AN350">
+        <v>1.32</v>
+      </c>
+      <c r="AO350">
+        <v>1.38</v>
+      </c>
+      <c r="AP350">
+        <v>1.6</v>
+      </c>
+      <c r="AQ350">
+        <v>1.13</v>
+      </c>
+      <c r="AR350">
+        <v>1</v>
+      </c>
+      <c r="AS350">
+        <v>1.33</v>
+      </c>
+      <c r="AT350">
+        <v>0.89</v>
+      </c>
+      <c r="AU350">
+        <v>1.51</v>
+      </c>
+      <c r="AV350">
+        <v>1.23</v>
+      </c>
+      <c r="AW350">
+        <v>2.74</v>
+      </c>
+      <c r="AX350">
+        <v>1.63</v>
+      </c>
+      <c r="AY350">
+        <v>8</v>
+      </c>
+      <c r="AZ350">
+        <v>2.82</v>
+      </c>
+      <c r="BA350">
+        <v>1.41</v>
+      </c>
+      <c r="BB350">
+        <v>1.76</v>
+      </c>
+      <c r="BC350">
+        <v>2.29</v>
+      </c>
+      <c r="BD350">
+        <v>2.98</v>
+      </c>
+      <c r="BE350">
+        <v>0</v>
+      </c>
+      <c r="BF350">
+        <v>8</v>
+      </c>
+      <c r="BG350">
+        <v>6</v>
+      </c>
+      <c r="BH350">
+        <v>0</v>
+      </c>
+      <c r="BI350">
+        <v>6</v>
+      </c>
+      <c r="BJ350">
+        <v>8</v>
+      </c>
+      <c r="BK350">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="1:63">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>6161865</v>
+      </c>
+      <c r="C351" t="s">
+        <v>63</v>
+      </c>
+      <c r="D351" t="s">
+        <v>64</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45096.6875</v>
+      </c>
+      <c r="F351">
+        <v>18</v>
+      </c>
+      <c r="G351" t="s">
+        <v>98</v>
+      </c>
+      <c r="H351" t="s">
+        <v>89</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351">
+        <v>0</v>
+      </c>
+      <c r="M351">
+        <v>1</v>
+      </c>
+      <c r="N351">
+        <v>1</v>
+      </c>
+      <c r="O351" t="s">
+        <v>102</v>
+      </c>
+      <c r="P351" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q351">
+        <v>3</v>
+      </c>
+      <c r="R351">
+        <v>4</v>
+      </c>
+      <c r="S351">
+        <v>7</v>
+      </c>
+      <c r="T351">
+        <v>3.5</v>
+      </c>
+      <c r="U351">
+        <v>1.91</v>
+      </c>
+      <c r="V351">
+        <v>3.75</v>
+      </c>
+      <c r="W351">
+        <v>1.05</v>
+      </c>
+      <c r="X351">
+        <v>1.47</v>
+      </c>
+      <c r="Y351">
+        <v>3.92</v>
+      </c>
+      <c r="Z351">
+        <v>1.23</v>
+      </c>
+      <c r="AA351">
+        <v>11.2</v>
+      </c>
+      <c r="AB351">
+        <v>1.02</v>
+      </c>
+      <c r="AC351">
+        <v>3.25</v>
+      </c>
+      <c r="AD351">
+        <v>3.15</v>
+      </c>
+      <c r="AE351">
+        <v>2.12</v>
+      </c>
+      <c r="AF351">
+        <v>1.09</v>
+      </c>
+      <c r="AG351">
+        <v>5.8</v>
+      </c>
+      <c r="AH351">
+        <v>1.56</v>
+      </c>
+      <c r="AI351">
+        <v>2.27</v>
+      </c>
+      <c r="AJ351">
+        <v>2.35</v>
+      </c>
+      <c r="AK351">
+        <v>1.53</v>
+      </c>
+      <c r="AL351">
+        <v>2.23</v>
+      </c>
+      <c r="AM351">
+        <v>1.62</v>
+      </c>
+      <c r="AN351">
+        <v>1.38</v>
+      </c>
+      <c r="AO351">
+        <v>1.39</v>
+      </c>
+      <c r="AP351">
+        <v>1.51</v>
+      </c>
+      <c r="AQ351">
+        <v>1.63</v>
+      </c>
+      <c r="AR351">
+        <v>1.63</v>
+      </c>
+      <c r="AS351">
+        <v>1.44</v>
+      </c>
+      <c r="AT351">
+        <v>1.78</v>
+      </c>
+      <c r="AU351">
+        <v>1.61</v>
+      </c>
+      <c r="AV351">
+        <v>1.39</v>
+      </c>
+      <c r="AW351">
+        <v>3</v>
+      </c>
+      <c r="AX351">
+        <v>1.62</v>
+      </c>
+      <c r="AY351">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ351">
+        <v>2.78</v>
+      </c>
+      <c r="BA351">
+        <v>1.23</v>
+      </c>
+      <c r="BB351">
+        <v>1.5</v>
+      </c>
+      <c r="BC351">
+        <v>1.83</v>
+      </c>
+      <c r="BD351">
+        <v>2.25</v>
+      </c>
+      <c r="BE351">
+        <v>3.04</v>
+      </c>
+      <c r="BF351">
+        <v>6</v>
+      </c>
+      <c r="BG351">
+        <v>2</v>
+      </c>
+      <c r="BH351">
+        <v>5</v>
+      </c>
+      <c r="BI351">
+        <v>6</v>
+      </c>
+      <c r="BJ351">
+        <v>11</v>
+      </c>
+      <c r="BK351">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:63">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>6161870</v>
+      </c>
+      <c r="C352" t="s">
+        <v>63</v>
+      </c>
+      <c r="D352" t="s">
+        <v>64</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45096.79166666666</v>
+      </c>
+      <c r="F352">
+        <v>18</v>
+      </c>
+      <c r="G352" t="s">
+        <v>92</v>
+      </c>
+      <c r="H352" t="s">
+        <v>83</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+      <c r="L352">
+        <v>1</v>
+      </c>
+      <c r="M352">
+        <v>2</v>
+      </c>
+      <c r="N352">
+        <v>3</v>
+      </c>
+      <c r="O352" t="s">
+        <v>313</v>
+      </c>
+      <c r="P352" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q352">
+        <v>2</v>
+      </c>
+      <c r="R352">
+        <v>1</v>
+      </c>
+      <c r="S352">
+        <v>3</v>
+      </c>
+      <c r="T352">
+        <v>3.25</v>
+      </c>
+      <c r="U352">
+        <v>1.91</v>
+      </c>
+      <c r="V352">
+        <v>4</v>
+      </c>
+      <c r="W352">
+        <v>1.03</v>
+      </c>
+      <c r="X352">
+        <v>1.5</v>
+      </c>
+      <c r="Y352">
+        <v>3.72</v>
+      </c>
+      <c r="Z352">
+        <v>1.25</v>
+      </c>
+      <c r="AA352">
+        <v>10.7</v>
+      </c>
+      <c r="AB352">
+        <v>1.03</v>
+      </c>
+      <c r="AC352">
+        <v>2.5</v>
+      </c>
+      <c r="AD352">
+        <v>2.9</v>
+      </c>
+      <c r="AE352">
+        <v>2.75</v>
+      </c>
+      <c r="AF352">
+        <v>1.08</v>
+      </c>
+      <c r="AG352">
+        <v>6.15</v>
+      </c>
+      <c r="AH352">
+        <v>1.53</v>
+      </c>
+      <c r="AI352">
+        <v>2.38</v>
+      </c>
+      <c r="AJ352">
+        <v>2.55</v>
+      </c>
+      <c r="AK352">
+        <v>1.45</v>
+      </c>
+      <c r="AL352">
+        <v>2.19</v>
+      </c>
+      <c r="AM352">
+        <v>1.64</v>
+      </c>
+      <c r="AN352">
+        <v>1.33</v>
+      </c>
+      <c r="AO352">
+        <v>1.37</v>
+      </c>
+      <c r="AP352">
+        <v>1.6</v>
+      </c>
+      <c r="AQ352">
+        <v>1.5</v>
+      </c>
+      <c r="AR352">
+        <v>1</v>
+      </c>
+      <c r="AS352">
+        <v>1.33</v>
+      </c>
+      <c r="AT352">
+        <v>1.22</v>
+      </c>
+      <c r="AU352">
+        <v>1.63</v>
+      </c>
+      <c r="AV352">
+        <v>1.06</v>
+      </c>
+      <c r="AW352">
+        <v>2.69</v>
+      </c>
+      <c r="AX352">
+        <v>1.59</v>
+      </c>
+      <c r="AY352">
+        <v>8.5</v>
+      </c>
+      <c r="AZ352">
+        <v>2.95</v>
+      </c>
+      <c r="BA352">
+        <v>1.56</v>
+      </c>
+      <c r="BB352">
+        <v>1.97</v>
+      </c>
+      <c r="BC352">
+        <v>2.46</v>
+      </c>
+      <c r="BD352">
+        <v>3.48</v>
+      </c>
+      <c r="BE352">
+        <v>0</v>
+      </c>
+      <c r="BF352">
+        <v>3</v>
+      </c>
+      <c r="BG352">
+        <v>5</v>
+      </c>
+      <c r="BH352">
+        <v>5</v>
+      </c>
+      <c r="BI352">
+        <v>2</v>
+      </c>
+      <c r="BJ352">
+        <v>8</v>
+      </c>
+      <c r="BK352">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="401">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -958,6 +958,24 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['18', '57']</t>
+  </si>
+  <si>
+    <t>['55', '72', '83', '87']</t>
+  </si>
+  <si>
+    <t>['54', '79']</t>
+  </si>
+  <si>
+    <t>['14', '90+5']</t>
+  </si>
+  <si>
+    <t>['6', '51', '61']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['77']</t>
   </si>
   <si>
@@ -1180,9 +1198,6 @@
     <t>['5', '55']</t>
   </si>
   <si>
-    <t>['45+1']</t>
-  </si>
-  <si>
     <t>['49', '67']</t>
   </si>
   <si>
@@ -1196,6 +1211,12 @@
   </si>
   <si>
     <t>['59', '84']</t>
+  </si>
+  <si>
+    <t>['56', '80']</t>
+  </si>
+  <si>
+    <t>['9']</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK352"/>
+  <dimension ref="A1:BK370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2183,7 +2204,7 @@
         <v>103</v>
       </c>
       <c r="P4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2273,7 +2294,7 @@
         <v>1.1</v>
       </c>
       <c r="AT4">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -3520,7 +3541,7 @@
         <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3607,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT11">
         <v>1.67</v>
@@ -3798,10 +3819,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT12">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3992,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="AT13">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4180,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT14">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4371,10 +4392,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT15">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4562,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
         <v>0.6</v>
@@ -4753,10 +4774,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT17">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4857,7 +4878,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4944,10 +4965,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT18">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5135,10 +5156,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT19">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5239,7 +5260,7 @@
         <v>112</v>
       </c>
       <c r="P20" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5326,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT20">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5517,10 +5538,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT21">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5708,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT22">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5899,10 +5920,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT23">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6003,7 +6024,7 @@
         <v>114</v>
       </c>
       <c r="P24" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6090,10 +6111,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6281,10 +6302,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT25">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6472,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT26">
         <v>0</v>
@@ -6576,7 +6597,7 @@
         <v>117</v>
       </c>
       <c r="P27" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6663,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT27">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6854,10 +6875,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT28">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -7531,7 +7552,7 @@
         <v>121</v>
       </c>
       <c r="P32" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7722,7 +7743,7 @@
         <v>122</v>
       </c>
       <c r="P33" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q33">
         <v>10</v>
@@ -7913,7 +7934,7 @@
         <v>123</v>
       </c>
       <c r="P34" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8677,7 +8698,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -10483,10 +10504,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT47">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU47">
         <v>1.93</v>
@@ -10587,7 +10608,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10674,10 +10695,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT48">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU48">
         <v>0.98</v>
@@ -10865,10 +10886,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT49">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU49">
         <v>1.69</v>
@@ -10969,7 +10990,7 @@
         <v>102</v>
       </c>
       <c r="P50" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11056,10 +11077,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT50">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU50">
         <v>1.02</v>
@@ -11247,10 +11268,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT51">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU51">
         <v>2.08</v>
@@ -11351,7 +11372,7 @@
         <v>135</v>
       </c>
       <c r="P52" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11438,10 +11459,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT52">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU52">
         <v>2.09</v>
@@ -11629,10 +11650,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT53">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU53">
         <v>1</v>
@@ -11820,10 +11841,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU54">
         <v>1.29</v>
@@ -12011,10 +12032,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT55">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU55">
         <v>1.44</v>
@@ -12202,10 +12223,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT56">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU56">
         <v>1.23</v>
@@ -12396,7 +12417,7 @@
         <v>1.8</v>
       </c>
       <c r="AT57">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU57">
         <v>0.67</v>
@@ -12584,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT58">
         <v>0</v>
@@ -12775,10 +12796,10 @@
         <v>3</v>
       </c>
       <c r="AS59">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT59">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU59">
         <v>2.6</v>
@@ -12966,10 +12987,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT60">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU60">
         <v>1.64</v>
@@ -13070,7 +13091,7 @@
         <v>102</v>
       </c>
       <c r="P61" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13157,10 +13178,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT61">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU61">
         <v>1.88</v>
@@ -13348,10 +13369,10 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT62">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU62">
         <v>1.28</v>
@@ -13539,10 +13560,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT63">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -13730,10 +13751,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT64">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU64">
         <v>1.4</v>
@@ -13834,7 +13855,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -14598,7 +14619,7 @@
         <v>102</v>
       </c>
       <c r="P69" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -15362,7 +15383,7 @@
         <v>149</v>
       </c>
       <c r="P73" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16404,7 +16425,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT78">
         <v>0.7</v>
@@ -16508,7 +16529,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16786,7 +16807,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT80">
         <v>0.89</v>
@@ -17272,7 +17293,7 @@
         <v>157</v>
       </c>
       <c r="P83" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -17359,10 +17380,10 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT83">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU83">
         <v>1.37</v>
@@ -17550,7 +17571,7 @@
         <v>3</v>
       </c>
       <c r="AS84">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT84">
         <v>1</v>
@@ -17741,10 +17762,10 @@
         <v>0.5</v>
       </c>
       <c r="AS85">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT85">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU85">
         <v>1.48</v>
@@ -17845,7 +17866,7 @@
         <v>102</v>
       </c>
       <c r="P86" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17932,10 +17953,10 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT86">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU86">
         <v>1.39</v>
@@ -18036,7 +18057,7 @@
         <v>160</v>
       </c>
       <c r="P87" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18126,7 +18147,7 @@
         <v>1.8</v>
       </c>
       <c r="AT87">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU87">
         <v>0.83</v>
@@ -18227,7 +18248,7 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -18314,10 +18335,10 @@
         <v>2</v>
       </c>
       <c r="AS88">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT88">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU88">
         <v>1.14</v>
@@ -18505,10 +18526,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT89">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU89">
         <v>1.68</v>
@@ -18699,7 +18720,7 @@
         <v>2</v>
       </c>
       <c r="AT90">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU90">
         <v>1.63</v>
@@ -18800,7 +18821,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18887,10 +18908,10 @@
         <v>0</v>
       </c>
       <c r="AS91">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT91">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU91">
         <v>1.36</v>
@@ -19078,10 +19099,10 @@
         <v>1.5</v>
       </c>
       <c r="AS92">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT92">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU92">
         <v>1.81</v>
@@ -19269,10 +19290,10 @@
         <v>0</v>
       </c>
       <c r="AS93">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT93">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU93">
         <v>1.03</v>
@@ -19373,7 +19394,7 @@
         <v>102</v>
       </c>
       <c r="P94" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19460,10 +19481,10 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT94">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU94">
         <v>1.93</v>
@@ -19654,7 +19675,7 @@
         <v>1.44</v>
       </c>
       <c r="AT95">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU95">
         <v>1.86</v>
@@ -19842,10 +19863,10 @@
         <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT96">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU96">
         <v>1.3</v>
@@ -20033,10 +20054,10 @@
         <v>0.5</v>
       </c>
       <c r="AS97">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT97">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU97">
         <v>1.23</v>
@@ -20137,7 +20158,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q98">
         <v>10</v>
@@ -20224,10 +20245,10 @@
         <v>0</v>
       </c>
       <c r="AS98">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT98">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU98">
         <v>1.87</v>
@@ -20328,7 +20349,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20415,7 +20436,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT99">
         <v>1</v>
@@ -20606,10 +20627,10 @@
         <v>0.5</v>
       </c>
       <c r="AS100">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT100">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU100">
         <v>1.42</v>
@@ -21370,7 +21391,7 @@
         <v>0.5</v>
       </c>
       <c r="AS104">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT104">
         <v>0.89</v>
@@ -22047,7 +22068,7 @@
         <v>172</v>
       </c>
       <c r="P108" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22137,7 +22158,7 @@
         <v>2.11</v>
       </c>
       <c r="AT108">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU108">
         <v>1.71</v>
@@ -22325,7 +22346,7 @@
         <v>3</v>
       </c>
       <c r="AS109">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT109">
         <v>0.89</v>
@@ -22620,7 +22641,7 @@
         <v>174</v>
       </c>
       <c r="P111" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23089,7 +23110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT113">
         <v>0.5</v>
@@ -23283,7 +23304,7 @@
         <v>1</v>
       </c>
       <c r="AT114">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU114">
         <v>1.52</v>
@@ -23471,7 +23492,7 @@
         <v>1.33</v>
       </c>
       <c r="AS115">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT115">
         <v>0.6</v>
@@ -24148,7 +24169,7 @@
         <v>136</v>
       </c>
       <c r="P119" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24235,7 +24256,7 @@
         <v>0.5</v>
       </c>
       <c r="AS119">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT119">
         <v>1.22</v>
@@ -24426,7 +24447,7 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT120">
         <v>1</v>
@@ -24530,7 +24551,7 @@
         <v>179</v>
       </c>
       <c r="P121" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24617,10 +24638,10 @@
         <v>0.33</v>
       </c>
       <c r="AS121">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT121">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU121">
         <v>1.08</v>
@@ -24721,7 +24742,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24808,10 +24829,10 @@
         <v>1.5</v>
       </c>
       <c r="AS122">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT122">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU122">
         <v>1.3</v>
@@ -24912,7 +24933,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25002,7 +25023,7 @@
         <v>1.5</v>
       </c>
       <c r="AT123">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU123">
         <v>1.69</v>
@@ -25193,7 +25214,7 @@
         <v>1.8</v>
       </c>
       <c r="AT124">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU124">
         <v>1.18</v>
@@ -25381,10 +25402,10 @@
         <v>1.67</v>
       </c>
       <c r="AS125">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT125">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU125">
         <v>1.58</v>
@@ -25572,7 +25593,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT126">
         <v>0.7</v>
@@ -25676,7 +25697,7 @@
         <v>102</v>
       </c>
       <c r="P127" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q127">
         <v>11</v>
@@ -25763,10 +25784,10 @@
         <v>1.67</v>
       </c>
       <c r="AS127">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT127">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -25867,7 +25888,7 @@
         <v>184</v>
       </c>
       <c r="P128" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25954,10 +25975,10 @@
         <v>1.33</v>
       </c>
       <c r="AS128">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT128">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU128">
         <v>1.36</v>
@@ -26145,10 +26166,10 @@
         <v>0.67</v>
       </c>
       <c r="AS129">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT129">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU129">
         <v>1.51</v>
@@ -26249,7 +26270,7 @@
         <v>102</v>
       </c>
       <c r="P130" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26339,7 +26360,7 @@
         <v>2.11</v>
       </c>
       <c r="AT130">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU130">
         <v>1.4</v>
@@ -26440,7 +26461,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26530,7 +26551,7 @@
         <v>2</v>
       </c>
       <c r="AT131">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU131">
         <v>1.56</v>
@@ -26718,10 +26739,10 @@
         <v>1</v>
       </c>
       <c r="AS132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT132">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU132">
         <v>1.41</v>
@@ -26909,10 +26930,10 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT133">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU133">
         <v>1.6</v>
@@ -27013,7 +27034,7 @@
         <v>187</v>
       </c>
       <c r="P134" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27103,7 +27124,7 @@
         <v>1.44</v>
       </c>
       <c r="AT134">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU134">
         <v>1.41</v>
@@ -27291,7 +27312,7 @@
         <v>1.5</v>
       </c>
       <c r="AS135">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT135">
         <v>1</v>
@@ -27395,7 +27416,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q136">
         <v>1</v>
@@ -27482,10 +27503,10 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT136">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU136">
         <v>1.88</v>
@@ -28058,7 +28079,7 @@
         <v>2.1</v>
       </c>
       <c r="AT139">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU139">
         <v>1.34</v>
@@ -28246,7 +28267,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT140">
         <v>0.9</v>
@@ -28732,7 +28753,7 @@
         <v>102</v>
       </c>
       <c r="P143" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -28819,7 +28840,7 @@
         <v>0.75</v>
       </c>
       <c r="AS143">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT143">
         <v>1</v>
@@ -29114,7 +29135,7 @@
         <v>121</v>
       </c>
       <c r="P145" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -29204,7 +29225,7 @@
         <v>1</v>
       </c>
       <c r="AT145">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU145">
         <v>2.4</v>
@@ -29392,7 +29413,7 @@
         <v>0.33</v>
       </c>
       <c r="AS146">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT146">
         <v>0.89</v>
@@ -29496,7 +29517,7 @@
         <v>194</v>
       </c>
       <c r="P147" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29687,7 +29708,7 @@
         <v>195</v>
       </c>
       <c r="P148" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29774,7 +29795,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT148">
         <v>0.6</v>
@@ -29878,7 +29899,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29968,7 +29989,7 @@
         <v>1.8</v>
       </c>
       <c r="AT149">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU149">
         <v>1.26</v>
@@ -30538,7 +30559,7 @@
         <v>1.33</v>
       </c>
       <c r="AS152">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT152">
         <v>1.44</v>
@@ -30732,7 +30753,7 @@
         <v>1.33</v>
       </c>
       <c r="AT153">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU153">
         <v>1.46</v>
@@ -30920,7 +30941,7 @@
         <v>1.33</v>
       </c>
       <c r="AS154">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT154">
         <v>1.22</v>
@@ -31111,10 +31132,10 @@
         <v>1</v>
       </c>
       <c r="AS155">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT155">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU155">
         <v>1.24</v>
@@ -31302,7 +31323,7 @@
         <v>1</v>
       </c>
       <c r="AS156">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT156">
         <v>1</v>
@@ -31496,7 +31517,7 @@
         <v>2</v>
       </c>
       <c r="AT157">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU157">
         <v>1.42</v>
@@ -31684,7 +31705,7 @@
         <v>0.25</v>
       </c>
       <c r="AS158">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT158">
         <v>0.5</v>
@@ -31788,7 +31809,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -31875,7 +31896,7 @@
         <v>0.75</v>
       </c>
       <c r="AS159">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT159">
         <v>0.7</v>
@@ -32069,7 +32090,7 @@
         <v>1.8</v>
       </c>
       <c r="AT160">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU160">
         <v>1.2</v>
@@ -32260,7 +32281,7 @@
         <v>1</v>
       </c>
       <c r="AT161">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU161">
         <v>1.58</v>
@@ -32448,10 +32469,10 @@
         <v>1.25</v>
       </c>
       <c r="AS162">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT162">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU162">
         <v>1.5</v>
@@ -32552,7 +32573,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32639,10 +32660,10 @@
         <v>1</v>
       </c>
       <c r="AS163">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT163">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU163">
         <v>1.65</v>
@@ -32830,7 +32851,7 @@
         <v>1.2</v>
       </c>
       <c r="AS164">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT164">
         <v>0.9</v>
@@ -33021,7 +33042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS165">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT165">
         <v>1.22</v>
@@ -33125,7 +33146,7 @@
         <v>205</v>
       </c>
       <c r="P166" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33212,10 +33233,10 @@
         <v>1.5</v>
       </c>
       <c r="AS166">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT166">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU166">
         <v>1.33</v>
@@ -33316,7 +33337,7 @@
         <v>206</v>
       </c>
       <c r="P167" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33403,10 +33424,10 @@
         <v>1.25</v>
       </c>
       <c r="AS167">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT167">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU167">
         <v>1.7</v>
@@ -33597,7 +33618,7 @@
         <v>2.11</v>
       </c>
       <c r="AT168">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU168">
         <v>1.65</v>
@@ -33979,7 +34000,7 @@
         <v>2.1</v>
       </c>
       <c r="AT170">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU170">
         <v>1.48</v>
@@ -34167,7 +34188,7 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT171">
         <v>1</v>
@@ -34358,7 +34379,7 @@
         <v>1.6</v>
       </c>
       <c r="AS172">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT172">
         <v>1.2</v>
@@ -34462,7 +34483,7 @@
         <v>209</v>
       </c>
       <c r="P173" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34552,7 +34573,7 @@
         <v>1.44</v>
       </c>
       <c r="AT173">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU173">
         <v>1.53</v>
@@ -34653,7 +34674,7 @@
         <v>114</v>
       </c>
       <c r="P174" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34743,7 +34764,7 @@
         <v>2.11</v>
       </c>
       <c r="AT174">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU174">
         <v>1.41</v>
@@ -34931,7 +34952,7 @@
         <v>2</v>
       </c>
       <c r="AS175">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT175">
         <v>0.89</v>
@@ -35035,7 +35056,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -35122,7 +35143,7 @@
         <v>1.2</v>
       </c>
       <c r="AS176">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT176">
         <v>1</v>
@@ -35507,7 +35528,7 @@
         <v>1.8</v>
       </c>
       <c r="AT178">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU178">
         <v>1.35</v>
@@ -35698,7 +35719,7 @@
         <v>1.8</v>
       </c>
       <c r="AT179">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU179">
         <v>2.02</v>
@@ -35886,7 +35907,7 @@
         <v>0.8</v>
       </c>
       <c r="AS180">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT180">
         <v>0.7</v>
@@ -35990,7 +36011,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -36077,7 +36098,7 @@
         <v>1</v>
       </c>
       <c r="AS181">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT181">
         <v>0.89</v>
@@ -36271,7 +36292,7 @@
         <v>1.5</v>
       </c>
       <c r="AT182">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU182">
         <v>1.69</v>
@@ -36372,7 +36393,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36650,7 +36671,7 @@
         <v>0.8</v>
       </c>
       <c r="AS184">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT184">
         <v>1</v>
@@ -36754,7 +36775,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36844,7 +36865,7 @@
         <v>1.8</v>
       </c>
       <c r="AT185">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU185">
         <v>1.33</v>
@@ -37032,7 +37053,7 @@
         <v>0</v>
       </c>
       <c r="AS186">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT186">
         <v>0</v>
@@ -37136,7 +37157,7 @@
         <v>220</v>
       </c>
       <c r="P187" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37223,7 +37244,7 @@
         <v>0.8</v>
       </c>
       <c r="AS187">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT187">
         <v>0.6</v>
@@ -37327,7 +37348,7 @@
         <v>102</v>
       </c>
       <c r="P188" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q188">
         <v>12</v>
@@ -37414,7 +37435,7 @@
         <v>1</v>
       </c>
       <c r="AS188">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT188">
         <v>1.22</v>
@@ -37608,7 +37629,7 @@
         <v>1</v>
       </c>
       <c r="AT189">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU189">
         <v>1.57</v>
@@ -37709,7 +37730,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q190">
         <v>0</v>
@@ -37796,7 +37817,7 @@
         <v>0.2</v>
       </c>
       <c r="AS190">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT190">
         <v>0.5</v>
@@ -37900,7 +37921,7 @@
         <v>102</v>
       </c>
       <c r="P191" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q191">
         <v>10</v>
@@ -37987,7 +38008,7 @@
         <v>1.5</v>
       </c>
       <c r="AS191">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT191">
         <v>1.78</v>
@@ -38181,7 +38202,7 @@
         <v>2</v>
       </c>
       <c r="AT192">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU192">
         <v>1.28</v>
@@ -38372,7 +38393,7 @@
         <v>1.8</v>
       </c>
       <c r="AT193">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU193">
         <v>1.16</v>
@@ -38560,7 +38581,7 @@
         <v>0.8</v>
       </c>
       <c r="AS194">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT194">
         <v>0.7</v>
@@ -38945,7 +38966,7 @@
         <v>1.78</v>
       </c>
       <c r="AT196">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU196">
         <v>1.78</v>
@@ -39046,7 +39067,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39136,7 +39157,7 @@
         <v>1.33</v>
       </c>
       <c r="AT197">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU197">
         <v>1.46</v>
@@ -39237,7 +39258,7 @@
         <v>105</v>
       </c>
       <c r="P198" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q198">
         <v>8</v>
@@ -39327,7 +39348,7 @@
         <v>1.33</v>
       </c>
       <c r="AT198">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU198">
         <v>1.87</v>
@@ -39518,7 +39539,7 @@
         <v>1.8</v>
       </c>
       <c r="AT199">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU199">
         <v>1.88</v>
@@ -39706,7 +39727,7 @@
         <v>1.5</v>
       </c>
       <c r="AS200">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT200">
         <v>1</v>
@@ -39810,7 +39831,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39900,7 +39921,7 @@
         <v>2</v>
       </c>
       <c r="AT201">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU201">
         <v>1.4</v>
@@ -40001,7 +40022,7 @@
         <v>102</v>
       </c>
       <c r="P202" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q202">
         <v>11</v>
@@ -40088,7 +40109,7 @@
         <v>1.25</v>
       </c>
       <c r="AS202">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT202">
         <v>1.44</v>
@@ -40192,7 +40213,7 @@
         <v>227</v>
       </c>
       <c r="P203" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40282,7 +40303,7 @@
         <v>2.11</v>
       </c>
       <c r="AT203">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU203">
         <v>1.69</v>
@@ -40470,7 +40491,7 @@
         <v>1.75</v>
       </c>
       <c r="AS204">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT204">
         <v>0.89</v>
@@ -40574,7 +40595,7 @@
         <v>102</v>
       </c>
       <c r="P205" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q205">
         <v>8</v>
@@ -40661,10 +40682,10 @@
         <v>1</v>
       </c>
       <c r="AS205">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT205">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU205">
         <v>1.3</v>
@@ -40765,7 +40786,7 @@
         <v>102</v>
       </c>
       <c r="P206" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q206">
         <v>6</v>
@@ -40855,7 +40876,7 @@
         <v>1.1</v>
       </c>
       <c r="AT206">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU206">
         <v>1.42</v>
@@ -40956,7 +40977,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41046,7 +41067,7 @@
         <v>1</v>
       </c>
       <c r="AT207">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU207">
         <v>2.2</v>
@@ -41234,7 +41255,7 @@
         <v>0.67</v>
       </c>
       <c r="AS208">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT208">
         <v>0.7</v>
@@ -41338,7 +41359,7 @@
         <v>102</v>
       </c>
       <c r="P209" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41425,7 +41446,7 @@
         <v>1.33</v>
       </c>
       <c r="AS209">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT209">
         <v>1.2</v>
@@ -41616,7 +41637,7 @@
         <v>0.75</v>
       </c>
       <c r="AS210">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT210">
         <v>1.22</v>
@@ -41720,7 +41741,7 @@
         <v>102</v>
       </c>
       <c r="P211" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41810,7 +41831,7 @@
         <v>2.11</v>
       </c>
       <c r="AT211">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU211">
         <v>1.43</v>
@@ -42001,7 +42022,7 @@
         <v>1.44</v>
       </c>
       <c r="AT212">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU212">
         <v>1.43</v>
@@ -42189,7 +42210,7 @@
         <v>1</v>
       </c>
       <c r="AS213">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT213">
         <v>1</v>
@@ -42383,7 +42404,7 @@
         <v>1.8</v>
       </c>
       <c r="AT214">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU214">
         <v>1.36</v>
@@ -42484,7 +42505,7 @@
         <v>102</v>
       </c>
       <c r="P215" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q215">
         <v>7</v>
@@ -42571,7 +42592,7 @@
         <v>0.4</v>
       </c>
       <c r="AS215">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT215">
         <v>0.5</v>
@@ -42762,7 +42783,7 @@
         <v>0.6</v>
       </c>
       <c r="AS216">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT216">
         <v>0.6</v>
@@ -42956,7 +42977,7 @@
         <v>2</v>
       </c>
       <c r="AT217">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU217">
         <v>1.2</v>
@@ -43144,7 +43165,7 @@
         <v>1.33</v>
       </c>
       <c r="AS218">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT218">
         <v>1.67</v>
@@ -43335,7 +43356,7 @@
         <v>1.5</v>
       </c>
       <c r="AS219">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT219">
         <v>0.9</v>
@@ -43526,7 +43547,7 @@
         <v>1</v>
       </c>
       <c r="AS220">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT220">
         <v>0.89</v>
@@ -43717,7 +43738,7 @@
         <v>1.8</v>
       </c>
       <c r="AS221">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT221">
         <v>1.78</v>
@@ -43908,7 +43929,7 @@
         <v>0</v>
       </c>
       <c r="AS222">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT222">
         <v>0</v>
@@ -44102,7 +44123,7 @@
         <v>1.78</v>
       </c>
       <c r="AT223">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU223">
         <v>1.69</v>
@@ -44203,7 +44224,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q224">
         <v>2</v>
@@ -44290,7 +44311,7 @@
         <v>0.17</v>
       </c>
       <c r="AS224">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT224">
         <v>0.5</v>
@@ -44484,7 +44505,7 @@
         <v>2.1</v>
       </c>
       <c r="AT225">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU225">
         <v>1.56</v>
@@ -44585,7 +44606,7 @@
         <v>239</v>
       </c>
       <c r="P226" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44675,7 +44696,7 @@
         <v>1.33</v>
       </c>
       <c r="AT226">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU226">
         <v>1.71</v>
@@ -44967,7 +44988,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -45248,7 +45269,7 @@
         <v>1.8</v>
       </c>
       <c r="AT229">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU229">
         <v>1.33</v>
@@ -45349,7 +45370,7 @@
         <v>157</v>
       </c>
       <c r="P230" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45439,7 +45460,7 @@
         <v>1</v>
       </c>
       <c r="AT230">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU230">
         <v>1.51</v>
@@ -45627,7 +45648,7 @@
         <v>0.83</v>
       </c>
       <c r="AS231">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT231">
         <v>0.6</v>
@@ -45821,7 +45842,7 @@
         <v>1.5</v>
       </c>
       <c r="AT232">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU232">
         <v>1.75</v>
@@ -46009,7 +46030,7 @@
         <v>0</v>
       </c>
       <c r="AS233">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT233">
         <v>0</v>
@@ -46203,7 +46224,7 @@
         <v>1.33</v>
       </c>
       <c r="AT234">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU234">
         <v>1.39</v>
@@ -46391,7 +46412,7 @@
         <v>0.83</v>
       </c>
       <c r="AS235">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT235">
         <v>0.5</v>
@@ -46495,7 +46516,7 @@
         <v>102</v>
       </c>
       <c r="P236" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -46585,7 +46606,7 @@
         <v>1.1</v>
       </c>
       <c r="AT236">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU236">
         <v>1.38</v>
@@ -46686,7 +46707,7 @@
         <v>244</v>
       </c>
       <c r="P237" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46776,7 +46797,7 @@
         <v>2</v>
       </c>
       <c r="AT237">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU237">
         <v>1.4</v>
@@ -46964,7 +46985,7 @@
         <v>1.57</v>
       </c>
       <c r="AS238">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT238">
         <v>1.2</v>
@@ -47068,7 +47089,7 @@
         <v>246</v>
       </c>
       <c r="P239" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q239">
         <v>9</v>
@@ -47158,7 +47179,7 @@
         <v>1</v>
       </c>
       <c r="AT239">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU239">
         <v>2.07</v>
@@ -47346,7 +47367,7 @@
         <v>0.5</v>
       </c>
       <c r="AS240">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT240">
         <v>0.6</v>
@@ -47450,7 +47471,7 @@
         <v>248</v>
       </c>
       <c r="P241" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47537,10 +47558,10 @@
         <v>0.83</v>
       </c>
       <c r="AS241">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT241">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU241">
         <v>1.26</v>
@@ -47731,7 +47752,7 @@
         <v>2.11</v>
       </c>
       <c r="AT242">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU242">
         <v>1.76</v>
@@ -47832,7 +47853,7 @@
         <v>250</v>
       </c>
       <c r="P243" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q243">
         <v>10</v>
@@ -47919,7 +47940,7 @@
         <v>1.4</v>
       </c>
       <c r="AS243">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT243">
         <v>1.22</v>
@@ -48110,7 +48131,7 @@
         <v>1.4</v>
       </c>
       <c r="AS244">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT244">
         <v>0.89</v>
@@ -48304,7 +48325,7 @@
         <v>1.8</v>
       </c>
       <c r="AT245">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU245">
         <v>1.82</v>
@@ -48492,10 +48513,10 @@
         <v>1.17</v>
       </c>
       <c r="AS246">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT246">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU246">
         <v>1.7</v>
@@ -48683,7 +48704,7 @@
         <v>0.57</v>
       </c>
       <c r="AS247">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT247">
         <v>0.7</v>
@@ -48874,7 +48895,7 @@
         <v>1.6</v>
       </c>
       <c r="AS248">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT248">
         <v>1.44</v>
@@ -49447,10 +49468,10 @@
         <v>1.5</v>
       </c>
       <c r="AS251">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT251">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU251">
         <v>1.2</v>
@@ -49641,7 +49662,7 @@
         <v>1.33</v>
       </c>
       <c r="AT252">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU252">
         <v>1.53</v>
@@ -49832,7 +49853,7 @@
         <v>2</v>
       </c>
       <c r="AT253">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU253">
         <v>1.39</v>
@@ -50023,7 +50044,7 @@
         <v>1.8</v>
       </c>
       <c r="AT254">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU254">
         <v>1.2</v>
@@ -50124,7 +50145,7 @@
         <v>259</v>
       </c>
       <c r="P255" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50211,7 +50232,7 @@
         <v>1.67</v>
       </c>
       <c r="AS255">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT255">
         <v>1.78</v>
@@ -50405,7 +50426,7 @@
         <v>1.8</v>
       </c>
       <c r="AT256">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU256">
         <v>1.3</v>
@@ -50888,7 +50909,7 @@
         <v>102</v>
       </c>
       <c r="P259" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q259">
         <v>10</v>
@@ -50975,7 +50996,7 @@
         <v>0.83</v>
       </c>
       <c r="AS259">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT259">
         <v>0.89</v>
@@ -51079,7 +51100,7 @@
         <v>262</v>
       </c>
       <c r="P260" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q260">
         <v>9</v>
@@ -51166,7 +51187,7 @@
         <v>1.29</v>
       </c>
       <c r="AS260">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT260">
         <v>1.67</v>
@@ -51360,7 +51381,7 @@
         <v>2.1</v>
       </c>
       <c r="AT261">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU261">
         <v>1.59</v>
@@ -51461,7 +51482,7 @@
         <v>107</v>
       </c>
       <c r="P262" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q262">
         <v>2</v>
@@ -51548,10 +51569,10 @@
         <v>1.86</v>
       </c>
       <c r="AS262">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT262">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU262">
         <v>1.72</v>
@@ -51739,10 +51760,10 @@
         <v>0.86</v>
       </c>
       <c r="AS263">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT263">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU263">
         <v>1.62</v>
@@ -51930,7 +51951,7 @@
         <v>1.29</v>
       </c>
       <c r="AS264">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT264">
         <v>0.9</v>
@@ -52315,7 +52336,7 @@
         <v>1.33</v>
       </c>
       <c r="AT266">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU266">
         <v>1.36</v>
@@ -52416,7 +52437,7 @@
         <v>266</v>
       </c>
       <c r="P267" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -52506,7 +52527,7 @@
         <v>1.78</v>
       </c>
       <c r="AT267">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU267">
         <v>1.56</v>
@@ -52607,7 +52628,7 @@
         <v>102</v>
       </c>
       <c r="P268" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -52885,7 +52906,7 @@
         <v>0</v>
       </c>
       <c r="AS269">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT269">
         <v>0</v>
@@ -53076,7 +53097,7 @@
         <v>1.29</v>
       </c>
       <c r="AS270">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT270">
         <v>1</v>
@@ -53270,7 +53291,7 @@
         <v>2</v>
       </c>
       <c r="AT271">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU271">
         <v>1.44</v>
@@ -53458,10 +53479,10 @@
         <v>1</v>
       </c>
       <c r="AS272">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT272">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU272">
         <v>1.25</v>
@@ -53562,7 +53583,7 @@
         <v>270</v>
       </c>
       <c r="P273" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q273">
         <v>4</v>
@@ -53649,10 +53670,10 @@
         <v>0.71</v>
       </c>
       <c r="AS273">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT273">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU273">
         <v>1.27</v>
@@ -53840,7 +53861,7 @@
         <v>1.38</v>
       </c>
       <c r="AS274">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT274">
         <v>1.2</v>
@@ -53944,7 +53965,7 @@
         <v>271</v>
       </c>
       <c r="P275" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q275">
         <v>2</v>
@@ -54031,10 +54052,10 @@
         <v>1.57</v>
       </c>
       <c r="AS275">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT275">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU275">
         <v>1.62</v>
@@ -54135,7 +54156,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -54222,10 +54243,10 @@
         <v>1.29</v>
       </c>
       <c r="AS276">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT276">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU276">
         <v>1.81</v>
@@ -54413,7 +54434,7 @@
         <v>0.57</v>
       </c>
       <c r="AS277">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT277">
         <v>0.6</v>
@@ -54604,7 +54625,7 @@
         <v>1.67</v>
       </c>
       <c r="AS278">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT278">
         <v>1.22</v>
@@ -54708,7 +54729,7 @@
         <v>102</v>
       </c>
       <c r="P279" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -55368,7 +55389,7 @@
         <v>0.71</v>
       </c>
       <c r="AS282">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT282">
         <v>0.5</v>
@@ -55750,7 +55771,7 @@
         <v>0</v>
       </c>
       <c r="AS284">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT284">
         <v>0</v>
@@ -55941,10 +55962,10 @@
         <v>1.14</v>
       </c>
       <c r="AS285">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT285">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU285">
         <v>1.14</v>
@@ -56135,7 +56156,7 @@
         <v>1.33</v>
       </c>
       <c r="AT286">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU286">
         <v>1.62</v>
@@ -56236,7 +56257,7 @@
         <v>250</v>
       </c>
       <c r="P287" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q287">
         <v>8</v>
@@ -56326,7 +56347,7 @@
         <v>1.33</v>
       </c>
       <c r="AT287">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU287">
         <v>1.58</v>
@@ -56427,7 +56448,7 @@
         <v>278</v>
       </c>
       <c r="P288" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -56517,7 +56538,7 @@
         <v>1.1</v>
       </c>
       <c r="AT288">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU288">
         <v>1.35</v>
@@ -56809,7 +56830,7 @@
         <v>200</v>
       </c>
       <c r="P290" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q290">
         <v>6</v>
@@ -56899,7 +56920,7 @@
         <v>1.8</v>
       </c>
       <c r="AT290">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU290">
         <v>1.78</v>
@@ -57087,7 +57108,7 @@
         <v>0</v>
       </c>
       <c r="AS291">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT291">
         <v>0</v>
@@ -57191,7 +57212,7 @@
         <v>102</v>
       </c>
       <c r="P292" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q292">
         <v>3</v>
@@ -57278,7 +57299,7 @@
         <v>1.5</v>
       </c>
       <c r="AS292">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT292">
         <v>1.67</v>
@@ -57955,7 +57976,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="Q296">
         <v>9</v>
@@ -58042,10 +58063,10 @@
         <v>1.13</v>
       </c>
       <c r="AS296">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT296">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU296">
         <v>1.69</v>
@@ -58146,7 +58167,7 @@
         <v>283</v>
       </c>
       <c r="P297" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -58233,10 +58254,10 @@
         <v>0.88</v>
       </c>
       <c r="AS297">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT297">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU297">
         <v>1.47</v>
@@ -58337,7 +58358,7 @@
         <v>102</v>
       </c>
       <c r="P298" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q298">
         <v>7</v>
@@ -58424,7 +58445,7 @@
         <v>0.5</v>
       </c>
       <c r="AS298">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT298">
         <v>0.7</v>
@@ -58528,7 +58549,7 @@
         <v>284</v>
       </c>
       <c r="P299" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q299">
         <v>6</v>
@@ -58615,7 +58636,7 @@
         <v>1.14</v>
       </c>
       <c r="AS299">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT299">
         <v>0.89</v>
@@ -59191,7 +59212,7 @@
         <v>2</v>
       </c>
       <c r="AT302">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU302">
         <v>1.42</v>
@@ -59292,7 +59313,7 @@
         <v>286</v>
       </c>
       <c r="P303" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -59379,10 +59400,10 @@
         <v>1.75</v>
       </c>
       <c r="AS303">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT303">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU303">
         <v>1.5</v>
@@ -59570,10 +59591,10 @@
         <v>0.88</v>
       </c>
       <c r="AS304">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT304">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU304">
         <v>1.64</v>
@@ -59674,7 +59695,7 @@
         <v>287</v>
       </c>
       <c r="P305" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q305">
         <v>6</v>
@@ -59764,7 +59785,7 @@
         <v>1.33</v>
       </c>
       <c r="AT305">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU305">
         <v>1.37</v>
@@ -59955,7 +59976,7 @@
         <v>1.8</v>
       </c>
       <c r="AT306">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU306">
         <v>1.27</v>
@@ -60337,7 +60358,7 @@
         <v>1.78</v>
       </c>
       <c r="AT308">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU308">
         <v>1.62</v>
@@ -60438,7 +60459,7 @@
         <v>290</v>
       </c>
       <c r="P309" t="s">
-        <v>388</v>
+        <v>319</v>
       </c>
       <c r="Q309">
         <v>11</v>
@@ -60629,7 +60650,7 @@
         <v>291</v>
       </c>
       <c r="P310" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q310">
         <v>11</v>
@@ -60716,10 +60737,10 @@
         <v>1.5</v>
       </c>
       <c r="AS310">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT310">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU310">
         <v>1.2</v>
@@ -60907,10 +60928,10 @@
         <v>1.13</v>
       </c>
       <c r="AS311">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT311">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU311">
         <v>1.81</v>
@@ -61289,7 +61310,7 @@
         <v>1.86</v>
       </c>
       <c r="AS313">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT313">
         <v>1.78</v>
@@ -61480,10 +61501,10 @@
         <v>1.29</v>
       </c>
       <c r="AS314">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT314">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU314">
         <v>1.6</v>
@@ -61674,7 +61695,7 @@
         <v>2</v>
       </c>
       <c r="AT315">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU315">
         <v>1.38</v>
@@ -61862,10 +61883,10 @@
         <v>1</v>
       </c>
       <c r="AS316">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT316">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU316">
         <v>1.87</v>
@@ -61966,7 +61987,7 @@
         <v>197</v>
       </c>
       <c r="P317" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q317">
         <v>5</v>
@@ -62053,10 +62074,10 @@
         <v>1</v>
       </c>
       <c r="AS317">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT317">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU317">
         <v>1.49</v>
@@ -62244,7 +62265,7 @@
         <v>0.5</v>
       </c>
       <c r="AS318">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT318">
         <v>0.6</v>
@@ -62435,7 +62456,7 @@
         <v>0.63</v>
       </c>
       <c r="AS319">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT319">
         <v>0.5</v>
@@ -62539,7 +62560,7 @@
         <v>298</v>
       </c>
       <c r="P320" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q320">
         <v>6</v>
@@ -62626,10 +62647,10 @@
         <v>1.5</v>
       </c>
       <c r="AS320">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT320">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU320">
         <v>1.27</v>
@@ -62730,7 +62751,7 @@
         <v>299</v>
       </c>
       <c r="P321" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q321">
         <v>5</v>
@@ -62817,10 +62838,10 @@
         <v>0.75</v>
       </c>
       <c r="AS321">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT321">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU321">
         <v>1.16</v>
@@ -63112,7 +63133,7 @@
         <v>300</v>
       </c>
       <c r="P323" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q323">
         <v>3</v>
@@ -63581,10 +63602,10 @@
         <v>0.44</v>
       </c>
       <c r="AS325">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT325">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU325">
         <v>1.21</v>
@@ -63775,7 +63796,7 @@
         <v>2</v>
       </c>
       <c r="AT326">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU326">
         <v>1.34</v>
@@ -63963,7 +63984,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS327">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT327">
         <v>0.6</v>
@@ -64154,10 +64175,10 @@
         <v>1.25</v>
       </c>
       <c r="AS328">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT328">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU328">
         <v>1.84</v>
@@ -64345,10 +64366,10 @@
         <v>1</v>
       </c>
       <c r="AS329">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT329">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU329">
         <v>1.51</v>
@@ -64536,10 +64557,10 @@
         <v>1.44</v>
       </c>
       <c r="AS330">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT330">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU330">
         <v>1.73</v>
@@ -64727,10 +64748,10 @@
         <v>1.22</v>
       </c>
       <c r="AS331">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT331">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU331">
         <v>1.33</v>
@@ -64831,7 +64852,7 @@
         <v>102</v>
       </c>
       <c r="P332" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q332">
         <v>5</v>
@@ -64918,10 +64939,10 @@
         <v>0.89</v>
       </c>
       <c r="AS332">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT332">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU332">
         <v>1.36</v>
@@ -65109,10 +65130,10 @@
         <v>0.67</v>
       </c>
       <c r="AS333">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT333">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU333">
         <v>1.6</v>
@@ -65213,7 +65234,7 @@
         <v>102</v>
       </c>
       <c r="P334" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q334">
         <v>2</v>
@@ -65303,7 +65324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT334">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU334">
         <v>1.8</v>
@@ -66064,7 +66085,7 @@
         <v>1</v>
       </c>
       <c r="AS338">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT338">
         <v>0.89</v>
@@ -67595,7 +67616,7 @@
         <v>1.33</v>
       </c>
       <c r="AT346">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU346">
         <v>1.33</v>
@@ -68078,7 +68099,7 @@
         <v>188</v>
       </c>
       <c r="P349" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q349">
         <v>6</v>
@@ -68269,7 +68290,7 @@
         <v>312</v>
       </c>
       <c r="P350" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q350">
         <v>2</v>
@@ -68651,7 +68672,7 @@
         <v>313</v>
       </c>
       <c r="P352" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q352">
         <v>2</v>
@@ -68793,6 +68814,3444 @@
       </c>
       <c r="BK352">
         <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:63">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>6161920</v>
+      </c>
+      <c r="C353" t="s">
+        <v>63</v>
+      </c>
+      <c r="D353" t="s">
+        <v>64</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45100.64583333334</v>
+      </c>
+      <c r="F353">
+        <v>22</v>
+      </c>
+      <c r="G353" t="s">
+        <v>87</v>
+      </c>
+      <c r="H353" t="s">
+        <v>73</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>0</v>
+      </c>
+      <c r="L353">
+        <v>1</v>
+      </c>
+      <c r="M353">
+        <v>0</v>
+      </c>
+      <c r="N353">
+        <v>1</v>
+      </c>
+      <c r="O353" t="s">
+        <v>127</v>
+      </c>
+      <c r="P353" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q353">
+        <v>3</v>
+      </c>
+      <c r="R353">
+        <v>10</v>
+      </c>
+      <c r="S353">
+        <v>13</v>
+      </c>
+      <c r="T353">
+        <v>3.4</v>
+      </c>
+      <c r="U353">
+        <v>1.93</v>
+      </c>
+      <c r="V353">
+        <v>4.16</v>
+      </c>
+      <c r="W353">
+        <v>1.62</v>
+      </c>
+      <c r="X353">
+        <v>2.32</v>
+      </c>
+      <c r="Y353">
+        <v>3.72</v>
+      </c>
+      <c r="Z353">
+        <v>1.25</v>
+      </c>
+      <c r="AA353">
+        <v>10.7</v>
+      </c>
+      <c r="AB353">
+        <v>1.03</v>
+      </c>
+      <c r="AC353">
+        <v>2.5</v>
+      </c>
+      <c r="AD353">
+        <v>2.7</v>
+      </c>
+      <c r="AE353">
+        <v>3.3</v>
+      </c>
+      <c r="AF353">
+        <v>1.13</v>
+      </c>
+      <c r="AG353">
+        <v>6.02</v>
+      </c>
+      <c r="AH353">
+        <v>1.54</v>
+      </c>
+      <c r="AI353">
+        <v>2.38</v>
+      </c>
+      <c r="AJ353">
+        <v>2.65</v>
+      </c>
+      <c r="AK353">
+        <v>1.44</v>
+      </c>
+      <c r="AL353">
+        <v>2.23</v>
+      </c>
+      <c r="AM353">
+        <v>1.65</v>
+      </c>
+      <c r="AN353">
+        <v>1.35</v>
+      </c>
+      <c r="AO353">
+        <v>1.44</v>
+      </c>
+      <c r="AP353">
+        <v>1.51</v>
+      </c>
+      <c r="AQ353">
+        <v>2.4</v>
+      </c>
+      <c r="AR353">
+        <v>1.3</v>
+      </c>
+      <c r="AS353">
+        <v>2.45</v>
+      </c>
+      <c r="AT353">
+        <v>1.18</v>
+      </c>
+      <c r="AU353">
+        <v>1.34</v>
+      </c>
+      <c r="AV353">
+        <v>1.04</v>
+      </c>
+      <c r="AW353">
+        <v>2.38</v>
+      </c>
+      <c r="AX353">
+        <v>1.87</v>
+      </c>
+      <c r="AY353">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ353">
+        <v>2.29</v>
+      </c>
+      <c r="BA353">
+        <v>1.53</v>
+      </c>
+      <c r="BB353">
+        <v>1.91</v>
+      </c>
+      <c r="BC353">
+        <v>2.4</v>
+      </c>
+      <c r="BD353">
+        <v>3.34</v>
+      </c>
+      <c r="BE353">
+        <v>5</v>
+      </c>
+      <c r="BF353">
+        <v>4</v>
+      </c>
+      <c r="BG353">
+        <v>5</v>
+      </c>
+      <c r="BH353">
+        <v>5</v>
+      </c>
+      <c r="BI353">
+        <v>3</v>
+      </c>
+      <c r="BJ353">
+        <v>9</v>
+      </c>
+      <c r="BK353">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:63">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>6161879</v>
+      </c>
+      <c r="C354" t="s">
+        <v>63</v>
+      </c>
+      <c r="D354" t="s">
+        <v>64</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45101.50347222222</v>
+      </c>
+      <c r="F354">
+        <v>19</v>
+      </c>
+      <c r="G354" t="s">
+        <v>84</v>
+      </c>
+      <c r="H354" t="s">
+        <v>95</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354">
+        <v>0</v>
+      </c>
+      <c r="M354">
+        <v>1</v>
+      </c>
+      <c r="N354">
+        <v>1</v>
+      </c>
+      <c r="O354" t="s">
+        <v>102</v>
+      </c>
+      <c r="P354" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q354">
+        <v>1</v>
+      </c>
+      <c r="R354">
+        <v>7</v>
+      </c>
+      <c r="S354">
+        <v>8</v>
+      </c>
+      <c r="T354">
+        <v>5.59</v>
+      </c>
+      <c r="U354">
+        <v>2.06</v>
+      </c>
+      <c r="V354">
+        <v>2.5</v>
+      </c>
+      <c r="W354">
+        <v>1.52</v>
+      </c>
+      <c r="X354">
+        <v>2.51</v>
+      </c>
+      <c r="Y354">
+        <v>3.44</v>
+      </c>
+      <c r="Z354">
+        <v>1.29</v>
+      </c>
+      <c r="AA354">
+        <v>9.4</v>
+      </c>
+      <c r="AB354">
+        <v>1.04</v>
+      </c>
+      <c r="AC354">
+        <v>4.4</v>
+      </c>
+      <c r="AD354">
+        <v>3.2</v>
+      </c>
+      <c r="AE354">
+        <v>1.84</v>
+      </c>
+      <c r="AF354">
+        <v>1.1</v>
+      </c>
+      <c r="AG354">
+        <v>7.55</v>
+      </c>
+      <c r="AH354">
+        <v>1.47</v>
+      </c>
+      <c r="AI354">
+        <v>2.52</v>
+      </c>
+      <c r="AJ354">
+        <v>2.35</v>
+      </c>
+      <c r="AK354">
+        <v>1.53</v>
+      </c>
+      <c r="AL354">
+        <v>2.19</v>
+      </c>
+      <c r="AM354">
+        <v>1.64</v>
+      </c>
+      <c r="AN354">
+        <v>2.04</v>
+      </c>
+      <c r="AO354">
+        <v>1.31</v>
+      </c>
+      <c r="AP354">
+        <v>1.17</v>
+      </c>
+      <c r="AQ354">
+        <v>1.56</v>
+      </c>
+      <c r="AR354">
+        <v>1.56</v>
+      </c>
+      <c r="AS354">
+        <v>1.4</v>
+      </c>
+      <c r="AT354">
+        <v>1.7</v>
+      </c>
+      <c r="AU354">
+        <v>1.43</v>
+      </c>
+      <c r="AV354">
+        <v>1.42</v>
+      </c>
+      <c r="AW354">
+        <v>2.85</v>
+      </c>
+      <c r="AX354">
+        <v>2.47</v>
+      </c>
+      <c r="AY354">
+        <v>8.5</v>
+      </c>
+      <c r="AZ354">
+        <v>1.75</v>
+      </c>
+      <c r="BA354">
+        <v>1.46</v>
+      </c>
+      <c r="BB354">
+        <v>1.81</v>
+      </c>
+      <c r="BC354">
+        <v>2.27</v>
+      </c>
+      <c r="BD354">
+        <v>3.15</v>
+      </c>
+      <c r="BE354">
+        <v>4.6</v>
+      </c>
+      <c r="BF354">
+        <v>2</v>
+      </c>
+      <c r="BG354">
+        <v>8</v>
+      </c>
+      <c r="BH354">
+        <v>5</v>
+      </c>
+      <c r="BI354">
+        <v>5</v>
+      </c>
+      <c r="BJ354">
+        <v>7</v>
+      </c>
+      <c r="BK354">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355" spans="1:63">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>6161878</v>
+      </c>
+      <c r="C355" t="s">
+        <v>63</v>
+      </c>
+      <c r="D355" t="s">
+        <v>64</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45101.625</v>
+      </c>
+      <c r="F355">
+        <v>19</v>
+      </c>
+      <c r="G355" t="s">
+        <v>82</v>
+      </c>
+      <c r="H355" t="s">
+        <v>96</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355">
+        <v>1</v>
+      </c>
+      <c r="M355">
+        <v>0</v>
+      </c>
+      <c r="N355">
+        <v>1</v>
+      </c>
+      <c r="O355" t="s">
+        <v>250</v>
+      </c>
+      <c r="P355" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q355">
+        <v>7</v>
+      </c>
+      <c r="R355">
+        <v>4</v>
+      </c>
+      <c r="S355">
+        <v>11</v>
+      </c>
+      <c r="T355">
+        <v>2.88</v>
+      </c>
+      <c r="U355">
+        <v>2.02</v>
+      </c>
+      <c r="V355">
+        <v>4.54</v>
+      </c>
+      <c r="W355">
+        <v>1.53</v>
+      </c>
+      <c r="X355">
+        <v>2.49</v>
+      </c>
+      <c r="Y355">
+        <v>3.48</v>
+      </c>
+      <c r="Z355">
+        <v>1.28</v>
+      </c>
+      <c r="AA355">
+        <v>9.6</v>
+      </c>
+      <c r="AB355">
+        <v>1.04</v>
+      </c>
+      <c r="AC355">
+        <v>1.97</v>
+      </c>
+      <c r="AD355">
+        <v>3.05</v>
+      </c>
+      <c r="AE355">
+        <v>3.6</v>
+      </c>
+      <c r="AF355">
+        <v>1.1</v>
+      </c>
+      <c r="AG355">
+        <v>6.25</v>
+      </c>
+      <c r="AH355">
+        <v>1.46</v>
+      </c>
+      <c r="AI355">
+        <v>2.5</v>
+      </c>
+      <c r="AJ355">
+        <v>2.1</v>
+      </c>
+      <c r="AK355">
+        <v>1.67</v>
+      </c>
+      <c r="AL355">
+        <v>2.11</v>
+      </c>
+      <c r="AM355">
+        <v>1.69</v>
+      </c>
+      <c r="AN355">
+        <v>1.26</v>
+      </c>
+      <c r="AO355">
+        <v>1.34</v>
+      </c>
+      <c r="AP355">
+        <v>1.75</v>
+      </c>
+      <c r="AQ355">
+        <v>1.22</v>
+      </c>
+      <c r="AR355">
+        <v>0.78</v>
+      </c>
+      <c r="AS355">
+        <v>1.4</v>
+      </c>
+      <c r="AT355">
+        <v>0.7</v>
+      </c>
+      <c r="AU355">
+        <v>1.43</v>
+      </c>
+      <c r="AV355">
+        <v>1.41</v>
+      </c>
+      <c r="AW355">
+        <v>2.84</v>
+      </c>
+      <c r="AX355">
+        <v>1.78</v>
+      </c>
+      <c r="AY355">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ355">
+        <v>2.36</v>
+      </c>
+      <c r="BA355">
+        <v>1.18</v>
+      </c>
+      <c r="BB355">
+        <v>1.38</v>
+      </c>
+      <c r="BC355">
+        <v>1.69</v>
+      </c>
+      <c r="BD355">
+        <v>2.09</v>
+      </c>
+      <c r="BE355">
+        <v>2.77</v>
+      </c>
+      <c r="BF355">
+        <v>9</v>
+      </c>
+      <c r="BG355">
+        <v>0</v>
+      </c>
+      <c r="BH355">
+        <v>8</v>
+      </c>
+      <c r="BI355">
+        <v>6</v>
+      </c>
+      <c r="BJ355">
+        <v>17</v>
+      </c>
+      <c r="BK355">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:63">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>6161923</v>
+      </c>
+      <c r="C356" t="s">
+        <v>63</v>
+      </c>
+      <c r="D356" t="s">
+        <v>64</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45101.625</v>
+      </c>
+      <c r="F356">
+        <v>22</v>
+      </c>
+      <c r="G356" t="s">
+        <v>80</v>
+      </c>
+      <c r="H356" t="s">
+        <v>70</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356">
+        <v>1</v>
+      </c>
+      <c r="K356">
+        <v>2</v>
+      </c>
+      <c r="L356">
+        <v>2</v>
+      </c>
+      <c r="M356">
+        <v>1</v>
+      </c>
+      <c r="N356">
+        <v>3</v>
+      </c>
+      <c r="O356" t="s">
+        <v>314</v>
+      </c>
+      <c r="P356" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q356">
+        <v>7</v>
+      </c>
+      <c r="R356">
+        <v>4</v>
+      </c>
+      <c r="S356">
+        <v>11</v>
+      </c>
+      <c r="T356">
+        <v>3.2</v>
+      </c>
+      <c r="U356">
+        <v>1.84</v>
+      </c>
+      <c r="V356">
+        <v>4.81</v>
+      </c>
+      <c r="W356">
+        <v>1.7</v>
+      </c>
+      <c r="X356">
+        <v>2.14</v>
+      </c>
+      <c r="Y356">
+        <v>4.3</v>
+      </c>
+      <c r="Z356">
+        <v>1.2</v>
+      </c>
+      <c r="AA356">
+        <v>12.2</v>
+      </c>
+      <c r="AB356">
+        <v>1.01</v>
+      </c>
+      <c r="AC356">
+        <v>2.27</v>
+      </c>
+      <c r="AD356">
+        <v>2.7</v>
+      </c>
+      <c r="AE356">
+        <v>3.3</v>
+      </c>
+      <c r="AF356">
+        <v>1.14</v>
+      </c>
+      <c r="AG356">
+        <v>5.6</v>
+      </c>
+      <c r="AH356">
+        <v>1.65</v>
+      </c>
+      <c r="AI356">
+        <v>2.12</v>
+      </c>
+      <c r="AJ356">
+        <v>2.9</v>
+      </c>
+      <c r="AK356">
+        <v>1.38</v>
+      </c>
+      <c r="AL356">
+        <v>2.45</v>
+      </c>
+      <c r="AM356">
+        <v>1.52</v>
+      </c>
+      <c r="AN356">
+        <v>1.27</v>
+      </c>
+      <c r="AO356">
+        <v>1.4</v>
+      </c>
+      <c r="AP356">
+        <v>1.66</v>
+      </c>
+      <c r="AQ356">
+        <v>1.5</v>
+      </c>
+      <c r="AR356">
+        <v>0.7</v>
+      </c>
+      <c r="AS356">
+        <v>1.64</v>
+      </c>
+      <c r="AT356">
+        <v>0.64</v>
+      </c>
+      <c r="AU356">
+        <v>1.39</v>
+      </c>
+      <c r="AV356">
+        <v>1.33</v>
+      </c>
+      <c r="AW356">
+        <v>2.72</v>
+      </c>
+      <c r="AX356">
+        <v>1.88</v>
+      </c>
+      <c r="AY356">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ356">
+        <v>2.27</v>
+      </c>
+      <c r="BA356">
+        <v>1.5</v>
+      </c>
+      <c r="BB356">
+        <v>1.85</v>
+      </c>
+      <c r="BC356">
+        <v>2.33</v>
+      </c>
+      <c r="BD356">
+        <v>3.3</v>
+      </c>
+      <c r="BE356">
+        <v>4.7</v>
+      </c>
+      <c r="BF356">
+        <v>3</v>
+      </c>
+      <c r="BG356">
+        <v>4</v>
+      </c>
+      <c r="BH356">
+        <v>7</v>
+      </c>
+      <c r="BI356">
+        <v>3</v>
+      </c>
+      <c r="BJ356">
+        <v>10</v>
+      </c>
+      <c r="BK356">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:63">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>6161922</v>
+      </c>
+      <c r="C357" t="s">
+        <v>63</v>
+      </c>
+      <c r="D357" t="s">
+        <v>64</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45101.63194444445</v>
+      </c>
+      <c r="F357">
+        <v>22</v>
+      </c>
+      <c r="G357" t="s">
+        <v>91</v>
+      </c>
+      <c r="H357" t="s">
+        <v>71</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
+      <c r="L357">
+        <v>4</v>
+      </c>
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357">
+        <v>4</v>
+      </c>
+      <c r="O357" t="s">
+        <v>315</v>
+      </c>
+      <c r="P357" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q357">
+        <v>3</v>
+      </c>
+      <c r="R357">
+        <v>5</v>
+      </c>
+      <c r="S357">
+        <v>8</v>
+      </c>
+      <c r="T357">
+        <v>2.7</v>
+      </c>
+      <c r="U357">
+        <v>2</v>
+      </c>
+      <c r="V357">
+        <v>5.21</v>
+      </c>
+      <c r="W357">
+        <v>1.56</v>
+      </c>
+      <c r="X357">
+        <v>2.41</v>
+      </c>
+      <c r="Y357">
+        <v>3.64</v>
+      </c>
+      <c r="Z357">
+        <v>1.26</v>
+      </c>
+      <c r="AA357">
+        <v>10.2</v>
+      </c>
+      <c r="AB357">
+        <v>1.03</v>
+      </c>
+      <c r="AC357">
+        <v>1.93</v>
+      </c>
+      <c r="AD357">
+        <v>3</v>
+      </c>
+      <c r="AE357">
+        <v>3.7</v>
+      </c>
+      <c r="AF357">
+        <v>1.1</v>
+      </c>
+      <c r="AG357">
+        <v>7.15</v>
+      </c>
+      <c r="AH357">
+        <v>1.5</v>
+      </c>
+      <c r="AI357">
+        <v>2.5</v>
+      </c>
+      <c r="AJ357">
+        <v>2.45</v>
+      </c>
+      <c r="AK357">
+        <v>1.48</v>
+      </c>
+      <c r="AL357">
+        <v>2.25</v>
+      </c>
+      <c r="AM357">
+        <v>1.61</v>
+      </c>
+      <c r="AN357">
+        <v>1.2</v>
+      </c>
+      <c r="AO357">
+        <v>1.33</v>
+      </c>
+      <c r="AP357">
+        <v>1.91</v>
+      </c>
+      <c r="AQ357">
+        <v>2.6</v>
+      </c>
+      <c r="AR357">
+        <v>1.3</v>
+      </c>
+      <c r="AS357">
+        <v>2.64</v>
+      </c>
+      <c r="AT357">
+        <v>1.18</v>
+      </c>
+      <c r="AU357">
+        <v>1.66</v>
+      </c>
+      <c r="AV357">
+        <v>1</v>
+      </c>
+      <c r="AW357">
+        <v>2.66</v>
+      </c>
+      <c r="AX357">
+        <v>1.63</v>
+      </c>
+      <c r="AY357">
+        <v>8.6</v>
+      </c>
+      <c r="AZ357">
+        <v>2.75</v>
+      </c>
+      <c r="BA357">
+        <v>1.48</v>
+      </c>
+      <c r="BB357">
+        <v>1.83</v>
+      </c>
+      <c r="BC357">
+        <v>2.28</v>
+      </c>
+      <c r="BD357">
+        <v>3.2</v>
+      </c>
+      <c r="BE357">
+        <v>4.7</v>
+      </c>
+      <c r="BF357">
+        <v>9</v>
+      </c>
+      <c r="BG357">
+        <v>7</v>
+      </c>
+      <c r="BH357">
+        <v>7</v>
+      </c>
+      <c r="BI357">
+        <v>5</v>
+      </c>
+      <c r="BJ357">
+        <v>16</v>
+      </c>
+      <c r="BK357">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358" spans="1:63">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>6161924</v>
+      </c>
+      <c r="C358" t="s">
+        <v>63</v>
+      </c>
+      <c r="D358" t="s">
+        <v>64</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45101.64583333334</v>
+      </c>
+      <c r="F358">
+        <v>22</v>
+      </c>
+      <c r="G358" t="s">
+        <v>81</v>
+      </c>
+      <c r="H358" t="s">
+        <v>66</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>1</v>
+      </c>
+      <c r="K358">
+        <v>1</v>
+      </c>
+      <c r="L358">
+        <v>0</v>
+      </c>
+      <c r="M358">
+        <v>1</v>
+      </c>
+      <c r="N358">
+        <v>1</v>
+      </c>
+      <c r="O358" t="s">
+        <v>102</v>
+      </c>
+      <c r="P358" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q358">
+        <v>4</v>
+      </c>
+      <c r="R358">
+        <v>3</v>
+      </c>
+      <c r="S358">
+        <v>7</v>
+      </c>
+      <c r="T358">
+        <v>3.46</v>
+      </c>
+      <c r="U358">
+        <v>2.02</v>
+      </c>
+      <c r="V358">
+        <v>3.6</v>
+      </c>
+      <c r="W358">
+        <v>1.51</v>
+      </c>
+      <c r="X358">
+        <v>2.52</v>
+      </c>
+      <c r="Y358">
+        <v>3.44</v>
+      </c>
+      <c r="Z358">
+        <v>1.29</v>
+      </c>
+      <c r="AA358">
+        <v>9.4</v>
+      </c>
+      <c r="AB358">
+        <v>1.04</v>
+      </c>
+      <c r="AC358">
+        <v>2.61</v>
+      </c>
+      <c r="AD358">
+        <v>2.9</v>
+      </c>
+      <c r="AE358">
+        <v>2.55</v>
+      </c>
+      <c r="AF358">
+        <v>1.1</v>
+      </c>
+      <c r="AG358">
+        <v>6.5</v>
+      </c>
+      <c r="AH358">
+        <v>1.53</v>
+      </c>
+      <c r="AI358">
+        <v>2.38</v>
+      </c>
+      <c r="AJ358">
+        <v>2.4</v>
+      </c>
+      <c r="AK358">
+        <v>1.53</v>
+      </c>
+      <c r="AL358">
+        <v>2.01</v>
+      </c>
+      <c r="AM358">
+        <v>1.76</v>
+      </c>
+      <c r="AN358">
+        <v>1.44</v>
+      </c>
+      <c r="AO358">
+        <v>1.36</v>
+      </c>
+      <c r="AP358">
+        <v>1.47</v>
+      </c>
+      <c r="AQ358">
+        <v>1.7</v>
+      </c>
+      <c r="AR358">
+        <v>0.5</v>
+      </c>
+      <c r="AS358">
+        <v>1.55</v>
+      </c>
+      <c r="AT358">
+        <v>0.73</v>
+      </c>
+      <c r="AU358">
+        <v>1.8</v>
+      </c>
+      <c r="AV358">
+        <v>1.31</v>
+      </c>
+      <c r="AW358">
+        <v>3.11</v>
+      </c>
+      <c r="AX358">
+        <v>2.17</v>
+      </c>
+      <c r="AY358">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ358">
+        <v>1.96</v>
+      </c>
+      <c r="BA358">
+        <v>1.57</v>
+      </c>
+      <c r="BB358">
+        <v>1.96</v>
+      </c>
+      <c r="BC358">
+        <v>2.49</v>
+      </c>
+      <c r="BD358">
+        <v>3.48</v>
+      </c>
+      <c r="BE358">
+        <v>5.2</v>
+      </c>
+      <c r="BF358">
+        <v>0</v>
+      </c>
+      <c r="BG358">
+        <v>2</v>
+      </c>
+      <c r="BH358">
+        <v>3</v>
+      </c>
+      <c r="BI358">
+        <v>2</v>
+      </c>
+      <c r="BJ358">
+        <v>3</v>
+      </c>
+      <c r="BK358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:63">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>6161881</v>
+      </c>
+      <c r="C359" t="s">
+        <v>63</v>
+      </c>
+      <c r="D359" t="s">
+        <v>64</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45101.67361111111</v>
+      </c>
+      <c r="F359">
+        <v>19</v>
+      </c>
+      <c r="G359" t="s">
+        <v>101</v>
+      </c>
+      <c r="H359" t="s">
+        <v>98</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>1</v>
+      </c>
+      <c r="L359">
+        <v>1</v>
+      </c>
+      <c r="M359">
+        <v>0</v>
+      </c>
+      <c r="N359">
+        <v>1</v>
+      </c>
+      <c r="O359" t="s">
+        <v>149</v>
+      </c>
+      <c r="P359" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q359">
+        <v>3</v>
+      </c>
+      <c r="R359">
+        <v>3</v>
+      </c>
+      <c r="S359">
+        <v>6</v>
+      </c>
+      <c r="T359">
+        <v>2.38</v>
+      </c>
+      <c r="U359">
+        <v>2.12</v>
+      </c>
+      <c r="V359">
+        <v>5.8</v>
+      </c>
+      <c r="W359">
+        <v>1.48</v>
+      </c>
+      <c r="X359">
+        <v>2.61</v>
+      </c>
+      <c r="Y359">
+        <v>3.37</v>
+      </c>
+      <c r="Z359">
+        <v>1.32</v>
+      </c>
+      <c r="AA359">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB359">
+        <v>1.05</v>
+      </c>
+      <c r="AC359">
+        <v>1.54</v>
+      </c>
+      <c r="AD359">
+        <v>3.6</v>
+      </c>
+      <c r="AE359">
+        <v>5.2</v>
+      </c>
+      <c r="AF359">
+        <v>1.07</v>
+      </c>
+      <c r="AG359">
+        <v>7.5</v>
+      </c>
+      <c r="AH359">
+        <v>1.38</v>
+      </c>
+      <c r="AI359">
+        <v>2.8</v>
+      </c>
+      <c r="AJ359">
+        <v>2.31</v>
+      </c>
+      <c r="AK359">
+        <v>1.56</v>
+      </c>
+      <c r="AL359">
+        <v>2.14</v>
+      </c>
+      <c r="AM359">
+        <v>1.67</v>
+      </c>
+      <c r="AN359">
+        <v>1.15</v>
+      </c>
+      <c r="AO359">
+        <v>1.29</v>
+      </c>
+      <c r="AP359">
+        <v>2.15</v>
+      </c>
+      <c r="AQ359">
+        <v>2.44</v>
+      </c>
+      <c r="AR359">
+        <v>0</v>
+      </c>
+      <c r="AS359">
+        <v>2.5</v>
+      </c>
+      <c r="AT359">
+        <v>0</v>
+      </c>
+      <c r="AU359">
+        <v>1.83</v>
+      </c>
+      <c r="AV359">
+        <v>1.2</v>
+      </c>
+      <c r="AW359">
+        <v>3.03</v>
+      </c>
+      <c r="AX359">
+        <v>1.66</v>
+      </c>
+      <c r="AY359">
+        <v>9.1</v>
+      </c>
+      <c r="AZ359">
+        <v>2.62</v>
+      </c>
+      <c r="BA359">
+        <v>1.24</v>
+      </c>
+      <c r="BB359">
+        <v>1.5</v>
+      </c>
+      <c r="BC359">
+        <v>1.83</v>
+      </c>
+      <c r="BD359">
+        <v>2.27</v>
+      </c>
+      <c r="BE359">
+        <v>3.1</v>
+      </c>
+      <c r="BF359">
+        <v>2</v>
+      </c>
+      <c r="BG359">
+        <v>3</v>
+      </c>
+      <c r="BH359">
+        <v>2</v>
+      </c>
+      <c r="BI359">
+        <v>4</v>
+      </c>
+      <c r="BJ359">
+        <v>4</v>
+      </c>
+      <c r="BK359">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:63">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>6161919</v>
+      </c>
+      <c r="C360" t="s">
+        <v>63</v>
+      </c>
+      <c r="D360" t="s">
+        <v>64</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45101.6875</v>
+      </c>
+      <c r="F360">
+        <v>22</v>
+      </c>
+      <c r="G360" t="s">
+        <v>86</v>
+      </c>
+      <c r="H360" t="s">
+        <v>68</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
+      <c r="L360">
+        <v>2</v>
+      </c>
+      <c r="M360">
+        <v>1</v>
+      </c>
+      <c r="N360">
+        <v>3</v>
+      </c>
+      <c r="O360" t="s">
+        <v>316</v>
+      </c>
+      <c r="P360" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q360">
+        <v>7</v>
+      </c>
+      <c r="R360">
+        <v>3</v>
+      </c>
+      <c r="S360">
+        <v>10</v>
+      </c>
+      <c r="T360">
+        <v>2.78</v>
+      </c>
+      <c r="U360">
+        <v>2</v>
+      </c>
+      <c r="V360">
+        <v>4.92</v>
+      </c>
+      <c r="W360">
+        <v>1.55</v>
+      </c>
+      <c r="X360">
+        <v>2.43</v>
+      </c>
+      <c r="Y360">
+        <v>3.64</v>
+      </c>
+      <c r="Z360">
+        <v>1.26</v>
+      </c>
+      <c r="AA360">
+        <v>10.2</v>
+      </c>
+      <c r="AB360">
+        <v>1.03</v>
+      </c>
+      <c r="AC360">
+        <v>1.99</v>
+      </c>
+      <c r="AD360">
+        <v>3.05</v>
+      </c>
+      <c r="AE360">
+        <v>3.45</v>
+      </c>
+      <c r="AF360">
+        <v>1.07</v>
+      </c>
+      <c r="AG360">
+        <v>6.45</v>
+      </c>
+      <c r="AH360">
+        <v>1.48</v>
+      </c>
+      <c r="AI360">
+        <v>2.48</v>
+      </c>
+      <c r="AJ360">
+        <v>2.45</v>
+      </c>
+      <c r="AK360">
+        <v>1.48</v>
+      </c>
+      <c r="AL360">
+        <v>2.19</v>
+      </c>
+      <c r="AM360">
+        <v>1.64</v>
+      </c>
+      <c r="AN360">
+        <v>1.22</v>
+      </c>
+      <c r="AO360">
+        <v>1.34</v>
+      </c>
+      <c r="AP360">
+        <v>1.83</v>
+      </c>
+      <c r="AQ360">
+        <v>1.9</v>
+      </c>
+      <c r="AR360">
+        <v>1</v>
+      </c>
+      <c r="AS360">
+        <v>2</v>
+      </c>
+      <c r="AT360">
+        <v>0.91</v>
+      </c>
+      <c r="AU360">
+        <v>1.72</v>
+      </c>
+      <c r="AV360">
+        <v>1.11</v>
+      </c>
+      <c r="AW360">
+        <v>2.83</v>
+      </c>
+      <c r="AX360">
+        <v>1.7</v>
+      </c>
+      <c r="AY360">
+        <v>8.5</v>
+      </c>
+      <c r="AZ360">
+        <v>2.58</v>
+      </c>
+      <c r="BA360">
+        <v>1.49</v>
+      </c>
+      <c r="BB360">
+        <v>1.83</v>
+      </c>
+      <c r="BC360">
+        <v>2.3</v>
+      </c>
+      <c r="BD360">
+        <v>3.3</v>
+      </c>
+      <c r="BE360">
+        <v>4.7</v>
+      </c>
+      <c r="BF360">
+        <v>8</v>
+      </c>
+      <c r="BG360">
+        <v>7</v>
+      </c>
+      <c r="BH360">
+        <v>11</v>
+      </c>
+      <c r="BI360">
+        <v>4</v>
+      </c>
+      <c r="BJ360">
+        <v>19</v>
+      </c>
+      <c r="BK360">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="361" spans="1:63">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>6161925</v>
+      </c>
+      <c r="C361" t="s">
+        <v>63</v>
+      </c>
+      <c r="D361" t="s">
+        <v>64</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45101.75694444445</v>
+      </c>
+      <c r="F361">
+        <v>22</v>
+      </c>
+      <c r="G361" t="s">
+        <v>78</v>
+      </c>
+      <c r="H361" t="s">
+        <v>67</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361">
+        <v>1</v>
+      </c>
+      <c r="K361">
+        <v>2</v>
+      </c>
+      <c r="L361">
+        <v>1</v>
+      </c>
+      <c r="M361">
+        <v>1</v>
+      </c>
+      <c r="N361">
+        <v>2</v>
+      </c>
+      <c r="O361" t="s">
+        <v>181</v>
+      </c>
+      <c r="P361" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q361">
+        <v>6</v>
+      </c>
+      <c r="R361">
+        <v>2</v>
+      </c>
+      <c r="S361">
+        <v>8</v>
+      </c>
+      <c r="T361">
+        <v>2.38</v>
+      </c>
+      <c r="U361">
+        <v>2.08</v>
+      </c>
+      <c r="V361">
+        <v>6.36</v>
+      </c>
+      <c r="W361">
+        <v>1.51</v>
+      </c>
+      <c r="X361">
+        <v>2.38</v>
+      </c>
+      <c r="Y361">
+        <v>3.48</v>
+      </c>
+      <c r="Z361">
+        <v>1.28</v>
+      </c>
+      <c r="AA361">
+        <v>9.4</v>
+      </c>
+      <c r="AB361">
+        <v>1.04</v>
+      </c>
+      <c r="AC361">
+        <v>1.62</v>
+      </c>
+      <c r="AD361">
+        <v>3.3</v>
+      </c>
+      <c r="AE361">
+        <v>5</v>
+      </c>
+      <c r="AF361">
+        <v>1.06</v>
+      </c>
+      <c r="AG361">
+        <v>7.85</v>
+      </c>
+      <c r="AH361">
+        <v>1.44</v>
+      </c>
+      <c r="AI361">
+        <v>2.58</v>
+      </c>
+      <c r="AJ361">
+        <v>2.45</v>
+      </c>
+      <c r="AK361">
+        <v>1.53</v>
+      </c>
+      <c r="AL361">
+        <v>2.29</v>
+      </c>
+      <c r="AM361">
+        <v>1.59</v>
+      </c>
+      <c r="AN361">
+        <v>1.14</v>
+      </c>
+      <c r="AO361">
+        <v>1.3</v>
+      </c>
+      <c r="AP361">
+        <v>2.17</v>
+      </c>
+      <c r="AQ361">
+        <v>2.1</v>
+      </c>
+      <c r="AR361">
+        <v>0.9</v>
+      </c>
+      <c r="AS361">
+        <v>2</v>
+      </c>
+      <c r="AT361">
+        <v>0.91</v>
+      </c>
+      <c r="AU361">
+        <v>1.6</v>
+      </c>
+      <c r="AV361">
+        <v>1.06</v>
+      </c>
+      <c r="AW361">
+        <v>2.66</v>
+      </c>
+      <c r="AX361">
+        <v>1.48</v>
+      </c>
+      <c r="AY361">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ361">
+        <v>3.24</v>
+      </c>
+      <c r="BA361">
+        <v>1.33</v>
+      </c>
+      <c r="BB361">
+        <v>1.68</v>
+      </c>
+      <c r="BC361">
+        <v>2.09</v>
+      </c>
+      <c r="BD361">
+        <v>2.63</v>
+      </c>
+      <c r="BE361">
+        <v>3.86</v>
+      </c>
+      <c r="BF361">
+        <v>9</v>
+      </c>
+      <c r="BG361">
+        <v>4</v>
+      </c>
+      <c r="BH361">
+        <v>7</v>
+      </c>
+      <c r="BI361">
+        <v>2</v>
+      </c>
+      <c r="BJ361">
+        <v>16</v>
+      </c>
+      <c r="BK361">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:63">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>6161874</v>
+      </c>
+      <c r="C362" t="s">
+        <v>63</v>
+      </c>
+      <c r="D362" t="s">
+        <v>64</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45101.84027777778</v>
+      </c>
+      <c r="F362">
+        <v>19</v>
+      </c>
+      <c r="G362" t="s">
+        <v>90</v>
+      </c>
+      <c r="H362" t="s">
+        <v>93</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+      <c r="L362">
+        <v>1</v>
+      </c>
+      <c r="M362">
+        <v>0</v>
+      </c>
+      <c r="N362">
+        <v>1</v>
+      </c>
+      <c r="O362" t="s">
+        <v>239</v>
+      </c>
+      <c r="P362" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q362">
+        <v>6</v>
+      </c>
+      <c r="R362">
+        <v>2</v>
+      </c>
+      <c r="S362">
+        <v>8</v>
+      </c>
+      <c r="T362">
+        <v>3.21</v>
+      </c>
+      <c r="U362">
+        <v>1.99</v>
+      </c>
+      <c r="V362">
+        <v>4.03</v>
+      </c>
+      <c r="W362">
+        <v>1.54</v>
+      </c>
+      <c r="X362">
+        <v>2.45</v>
+      </c>
+      <c r="Y362">
+        <v>3.56</v>
+      </c>
+      <c r="Z362">
+        <v>1.27</v>
+      </c>
+      <c r="AA362">
+        <v>9.9</v>
+      </c>
+      <c r="AB362">
+        <v>1.03</v>
+      </c>
+      <c r="AC362">
+        <v>2.2</v>
+      </c>
+      <c r="AD362">
+        <v>3</v>
+      </c>
+      <c r="AE362">
+        <v>3.05</v>
+      </c>
+      <c r="AF362">
+        <v>1.09</v>
+      </c>
+      <c r="AG362">
+        <v>6.5</v>
+      </c>
+      <c r="AH362">
+        <v>1.46</v>
+      </c>
+      <c r="AI362">
+        <v>2.55</v>
+      </c>
+      <c r="AJ362">
+        <v>2.5</v>
+      </c>
+      <c r="AK362">
+        <v>1.5</v>
+      </c>
+      <c r="AL362">
+        <v>2.08</v>
+      </c>
+      <c r="AM362">
+        <v>1.71</v>
+      </c>
+      <c r="AN362">
+        <v>1.35</v>
+      </c>
+      <c r="AO362">
+        <v>1.36</v>
+      </c>
+      <c r="AP362">
+        <v>1.59</v>
+      </c>
+      <c r="AQ362">
+        <v>2.11</v>
+      </c>
+      <c r="AR362">
+        <v>1.67</v>
+      </c>
+      <c r="AS362">
+        <v>2.2</v>
+      </c>
+      <c r="AT362">
+        <v>1.5</v>
+      </c>
+      <c r="AU362">
+        <v>1.66</v>
+      </c>
+      <c r="AV362">
+        <v>1.45</v>
+      </c>
+      <c r="AW362">
+        <v>3.11</v>
+      </c>
+      <c r="AX362">
+        <v>1.65</v>
+      </c>
+      <c r="AY362">
+        <v>9</v>
+      </c>
+      <c r="AZ362">
+        <v>2.66</v>
+      </c>
+      <c r="BA362">
+        <v>1.29</v>
+      </c>
+      <c r="BB362">
+        <v>1.62</v>
+      </c>
+      <c r="BC362">
+        <v>2</v>
+      </c>
+      <c r="BD362">
+        <v>2.53</v>
+      </c>
+      <c r="BE362">
+        <v>3.48</v>
+      </c>
+      <c r="BF362">
+        <v>8</v>
+      </c>
+      <c r="BG362">
+        <v>4</v>
+      </c>
+      <c r="BH362">
+        <v>4</v>
+      </c>
+      <c r="BI362">
+        <v>3</v>
+      </c>
+      <c r="BJ362">
+        <v>12</v>
+      </c>
+      <c r="BK362">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:63">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>6161875</v>
+      </c>
+      <c r="C363" t="s">
+        <v>63</v>
+      </c>
+      <c r="D363" t="s">
+        <v>64</v>
+      </c>
+      <c r="E363" s="2">
+        <v>45102.5</v>
+      </c>
+      <c r="F363">
+        <v>19</v>
+      </c>
+      <c r="G363" t="s">
+        <v>83</v>
+      </c>
+      <c r="H363" t="s">
+        <v>94</v>
+      </c>
+      <c r="I363">
+        <v>1</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>1</v>
+      </c>
+      <c r="L363">
+        <v>1</v>
+      </c>
+      <c r="M363">
+        <v>1</v>
+      </c>
+      <c r="N363">
+        <v>2</v>
+      </c>
+      <c r="O363" t="s">
+        <v>181</v>
+      </c>
+      <c r="P363" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q363">
+        <v>6</v>
+      </c>
+      <c r="R363">
+        <v>4</v>
+      </c>
+      <c r="S363">
+        <v>10</v>
+      </c>
+      <c r="T363">
+        <v>3.61</v>
+      </c>
+      <c r="U363">
+        <v>1.89</v>
+      </c>
+      <c r="V363">
+        <v>3.88</v>
+      </c>
+      <c r="W363">
+        <v>1.63</v>
+      </c>
+      <c r="X363">
+        <v>2.26</v>
+      </c>
+      <c r="Y363">
+        <v>3.92</v>
+      </c>
+      <c r="Z363">
+        <v>1.23</v>
+      </c>
+      <c r="AA363">
+        <v>11.2</v>
+      </c>
+      <c r="AB363">
+        <v>1.02</v>
+      </c>
+      <c r="AC363">
+        <v>2.02</v>
+      </c>
+      <c r="AD363">
+        <v>4.03</v>
+      </c>
+      <c r="AE363">
+        <v>2.74</v>
+      </c>
+      <c r="AF363">
+        <v>1.12</v>
+      </c>
+      <c r="AG363">
+        <v>6.2</v>
+      </c>
+      <c r="AH363">
+        <v>1.53</v>
+      </c>
+      <c r="AI363">
+        <v>2.33</v>
+      </c>
+      <c r="AJ363">
+        <v>2.75</v>
+      </c>
+      <c r="AK363">
+        <v>1.4</v>
+      </c>
+      <c r="AL363">
+        <v>2.23</v>
+      </c>
+      <c r="AM363">
+        <v>1.62</v>
+      </c>
+      <c r="AN363">
+        <v>1.4</v>
+      </c>
+      <c r="AO363">
+        <v>1.39</v>
+      </c>
+      <c r="AP363">
+        <v>1.48</v>
+      </c>
+      <c r="AQ363">
+        <v>1.78</v>
+      </c>
+      <c r="AR363">
+        <v>0.78</v>
+      </c>
+      <c r="AS363">
+        <v>1.7</v>
+      </c>
+      <c r="AT363">
+        <v>0.8</v>
+      </c>
+      <c r="AU363">
+        <v>1.41</v>
+      </c>
+      <c r="AV363">
+        <v>1.28</v>
+      </c>
+      <c r="AW363">
+        <v>2.69</v>
+      </c>
+      <c r="AX363">
+        <v>1.79</v>
+      </c>
+      <c r="AY363">
+        <v>8.5</v>
+      </c>
+      <c r="AZ363">
+        <v>2.4</v>
+      </c>
+      <c r="BA363">
+        <v>1.48</v>
+      </c>
+      <c r="BB363">
+        <v>1.83</v>
+      </c>
+      <c r="BC363">
+        <v>2.31</v>
+      </c>
+      <c r="BD363">
+        <v>3.3</v>
+      </c>
+      <c r="BE363">
+        <v>4.8</v>
+      </c>
+      <c r="BF363">
+        <v>6</v>
+      </c>
+      <c r="BG363">
+        <v>3</v>
+      </c>
+      <c r="BH363">
+        <v>6</v>
+      </c>
+      <c r="BI363">
+        <v>9</v>
+      </c>
+      <c r="BJ363">
+        <v>12</v>
+      </c>
+      <c r="BK363">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="1:63">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>6161921</v>
+      </c>
+      <c r="C364" t="s">
+        <v>63</v>
+      </c>
+      <c r="D364" t="s">
+        <v>64</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45102.625</v>
+      </c>
+      <c r="F364">
+        <v>22</v>
+      </c>
+      <c r="G364" t="s">
+        <v>88</v>
+      </c>
+      <c r="H364" t="s">
+        <v>65</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364">
+        <v>0</v>
+      </c>
+      <c r="M364">
+        <v>2</v>
+      </c>
+      <c r="N364">
+        <v>2</v>
+      </c>
+      <c r="O364" t="s">
+        <v>102</v>
+      </c>
+      <c r="P364" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q364">
+        <v>5</v>
+      </c>
+      <c r="R364">
+        <v>10</v>
+      </c>
+      <c r="S364">
+        <v>15</v>
+      </c>
+      <c r="T364">
+        <v>3.31</v>
+      </c>
+      <c r="U364">
+        <v>1.87</v>
+      </c>
+      <c r="V364">
+        <v>4.43</v>
+      </c>
+      <c r="W364">
+        <v>1.66</v>
+      </c>
+      <c r="X364">
+        <v>2.2</v>
+      </c>
+      <c r="Y364">
+        <v>4.05</v>
+      </c>
+      <c r="Z364">
+        <v>1.22</v>
+      </c>
+      <c r="AA364">
+        <v>11.7</v>
+      </c>
+      <c r="AB364">
+        <v>1.02</v>
+      </c>
+      <c r="AC364">
+        <v>2.5</v>
+      </c>
+      <c r="AD364">
+        <v>2.7</v>
+      </c>
+      <c r="AE364">
+        <v>2.95</v>
+      </c>
+      <c r="AF364">
+        <v>1.12</v>
+      </c>
+      <c r="AG364">
+        <v>6.1</v>
+      </c>
+      <c r="AH364">
+        <v>1.67</v>
+      </c>
+      <c r="AI364">
+        <v>2.1</v>
+      </c>
+      <c r="AJ364">
+        <v>3.27</v>
+      </c>
+      <c r="AK364">
+        <v>1.29</v>
+      </c>
+      <c r="AL364">
+        <v>2.31</v>
+      </c>
+      <c r="AM364">
+        <v>1.58</v>
+      </c>
+      <c r="AN364">
+        <v>1.31</v>
+      </c>
+      <c r="AO364">
+        <v>1.39</v>
+      </c>
+      <c r="AP364">
+        <v>1.6</v>
+      </c>
+      <c r="AQ364">
+        <v>1.3</v>
+      </c>
+      <c r="AR364">
+        <v>1.1</v>
+      </c>
+      <c r="AS364">
+        <v>1.18</v>
+      </c>
+      <c r="AT364">
+        <v>1.27</v>
+      </c>
+      <c r="AU364">
+        <v>1.48</v>
+      </c>
+      <c r="AV364">
+        <v>1.15</v>
+      </c>
+      <c r="AW364">
+        <v>2.63</v>
+      </c>
+      <c r="AX364">
+        <v>1.9</v>
+      </c>
+      <c r="AY364">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ364">
+        <v>2.24</v>
+      </c>
+      <c r="BA364">
+        <v>1.52</v>
+      </c>
+      <c r="BB364">
+        <v>1.88</v>
+      </c>
+      <c r="BC364">
+        <v>2.36</v>
+      </c>
+      <c r="BD364">
+        <v>3.28</v>
+      </c>
+      <c r="BE364">
+        <v>5</v>
+      </c>
+      <c r="BF364">
+        <v>0</v>
+      </c>
+      <c r="BG364">
+        <v>5</v>
+      </c>
+      <c r="BH364">
+        <v>5</v>
+      </c>
+      <c r="BI364">
+        <v>6</v>
+      </c>
+      <c r="BJ364">
+        <v>5</v>
+      </c>
+      <c r="BK364">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="365" spans="1:63">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>6161876</v>
+      </c>
+      <c r="C365" t="s">
+        <v>63</v>
+      </c>
+      <c r="D365" t="s">
+        <v>64</v>
+      </c>
+      <c r="E365" s="2">
+        <v>45102.625</v>
+      </c>
+      <c r="F365">
+        <v>19</v>
+      </c>
+      <c r="G365" t="s">
+        <v>77</v>
+      </c>
+      <c r="H365" t="s">
+        <v>92</v>
+      </c>
+      <c r="I365">
+        <v>1</v>
+      </c>
+      <c r="J365">
+        <v>1</v>
+      </c>
+      <c r="K365">
+        <v>2</v>
+      </c>
+      <c r="L365">
+        <v>1</v>
+      </c>
+      <c r="M365">
+        <v>1</v>
+      </c>
+      <c r="N365">
+        <v>2</v>
+      </c>
+      <c r="O365" t="s">
+        <v>220</v>
+      </c>
+      <c r="P365" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q365">
+        <v>1</v>
+      </c>
+      <c r="R365">
+        <v>9</v>
+      </c>
+      <c r="S365">
+        <v>10</v>
+      </c>
+      <c r="T365">
+        <v>2.93</v>
+      </c>
+      <c r="U365">
+        <v>1.93</v>
+      </c>
+      <c r="V365">
+        <v>4.88</v>
+      </c>
+      <c r="W365">
+        <v>1.61</v>
+      </c>
+      <c r="X365">
+        <v>2.3</v>
+      </c>
+      <c r="Y365">
+        <v>3.82</v>
+      </c>
+      <c r="Z365">
+        <v>1.24</v>
+      </c>
+      <c r="AA365">
+        <v>10.7</v>
+      </c>
+      <c r="AB365">
+        <v>1.03</v>
+      </c>
+      <c r="AC365">
+        <v>2.05</v>
+      </c>
+      <c r="AD365">
+        <v>2.9</v>
+      </c>
+      <c r="AE365">
+        <v>3.8</v>
+      </c>
+      <c r="AF365">
+        <v>1.11</v>
+      </c>
+      <c r="AG365">
+        <v>6.75</v>
+      </c>
+      <c r="AH365">
+        <v>1.53</v>
+      </c>
+      <c r="AI365">
+        <v>2.35</v>
+      </c>
+      <c r="AJ365">
+        <v>2.85</v>
+      </c>
+      <c r="AK365">
+        <v>1.37</v>
+      </c>
+      <c r="AL365">
+        <v>2.29</v>
+      </c>
+      <c r="AM365">
+        <v>1.59</v>
+      </c>
+      <c r="AN365">
+        <v>1.24</v>
+      </c>
+      <c r="AO365">
+        <v>1.36</v>
+      </c>
+      <c r="AP365">
+        <v>1.77</v>
+      </c>
+      <c r="AQ365">
+        <v>1.56</v>
+      </c>
+      <c r="AR365">
+        <v>0.67</v>
+      </c>
+      <c r="AS365">
+        <v>1.5</v>
+      </c>
+      <c r="AT365">
+        <v>0.7</v>
+      </c>
+      <c r="AU365">
+        <v>1.53</v>
+      </c>
+      <c r="AV365">
+        <v>1.37</v>
+      </c>
+      <c r="AW365">
+        <v>2.9</v>
+      </c>
+      <c r="AX365">
+        <v>1.74</v>
+      </c>
+      <c r="AY365">
+        <v>8.5</v>
+      </c>
+      <c r="AZ365">
+        <v>2.49</v>
+      </c>
+      <c r="BA365">
+        <v>1.43</v>
+      </c>
+      <c r="BB365">
+        <v>1.78</v>
+      </c>
+      <c r="BC365">
+        <v>2.24</v>
+      </c>
+      <c r="BD365">
+        <v>3.15</v>
+      </c>
+      <c r="BE365">
+        <v>4.3</v>
+      </c>
+      <c r="BF365">
+        <v>3</v>
+      </c>
+      <c r="BG365">
+        <v>4</v>
+      </c>
+      <c r="BH365">
+        <v>3</v>
+      </c>
+      <c r="BI365">
+        <v>1</v>
+      </c>
+      <c r="BJ365">
+        <v>6</v>
+      </c>
+      <c r="BK365">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:63">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>6161926</v>
+      </c>
+      <c r="C366" t="s">
+        <v>63</v>
+      </c>
+      <c r="D366" t="s">
+        <v>64</v>
+      </c>
+      <c r="E366" s="2">
+        <v>45102.63194444445</v>
+      </c>
+      <c r="F366">
+        <v>22</v>
+      </c>
+      <c r="G366" t="s">
+        <v>85</v>
+      </c>
+      <c r="H366" t="s">
+        <v>99</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+      <c r="L366">
+        <v>1</v>
+      </c>
+      <c r="M366">
+        <v>1</v>
+      </c>
+      <c r="N366">
+        <v>2</v>
+      </c>
+      <c r="O366" t="s">
+        <v>228</v>
+      </c>
+      <c r="P366" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q366">
+        <v>13</v>
+      </c>
+      <c r="R366">
+        <v>1</v>
+      </c>
+      <c r="S366">
+        <v>14</v>
+      </c>
+      <c r="T366">
+        <v>2.79</v>
+      </c>
+      <c r="U366">
+        <v>1.88</v>
+      </c>
+      <c r="V366">
+        <v>5.77</v>
+      </c>
+      <c r="W366">
+        <v>1.68</v>
+      </c>
+      <c r="X366">
+        <v>2.17</v>
+      </c>
+      <c r="Y366">
+        <v>4.15</v>
+      </c>
+      <c r="Z366">
+        <v>1.21</v>
+      </c>
+      <c r="AA366">
+        <v>12</v>
+      </c>
+      <c r="AB366">
+        <v>1.02</v>
+      </c>
+      <c r="AC366">
+        <v>1.83</v>
+      </c>
+      <c r="AD366">
+        <v>2.95</v>
+      </c>
+      <c r="AE366">
+        <v>5</v>
+      </c>
+      <c r="AF366">
+        <v>1.12</v>
+      </c>
+      <c r="AG366">
+        <v>6.1</v>
+      </c>
+      <c r="AH366">
+        <v>1.6</v>
+      </c>
+      <c r="AI366">
+        <v>2.2</v>
+      </c>
+      <c r="AJ366">
+        <v>3.04</v>
+      </c>
+      <c r="AK366">
+        <v>1.33</v>
+      </c>
+      <c r="AL366">
+        <v>2.54</v>
+      </c>
+      <c r="AM366">
+        <v>1.49</v>
+      </c>
+      <c r="AN366">
+        <v>1.18</v>
+      </c>
+      <c r="AO366">
+        <v>1.36</v>
+      </c>
+      <c r="AP366">
+        <v>1.89</v>
+      </c>
+      <c r="AQ366">
+        <v>2.3</v>
+      </c>
+      <c r="AR366">
+        <v>0.89</v>
+      </c>
+      <c r="AS366">
+        <v>2.18</v>
+      </c>
+      <c r="AT366">
+        <v>0.9</v>
+      </c>
+      <c r="AU366">
+        <v>1.31</v>
+      </c>
+      <c r="AV366">
+        <v>1.09</v>
+      </c>
+      <c r="AW366">
+        <v>2.4</v>
+      </c>
+      <c r="AX366">
+        <v>1.4</v>
+      </c>
+      <c r="AY366">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ366">
+        <v>3.68</v>
+      </c>
+      <c r="BA366">
+        <v>1.51</v>
+      </c>
+      <c r="BB366">
+        <v>1.87</v>
+      </c>
+      <c r="BC366">
+        <v>2.35</v>
+      </c>
+      <c r="BD366">
+        <v>3.3</v>
+      </c>
+      <c r="BE366">
+        <v>5</v>
+      </c>
+      <c r="BF366">
+        <v>8</v>
+      </c>
+      <c r="BG366">
+        <v>3</v>
+      </c>
+      <c r="BH366">
+        <v>9</v>
+      </c>
+      <c r="BI366">
+        <v>3</v>
+      </c>
+      <c r="BJ366">
+        <v>17</v>
+      </c>
+      <c r="BK366">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:63">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>6161880</v>
+      </c>
+      <c r="C367" t="s">
+        <v>63</v>
+      </c>
+      <c r="D367" t="s">
+        <v>64</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45102.64583333334</v>
+      </c>
+      <c r="F367">
+        <v>19</v>
+      </c>
+      <c r="G367" t="s">
+        <v>89</v>
+      </c>
+      <c r="H367" t="s">
+        <v>97</v>
+      </c>
+      <c r="I367">
+        <v>1</v>
+      </c>
+      <c r="J367">
+        <v>1</v>
+      </c>
+      <c r="K367">
+        <v>2</v>
+      </c>
+      <c r="L367">
+        <v>2</v>
+      </c>
+      <c r="M367">
+        <v>1</v>
+      </c>
+      <c r="N367">
+        <v>3</v>
+      </c>
+      <c r="O367" t="s">
+        <v>317</v>
+      </c>
+      <c r="P367" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q367">
+        <v>8</v>
+      </c>
+      <c r="R367">
+        <v>5</v>
+      </c>
+      <c r="S367">
+        <v>13</v>
+      </c>
+      <c r="T367">
+        <v>2.81</v>
+      </c>
+      <c r="U367">
+        <v>1.98</v>
+      </c>
+      <c r="V367">
+        <v>4.91</v>
+      </c>
+      <c r="W367">
+        <v>1.56</v>
+      </c>
+      <c r="X367">
+        <v>2.4</v>
+      </c>
+      <c r="Y367">
+        <v>3.64</v>
+      </c>
+      <c r="Z367">
+        <v>1.26</v>
+      </c>
+      <c r="AA367">
+        <v>10.2</v>
+      </c>
+      <c r="AB367">
+        <v>1.03</v>
+      </c>
+      <c r="AC367">
+        <v>2.05</v>
+      </c>
+      <c r="AD367">
+        <v>3</v>
+      </c>
+      <c r="AE367">
+        <v>3.8</v>
+      </c>
+      <c r="AF367">
+        <v>1.07</v>
+      </c>
+      <c r="AG367">
+        <v>7.25</v>
+      </c>
+      <c r="AH367">
+        <v>1.48</v>
+      </c>
+      <c r="AI367">
+        <v>2.47</v>
+      </c>
+      <c r="AJ367">
+        <v>2.59</v>
+      </c>
+      <c r="AK367">
+        <v>1.44</v>
+      </c>
+      <c r="AL367">
+        <v>2.21</v>
+      </c>
+      <c r="AM367">
+        <v>1.63</v>
+      </c>
+      <c r="AN367">
+        <v>1.22</v>
+      </c>
+      <c r="AO367">
+        <v>1.34</v>
+      </c>
+      <c r="AP367">
+        <v>1.83</v>
+      </c>
+      <c r="AQ367">
+        <v>2.22</v>
+      </c>
+      <c r="AR367">
+        <v>1.11</v>
+      </c>
+      <c r="AS367">
+        <v>2.3</v>
+      </c>
+      <c r="AT367">
+        <v>1</v>
+      </c>
+      <c r="AU367">
+        <v>2.06</v>
+      </c>
+      <c r="AV367">
+        <v>1.33</v>
+      </c>
+      <c r="AW367">
+        <v>3.39</v>
+      </c>
+      <c r="AX367">
+        <v>1.58</v>
+      </c>
+      <c r="AY367">
+        <v>8.9</v>
+      </c>
+      <c r="AZ367">
+        <v>2.88</v>
+      </c>
+      <c r="BA367">
+        <v>1.32</v>
+      </c>
+      <c r="BB367">
+        <v>1.7</v>
+      </c>
+      <c r="BC367">
+        <v>2.12</v>
+      </c>
+      <c r="BD367">
+        <v>2.8</v>
+      </c>
+      <c r="BE367">
+        <v>4</v>
+      </c>
+      <c r="BF367">
+        <v>7</v>
+      </c>
+      <c r="BG367">
+        <v>5</v>
+      </c>
+      <c r="BH367">
+        <v>6</v>
+      </c>
+      <c r="BI367">
+        <v>1</v>
+      </c>
+      <c r="BJ367">
+        <v>13</v>
+      </c>
+      <c r="BK367">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:63">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>6161873</v>
+      </c>
+      <c r="C368" t="s">
+        <v>63</v>
+      </c>
+      <c r="D368" t="s">
+        <v>64</v>
+      </c>
+      <c r="E368" s="2">
+        <v>45102.66666666666</v>
+      </c>
+      <c r="F368">
+        <v>19</v>
+      </c>
+      <c r="G368" t="s">
+        <v>74</v>
+      </c>
+      <c r="H368" t="s">
+        <v>76</v>
+      </c>
+      <c r="I368">
+        <v>1</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>1</v>
+      </c>
+      <c r="L368">
+        <v>3</v>
+      </c>
+      <c r="M368">
+        <v>1</v>
+      </c>
+      <c r="N368">
+        <v>4</v>
+      </c>
+      <c r="O368" t="s">
+        <v>318</v>
+      </c>
+      <c r="P368" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q368">
+        <v>4</v>
+      </c>
+      <c r="R368">
+        <v>2</v>
+      </c>
+      <c r="S368">
+        <v>6</v>
+      </c>
+      <c r="T368">
+        <v>2.92</v>
+      </c>
+      <c r="U368">
+        <v>2</v>
+      </c>
+      <c r="V368">
+        <v>4.37</v>
+      </c>
+      <c r="W368">
+        <v>1.56</v>
+      </c>
+      <c r="X368">
+        <v>2.29</v>
+      </c>
+      <c r="Y368">
+        <v>3.56</v>
+      </c>
+      <c r="Z368">
+        <v>1.27</v>
+      </c>
+      <c r="AA368">
+        <v>9.9</v>
+      </c>
+      <c r="AB368">
+        <v>1.03</v>
+      </c>
+      <c r="AC368">
+        <v>2.1</v>
+      </c>
+      <c r="AD368">
+        <v>2.95</v>
+      </c>
+      <c r="AE368">
+        <v>3.55</v>
+      </c>
+      <c r="AF368">
+        <v>1.09</v>
+      </c>
+      <c r="AG368">
+        <v>7.25</v>
+      </c>
+      <c r="AH368">
+        <v>1.48</v>
+      </c>
+      <c r="AI368">
+        <v>2.47</v>
+      </c>
+      <c r="AJ368">
+        <v>2.5</v>
+      </c>
+      <c r="AK368">
+        <v>1.47</v>
+      </c>
+      <c r="AL368">
+        <v>2.13</v>
+      </c>
+      <c r="AM368">
+        <v>1.68</v>
+      </c>
+      <c r="AN368">
+        <v>1.28</v>
+      </c>
+      <c r="AO368">
+        <v>1.35</v>
+      </c>
+      <c r="AP368">
+        <v>1.71</v>
+      </c>
+      <c r="AQ368">
+        <v>1.22</v>
+      </c>
+      <c r="AR368">
+        <v>0.78</v>
+      </c>
+      <c r="AS368">
+        <v>1.4</v>
+      </c>
+      <c r="AT368">
+        <v>0.7</v>
+      </c>
+      <c r="AU368">
+        <v>1.35</v>
+      </c>
+      <c r="AV368">
+        <v>1.23</v>
+      </c>
+      <c r="AW368">
+        <v>2.58</v>
+      </c>
+      <c r="AX368">
+        <v>1.83</v>
+      </c>
+      <c r="AY368">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ368">
+        <v>2.31</v>
+      </c>
+      <c r="BA368">
+        <v>1.25</v>
+      </c>
+      <c r="BB368">
+        <v>1.53</v>
+      </c>
+      <c r="BC368">
+        <v>1.88</v>
+      </c>
+      <c r="BD368">
+        <v>2.34</v>
+      </c>
+      <c r="BE368">
+        <v>3.3</v>
+      </c>
+      <c r="BF368">
+        <v>8</v>
+      </c>
+      <c r="BG368">
+        <v>7</v>
+      </c>
+      <c r="BH368">
+        <v>2</v>
+      </c>
+      <c r="BI368">
+        <v>3</v>
+      </c>
+      <c r="BJ368">
+        <v>10</v>
+      </c>
+      <c r="BK368">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="1:63">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>6161877</v>
+      </c>
+      <c r="C369" t="s">
+        <v>63</v>
+      </c>
+      <c r="D369" t="s">
+        <v>64</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45102.79861111111</v>
+      </c>
+      <c r="F369">
+        <v>19</v>
+      </c>
+      <c r="G369" t="s">
+        <v>75</v>
+      </c>
+      <c r="H369" t="s">
+        <v>100</v>
+      </c>
+      <c r="I369">
+        <v>1</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>1</v>
+      </c>
+      <c r="L369">
+        <v>1</v>
+      </c>
+      <c r="M369">
+        <v>0</v>
+      </c>
+      <c r="N369">
+        <v>1</v>
+      </c>
+      <c r="O369" t="s">
+        <v>319</v>
+      </c>
+      <c r="P369" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q369">
+        <v>6</v>
+      </c>
+      <c r="R369">
+        <v>4</v>
+      </c>
+      <c r="S369">
+        <v>10</v>
+      </c>
+      <c r="T369">
+        <v>2.52</v>
+      </c>
+      <c r="U369">
+        <v>2.08</v>
+      </c>
+      <c r="V369">
+        <v>5.14</v>
+      </c>
+      <c r="W369">
+        <v>1.52</v>
+      </c>
+      <c r="X369">
+        <v>2.36</v>
+      </c>
+      <c r="Y369">
+        <v>3.34</v>
+      </c>
+      <c r="Z369">
+        <v>1.3</v>
+      </c>
+      <c r="AA369">
+        <v>9.1</v>
+      </c>
+      <c r="AB369">
+        <v>1.04</v>
+      </c>
+      <c r="AC369">
+        <v>1.97</v>
+      </c>
+      <c r="AD369">
+        <v>3.05</v>
+      </c>
+      <c r="AE369">
+        <v>3.9</v>
+      </c>
+      <c r="AF369">
+        <v>1.05</v>
+      </c>
+      <c r="AG369">
+        <v>8.35</v>
+      </c>
+      <c r="AH369">
+        <v>1.42</v>
+      </c>
+      <c r="AI369">
+        <v>2.61</v>
+      </c>
+      <c r="AJ369">
+        <v>2.36</v>
+      </c>
+      <c r="AK369">
+        <v>1.52</v>
+      </c>
+      <c r="AL369">
+        <v>2.13</v>
+      </c>
+      <c r="AM369">
+        <v>1.68</v>
+      </c>
+      <c r="AN369">
+        <v>1.19</v>
+      </c>
+      <c r="AO369">
+        <v>1.31</v>
+      </c>
+      <c r="AP369">
+        <v>1.96</v>
+      </c>
+      <c r="AQ369">
+        <v>1.56</v>
+      </c>
+      <c r="AR369">
+        <v>1.33</v>
+      </c>
+      <c r="AS369">
+        <v>1.7</v>
+      </c>
+      <c r="AT369">
+        <v>1.2</v>
+      </c>
+      <c r="AU369">
+        <v>1.6</v>
+      </c>
+      <c r="AV369">
+        <v>1.22</v>
+      </c>
+      <c r="AW369">
+        <v>2.82</v>
+      </c>
+      <c r="AX369">
+        <v>1.45</v>
+      </c>
+      <c r="AY369">
+        <v>9.9</v>
+      </c>
+      <c r="AZ369">
+        <v>3.3</v>
+      </c>
+      <c r="BA369">
+        <v>1.2</v>
+      </c>
+      <c r="BB369">
+        <v>1.38</v>
+      </c>
+      <c r="BC369">
+        <v>1.75</v>
+      </c>
+      <c r="BD369">
+        <v>2.17</v>
+      </c>
+      <c r="BE369">
+        <v>2.8</v>
+      </c>
+      <c r="BF369">
+        <v>3</v>
+      </c>
+      <c r="BG369">
+        <v>2</v>
+      </c>
+      <c r="BH369">
+        <v>5</v>
+      </c>
+      <c r="BI369">
+        <v>0</v>
+      </c>
+      <c r="BJ369">
+        <v>8</v>
+      </c>
+      <c r="BK369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:63">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>6161918</v>
+      </c>
+      <c r="C370" t="s">
+        <v>63</v>
+      </c>
+      <c r="D370" t="s">
+        <v>64</v>
+      </c>
+      <c r="E370" s="2">
+        <v>45103.64583333334</v>
+      </c>
+      <c r="F370">
+        <v>22</v>
+      </c>
+      <c r="G370" t="s">
+        <v>79</v>
+      </c>
+      <c r="H370" t="s">
+        <v>72</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>1</v>
+      </c>
+      <c r="K370">
+        <v>1</v>
+      </c>
+      <c r="L370">
+        <v>1</v>
+      </c>
+      <c r="M370">
+        <v>1</v>
+      </c>
+      <c r="N370">
+        <v>2</v>
+      </c>
+      <c r="O370" t="s">
+        <v>290</v>
+      </c>
+      <c r="P370" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q370">
+        <v>6</v>
+      </c>
+      <c r="R370">
+        <v>3</v>
+      </c>
+      <c r="S370">
+        <v>9</v>
+      </c>
+      <c r="T370">
+        <v>3.6</v>
+      </c>
+      <c r="U370">
+        <v>1.95</v>
+      </c>
+      <c r="V370">
+        <v>3.4</v>
+      </c>
+      <c r="W370">
+        <v>1.53</v>
+      </c>
+      <c r="X370">
+        <v>2.38</v>
+      </c>
+      <c r="Y370">
+        <v>3.5</v>
+      </c>
+      <c r="Z370">
+        <v>1.29</v>
+      </c>
+      <c r="AA370">
+        <v>11</v>
+      </c>
+      <c r="AB370">
+        <v>1.05</v>
+      </c>
+      <c r="AC370">
+        <v>2.75</v>
+      </c>
+      <c r="AD370">
+        <v>2.9</v>
+      </c>
+      <c r="AE370">
+        <v>2.5</v>
+      </c>
+      <c r="AF370">
+        <v>1.11</v>
+      </c>
+      <c r="AG370">
+        <v>6</v>
+      </c>
+      <c r="AH370">
+        <v>1.55</v>
+      </c>
+      <c r="AI370">
+        <v>2.33</v>
+      </c>
+      <c r="AJ370">
+        <v>2.28</v>
+      </c>
+      <c r="AK370">
+        <v>1.49</v>
+      </c>
+      <c r="AL370">
+        <v>2</v>
+      </c>
+      <c r="AM370">
+        <v>1.73</v>
+      </c>
+      <c r="AN370">
+        <v>1.5</v>
+      </c>
+      <c r="AO370">
+        <v>1.36</v>
+      </c>
+      <c r="AP370">
+        <v>1.38</v>
+      </c>
+      <c r="AQ370">
+        <v>1.56</v>
+      </c>
+      <c r="AR370">
+        <v>1.1</v>
+      </c>
+      <c r="AS370">
+        <v>1.5</v>
+      </c>
+      <c r="AT370">
+        <v>1.09</v>
+      </c>
+      <c r="AU370">
+        <v>1.37</v>
+      </c>
+      <c r="AV370">
+        <v>1.29</v>
+      </c>
+      <c r="AW370">
+        <v>2.66</v>
+      </c>
+      <c r="AX370">
+        <v>1.93</v>
+      </c>
+      <c r="AY370">
+        <v>8.6</v>
+      </c>
+      <c r="AZ370">
+        <v>2.18</v>
+      </c>
+      <c r="BA370">
+        <v>1.29</v>
+      </c>
+      <c r="BB370">
+        <v>1.62</v>
+      </c>
+      <c r="BC370">
+        <v>2</v>
+      </c>
+      <c r="BD370">
+        <v>2.53</v>
+      </c>
+      <c r="BE370">
+        <v>3.48</v>
+      </c>
+      <c r="BF370">
+        <v>4</v>
+      </c>
+      <c r="BG370">
+        <v>4</v>
+      </c>
+      <c r="BH370">
+        <v>1</v>
+      </c>
+      <c r="BI370">
+        <v>7</v>
+      </c>
+      <c r="BJ370">
+        <v>5</v>
+      </c>
+      <c r="BK370">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -71922,13 +71922,13 @@
         <v>102</v>
       </c>
       <c r="Q369">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R369">
         <v>4</v>
       </c>
       <c r="S369">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T369">
         <v>2.52</v>

--- a/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Prim B Nacional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="411">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -976,6 +976,36 @@
     <t>['45+1']</t>
   </si>
   <si>
+    <t>['38', '42', '48', '52']</t>
+  </si>
+  <si>
+    <t>['48', '52', '76']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['24', '78']</t>
+  </si>
+  <si>
+    <t>['66', '90+1', '90+5']</t>
+  </si>
+  <si>
+    <t>['26', '81', '90+5']</t>
+  </si>
+  <si>
+    <t>['43', '45', '87']</t>
+  </si>
+  <si>
+    <t>['30', '85']</t>
+  </si>
+  <si>
+    <t>['5', '45+1']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['77']</t>
   </si>
   <si>
@@ -1093,9 +1123,6 @@
     <t>['22']</t>
   </si>
   <si>
-    <t>['79']</t>
-  </si>
-  <si>
     <t>['20', '83']</t>
   </si>
   <si>
@@ -1168,9 +1195,6 @@
     <t>['46', '55']</t>
   </si>
   <si>
-    <t>['63']</t>
-  </si>
-  <si>
     <t>['53', '74', '89']</t>
   </si>
   <si>
@@ -1217,6 +1241,12 @@
   </si>
   <si>
     <t>['9']</t>
+  </si>
+  <si>
+    <t>['31', '63', '90+5']</t>
+  </si>
+  <si>
+    <t>['49']</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK370"/>
+  <dimension ref="A1:BK388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1909,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT2">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2100,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -2204,7 +2234,7 @@
         <v>103</v>
       </c>
       <c r="P4" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2291,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT4">
         <v>0.9</v>
@@ -2482,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -2676,7 +2706,7 @@
         <v>1.8</v>
       </c>
       <c r="AT6">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2864,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT7">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3055,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3246,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT9">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3437,10 +3467,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT10">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3541,7 +3571,7 @@
         <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3631,7 +3661,7 @@
         <v>1.4</v>
       </c>
       <c r="AT11">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -4010,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT13">
         <v>1.5</v>
@@ -4586,7 +4616,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4878,7 +4908,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5260,7 +5290,7 @@
         <v>112</v>
       </c>
       <c r="P20" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -6024,7 +6054,7 @@
         <v>114</v>
       </c>
       <c r="P24" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6597,7 +6627,7 @@
         <v>117</v>
       </c>
       <c r="P27" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -7066,10 +7096,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT29">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU29">
         <v>1.64</v>
@@ -7257,10 +7287,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT30">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU30">
         <v>1.29</v>
@@ -7448,10 +7478,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT31">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7552,7 +7582,7 @@
         <v>121</v>
       </c>
       <c r="P32" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7639,10 +7669,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT32">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU32">
         <v>1.59</v>
@@ -7743,7 +7773,7 @@
         <v>122</v>
       </c>
       <c r="P33" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="Q33">
         <v>10</v>
@@ -7830,10 +7860,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT33">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU33">
         <v>1.58</v>
@@ -7934,7 +7964,7 @@
         <v>123</v>
       </c>
       <c r="P34" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8021,10 +8051,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8212,10 +8242,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT35">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -8403,10 +8433,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT36">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8594,10 +8624,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT37">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU37">
         <v>1.11</v>
@@ -8698,7 +8728,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8788,7 +8818,7 @@
         <v>1</v>
       </c>
       <c r="AT38">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -8976,10 +9006,10 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT39">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU39">
         <v>1.2</v>
@@ -9167,10 +9197,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT40">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -9358,10 +9388,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT41">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU41">
         <v>0.74</v>
@@ -9549,10 +9579,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT42">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9740,7 +9770,7 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT43">
         <v>1</v>
@@ -9931,10 +9961,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT44">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU44">
         <v>1.55</v>
@@ -10122,7 +10152,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT45">
         <v>1</v>
@@ -10313,10 +10343,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT46">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10608,7 +10638,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10990,7 +11020,7 @@
         <v>102</v>
       </c>
       <c r="P50" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11372,7 +11402,7 @@
         <v>135</v>
       </c>
       <c r="P52" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -13091,7 +13121,7 @@
         <v>102</v>
       </c>
       <c r="P61" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13855,7 +13885,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -13942,10 +13972,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT65">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU65">
         <v>2.27</v>
@@ -14133,10 +14163,10 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT66">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU66">
         <v>1.8</v>
@@ -14324,10 +14354,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT67">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU67">
         <v>1.52</v>
@@ -14515,10 +14545,10 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT68">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU68">
         <v>1.93</v>
@@ -14619,7 +14649,7 @@
         <v>102</v>
       </c>
       <c r="P69" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14709,7 +14739,7 @@
         <v>1</v>
       </c>
       <c r="AT69">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU69">
         <v>1.9</v>
@@ -14897,10 +14927,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT70">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU70">
         <v>0.84</v>
@@ -15088,10 +15118,10 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT71">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU71">
         <v>1.29</v>
@@ -15279,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT72">
         <v>0</v>
@@ -15383,7 +15413,7 @@
         <v>149</v>
       </c>
       <c r="P73" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15470,10 +15500,10 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT73">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU73">
         <v>1.46</v>
@@ -15661,10 +15691,10 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT74">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU74">
         <v>1.12</v>
@@ -15852,10 +15882,10 @@
         <v>3</v>
       </c>
       <c r="AS75">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT75">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU75">
         <v>1.63</v>
@@ -16043,10 +16073,10 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT76">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU76">
         <v>1.37</v>
@@ -16234,10 +16264,10 @@
         <v>0</v>
       </c>
       <c r="AS77">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT77">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AU77">
         <v>0.93</v>
@@ -16428,7 +16458,7 @@
         <v>2.18</v>
       </c>
       <c r="AT78">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU78">
         <v>1.55</v>
@@ -16529,7 +16559,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16616,10 +16646,10 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT79">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU79">
         <v>1.97</v>
@@ -16810,7 +16840,7 @@
         <v>2.2</v>
       </c>
       <c r="AT80">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU80">
         <v>1.67</v>
@@ -16998,7 +17028,7 @@
         <v>1</v>
       </c>
       <c r="AS81">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -17189,10 +17219,10 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT82">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU82">
         <v>1.49</v>
@@ -17293,7 +17323,7 @@
         <v>157</v>
       </c>
       <c r="P83" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -17574,7 +17604,7 @@
         <v>1.7</v>
       </c>
       <c r="AT84">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU84">
         <v>1.84</v>
@@ -17866,7 +17896,7 @@
         <v>102</v>
       </c>
       <c r="P86" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -18057,7 +18087,7 @@
         <v>160</v>
       </c>
       <c r="P87" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18248,7 +18278,7 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -18717,7 +18747,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT90">
         <v>0.91</v>
@@ -18821,7 +18851,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19394,7 +19424,7 @@
         <v>102</v>
       </c>
       <c r="P94" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19672,7 +19702,7 @@
         <v>2</v>
       </c>
       <c r="AS95">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT95">
         <v>1.7</v>
@@ -20158,7 +20188,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="Q98">
         <v>10</v>
@@ -20349,7 +20379,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20818,10 +20848,10 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT101">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU101">
         <v>1.4</v>
@@ -21009,10 +21039,10 @@
         <v>2</v>
       </c>
       <c r="AS102">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT102">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU102">
         <v>1.2</v>
@@ -21200,10 +21230,10 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT103">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU103">
         <v>1.52</v>
@@ -21394,7 +21424,7 @@
         <v>1.7</v>
       </c>
       <c r="AT104">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU104">
         <v>1.47</v>
@@ -21773,10 +21803,10 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT106">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU106">
         <v>1.05</v>
@@ -21964,7 +21994,7 @@
         <v>0.67</v>
       </c>
       <c r="AS107">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT107">
         <v>1</v>
@@ -22068,7 +22098,7 @@
         <v>172</v>
       </c>
       <c r="P108" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22155,7 +22185,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT108">
         <v>1</v>
@@ -22349,7 +22379,7 @@
         <v>2.2</v>
       </c>
       <c r="AT109">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU109">
         <v>1.87</v>
@@ -22537,10 +22567,10 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT110">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU110">
         <v>1.5</v>
@@ -22641,7 +22671,7 @@
         <v>174</v>
       </c>
       <c r="P111" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22728,10 +22758,10 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT111">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU111">
         <v>1.27</v>
@@ -22919,10 +22949,10 @@
         <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT112">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU112">
         <v>1.59</v>
@@ -23113,7 +23143,7 @@
         <v>2</v>
       </c>
       <c r="AT113">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU113">
         <v>1.44</v>
@@ -23301,7 +23331,7 @@
         <v>2</v>
       </c>
       <c r="AS114">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT114">
         <v>1.09</v>
@@ -23495,7 +23525,7 @@
         <v>2.18</v>
       </c>
       <c r="AT115">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU115">
         <v>1.34</v>
@@ -23683,10 +23713,10 @@
         <v>1</v>
       </c>
       <c r="AS116">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT116">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU116">
         <v>2.02</v>
@@ -23874,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="AS117">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT117">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AU117">
         <v>1.73</v>
@@ -24065,10 +24095,10 @@
         <v>0.5</v>
       </c>
       <c r="AS118">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT118">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU118">
         <v>1.26</v>
@@ -24169,7 +24199,7 @@
         <v>136</v>
       </c>
       <c r="P119" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24259,7 +24289,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU119">
         <v>1.33</v>
@@ -24551,7 +24581,7 @@
         <v>179</v>
       </c>
       <c r="P121" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24742,7 +24772,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24933,7 +24963,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25020,7 +25050,7 @@
         <v>0.33</v>
       </c>
       <c r="AS123">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT123">
         <v>1.18</v>
@@ -25596,7 +25626,7 @@
         <v>1.64</v>
       </c>
       <c r="AT126">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU126">
         <v>1.31</v>
@@ -25697,7 +25727,7 @@
         <v>102</v>
       </c>
       <c r="P127" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="Q127">
         <v>11</v>
@@ -25888,7 +25918,7 @@
         <v>184</v>
       </c>
       <c r="P128" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -26270,7 +26300,7 @@
         <v>102</v>
       </c>
       <c r="P130" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26357,7 +26387,7 @@
         <v>1</v>
       </c>
       <c r="AS130">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT130">
         <v>0.7</v>
@@ -26461,7 +26491,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26548,7 +26578,7 @@
         <v>0</v>
       </c>
       <c r="AS131">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT131">
         <v>1.27</v>
@@ -27034,7 +27064,7 @@
         <v>187</v>
       </c>
       <c r="P134" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27121,7 +27151,7 @@
         <v>1</v>
       </c>
       <c r="AS134">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT134">
         <v>1.2</v>
@@ -27315,7 +27345,7 @@
         <v>1.7</v>
       </c>
       <c r="AT135">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU135">
         <v>1.95</v>
@@ -27416,7 +27446,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="Q136">
         <v>1</v>
@@ -27694,10 +27724,10 @@
         <v>0.75</v>
       </c>
       <c r="AS137">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT137">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU137">
         <v>1.04</v>
@@ -27885,10 +27915,10 @@
         <v>1.75</v>
       </c>
       <c r="AS138">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT138">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU138">
         <v>1.42</v>
@@ -28076,7 +28106,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT139">
         <v>1.09</v>
@@ -28270,7 +28300,7 @@
         <v>2</v>
       </c>
       <c r="AT140">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU140">
         <v>1.5</v>
@@ -28458,10 +28488,10 @@
         <v>0</v>
       </c>
       <c r="AS141">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT141">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AU141">
         <v>0.8100000000000001</v>
@@ -28649,10 +28679,10 @@
         <v>0.67</v>
       </c>
       <c r="AS142">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT142">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU142">
         <v>2.02</v>
@@ -28753,7 +28783,7 @@
         <v>102</v>
       </c>
       <c r="P143" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -29031,10 +29061,10 @@
         <v>0.67</v>
       </c>
       <c r="AS144">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT144">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU144">
         <v>1.35</v>
@@ -29135,7 +29165,7 @@
         <v>121</v>
       </c>
       <c r="P145" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -29416,7 +29446,7 @@
         <v>1.5</v>
       </c>
       <c r="AT146">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU146">
         <v>1.41</v>
@@ -29517,7 +29547,7 @@
         <v>194</v>
       </c>
       <c r="P147" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29604,10 +29634,10 @@
         <v>1</v>
       </c>
       <c r="AS147">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT147">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU147">
         <v>1.8</v>
@@ -29708,7 +29738,7 @@
         <v>195</v>
       </c>
       <c r="P148" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29798,7 +29828,7 @@
         <v>1.55</v>
       </c>
       <c r="AT148">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU148">
         <v>1.77</v>
@@ -29899,7 +29929,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29986,7 +30016,7 @@
         <v>1</v>
       </c>
       <c r="AS149">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT149">
         <v>0.91</v>
@@ -30177,7 +30207,7 @@
         <v>0</v>
       </c>
       <c r="AS150">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT150">
         <v>0</v>
@@ -30368,10 +30398,10 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT151">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU151">
         <v>1.46</v>
@@ -30562,7 +30592,7 @@
         <v>1.7</v>
       </c>
       <c r="AT152">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU152">
         <v>1.34</v>
@@ -30750,7 +30780,7 @@
         <v>0.5</v>
       </c>
       <c r="AS153">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT153">
         <v>1</v>
@@ -30944,7 +30974,7 @@
         <v>2.2</v>
       </c>
       <c r="AT154">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU154">
         <v>1.75</v>
@@ -31514,7 +31544,7 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT157">
         <v>0.64</v>
@@ -31708,7 +31738,7 @@
         <v>2.64</v>
       </c>
       <c r="AT158">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU158">
         <v>1.84</v>
@@ -31809,7 +31839,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -31899,7 +31929,7 @@
         <v>1.18</v>
       </c>
       <c r="AT159">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU159">
         <v>1.42</v>
@@ -32278,7 +32308,7 @@
         <v>0.25</v>
       </c>
       <c r="AS161">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT161">
         <v>1.27</v>
@@ -32573,7 +32603,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32854,7 +32884,7 @@
         <v>1.64</v>
       </c>
       <c r="AT164">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU164">
         <v>1.38</v>
@@ -33045,7 +33075,7 @@
         <v>1.4</v>
       </c>
       <c r="AT165">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU165">
         <v>1.32</v>
@@ -33146,7 +33176,7 @@
         <v>205</v>
       </c>
       <c r="P166" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33337,7 +33367,7 @@
         <v>206</v>
       </c>
       <c r="P167" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33615,7 +33645,7 @@
         <v>1</v>
       </c>
       <c r="AS168">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT168">
         <v>1.2</v>
@@ -33806,10 +33836,10 @@
         <v>0.75</v>
       </c>
       <c r="AS169">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT169">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU169">
         <v>1.36</v>
@@ -33997,7 +34027,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT170">
         <v>1.18</v>
@@ -34191,7 +34221,7 @@
         <v>1.4</v>
       </c>
       <c r="AT171">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU171">
         <v>1.54</v>
@@ -34382,7 +34412,7 @@
         <v>2.18</v>
       </c>
       <c r="AT172">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU172">
         <v>1.14</v>
@@ -34483,7 +34513,7 @@
         <v>209</v>
       </c>
       <c r="P173" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34570,7 +34600,7 @@
         <v>1</v>
       </c>
       <c r="AS173">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT173">
         <v>0.8</v>
@@ -34674,7 +34704,7 @@
         <v>114</v>
       </c>
       <c r="P174" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34761,7 +34791,7 @@
         <v>1</v>
       </c>
       <c r="AS174">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT174">
         <v>0.7</v>
@@ -34955,7 +34985,7 @@
         <v>1.7</v>
       </c>
       <c r="AT175">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU175">
         <v>1.81</v>
@@ -35056,7 +35086,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -35334,10 +35364,10 @@
         <v>0.5</v>
       </c>
       <c r="AS177">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT177">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU177">
         <v>1.34</v>
@@ -35525,7 +35555,7 @@
         <v>1.5</v>
       </c>
       <c r="AS178">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT178">
         <v>0.91</v>
@@ -35716,7 +35746,7 @@
         <v>1.25</v>
       </c>
       <c r="AS179">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT179">
         <v>1.09</v>
@@ -35910,7 +35940,7 @@
         <v>2</v>
       </c>
       <c r="AT180">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU180">
         <v>1.44</v>
@@ -36011,7 +36041,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -36101,7 +36131,7 @@
         <v>1.7</v>
       </c>
       <c r="AT181">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU181">
         <v>1.72</v>
@@ -36289,7 +36319,7 @@
         <v>0.6</v>
       </c>
       <c r="AS182">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT182">
         <v>0.73</v>
@@ -36393,7 +36423,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36480,10 +36510,10 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT183">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU183">
         <v>1.1</v>
@@ -36775,7 +36805,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36862,7 +36892,7 @@
         <v>2</v>
       </c>
       <c r="AS185">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT185">
         <v>1.18</v>
@@ -37056,7 +37086,7 @@
         <v>1.7</v>
       </c>
       <c r="AT186">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AU186">
         <v>1.48</v>
@@ -37157,7 +37187,7 @@
         <v>220</v>
       </c>
       <c r="P187" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37247,7 +37277,7 @@
         <v>1.18</v>
       </c>
       <c r="AT187">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU187">
         <v>1.43</v>
@@ -37348,7 +37378,7 @@
         <v>102</v>
       </c>
       <c r="P188" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Q188">
         <v>12</v>
@@ -37438,7 +37468,7 @@
         <v>1.5</v>
       </c>
       <c r="AT188">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU188">
         <v>1.42</v>
@@ -37626,7 +37656,7 @@
         <v>0.8</v>
       </c>
       <c r="AS189">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT189">
         <v>0.64</v>
@@ -37730,7 +37760,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="Q190">
         <v>0</v>
@@ -37820,7 +37850,7 @@
         <v>2.45</v>
       </c>
       <c r="AT190">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU190">
         <v>1.31</v>
@@ -37921,7 +37951,7 @@
         <v>102</v>
       </c>
       <c r="P191" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q191">
         <v>10</v>
@@ -38011,7 +38041,7 @@
         <v>2.2</v>
       </c>
       <c r="AT191">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU191">
         <v>1.66</v>
@@ -38199,7 +38229,7 @@
         <v>0.8</v>
       </c>
       <c r="AS192">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT192">
         <v>0.91</v>
@@ -38584,7 +38614,7 @@
         <v>2</v>
       </c>
       <c r="AT194">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU194">
         <v>1.46</v>
@@ -38772,7 +38802,7 @@
         <v>0</v>
       </c>
       <c r="AS195">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT195">
         <v>0</v>
@@ -38963,7 +38993,7 @@
         <v>1</v>
       </c>
       <c r="AS196">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT196">
         <v>1</v>
@@ -39067,7 +39097,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39154,7 +39184,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT197">
         <v>0.7</v>
@@ -39258,7 +39288,7 @@
         <v>105</v>
       </c>
       <c r="P198" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="Q198">
         <v>8</v>
@@ -39345,7 +39375,7 @@
         <v>2.2</v>
       </c>
       <c r="AS198">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT198">
         <v>1.7</v>
@@ -39536,7 +39566,7 @@
         <v>1.4</v>
       </c>
       <c r="AS199">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT199">
         <v>1.18</v>
@@ -39831,7 +39861,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39918,7 +39948,7 @@
         <v>1.2</v>
       </c>
       <c r="AS201">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT201">
         <v>1.09</v>
@@ -40022,7 +40052,7 @@
         <v>102</v>
       </c>
       <c r="P202" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="Q202">
         <v>11</v>
@@ -40112,7 +40142,7 @@
         <v>1.4</v>
       </c>
       <c r="AT202">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU202">
         <v>1.35</v>
@@ -40213,7 +40243,7 @@
         <v>227</v>
       </c>
       <c r="P203" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40300,7 +40330,7 @@
         <v>0.8</v>
       </c>
       <c r="AS203">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT203">
         <v>0.8</v>
@@ -40494,7 +40524,7 @@
         <v>1.4</v>
       </c>
       <c r="AT204">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU204">
         <v>1.36</v>
@@ -40595,7 +40625,7 @@
         <v>102</v>
       </c>
       <c r="P205" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="Q205">
         <v>8</v>
@@ -40786,7 +40816,7 @@
         <v>102</v>
       </c>
       <c r="P206" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="Q206">
         <v>6</v>
@@ -40873,7 +40903,7 @@
         <v>1.2</v>
       </c>
       <c r="AS206">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT206">
         <v>0.91</v>
@@ -40977,7 +41007,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41258,7 +41288,7 @@
         <v>1.64</v>
       </c>
       <c r="AT208">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU208">
         <v>1.3</v>
@@ -41359,7 +41389,7 @@
         <v>102</v>
       </c>
       <c r="P209" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41449,7 +41479,7 @@
         <v>1.55</v>
       </c>
       <c r="AT209">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU209">
         <v>1.98</v>
@@ -41640,7 +41670,7 @@
         <v>2.3</v>
       </c>
       <c r="AT210">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU210">
         <v>1.78</v>
@@ -41741,7 +41771,7 @@
         <v>102</v>
       </c>
       <c r="P211" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41828,7 +41858,7 @@
         <v>1</v>
       </c>
       <c r="AS211">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT211">
         <v>1.5</v>
@@ -42019,7 +42049,7 @@
         <v>0.75</v>
       </c>
       <c r="AS212">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT212">
         <v>0.7</v>
@@ -42213,7 +42243,7 @@
         <v>2.5</v>
       </c>
       <c r="AT213">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU213">
         <v>1.68</v>
@@ -42401,7 +42431,7 @@
         <v>0.4</v>
       </c>
       <c r="AS214">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT214">
         <v>1.27</v>
@@ -42505,7 +42535,7 @@
         <v>102</v>
       </c>
       <c r="P215" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="Q215">
         <v>7</v>
@@ -42595,7 +42625,7 @@
         <v>2</v>
       </c>
       <c r="AT215">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU215">
         <v>1.57</v>
@@ -42786,7 +42816,7 @@
         <v>2.18</v>
       </c>
       <c r="AT216">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU216">
         <v>1.17</v>
@@ -42974,7 +43004,7 @@
         <v>1</v>
       </c>
       <c r="AS217">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT217">
         <v>1</v>
@@ -43168,7 +43198,7 @@
         <v>1.7</v>
       </c>
       <c r="AT218">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU218">
         <v>1.48</v>
@@ -43359,7 +43389,7 @@
         <v>2.45</v>
       </c>
       <c r="AT219">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU219">
         <v>1.26</v>
@@ -43550,7 +43580,7 @@
         <v>1.4</v>
       </c>
       <c r="AT220">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU220">
         <v>1.4</v>
@@ -43741,7 +43771,7 @@
         <v>1.5</v>
       </c>
       <c r="AT221">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU221">
         <v>1.48</v>
@@ -44120,7 +44150,7 @@
         <v>1.17</v>
       </c>
       <c r="AS223">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT223">
         <v>0.7</v>
@@ -44224,7 +44254,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="Q224">
         <v>2</v>
@@ -44314,7 +44344,7 @@
         <v>1.5</v>
       </c>
       <c r="AT224">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU224">
         <v>1.34</v>
@@ -44502,7 +44532,7 @@
         <v>0.83</v>
       </c>
       <c r="AS225">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT225">
         <v>0.64</v>
@@ -44606,7 +44636,7 @@
         <v>239</v>
       </c>
       <c r="P226" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44693,7 +44723,7 @@
         <v>1.33</v>
       </c>
       <c r="AS226">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT226">
         <v>1.2</v>
@@ -44884,7 +44914,7 @@
         <v>0.67</v>
       </c>
       <c r="AS227">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT227">
         <v>1</v>
@@ -44988,7 +45018,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -45078,7 +45108,7 @@
         <v>1.8</v>
       </c>
       <c r="AT228">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU228">
         <v>1.19</v>
@@ -45266,7 +45296,7 @@
         <v>0.67</v>
       </c>
       <c r="AS229">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT229">
         <v>0.73</v>
@@ -45370,7 +45400,7 @@
         <v>157</v>
       </c>
       <c r="P230" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45457,7 +45487,7 @@
         <v>0.83</v>
       </c>
       <c r="AS230">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT230">
         <v>0.91</v>
@@ -45651,7 +45681,7 @@
         <v>2</v>
       </c>
       <c r="AT231">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU231">
         <v>1.55</v>
@@ -45839,7 +45869,7 @@
         <v>1</v>
       </c>
       <c r="AS232">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT232">
         <v>0.9</v>
@@ -46033,7 +46063,7 @@
         <v>1.7</v>
       </c>
       <c r="AT233">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AU233">
         <v>1.67</v>
@@ -46221,7 +46251,7 @@
         <v>2</v>
       </c>
       <c r="AS234">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT234">
         <v>1.7</v>
@@ -46415,7 +46445,7 @@
         <v>1.64</v>
       </c>
       <c r="AT235">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU235">
         <v>1.29</v>
@@ -46516,7 +46546,7 @@
         <v>102</v>
       </c>
       <c r="P236" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -46603,7 +46633,7 @@
         <v>0.83</v>
       </c>
       <c r="AS236">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT236">
         <v>1.27</v>
@@ -46707,7 +46737,7 @@
         <v>244</v>
       </c>
       <c r="P237" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46794,7 +46824,7 @@
         <v>1.33</v>
       </c>
       <c r="AS237">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT237">
         <v>1.18</v>
@@ -46988,7 +47018,7 @@
         <v>2.64</v>
       </c>
       <c r="AT238">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU238">
         <v>1.95</v>
@@ -47089,7 +47119,7 @@
         <v>246</v>
       </c>
       <c r="P239" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="Q239">
         <v>9</v>
@@ -47370,7 +47400,7 @@
         <v>1.55</v>
       </c>
       <c r="AT240">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU240">
         <v>1.89</v>
@@ -47471,7 +47501,7 @@
         <v>248</v>
       </c>
       <c r="P241" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47749,7 +47779,7 @@
         <v>0.8</v>
       </c>
       <c r="AS242">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT242">
         <v>0.7</v>
@@ -47853,7 +47883,7 @@
         <v>250</v>
       </c>
       <c r="P243" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="Q243">
         <v>10</v>
@@ -47943,7 +47973,7 @@
         <v>1.4</v>
       </c>
       <c r="AT243">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU243">
         <v>1.41</v>
@@ -48134,7 +48164,7 @@
         <v>2.5</v>
       </c>
       <c r="AT244">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU244">
         <v>1.74</v>
@@ -48322,7 +48352,7 @@
         <v>1.8</v>
       </c>
       <c r="AS245">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT245">
         <v>1.18</v>
@@ -48707,7 +48737,7 @@
         <v>1.18</v>
       </c>
       <c r="AT247">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU247">
         <v>1.45</v>
@@ -48898,7 +48928,7 @@
         <v>2.3</v>
       </c>
       <c r="AT248">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU248">
         <v>1.74</v>
@@ -49086,10 +49116,10 @@
         <v>0.8</v>
       </c>
       <c r="AS249">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT249">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU249">
         <v>1.64</v>
@@ -49277,10 +49307,10 @@
         <v>0.6</v>
       </c>
       <c r="AS250">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT250">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU250">
         <v>1.36</v>
@@ -49659,7 +49689,7 @@
         <v>0.67</v>
       </c>
       <c r="AS252">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT252">
         <v>0.8</v>
@@ -49850,7 +49880,7 @@
         <v>1</v>
       </c>
       <c r="AS253">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT253">
         <v>0.7</v>
@@ -50041,7 +50071,7 @@
         <v>1</v>
       </c>
       <c r="AS254">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT254">
         <v>0.9</v>
@@ -50145,7 +50175,7 @@
         <v>259</v>
       </c>
       <c r="P255" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50235,7 +50265,7 @@
         <v>1.4</v>
       </c>
       <c r="AT255">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU255">
         <v>1.4</v>
@@ -50423,7 +50453,7 @@
         <v>0.57</v>
       </c>
       <c r="AS256">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT256">
         <v>0.73</v>
@@ -50614,10 +50644,10 @@
         <v>0.57</v>
       </c>
       <c r="AS257">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT257">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU257">
         <v>1.27</v>
@@ -50805,10 +50835,10 @@
         <v>1</v>
       </c>
       <c r="AS258">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT258">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU258">
         <v>1.72</v>
@@ -50909,7 +50939,7 @@
         <v>102</v>
       </c>
       <c r="P259" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="Q259">
         <v>10</v>
@@ -50999,7 +51029,7 @@
         <v>1.4</v>
       </c>
       <c r="AT259">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU259">
         <v>1.58</v>
@@ -51100,7 +51130,7 @@
         <v>262</v>
       </c>
       <c r="P260" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="Q260">
         <v>9</v>
@@ -51190,7 +51220,7 @@
         <v>1.7</v>
       </c>
       <c r="AT260">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU260">
         <v>1.67</v>
@@ -51378,7 +51408,7 @@
         <v>0.86</v>
       </c>
       <c r="AS261">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT261">
         <v>0.91</v>
@@ -51482,7 +51512,7 @@
         <v>107</v>
       </c>
       <c r="P262" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="Q262">
         <v>2</v>
@@ -51954,7 +51984,7 @@
         <v>1.5</v>
       </c>
       <c r="AT264">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU264">
         <v>1.33</v>
@@ -52145,7 +52175,7 @@
         <v>1.8</v>
       </c>
       <c r="AT265">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU265">
         <v>1.13</v>
@@ -52333,7 +52363,7 @@
         <v>1.29</v>
       </c>
       <c r="AS266">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT266">
         <v>1.2</v>
@@ -52437,7 +52467,7 @@
         <v>266</v>
       </c>
       <c r="P267" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -52524,7 +52554,7 @@
         <v>0.71</v>
       </c>
       <c r="AS267">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT267">
         <v>0.7</v>
@@ -52628,7 +52658,7 @@
         <v>102</v>
       </c>
       <c r="P268" t="s">
-        <v>384</v>
+        <v>322</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -52715,7 +52745,7 @@
         <v>0.57</v>
       </c>
       <c r="AS268">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT268">
         <v>1</v>
@@ -53288,7 +53318,7 @@
         <v>1.5</v>
       </c>
       <c r="AS271">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT271">
         <v>1.18</v>
@@ -53583,7 +53613,7 @@
         <v>270</v>
       </c>
       <c r="P273" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q273">
         <v>4</v>
@@ -53864,7 +53894,7 @@
         <v>2.45</v>
       </c>
       <c r="AT274">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU274">
         <v>1.34</v>
@@ -53965,7 +53995,7 @@
         <v>271</v>
       </c>
       <c r="P275" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q275">
         <v>2</v>
@@ -54156,7 +54186,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -54437,7 +54467,7 @@
         <v>2.64</v>
       </c>
       <c r="AT277">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU277">
         <v>1.87</v>
@@ -54628,7 +54658,7 @@
         <v>2.5</v>
       </c>
       <c r="AT278">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU278">
         <v>1.77</v>
@@ -54729,7 +54759,7 @@
         <v>102</v>
       </c>
       <c r="P279" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -54816,10 +54846,10 @@
         <v>1.5</v>
       </c>
       <c r="AS279">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT279">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU279">
         <v>1.5</v>
@@ -55010,7 +55040,7 @@
         <v>1</v>
       </c>
       <c r="AT280">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU280">
         <v>2</v>
@@ -55198,10 +55228,10 @@
         <v>0.67</v>
       </c>
       <c r="AS281">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT281">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU281">
         <v>1.7</v>
@@ -55392,7 +55422,7 @@
         <v>1.18</v>
       </c>
       <c r="AT282">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU282">
         <v>1.41</v>
@@ -55580,10 +55610,10 @@
         <v>1.17</v>
       </c>
       <c r="AS283">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT283">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU283">
         <v>1.67</v>
@@ -55774,7 +55804,7 @@
         <v>2.3</v>
       </c>
       <c r="AT284">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AU284">
         <v>1.79</v>
@@ -56153,7 +56183,7 @@
         <v>1.57</v>
       </c>
       <c r="AS286">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT286">
         <v>1.5</v>
@@ -56257,7 +56287,7 @@
         <v>250</v>
       </c>
       <c r="P287" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q287">
         <v>8</v>
@@ -56344,7 +56374,7 @@
         <v>0.67</v>
       </c>
       <c r="AS287">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT287">
         <v>0.7</v>
@@ -56448,7 +56478,7 @@
         <v>278</v>
       </c>
       <c r="P288" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -56535,7 +56565,7 @@
         <v>0.86</v>
       </c>
       <c r="AS288">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT288">
         <v>0.64</v>
@@ -56726,10 +56756,10 @@
         <v>1.13</v>
       </c>
       <c r="AS289">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT289">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU289">
         <v>1.4</v>
@@ -56830,7 +56860,7 @@
         <v>200</v>
       </c>
       <c r="P290" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="Q290">
         <v>6</v>
@@ -56917,7 +56947,7 @@
         <v>0.75</v>
       </c>
       <c r="AS290">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT290">
         <v>0.91</v>
@@ -57212,7 +57242,7 @@
         <v>102</v>
       </c>
       <c r="P292" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Q292">
         <v>3</v>
@@ -57302,7 +57332,7 @@
         <v>1.4</v>
       </c>
       <c r="AT292">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU292">
         <v>1.47</v>
@@ -57490,10 +57520,10 @@
         <v>0.5</v>
       </c>
       <c r="AS293">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT293">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU293">
         <v>1.26</v>
@@ -57681,7 +57711,7 @@
         <v>0.88</v>
       </c>
       <c r="AS294">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT294">
         <v>1</v>
@@ -57872,10 +57902,10 @@
         <v>0.88</v>
       </c>
       <c r="AS295">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT295">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU295">
         <v>1.16</v>
@@ -57976,7 +58006,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q296">
         <v>9</v>
@@ -58167,7 +58197,7 @@
         <v>283</v>
       </c>
       <c r="P297" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -58358,7 +58388,7 @@
         <v>102</v>
       </c>
       <c r="P298" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Q298">
         <v>7</v>
@@ -58448,7 +58478,7 @@
         <v>1.5</v>
       </c>
       <c r="AT298">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU298">
         <v>1.31</v>
@@ -58549,7 +58579,7 @@
         <v>284</v>
       </c>
       <c r="P299" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q299">
         <v>6</v>
@@ -58639,7 +58669,7 @@
         <v>2.3</v>
       </c>
       <c r="AT299">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU299">
         <v>2.02</v>
@@ -58827,10 +58857,10 @@
         <v>0.75</v>
       </c>
       <c r="AS300">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT300">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU300">
         <v>1.75</v>
@@ -59209,7 +59239,7 @@
         <v>0.75</v>
       </c>
       <c r="AS302">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT302">
         <v>0.7</v>
@@ -59313,7 +59343,7 @@
         <v>286</v>
       </c>
       <c r="P303" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -59695,7 +59725,7 @@
         <v>287</v>
       </c>
       <c r="P305" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="Q305">
         <v>6</v>
@@ -59782,7 +59812,7 @@
         <v>0.75</v>
       </c>
       <c r="AS305">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT305">
         <v>0.8</v>
@@ -59973,7 +60003,7 @@
         <v>0.88</v>
       </c>
       <c r="AS306">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT306">
         <v>0.9</v>
@@ -60164,10 +60194,10 @@
         <v>1.71</v>
       </c>
       <c r="AS307">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT307">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU307">
         <v>1.69</v>
@@ -60355,7 +60385,7 @@
         <v>1</v>
       </c>
       <c r="AS308">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT308">
         <v>0.7</v>
@@ -60549,7 +60579,7 @@
         <v>1</v>
       </c>
       <c r="AT309">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU309">
         <v>2.05</v>
@@ -60650,7 +60680,7 @@
         <v>291</v>
       </c>
       <c r="P310" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="Q310">
         <v>11</v>
@@ -61119,10 +61149,10 @@
         <v>0</v>
       </c>
       <c r="AS312">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT312">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AU312">
         <v>1.58</v>
@@ -61313,7 +61343,7 @@
         <v>2.5</v>
       </c>
       <c r="AT313">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU313">
         <v>1.81</v>
@@ -61692,7 +61722,7 @@
         <v>0.5</v>
       </c>
       <c r="AS315">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT315">
         <v>0.73</v>
@@ -61987,7 +62017,7 @@
         <v>197</v>
       </c>
       <c r="P317" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q317">
         <v>5</v>
@@ -62268,7 +62298,7 @@
         <v>2.45</v>
       </c>
       <c r="AT318">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU318">
         <v>1.33</v>
@@ -62459,7 +62489,7 @@
         <v>2</v>
       </c>
       <c r="AT319">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU319">
         <v>1.65</v>
@@ -62560,7 +62590,7 @@
         <v>298</v>
       </c>
       <c r="P320" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="Q320">
         <v>6</v>
@@ -62751,7 +62781,7 @@
         <v>299</v>
       </c>
       <c r="P321" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q321">
         <v>5</v>
@@ -63029,10 +63059,10 @@
         <v>1.43</v>
       </c>
       <c r="AS322">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT322">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU322">
         <v>1.59</v>
@@ -63133,7 +63163,7 @@
         <v>300</v>
       </c>
       <c r="P323" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Q323">
         <v>3</v>
@@ -63220,10 +63250,10 @@
         <v>0.71</v>
       </c>
       <c r="AS323">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT323">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU323">
         <v>1.52</v>
@@ -63411,10 +63441,10 @@
         <v>0.71</v>
       </c>
       <c r="AS324">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT324">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU324">
         <v>1.56</v>
@@ -63793,7 +63823,7 @@
         <v>1</v>
       </c>
       <c r="AS326">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT326">
         <v>0.91</v>
@@ -63987,7 +64017,7 @@
         <v>2</v>
       </c>
       <c r="AT327">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU327">
         <v>1.67</v>
@@ -64852,7 +64882,7 @@
         <v>102</v>
       </c>
       <c r="P332" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="Q332">
         <v>5</v>
@@ -65234,7 +65264,7 @@
         <v>102</v>
       </c>
       <c r="P334" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="Q334">
         <v>2</v>
@@ -65321,7 +65351,7 @@
         <v>1.11</v>
       </c>
       <c r="AS334">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT334">
         <v>1.18</v>
@@ -65512,10 +65542,10 @@
         <v>0.78</v>
       </c>
       <c r="AS335">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT335">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU335">
         <v>1.79</v>
@@ -65706,7 +65736,7 @@
         <v>1</v>
       </c>
       <c r="AT336">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU336">
         <v>2.07</v>
@@ -65894,10 +65924,10 @@
         <v>1.25</v>
       </c>
       <c r="AS337">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT337">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU337">
         <v>1.63</v>
@@ -66088,7 +66118,7 @@
         <v>2.5</v>
       </c>
       <c r="AT338">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU338">
         <v>1.83</v>
@@ -66276,10 +66306,10 @@
         <v>1</v>
       </c>
       <c r="AS339">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT339">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU339">
         <v>1.16</v>
@@ -66470,7 +66500,7 @@
         <v>1.8</v>
       </c>
       <c r="AT340">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU340">
         <v>1.13</v>
@@ -66658,10 +66688,10 @@
         <v>0.78</v>
       </c>
       <c r="AS341">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT341">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU341">
         <v>1.76</v>
@@ -66849,10 +66879,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS342">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT342">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU342">
         <v>1.31</v>
@@ -67040,10 +67070,10 @@
         <v>1.33</v>
       </c>
       <c r="AS343">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT343">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU343">
         <v>1.41</v>
@@ -67231,7 +67261,7 @@
         <v>1</v>
       </c>
       <c r="AS344">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT344">
         <v>1</v>
@@ -67422,10 +67452,10 @@
         <v>0</v>
       </c>
       <c r="AS345">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT345">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AU345">
         <v>1.56</v>
@@ -67613,7 +67643,7 @@
         <v>0.88</v>
       </c>
       <c r="AS346">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT346">
         <v>0.7</v>
@@ -67804,7 +67834,7 @@
         <v>0.78</v>
       </c>
       <c r="AS347">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT347">
         <v>1</v>
@@ -67995,10 +68025,10 @@
         <v>0.67</v>
       </c>
       <c r="AS348">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT348">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU348">
         <v>1.56</v>
@@ -68099,7 +68129,7 @@
         <v>188</v>
       </c>
       <c r="P349" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="Q349">
         <v>6</v>
@@ -68186,10 +68216,10 @@
         <v>1</v>
       </c>
       <c r="AS349">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT349">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU349">
         <v>1.58</v>
@@ -68290,7 +68320,7 @@
         <v>312</v>
       </c>
       <c r="P350" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="Q350">
         <v>2</v>
@@ -68377,10 +68407,10 @@
         <v>1</v>
       </c>
       <c r="AS350">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT350">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU350">
         <v>1.51</v>
@@ -68568,10 +68598,10 @@
         <v>1.63</v>
       </c>
       <c r="AS351">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT351">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU351">
         <v>1.61</v>
@@ -68672,7 +68702,7 @@
         <v>313</v>
       </c>
       <c r="P352" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Q352">
         <v>2</v>
@@ -68759,10 +68789,10 @@
         <v>1</v>
       </c>
       <c r="AS352">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT352">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU352">
         <v>1.63</v>
@@ -70391,7 +70421,7 @@
         <v>181</v>
       </c>
       <c r="P361" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="Q361">
         <v>6</v>
@@ -70773,7 +70803,7 @@
         <v>181</v>
       </c>
       <c r="P363" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q363">
         <v>6</v>
@@ -70964,7 +70994,7 @@
         <v>102</v>
       </c>
       <c r="P364" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="Q364">
         <v>5</v>
@@ -71155,7 +71185,7 @@
         <v>220</v>
       </c>
       <c r="P365" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="Q365">
         <v>1</v>
@@ -71537,7 +71567,7 @@
         <v>317</v>
       </c>
       <c r="P367" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="Q367">
         <v>8</v>
@@ -72252,6 +72282,3444 @@
       </c>
       <c r="BK370">
         <v>11</v>
+      </c>
+    </row>
+    <row r="371" spans="1:63">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>6161942</v>
+      </c>
+      <c r="C371" t="s">
+        <v>63</v>
+      </c>
+      <c r="D371" t="s">
+        <v>64</v>
+      </c>
+      <c r="E371" s="2">
+        <v>45107.875</v>
+      </c>
+      <c r="F371">
+        <v>23</v>
+      </c>
+      <c r="G371" t="s">
+        <v>73</v>
+      </c>
+      <c r="H371" t="s">
+        <v>86</v>
+      </c>
+      <c r="I371">
+        <v>2</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>2</v>
+      </c>
+      <c r="L371">
+        <v>4</v>
+      </c>
+      <c r="M371">
+        <v>0</v>
+      </c>
+      <c r="N371">
+        <v>4</v>
+      </c>
+      <c r="O371" t="s">
+        <v>320</v>
+      </c>
+      <c r="P371" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q371">
+        <v>4</v>
+      </c>
+      <c r="R371">
+        <v>6</v>
+      </c>
+      <c r="S371">
+        <v>10</v>
+      </c>
+      <c r="T371">
+        <v>4.33</v>
+      </c>
+      <c r="U371">
+        <v>1.83</v>
+      </c>
+      <c r="V371">
+        <v>3.25</v>
+      </c>
+      <c r="W371">
+        <v>1.67</v>
+      </c>
+      <c r="X371">
+        <v>2.1</v>
+      </c>
+      <c r="Y371">
+        <v>4.33</v>
+      </c>
+      <c r="Z371">
+        <v>1.2</v>
+      </c>
+      <c r="AA371">
+        <v>15</v>
+      </c>
+      <c r="AB371">
+        <v>1.03</v>
+      </c>
+      <c r="AC371">
+        <v>3.1</v>
+      </c>
+      <c r="AD371">
+        <v>2.7</v>
+      </c>
+      <c r="AE371">
+        <v>2.4</v>
+      </c>
+      <c r="AF371">
+        <v>0</v>
+      </c>
+      <c r="AG371">
+        <v>0</v>
+      </c>
+      <c r="AH371">
+        <v>1.65</v>
+      </c>
+      <c r="AI371">
+        <v>2.11</v>
+      </c>
+      <c r="AJ371">
+        <v>2.73</v>
+      </c>
+      <c r="AK371">
+        <v>1.4</v>
+      </c>
+      <c r="AL371">
+        <v>2.5</v>
+      </c>
+      <c r="AM371">
+        <v>1.5</v>
+      </c>
+      <c r="AN371">
+        <v>0</v>
+      </c>
+      <c r="AO371">
+        <v>0</v>
+      </c>
+      <c r="AP371">
+        <v>0</v>
+      </c>
+      <c r="AQ371">
+        <v>1</v>
+      </c>
+      <c r="AR371">
+        <v>1.2</v>
+      </c>
+      <c r="AS371">
+        <v>1.18</v>
+      </c>
+      <c r="AT371">
+        <v>1.09</v>
+      </c>
+      <c r="AU371">
+        <v>1.35</v>
+      </c>
+      <c r="AV371">
+        <v>1.26</v>
+      </c>
+      <c r="AW371">
+        <v>2.61</v>
+      </c>
+      <c r="AX371">
+        <v>0</v>
+      </c>
+      <c r="AY371">
+        <v>0</v>
+      </c>
+      <c r="AZ371">
+        <v>0</v>
+      </c>
+      <c r="BA371">
+        <v>0</v>
+      </c>
+      <c r="BB371">
+        <v>0</v>
+      </c>
+      <c r="BC371">
+        <v>0</v>
+      </c>
+      <c r="BD371">
+        <v>0</v>
+      </c>
+      <c r="BE371">
+        <v>0</v>
+      </c>
+      <c r="BF371">
+        <v>5</v>
+      </c>
+      <c r="BG371">
+        <v>4</v>
+      </c>
+      <c r="BH371">
+        <v>3</v>
+      </c>
+      <c r="BI371">
+        <v>3</v>
+      </c>
+      <c r="BJ371">
+        <v>8</v>
+      </c>
+      <c r="BK371">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:63">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>6161898</v>
+      </c>
+      <c r="C372" t="s">
+        <v>63</v>
+      </c>
+      <c r="D372" t="s">
+        <v>64</v>
+      </c>
+      <c r="E372" s="2">
+        <v>45107.88194444445</v>
+      </c>
+      <c r="F372">
+        <v>20</v>
+      </c>
+      <c r="G372" t="s">
+        <v>93</v>
+      </c>
+      <c r="H372" t="s">
+        <v>83</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+      <c r="L372">
+        <v>1</v>
+      </c>
+      <c r="M372">
+        <v>0</v>
+      </c>
+      <c r="N372">
+        <v>1</v>
+      </c>
+      <c r="O372" t="s">
+        <v>172</v>
+      </c>
+      <c r="P372" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q372">
+        <v>6</v>
+      </c>
+      <c r="R372">
+        <v>4</v>
+      </c>
+      <c r="S372">
+        <v>10</v>
+      </c>
+      <c r="T372">
+        <v>3.1</v>
+      </c>
+      <c r="U372">
+        <v>1.83</v>
+      </c>
+      <c r="V372">
+        <v>4.75</v>
+      </c>
+      <c r="W372">
+        <v>1.67</v>
+      </c>
+      <c r="X372">
+        <v>2.1</v>
+      </c>
+      <c r="Y372">
+        <v>4.33</v>
+      </c>
+      <c r="Z372">
+        <v>1.2</v>
+      </c>
+      <c r="AA372">
+        <v>15</v>
+      </c>
+      <c r="AB372">
+        <v>1.03</v>
+      </c>
+      <c r="AC372">
+        <v>2.3</v>
+      </c>
+      <c r="AD372">
+        <v>2.7</v>
+      </c>
+      <c r="AE372">
+        <v>3.25</v>
+      </c>
+      <c r="AF372">
+        <v>0</v>
+      </c>
+      <c r="AG372">
+        <v>0</v>
+      </c>
+      <c r="AH372">
+        <v>1.65</v>
+      </c>
+      <c r="AI372">
+        <v>2.11</v>
+      </c>
+      <c r="AJ372">
+        <v>2.52</v>
+      </c>
+      <c r="AK372">
+        <v>1.46</v>
+      </c>
+      <c r="AL372">
+        <v>2.5</v>
+      </c>
+      <c r="AM372">
+        <v>1.5</v>
+      </c>
+      <c r="AN372">
+        <v>0</v>
+      </c>
+      <c r="AO372">
+        <v>0</v>
+      </c>
+      <c r="AP372">
+        <v>0</v>
+      </c>
+      <c r="AQ372">
+        <v>1.33</v>
+      </c>
+      <c r="AR372">
+        <v>1.22</v>
+      </c>
+      <c r="AS372">
+        <v>1.5</v>
+      </c>
+      <c r="AT372">
+        <v>1.1</v>
+      </c>
+      <c r="AU372">
+        <v>1.47</v>
+      </c>
+      <c r="AV372">
+        <v>1.09</v>
+      </c>
+      <c r="AW372">
+        <v>2.56</v>
+      </c>
+      <c r="AX372">
+        <v>0</v>
+      </c>
+      <c r="AY372">
+        <v>0</v>
+      </c>
+      <c r="AZ372">
+        <v>0</v>
+      </c>
+      <c r="BA372">
+        <v>0</v>
+      </c>
+      <c r="BB372">
+        <v>0</v>
+      </c>
+      <c r="BC372">
+        <v>0</v>
+      </c>
+      <c r="BD372">
+        <v>0</v>
+      </c>
+      <c r="BE372">
+        <v>0</v>
+      </c>
+      <c r="BF372">
+        <v>4</v>
+      </c>
+      <c r="BG372">
+        <v>5</v>
+      </c>
+      <c r="BH372">
+        <v>5</v>
+      </c>
+      <c r="BI372">
+        <v>6</v>
+      </c>
+      <c r="BJ372">
+        <v>9</v>
+      </c>
+      <c r="BK372">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="373" spans="1:63">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>6161899</v>
+      </c>
+      <c r="C373" t="s">
+        <v>63</v>
+      </c>
+      <c r="D373" t="s">
+        <v>64</v>
+      </c>
+      <c r="E373" s="2">
+        <v>45107.88541666666</v>
+      </c>
+      <c r="F373">
+        <v>20</v>
+      </c>
+      <c r="G373" t="s">
+        <v>76</v>
+      </c>
+      <c r="H373" t="s">
+        <v>90</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+      <c r="L373">
+        <v>0</v>
+      </c>
+      <c r="M373">
+        <v>1</v>
+      </c>
+      <c r="N373">
+        <v>1</v>
+      </c>
+      <c r="O373" t="s">
+        <v>102</v>
+      </c>
+      <c r="P373" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q373">
+        <v>6</v>
+      </c>
+      <c r="R373">
+        <v>1</v>
+      </c>
+      <c r="S373">
+        <v>7</v>
+      </c>
+      <c r="T373">
+        <v>3.1</v>
+      </c>
+      <c r="U373">
+        <v>1.95</v>
+      </c>
+      <c r="V373">
+        <v>4</v>
+      </c>
+      <c r="W373">
+        <v>1.53</v>
+      </c>
+      <c r="X373">
+        <v>2.38</v>
+      </c>
+      <c r="Y373">
+        <v>3.5</v>
+      </c>
+      <c r="Z373">
+        <v>1.29</v>
+      </c>
+      <c r="AA373">
+        <v>11</v>
+      </c>
+      <c r="AB373">
+        <v>1.05</v>
+      </c>
+      <c r="AC373">
+        <v>2.55</v>
+      </c>
+      <c r="AD373">
+        <v>2.88</v>
+      </c>
+      <c r="AE373">
+        <v>2.7</v>
+      </c>
+      <c r="AF373">
+        <v>0</v>
+      </c>
+      <c r="AG373">
+        <v>0</v>
+      </c>
+      <c r="AH373">
+        <v>1.47</v>
+      </c>
+      <c r="AI373">
+        <v>2.5</v>
+      </c>
+      <c r="AJ373">
+        <v>2.37</v>
+      </c>
+      <c r="AK373">
+        <v>1.52</v>
+      </c>
+      <c r="AL373">
+        <v>2.1</v>
+      </c>
+      <c r="AM373">
+        <v>1.67</v>
+      </c>
+      <c r="AN373">
+        <v>0</v>
+      </c>
+      <c r="AO373">
+        <v>0</v>
+      </c>
+      <c r="AP373">
+        <v>0</v>
+      </c>
+      <c r="AQ373">
+        <v>2</v>
+      </c>
+      <c r="AR373">
+        <v>1</v>
+      </c>
+      <c r="AS373">
+        <v>1.8</v>
+      </c>
+      <c r="AT373">
+        <v>1.2</v>
+      </c>
+      <c r="AU373">
+        <v>1.4</v>
+      </c>
+      <c r="AV373">
+        <v>1.03</v>
+      </c>
+      <c r="AW373">
+        <v>2.43</v>
+      </c>
+      <c r="AX373">
+        <v>0</v>
+      </c>
+      <c r="AY373">
+        <v>0</v>
+      </c>
+      <c r="AZ373">
+        <v>0</v>
+      </c>
+      <c r="BA373">
+        <v>0</v>
+      </c>
+      <c r="BB373">
+        <v>0</v>
+      </c>
+      <c r="BC373">
+        <v>0</v>
+      </c>
+      <c r="BD373">
+        <v>0</v>
+      </c>
+      <c r="BE373">
+        <v>0</v>
+      </c>
+      <c r="BF373">
+        <v>7</v>
+      </c>
+      <c r="BG373">
+        <v>4</v>
+      </c>
+      <c r="BH373">
+        <v>9</v>
+      </c>
+      <c r="BI373">
+        <v>2</v>
+      </c>
+      <c r="BJ373">
+        <v>16</v>
+      </c>
+      <c r="BK373">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:63">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>6161894</v>
+      </c>
+      <c r="C374" t="s">
+        <v>63</v>
+      </c>
+      <c r="D374" t="s">
+        <v>64</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45108.625</v>
+      </c>
+      <c r="F374">
+        <v>20</v>
+      </c>
+      <c r="G374" t="s">
+        <v>96</v>
+      </c>
+      <c r="H374" t="s">
+        <v>84</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>0</v>
+      </c>
+      <c r="L374">
+        <v>1</v>
+      </c>
+      <c r="M374">
+        <v>1</v>
+      </c>
+      <c r="N374">
+        <v>2</v>
+      </c>
+      <c r="O374" t="s">
+        <v>239</v>
+      </c>
+      <c r="P374" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q374">
+        <v>7</v>
+      </c>
+      <c r="R374">
+        <v>3</v>
+      </c>
+      <c r="S374">
+        <v>10</v>
+      </c>
+      <c r="T374">
+        <v>2.75</v>
+      </c>
+      <c r="U374">
+        <v>2.1</v>
+      </c>
+      <c r="V374">
+        <v>4</v>
+      </c>
+      <c r="W374">
+        <v>1.44</v>
+      </c>
+      <c r="X374">
+        <v>2.63</v>
+      </c>
+      <c r="Y374">
+        <v>3.25</v>
+      </c>
+      <c r="Z374">
+        <v>1.33</v>
+      </c>
+      <c r="AA374">
+        <v>9</v>
+      </c>
+      <c r="AB374">
+        <v>1.07</v>
+      </c>
+      <c r="AC374">
+        <v>1.33</v>
+      </c>
+      <c r="AD374">
+        <v>5.05</v>
+      </c>
+      <c r="AE374">
+        <v>6.27</v>
+      </c>
+      <c r="AF374">
+        <v>0</v>
+      </c>
+      <c r="AG374">
+        <v>0</v>
+      </c>
+      <c r="AH374">
+        <v>0</v>
+      </c>
+      <c r="AI374">
+        <v>0</v>
+      </c>
+      <c r="AJ374">
+        <v>1.95</v>
+      </c>
+      <c r="AK374">
+        <v>1.78</v>
+      </c>
+      <c r="AL374">
+        <v>1.91</v>
+      </c>
+      <c r="AM374">
+        <v>1.8</v>
+      </c>
+      <c r="AN374">
+        <v>0</v>
+      </c>
+      <c r="AO374">
+        <v>0</v>
+      </c>
+      <c r="AP374">
+        <v>0</v>
+      </c>
+      <c r="AQ374">
+        <v>1</v>
+      </c>
+      <c r="AR374">
+        <v>0</v>
+      </c>
+      <c r="AS374">
+        <v>1</v>
+      </c>
+      <c r="AT374">
+        <v>0.1</v>
+      </c>
+      <c r="AU374">
+        <v>1.96</v>
+      </c>
+      <c r="AV374">
+        <v>1.08</v>
+      </c>
+      <c r="AW374">
+        <v>3.04</v>
+      </c>
+      <c r="AX374">
+        <v>0</v>
+      </c>
+      <c r="AY374">
+        <v>0</v>
+      </c>
+      <c r="AZ374">
+        <v>0</v>
+      </c>
+      <c r="BA374">
+        <v>0</v>
+      </c>
+      <c r="BB374">
+        <v>0</v>
+      </c>
+      <c r="BC374">
+        <v>0</v>
+      </c>
+      <c r="BD374">
+        <v>0</v>
+      </c>
+      <c r="BE374">
+        <v>0</v>
+      </c>
+      <c r="BF374">
+        <v>10</v>
+      </c>
+      <c r="BG374">
+        <v>3</v>
+      </c>
+      <c r="BH374">
+        <v>12</v>
+      </c>
+      <c r="BI374">
+        <v>3</v>
+      </c>
+      <c r="BJ374">
+        <v>22</v>
+      </c>
+      <c r="BK374">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:63">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>6161896</v>
+      </c>
+      <c r="C375" t="s">
+        <v>63</v>
+      </c>
+      <c r="D375" t="s">
+        <v>64</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45108.66666666666</v>
+      </c>
+      <c r="F375">
+        <v>20</v>
+      </c>
+      <c r="G375" t="s">
+        <v>92</v>
+      </c>
+      <c r="H375" t="s">
+        <v>75</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>1</v>
+      </c>
+      <c r="K375">
+        <v>1</v>
+      </c>
+      <c r="L375">
+        <v>3</v>
+      </c>
+      <c r="M375">
+        <v>3</v>
+      </c>
+      <c r="N375">
+        <v>6</v>
+      </c>
+      <c r="O375" t="s">
+        <v>321</v>
+      </c>
+      <c r="P375" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q375">
+        <v>2</v>
+      </c>
+      <c r="R375">
+        <v>6</v>
+      </c>
+      <c r="S375">
+        <v>8</v>
+      </c>
+      <c r="T375">
+        <v>3.75</v>
+      </c>
+      <c r="U375">
+        <v>1.91</v>
+      </c>
+      <c r="V375">
+        <v>3.5</v>
+      </c>
+      <c r="W375">
+        <v>1.57</v>
+      </c>
+      <c r="X375">
+        <v>2.25</v>
+      </c>
+      <c r="Y375">
+        <v>3.75</v>
+      </c>
+      <c r="Z375">
+        <v>1.25</v>
+      </c>
+      <c r="AA375">
+        <v>13</v>
+      </c>
+      <c r="AB375">
+        <v>1.04</v>
+      </c>
+      <c r="AC375">
+        <v>2.31</v>
+      </c>
+      <c r="AD375">
+        <v>3.49</v>
+      </c>
+      <c r="AE375">
+        <v>2.57</v>
+      </c>
+      <c r="AF375">
+        <v>0</v>
+      </c>
+      <c r="AG375">
+        <v>0</v>
+      </c>
+      <c r="AH375">
+        <v>1.5</v>
+      </c>
+      <c r="AI375">
+        <v>2.41</v>
+      </c>
+      <c r="AJ375">
+        <v>2.56</v>
+      </c>
+      <c r="AK375">
+        <v>1.45</v>
+      </c>
+      <c r="AL375">
+        <v>2.2</v>
+      </c>
+      <c r="AM375">
+        <v>1.62</v>
+      </c>
+      <c r="AN375">
+        <v>0</v>
+      </c>
+      <c r="AO375">
+        <v>0</v>
+      </c>
+      <c r="AP375">
+        <v>0</v>
+      </c>
+      <c r="AQ375">
+        <v>1.33</v>
+      </c>
+      <c r="AR375">
+        <v>1.44</v>
+      </c>
+      <c r="AS375">
+        <v>1.3</v>
+      </c>
+      <c r="AT375">
+        <v>1.4</v>
+      </c>
+      <c r="AU375">
+        <v>1.59</v>
+      </c>
+      <c r="AV375">
+        <v>0.99</v>
+      </c>
+      <c r="AW375">
+        <v>2.58</v>
+      </c>
+      <c r="AX375">
+        <v>0</v>
+      </c>
+      <c r="AY375">
+        <v>0</v>
+      </c>
+      <c r="AZ375">
+        <v>0</v>
+      </c>
+      <c r="BA375">
+        <v>0</v>
+      </c>
+      <c r="BB375">
+        <v>0</v>
+      </c>
+      <c r="BC375">
+        <v>0</v>
+      </c>
+      <c r="BD375">
+        <v>0</v>
+      </c>
+      <c r="BE375">
+        <v>0</v>
+      </c>
+      <c r="BF375">
+        <v>6</v>
+      </c>
+      <c r="BG375">
+        <v>6</v>
+      </c>
+      <c r="BH375">
+        <v>3</v>
+      </c>
+      <c r="BI375">
+        <v>4</v>
+      </c>
+      <c r="BJ375">
+        <v>9</v>
+      </c>
+      <c r="BK375">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376" spans="1:63">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>6161940</v>
+      </c>
+      <c r="C376" t="s">
+        <v>63</v>
+      </c>
+      <c r="D376" t="s">
+        <v>64</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45108.71180555555</v>
+      </c>
+      <c r="F376">
+        <v>23</v>
+      </c>
+      <c r="G376" t="s">
+        <v>71</v>
+      </c>
+      <c r="H376" t="s">
+        <v>88</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>0</v>
+      </c>
+      <c r="L376">
+        <v>0</v>
+      </c>
+      <c r="M376">
+        <v>0</v>
+      </c>
+      <c r="N376">
+        <v>0</v>
+      </c>
+      <c r="O376" t="s">
+        <v>102</v>
+      </c>
+      <c r="P376" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q376">
+        <v>6</v>
+      </c>
+      <c r="R376">
+        <v>2</v>
+      </c>
+      <c r="S376">
+        <v>8</v>
+      </c>
+      <c r="T376">
+        <v>2.75</v>
+      </c>
+      <c r="U376">
+        <v>1.91</v>
+      </c>
+      <c r="V376">
+        <v>5.5</v>
+      </c>
+      <c r="W376">
+        <v>1.62</v>
+      </c>
+      <c r="X376">
+        <v>2.2</v>
+      </c>
+      <c r="Y376">
+        <v>4</v>
+      </c>
+      <c r="Z376">
+        <v>1.22</v>
+      </c>
+      <c r="AA376">
+        <v>13</v>
+      </c>
+      <c r="AB376">
+        <v>1.04</v>
+      </c>
+      <c r="AC376">
+        <v>1.17</v>
+      </c>
+      <c r="AD376">
+        <v>8.01</v>
+      </c>
+      <c r="AE376">
+        <v>7.39</v>
+      </c>
+      <c r="AF376">
+        <v>0</v>
+      </c>
+      <c r="AG376">
+        <v>0</v>
+      </c>
+      <c r="AH376">
+        <v>1.5</v>
+      </c>
+      <c r="AI376">
+        <v>2.37</v>
+      </c>
+      <c r="AJ376">
+        <v>2.56</v>
+      </c>
+      <c r="AK376">
+        <v>1.45</v>
+      </c>
+      <c r="AL376">
+        <v>2.5</v>
+      </c>
+      <c r="AM376">
+        <v>1.5</v>
+      </c>
+      <c r="AN376">
+        <v>0</v>
+      </c>
+      <c r="AO376">
+        <v>0</v>
+      </c>
+      <c r="AP376">
+        <v>0</v>
+      </c>
+      <c r="AQ376">
+        <v>2.1</v>
+      </c>
+      <c r="AR376">
+        <v>1</v>
+      </c>
+      <c r="AS376">
+        <v>2</v>
+      </c>
+      <c r="AT376">
+        <v>1</v>
+      </c>
+      <c r="AU376">
+        <v>1.49</v>
+      </c>
+      <c r="AV376">
+        <v>1.29</v>
+      </c>
+      <c r="AW376">
+        <v>2.78</v>
+      </c>
+      <c r="AX376">
+        <v>0</v>
+      </c>
+      <c r="AY376">
+        <v>0</v>
+      </c>
+      <c r="AZ376">
+        <v>0</v>
+      </c>
+      <c r="BA376">
+        <v>0</v>
+      </c>
+      <c r="BB376">
+        <v>0</v>
+      </c>
+      <c r="BC376">
+        <v>0</v>
+      </c>
+      <c r="BD376">
+        <v>0</v>
+      </c>
+      <c r="BE376">
+        <v>0</v>
+      </c>
+      <c r="BF376">
+        <v>7</v>
+      </c>
+      <c r="BG376">
+        <v>2</v>
+      </c>
+      <c r="BH376">
+        <v>10</v>
+      </c>
+      <c r="BI376">
+        <v>6</v>
+      </c>
+      <c r="BJ376">
+        <v>17</v>
+      </c>
+      <c r="BK376">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:63">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>6161936</v>
+      </c>
+      <c r="C377" t="s">
+        <v>63</v>
+      </c>
+      <c r="D377" t="s">
+        <v>64</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45108.75694444445</v>
+      </c>
+      <c r="F377">
+        <v>23</v>
+      </c>
+      <c r="G377" t="s">
+        <v>99</v>
+      </c>
+      <c r="H377" t="s">
+        <v>78</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>0</v>
+      </c>
+      <c r="L377">
+        <v>0</v>
+      </c>
+      <c r="M377">
+        <v>0</v>
+      </c>
+      <c r="N377">
+        <v>0</v>
+      </c>
+      <c r="O377" t="s">
+        <v>102</v>
+      </c>
+      <c r="P377" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q377">
+        <v>3</v>
+      </c>
+      <c r="R377">
+        <v>2</v>
+      </c>
+      <c r="S377">
+        <v>5</v>
+      </c>
+      <c r="T377">
+        <v>3.1</v>
+      </c>
+      <c r="U377">
+        <v>1.91</v>
+      </c>
+      <c r="V377">
+        <v>4.5</v>
+      </c>
+      <c r="W377">
+        <v>1.62</v>
+      </c>
+      <c r="X377">
+        <v>2.2</v>
+      </c>
+      <c r="Y377">
+        <v>4</v>
+      </c>
+      <c r="Z377">
+        <v>1.22</v>
+      </c>
+      <c r="AA377">
+        <v>13</v>
+      </c>
+      <c r="AB377">
+        <v>1.04</v>
+      </c>
+      <c r="AC377">
+        <v>1.26</v>
+      </c>
+      <c r="AD377">
+        <v>6.78</v>
+      </c>
+      <c r="AE377">
+        <v>5.88</v>
+      </c>
+      <c r="AF377">
+        <v>0</v>
+      </c>
+      <c r="AG377">
+        <v>0</v>
+      </c>
+      <c r="AH377">
+        <v>1.56</v>
+      </c>
+      <c r="AI377">
+        <v>2.3</v>
+      </c>
+      <c r="AJ377">
+        <v>2.81</v>
+      </c>
+      <c r="AK377">
+        <v>1.38</v>
+      </c>
+      <c r="AL377">
+        <v>2.38</v>
+      </c>
+      <c r="AM377">
+        <v>1.53</v>
+      </c>
+      <c r="AN377">
+        <v>0</v>
+      </c>
+      <c r="AO377">
+        <v>0</v>
+      </c>
+      <c r="AP377">
+        <v>0</v>
+      </c>
+      <c r="AQ377">
+        <v>2</v>
+      </c>
+      <c r="AR377">
+        <v>0.7</v>
+      </c>
+      <c r="AS377">
+        <v>1.91</v>
+      </c>
+      <c r="AT377">
+        <v>0.73</v>
+      </c>
+      <c r="AU377">
+        <v>1.37</v>
+      </c>
+      <c r="AV377">
+        <v>1.38</v>
+      </c>
+      <c r="AW377">
+        <v>2.75</v>
+      </c>
+      <c r="AX377">
+        <v>0</v>
+      </c>
+      <c r="AY377">
+        <v>0</v>
+      </c>
+      <c r="AZ377">
+        <v>0</v>
+      </c>
+      <c r="BA377">
+        <v>0</v>
+      </c>
+      <c r="BB377">
+        <v>0</v>
+      </c>
+      <c r="BC377">
+        <v>0</v>
+      </c>
+      <c r="BD377">
+        <v>0</v>
+      </c>
+      <c r="BE377">
+        <v>0</v>
+      </c>
+      <c r="BF377">
+        <v>2</v>
+      </c>
+      <c r="BG377">
+        <v>3</v>
+      </c>
+      <c r="BH377">
+        <v>2</v>
+      </c>
+      <c r="BI377">
+        <v>7</v>
+      </c>
+      <c r="BJ377">
+        <v>4</v>
+      </c>
+      <c r="BK377">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="1:63">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>6161941</v>
+      </c>
+      <c r="C378" t="s">
+        <v>63</v>
+      </c>
+      <c r="D378" t="s">
+        <v>64</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45108.83333333334</v>
+      </c>
+      <c r="F378">
+        <v>23</v>
+      </c>
+      <c r="G378" t="s">
+        <v>65</v>
+      </c>
+      <c r="H378" t="s">
+        <v>87</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>0</v>
+      </c>
+      <c r="L378">
+        <v>1</v>
+      </c>
+      <c r="M378">
+        <v>0</v>
+      </c>
+      <c r="N378">
+        <v>1</v>
+      </c>
+      <c r="O378" t="s">
+        <v>322</v>
+      </c>
+      <c r="P378" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q378">
+        <v>6</v>
+      </c>
+      <c r="R378">
+        <v>6</v>
+      </c>
+      <c r="S378">
+        <v>12</v>
+      </c>
+      <c r="T378">
+        <v>3.2</v>
+      </c>
+      <c r="U378">
+        <v>1.83</v>
+      </c>
+      <c r="V378">
+        <v>4.5</v>
+      </c>
+      <c r="W378">
+        <v>1.67</v>
+      </c>
+      <c r="X378">
+        <v>2.1</v>
+      </c>
+      <c r="Y378">
+        <v>4.33</v>
+      </c>
+      <c r="Z378">
+        <v>1.2</v>
+      </c>
+      <c r="AA378">
+        <v>15</v>
+      </c>
+      <c r="AB378">
+        <v>1.03</v>
+      </c>
+      <c r="AC378">
+        <v>1.88</v>
+      </c>
+      <c r="AD378">
+        <v>3.1</v>
+      </c>
+      <c r="AE378">
+        <v>3.99</v>
+      </c>
+      <c r="AF378">
+        <v>0</v>
+      </c>
+      <c r="AG378">
+        <v>0</v>
+      </c>
+      <c r="AH378">
+        <v>1.65</v>
+      </c>
+      <c r="AI378">
+        <v>2.11</v>
+      </c>
+      <c r="AJ378">
+        <v>2.94</v>
+      </c>
+      <c r="AK378">
+        <v>1.35</v>
+      </c>
+      <c r="AL378">
+        <v>2.5</v>
+      </c>
+      <c r="AM378">
+        <v>1.5</v>
+      </c>
+      <c r="AN378">
+        <v>0</v>
+      </c>
+      <c r="AO378">
+        <v>0</v>
+      </c>
+      <c r="AP378">
+        <v>0</v>
+      </c>
+      <c r="AQ378">
+        <v>1.8</v>
+      </c>
+      <c r="AR378">
+        <v>0.7</v>
+      </c>
+      <c r="AS378">
+        <v>1.91</v>
+      </c>
+      <c r="AT378">
+        <v>0.64</v>
+      </c>
+      <c r="AU378">
+        <v>1.32</v>
+      </c>
+      <c r="AV378">
+        <v>1.01</v>
+      </c>
+      <c r="AW378">
+        <v>2.33</v>
+      </c>
+      <c r="AX378">
+        <v>0</v>
+      </c>
+      <c r="AY378">
+        <v>0</v>
+      </c>
+      <c r="AZ378">
+        <v>0</v>
+      </c>
+      <c r="BA378">
+        <v>0</v>
+      </c>
+      <c r="BB378">
+        <v>0</v>
+      </c>
+      <c r="BC378">
+        <v>0</v>
+      </c>
+      <c r="BD378">
+        <v>0</v>
+      </c>
+      <c r="BE378">
+        <v>0</v>
+      </c>
+      <c r="BF378">
+        <v>4</v>
+      </c>
+      <c r="BG378">
+        <v>0</v>
+      </c>
+      <c r="BH378">
+        <v>7</v>
+      </c>
+      <c r="BI378">
+        <v>10</v>
+      </c>
+      <c r="BJ378">
+        <v>11</v>
+      </c>
+      <c r="BK378">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="379" spans="1:63">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>6161893</v>
+      </c>
+      <c r="C379" t="s">
+        <v>63</v>
+      </c>
+      <c r="D379" t="s">
+        <v>64</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45109.63194444445</v>
+      </c>
+      <c r="F379">
+        <v>20</v>
+      </c>
+      <c r="G379" t="s">
+        <v>95</v>
+      </c>
+      <c r="H379" t="s">
+        <v>89</v>
+      </c>
+      <c r="I379">
+        <v>1</v>
+      </c>
+      <c r="J379">
+        <v>1</v>
+      </c>
+      <c r="K379">
+        <v>2</v>
+      </c>
+      <c r="L379">
+        <v>2</v>
+      </c>
+      <c r="M379">
+        <v>1</v>
+      </c>
+      <c r="N379">
+        <v>3</v>
+      </c>
+      <c r="O379" t="s">
+        <v>323</v>
+      </c>
+      <c r="P379" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q379">
+        <v>6</v>
+      </c>
+      <c r="R379">
+        <v>1</v>
+      </c>
+      <c r="S379">
+        <v>7</v>
+      </c>
+      <c r="T379">
+        <v>3.25</v>
+      </c>
+      <c r="U379">
+        <v>1.91</v>
+      </c>
+      <c r="V379">
+        <v>4</v>
+      </c>
+      <c r="W379">
+        <v>1.62</v>
+      </c>
+      <c r="X379">
+        <v>2.2</v>
+      </c>
+      <c r="Y379">
+        <v>4</v>
+      </c>
+      <c r="Z379">
+        <v>1.22</v>
+      </c>
+      <c r="AA379">
+        <v>13</v>
+      </c>
+      <c r="AB379">
+        <v>1.04</v>
+      </c>
+      <c r="AC379">
+        <v>2.29</v>
+      </c>
+      <c r="AD379">
+        <v>2.92</v>
+      </c>
+      <c r="AE379">
+        <v>3</v>
+      </c>
+      <c r="AF379">
+        <v>0</v>
+      </c>
+      <c r="AG379">
+        <v>0</v>
+      </c>
+      <c r="AH379">
+        <v>1.47</v>
+      </c>
+      <c r="AI379">
+        <v>2.55</v>
+      </c>
+      <c r="AJ379">
+        <v>2.62</v>
+      </c>
+      <c r="AK379">
+        <v>1.37</v>
+      </c>
+      <c r="AL379">
+        <v>2.2</v>
+      </c>
+      <c r="AM379">
+        <v>1.62</v>
+      </c>
+      <c r="AN379">
+        <v>0</v>
+      </c>
+      <c r="AO379">
+        <v>0</v>
+      </c>
+      <c r="AP379">
+        <v>0</v>
+      </c>
+      <c r="AQ379">
+        <v>2.11</v>
+      </c>
+      <c r="AR379">
+        <v>1.78</v>
+      </c>
+      <c r="AS379">
+        <v>2.2</v>
+      </c>
+      <c r="AT379">
+        <v>1.6</v>
+      </c>
+      <c r="AU379">
+        <v>1.8</v>
+      </c>
+      <c r="AV379">
+        <v>1.38</v>
+      </c>
+      <c r="AW379">
+        <v>3.18</v>
+      </c>
+      <c r="AX379">
+        <v>0</v>
+      </c>
+      <c r="AY379">
+        <v>0</v>
+      </c>
+      <c r="AZ379">
+        <v>0</v>
+      </c>
+      <c r="BA379">
+        <v>0</v>
+      </c>
+      <c r="BB379">
+        <v>0</v>
+      </c>
+      <c r="BC379">
+        <v>0</v>
+      </c>
+      <c r="BD379">
+        <v>0</v>
+      </c>
+      <c r="BE379">
+        <v>0</v>
+      </c>
+      <c r="BF379">
+        <v>4</v>
+      </c>
+      <c r="BG379">
+        <v>5</v>
+      </c>
+      <c r="BH379">
+        <v>12</v>
+      </c>
+      <c r="BI379">
+        <v>7</v>
+      </c>
+      <c r="BJ379">
+        <v>16</v>
+      </c>
+      <c r="BK379">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="380" spans="1:63">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>6161944</v>
+      </c>
+      <c r="C380" t="s">
+        <v>63</v>
+      </c>
+      <c r="D380" t="s">
+        <v>64</v>
+      </c>
+      <c r="E380" s="2">
+        <v>45109.64583333334</v>
+      </c>
+      <c r="F380">
+        <v>23</v>
+      </c>
+      <c r="G380" t="s">
+        <v>72</v>
+      </c>
+      <c r="H380" t="s">
+        <v>69</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+      <c r="L380">
+        <v>3</v>
+      </c>
+      <c r="M380">
+        <v>1</v>
+      </c>
+      <c r="N380">
+        <v>4</v>
+      </c>
+      <c r="O380" t="s">
+        <v>324</v>
+      </c>
+      <c r="P380" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q380">
+        <v>3</v>
+      </c>
+      <c r="R380">
+        <v>1</v>
+      </c>
+      <c r="S380">
+        <v>4</v>
+      </c>
+      <c r="T380">
+        <v>2.75</v>
+      </c>
+      <c r="U380">
+        <v>1.91</v>
+      </c>
+      <c r="V380">
+        <v>5</v>
+      </c>
+      <c r="W380">
+        <v>1.62</v>
+      </c>
+      <c r="X380">
+        <v>2.2</v>
+      </c>
+      <c r="Y380">
+        <v>4</v>
+      </c>
+      <c r="Z380">
+        <v>1.22</v>
+      </c>
+      <c r="AA380">
+        <v>13</v>
+      </c>
+      <c r="AB380">
+        <v>1.04</v>
+      </c>
+      <c r="AC380">
+        <v>1.91</v>
+      </c>
+      <c r="AD380">
+        <v>2.92</v>
+      </c>
+      <c r="AE380">
+        <v>4.1</v>
+      </c>
+      <c r="AF380">
+        <v>0</v>
+      </c>
+      <c r="AG380">
+        <v>0</v>
+      </c>
+      <c r="AH380">
+        <v>1.52</v>
+      </c>
+      <c r="AI380">
+        <v>2.45</v>
+      </c>
+      <c r="AJ380">
+        <v>2.57</v>
+      </c>
+      <c r="AK380">
+        <v>1.39</v>
+      </c>
+      <c r="AL380">
+        <v>2.38</v>
+      </c>
+      <c r="AM380">
+        <v>1.53</v>
+      </c>
+      <c r="AN380">
+        <v>0</v>
+      </c>
+      <c r="AO380">
+        <v>0</v>
+      </c>
+      <c r="AP380">
+        <v>0</v>
+      </c>
+      <c r="AQ380">
+        <v>2</v>
+      </c>
+      <c r="AR380">
+        <v>0.6</v>
+      </c>
+      <c r="AS380">
+        <v>2.09</v>
+      </c>
+      <c r="AT380">
+        <v>0.55</v>
+      </c>
+      <c r="AU380">
+        <v>1.51</v>
+      </c>
+      <c r="AV380">
+        <v>1.12</v>
+      </c>
+      <c r="AW380">
+        <v>2.63</v>
+      </c>
+      <c r="AX380">
+        <v>0</v>
+      </c>
+      <c r="AY380">
+        <v>0</v>
+      </c>
+      <c r="AZ380">
+        <v>0</v>
+      </c>
+      <c r="BA380">
+        <v>0</v>
+      </c>
+      <c r="BB380">
+        <v>0</v>
+      </c>
+      <c r="BC380">
+        <v>0</v>
+      </c>
+      <c r="BD380">
+        <v>0</v>
+      </c>
+      <c r="BE380">
+        <v>0</v>
+      </c>
+      <c r="BF380">
+        <v>5</v>
+      </c>
+      <c r="BG380">
+        <v>3</v>
+      </c>
+      <c r="BH380">
+        <v>5</v>
+      </c>
+      <c r="BI380">
+        <v>2</v>
+      </c>
+      <c r="BJ380">
+        <v>10</v>
+      </c>
+      <c r="BK380">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:63">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>6161891</v>
+      </c>
+      <c r="C381" t="s">
+        <v>63</v>
+      </c>
+      <c r="D381" t="s">
+        <v>64</v>
+      </c>
+      <c r="E381" s="2">
+        <v>45109.64583333334</v>
+      </c>
+      <c r="F381">
+        <v>20</v>
+      </c>
+      <c r="G381" t="s">
+        <v>98</v>
+      </c>
+      <c r="H381" t="s">
+        <v>74</v>
+      </c>
+      <c r="I381">
+        <v>1</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>1</v>
+      </c>
+      <c r="L381">
+        <v>3</v>
+      </c>
+      <c r="M381">
+        <v>0</v>
+      </c>
+      <c r="N381">
+        <v>3</v>
+      </c>
+      <c r="O381" t="s">
+        <v>325</v>
+      </c>
+      <c r="P381" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q381">
+        <v>4</v>
+      </c>
+      <c r="R381">
+        <v>5</v>
+      </c>
+      <c r="S381">
+        <v>9</v>
+      </c>
+      <c r="T381">
+        <v>3.4</v>
+      </c>
+      <c r="U381">
+        <v>1.95</v>
+      </c>
+      <c r="V381">
+        <v>3.6</v>
+      </c>
+      <c r="W381">
+        <v>1.53</v>
+      </c>
+      <c r="X381">
+        <v>2.38</v>
+      </c>
+      <c r="Y381">
+        <v>3.75</v>
+      </c>
+      <c r="Z381">
+        <v>1.25</v>
+      </c>
+      <c r="AA381">
+        <v>11</v>
+      </c>
+      <c r="AB381">
+        <v>1.05</v>
+      </c>
+      <c r="AC381">
+        <v>2.73</v>
+      </c>
+      <c r="AD381">
+        <v>2.93</v>
+      </c>
+      <c r="AE381">
+        <v>2.49</v>
+      </c>
+      <c r="AF381">
+        <v>0</v>
+      </c>
+      <c r="AG381">
+        <v>0</v>
+      </c>
+      <c r="AH381">
+        <v>1.52</v>
+      </c>
+      <c r="AI381">
+        <v>2.45</v>
+      </c>
+      <c r="AJ381">
+        <v>2.31</v>
+      </c>
+      <c r="AK381">
+        <v>1.48</v>
+      </c>
+      <c r="AL381">
+        <v>2</v>
+      </c>
+      <c r="AM381">
+        <v>1.73</v>
+      </c>
+      <c r="AN381">
+        <v>0</v>
+      </c>
+      <c r="AO381">
+        <v>0</v>
+      </c>
+      <c r="AP381">
+        <v>0</v>
+      </c>
+      <c r="AQ381">
+        <v>1.44</v>
+      </c>
+      <c r="AR381">
+        <v>0.89</v>
+      </c>
+      <c r="AS381">
+        <v>1.6</v>
+      </c>
+      <c r="AT381">
+        <v>0.8</v>
+      </c>
+      <c r="AU381">
+        <v>1.61</v>
+      </c>
+      <c r="AV381">
+        <v>1.36</v>
+      </c>
+      <c r="AW381">
+        <v>2.97</v>
+      </c>
+      <c r="AX381">
+        <v>0</v>
+      </c>
+      <c r="AY381">
+        <v>0</v>
+      </c>
+      <c r="AZ381">
+        <v>0</v>
+      </c>
+      <c r="BA381">
+        <v>0</v>
+      </c>
+      <c r="BB381">
+        <v>0</v>
+      </c>
+      <c r="BC381">
+        <v>0</v>
+      </c>
+      <c r="BD381">
+        <v>0</v>
+      </c>
+      <c r="BE381">
+        <v>0</v>
+      </c>
+      <c r="BF381">
+        <v>10</v>
+      </c>
+      <c r="BG381">
+        <v>5</v>
+      </c>
+      <c r="BH381">
+        <v>9</v>
+      </c>
+      <c r="BI381">
+        <v>8</v>
+      </c>
+      <c r="BJ381">
+        <v>19</v>
+      </c>
+      <c r="BK381">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" spans="1:63">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>6161938</v>
+      </c>
+      <c r="C382" t="s">
+        <v>63</v>
+      </c>
+      <c r="D382" t="s">
+        <v>64</v>
+      </c>
+      <c r="E382" s="2">
+        <v>45109.70833333334</v>
+      </c>
+      <c r="F382">
+        <v>23</v>
+      </c>
+      <c r="G382" t="s">
+        <v>66</v>
+      </c>
+      <c r="H382" t="s">
+        <v>80</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382">
+        <v>1</v>
+      </c>
+      <c r="M382">
+        <v>0</v>
+      </c>
+      <c r="N382">
+        <v>1</v>
+      </c>
+      <c r="O382" t="s">
+        <v>164</v>
+      </c>
+      <c r="P382" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q382">
+        <v>4</v>
+      </c>
+      <c r="R382">
+        <v>5</v>
+      </c>
+      <c r="S382">
+        <v>9</v>
+      </c>
+      <c r="T382">
+        <v>3.2</v>
+      </c>
+      <c r="U382">
+        <v>1.83</v>
+      </c>
+      <c r="V382">
+        <v>4.75</v>
+      </c>
+      <c r="W382">
+        <v>1.67</v>
+      </c>
+      <c r="X382">
+        <v>2.1</v>
+      </c>
+      <c r="Y382">
+        <v>4.33</v>
+      </c>
+      <c r="Z382">
+        <v>1.2</v>
+      </c>
+      <c r="AA382">
+        <v>15</v>
+      </c>
+      <c r="AB382">
+        <v>1.03</v>
+      </c>
+      <c r="AC382">
+        <v>2.19</v>
+      </c>
+      <c r="AD382">
+        <v>2.72</v>
+      </c>
+      <c r="AE382">
+        <v>3.5</v>
+      </c>
+      <c r="AF382">
+        <v>0</v>
+      </c>
+      <c r="AG382">
+        <v>0</v>
+      </c>
+      <c r="AH382">
+        <v>1.63</v>
+      </c>
+      <c r="AI382">
+        <v>2.18</v>
+      </c>
+      <c r="AJ382">
+        <v>2.95</v>
+      </c>
+      <c r="AK382">
+        <v>1.3</v>
+      </c>
+      <c r="AL382">
+        <v>2.5</v>
+      </c>
+      <c r="AM382">
+        <v>1.5</v>
+      </c>
+      <c r="AN382">
+        <v>0</v>
+      </c>
+      <c r="AO382">
+        <v>0</v>
+      </c>
+      <c r="AP382">
+        <v>0</v>
+      </c>
+      <c r="AQ382">
+        <v>1.8</v>
+      </c>
+      <c r="AR382">
+        <v>0.6</v>
+      </c>
+      <c r="AS382">
+        <v>1.91</v>
+      </c>
+      <c r="AT382">
+        <v>0.55</v>
+      </c>
+      <c r="AU382">
+        <v>1.76</v>
+      </c>
+      <c r="AV382">
+        <v>1.14</v>
+      </c>
+      <c r="AW382">
+        <v>2.9</v>
+      </c>
+      <c r="AX382">
+        <v>0</v>
+      </c>
+      <c r="AY382">
+        <v>0</v>
+      </c>
+      <c r="AZ382">
+        <v>0</v>
+      </c>
+      <c r="BA382">
+        <v>0</v>
+      </c>
+      <c r="BB382">
+        <v>0</v>
+      </c>
+      <c r="BC382">
+        <v>0</v>
+      </c>
+      <c r="BD382">
+        <v>0</v>
+      </c>
+      <c r="BE382">
+        <v>0</v>
+      </c>
+      <c r="BF382">
+        <v>4</v>
+      </c>
+      <c r="BG382">
+        <v>4</v>
+      </c>
+      <c r="BH382">
+        <v>4</v>
+      </c>
+      <c r="BI382">
+        <v>6</v>
+      </c>
+      <c r="BJ382">
+        <v>8</v>
+      </c>
+      <c r="BK382">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="383" spans="1:63">
+      <c r="A383" s="1">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>6161943</v>
+      </c>
+      <c r="C383" t="s">
+        <v>63</v>
+      </c>
+      <c r="D383" t="s">
+        <v>64</v>
+      </c>
+      <c r="E383" s="2">
+        <v>45109.70833333334</v>
+      </c>
+      <c r="F383">
+        <v>23</v>
+      </c>
+      <c r="G383" t="s">
+        <v>68</v>
+      </c>
+      <c r="H383" t="s">
+        <v>79</v>
+      </c>
+      <c r="I383">
+        <v>2</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383">
+        <v>2</v>
+      </c>
+      <c r="L383">
+        <v>3</v>
+      </c>
+      <c r="M383">
+        <v>1</v>
+      </c>
+      <c r="N383">
+        <v>4</v>
+      </c>
+      <c r="O383" t="s">
+        <v>326</v>
+      </c>
+      <c r="P383" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q383">
+        <v>6</v>
+      </c>
+      <c r="R383">
+        <v>5</v>
+      </c>
+      <c r="S383">
+        <v>11</v>
+      </c>
+      <c r="T383">
+        <v>2.88</v>
+      </c>
+      <c r="U383">
+        <v>1.91</v>
+      </c>
+      <c r="V383">
+        <v>4.75</v>
+      </c>
+      <c r="W383">
+        <v>1.62</v>
+      </c>
+      <c r="X383">
+        <v>2.2</v>
+      </c>
+      <c r="Y383">
+        <v>4</v>
+      </c>
+      <c r="Z383">
+        <v>1.22</v>
+      </c>
+      <c r="AA383">
+        <v>13</v>
+      </c>
+      <c r="AB383">
+        <v>1.04</v>
+      </c>
+      <c r="AC383">
+        <v>1.99</v>
+      </c>
+      <c r="AD383">
+        <v>3.1</v>
+      </c>
+      <c r="AE383">
+        <v>3.5</v>
+      </c>
+      <c r="AF383">
+        <v>0</v>
+      </c>
+      <c r="AG383">
+        <v>0</v>
+      </c>
+      <c r="AH383">
+        <v>1.61</v>
+      </c>
+      <c r="AI383">
+        <v>2.18</v>
+      </c>
+      <c r="AJ383">
+        <v>2.74</v>
+      </c>
+      <c r="AK383">
+        <v>1.34</v>
+      </c>
+      <c r="AL383">
+        <v>2.5</v>
+      </c>
+      <c r="AM383">
+        <v>1.5</v>
+      </c>
+      <c r="AN383">
+        <v>0</v>
+      </c>
+      <c r="AO383">
+        <v>0</v>
+      </c>
+      <c r="AP383">
+        <v>0</v>
+      </c>
+      <c r="AQ383">
+        <v>1.5</v>
+      </c>
+      <c r="AR383">
+        <v>0.5</v>
+      </c>
+      <c r="AS383">
+        <v>1.64</v>
+      </c>
+      <c r="AT383">
+        <v>0.45</v>
+      </c>
+      <c r="AU383">
+        <v>1.71</v>
+      </c>
+      <c r="AV383">
+        <v>1.06</v>
+      </c>
+      <c r="AW383">
+        <v>2.77</v>
+      </c>
+      <c r="AX383">
+        <v>0</v>
+      </c>
+      <c r="AY383">
+        <v>0</v>
+      </c>
+      <c r="AZ383">
+        <v>0</v>
+      </c>
+      <c r="BA383">
+        <v>0</v>
+      </c>
+      <c r="BB383">
+        <v>0</v>
+      </c>
+      <c r="BC383">
+        <v>0</v>
+      </c>
+      <c r="BD383">
+        <v>0</v>
+      </c>
+      <c r="BE383">
+        <v>0</v>
+      </c>
+      <c r="BF383">
+        <v>6</v>
+      </c>
+      <c r="BG383">
+        <v>4</v>
+      </c>
+      <c r="BH383">
+        <v>6</v>
+      </c>
+      <c r="BI383">
+        <v>2</v>
+      </c>
+      <c r="BJ383">
+        <v>12</v>
+      </c>
+      <c r="BK383">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:63">
+      <c r="A384" s="1">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>6161939</v>
+      </c>
+      <c r="C384" t="s">
+        <v>63</v>
+      </c>
+      <c r="D384" t="s">
+        <v>64</v>
+      </c>
+      <c r="E384" s="2">
+        <v>45109.71527777778</v>
+      </c>
+      <c r="F384">
+        <v>23</v>
+      </c>
+      <c r="G384" t="s">
+        <v>70</v>
+      </c>
+      <c r="H384" t="s">
+        <v>91</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384">
+        <v>0</v>
+      </c>
+      <c r="L384">
+        <v>1</v>
+      </c>
+      <c r="M384">
+        <v>0</v>
+      </c>
+      <c r="N384">
+        <v>1</v>
+      </c>
+      <c r="O384" t="s">
+        <v>291</v>
+      </c>
+      <c r="P384" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q384">
+        <v>3</v>
+      </c>
+      <c r="R384">
+        <v>3</v>
+      </c>
+      <c r="S384">
+        <v>6</v>
+      </c>
+      <c r="T384">
+        <v>3.5</v>
+      </c>
+      <c r="U384">
+        <v>1.91</v>
+      </c>
+      <c r="V384">
+        <v>3.75</v>
+      </c>
+      <c r="W384">
+        <v>1.62</v>
+      </c>
+      <c r="X384">
+        <v>2.2</v>
+      </c>
+      <c r="Y384">
+        <v>4</v>
+      </c>
+      <c r="Z384">
+        <v>1.22</v>
+      </c>
+      <c r="AA384">
+        <v>13</v>
+      </c>
+      <c r="AB384">
+        <v>1.04</v>
+      </c>
+      <c r="AC384">
+        <v>3</v>
+      </c>
+      <c r="AD384">
+        <v>2.92</v>
+      </c>
+      <c r="AE384">
+        <v>2.29</v>
+      </c>
+      <c r="AF384">
+        <v>0</v>
+      </c>
+      <c r="AG384">
+        <v>0</v>
+      </c>
+      <c r="AH384">
+        <v>1.51</v>
+      </c>
+      <c r="AI384">
+        <v>2.38</v>
+      </c>
+      <c r="AJ384">
+        <v>2.52</v>
+      </c>
+      <c r="AK384">
+        <v>1.4</v>
+      </c>
+      <c r="AL384">
+        <v>2.2</v>
+      </c>
+      <c r="AM384">
+        <v>1.62</v>
+      </c>
+      <c r="AN384">
+        <v>0</v>
+      </c>
+      <c r="AO384">
+        <v>0</v>
+      </c>
+      <c r="AP384">
+        <v>0</v>
+      </c>
+      <c r="AQ384">
+        <v>1.8</v>
+      </c>
+      <c r="AR384">
+        <v>0.9</v>
+      </c>
+      <c r="AS384">
+        <v>1.91</v>
+      </c>
+      <c r="AT384">
+        <v>0.82</v>
+      </c>
+      <c r="AU384">
+        <v>1.24</v>
+      </c>
+      <c r="AV384">
+        <v>1.27</v>
+      </c>
+      <c r="AW384">
+        <v>2.51</v>
+      </c>
+      <c r="AX384">
+        <v>0</v>
+      </c>
+      <c r="AY384">
+        <v>0</v>
+      </c>
+      <c r="AZ384">
+        <v>0</v>
+      </c>
+      <c r="BA384">
+        <v>0</v>
+      </c>
+      <c r="BB384">
+        <v>0</v>
+      </c>
+      <c r="BC384">
+        <v>0</v>
+      </c>
+      <c r="BD384">
+        <v>0</v>
+      </c>
+      <c r="BE384">
+        <v>0</v>
+      </c>
+      <c r="BF384">
+        <v>4</v>
+      </c>
+      <c r="BG384">
+        <v>3</v>
+      </c>
+      <c r="BH384">
+        <v>3</v>
+      </c>
+      <c r="BI384">
+        <v>3</v>
+      </c>
+      <c r="BJ384">
+        <v>7</v>
+      </c>
+      <c r="BK384">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:63">
+      <c r="A385" s="1">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>6161892</v>
+      </c>
+      <c r="C385" t="s">
+        <v>63</v>
+      </c>
+      <c r="D385" t="s">
+        <v>64</v>
+      </c>
+      <c r="E385" s="2">
+        <v>45109.79861111111</v>
+      </c>
+      <c r="F385">
+        <v>20</v>
+      </c>
+      <c r="G385" t="s">
+        <v>97</v>
+      </c>
+      <c r="H385" t="s">
+        <v>101</v>
+      </c>
+      <c r="I385">
+        <v>1</v>
+      </c>
+      <c r="J385">
+        <v>1</v>
+      </c>
+      <c r="K385">
+        <v>2</v>
+      </c>
+      <c r="L385">
+        <v>2</v>
+      </c>
+      <c r="M385">
+        <v>1</v>
+      </c>
+      <c r="N385">
+        <v>3</v>
+      </c>
+      <c r="O385" t="s">
+        <v>327</v>
+      </c>
+      <c r="P385" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q385">
+        <v>5</v>
+      </c>
+      <c r="R385">
+        <v>3</v>
+      </c>
+      <c r="S385">
+        <v>8</v>
+      </c>
+      <c r="T385">
+        <v>3.4</v>
+      </c>
+      <c r="U385">
+        <v>2.05</v>
+      </c>
+      <c r="V385">
+        <v>3.4</v>
+      </c>
+      <c r="W385">
+        <v>1.5</v>
+      </c>
+      <c r="X385">
+        <v>2.5</v>
+      </c>
+      <c r="Y385">
+        <v>3.5</v>
+      </c>
+      <c r="Z385">
+        <v>1.29</v>
+      </c>
+      <c r="AA385">
+        <v>10</v>
+      </c>
+      <c r="AB385">
+        <v>1.06</v>
+      </c>
+      <c r="AC385">
+        <v>2.77</v>
+      </c>
+      <c r="AD385">
+        <v>3.2</v>
+      </c>
+      <c r="AE385">
+        <v>2.29</v>
+      </c>
+      <c r="AF385">
+        <v>0</v>
+      </c>
+      <c r="AG385">
+        <v>0</v>
+      </c>
+      <c r="AH385">
+        <v>1.5</v>
+      </c>
+      <c r="AI385">
+        <v>2.45</v>
+      </c>
+      <c r="AJ385">
+        <v>2.18</v>
+      </c>
+      <c r="AK385">
+        <v>1.54</v>
+      </c>
+      <c r="AL385">
+        <v>2</v>
+      </c>
+      <c r="AM385">
+        <v>1.73</v>
+      </c>
+      <c r="AN385">
+        <v>0</v>
+      </c>
+      <c r="AO385">
+        <v>0</v>
+      </c>
+      <c r="AP385">
+        <v>0</v>
+      </c>
+      <c r="AQ385">
+        <v>2.11</v>
+      </c>
+      <c r="AR385">
+        <v>1.67</v>
+      </c>
+      <c r="AS385">
+        <v>2.2</v>
+      </c>
+      <c r="AT385">
+        <v>1.5</v>
+      </c>
+      <c r="AU385">
+        <v>1.54</v>
+      </c>
+      <c r="AV385">
+        <v>1.66</v>
+      </c>
+      <c r="AW385">
+        <v>3.2</v>
+      </c>
+      <c r="AX385">
+        <v>0</v>
+      </c>
+      <c r="AY385">
+        <v>0</v>
+      </c>
+      <c r="AZ385">
+        <v>0</v>
+      </c>
+      <c r="BA385">
+        <v>0</v>
+      </c>
+      <c r="BB385">
+        <v>0</v>
+      </c>
+      <c r="BC385">
+        <v>0</v>
+      </c>
+      <c r="BD385">
+        <v>0</v>
+      </c>
+      <c r="BE385">
+        <v>0</v>
+      </c>
+      <c r="BF385">
+        <v>4</v>
+      </c>
+      <c r="BG385">
+        <v>3</v>
+      </c>
+      <c r="BH385">
+        <v>5</v>
+      </c>
+      <c r="BI385">
+        <v>4</v>
+      </c>
+      <c r="BJ385">
+        <v>9</v>
+      </c>
+      <c r="BK385">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:63">
+      <c r="A386" s="1">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>6161897</v>
+      </c>
+      <c r="C386" t="s">
+        <v>63</v>
+      </c>
+      <c r="D386" t="s">
+        <v>64</v>
+      </c>
+      <c r="E386" s="2">
+        <v>45110.625</v>
+      </c>
+      <c r="F386">
+        <v>20</v>
+      </c>
+      <c r="G386" t="s">
+        <v>94</v>
+      </c>
+      <c r="H386" t="s">
+        <v>77</v>
+      </c>
+      <c r="I386">
+        <v>2</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386">
+        <v>2</v>
+      </c>
+      <c r="L386">
+        <v>2</v>
+      </c>
+      <c r="M386">
+        <v>1</v>
+      </c>
+      <c r="N386">
+        <v>3</v>
+      </c>
+      <c r="O386" t="s">
+        <v>328</v>
+      </c>
+      <c r="P386" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q386">
+        <v>1</v>
+      </c>
+      <c r="R386">
+        <v>6</v>
+      </c>
+      <c r="S386">
+        <v>7</v>
+      </c>
+      <c r="T386">
+        <v>2.75</v>
+      </c>
+      <c r="U386">
+        <v>2.05</v>
+      </c>
+      <c r="V386">
+        <v>4.33</v>
+      </c>
+      <c r="W386">
+        <v>1.5</v>
+      </c>
+      <c r="X386">
+        <v>2.5</v>
+      </c>
+      <c r="Y386">
+        <v>3.4</v>
+      </c>
+      <c r="Z386">
+        <v>1.3</v>
+      </c>
+      <c r="AA386">
+        <v>10</v>
+      </c>
+      <c r="AB386">
+        <v>1.06</v>
+      </c>
+      <c r="AC386">
+        <v>2.05</v>
+      </c>
+      <c r="AD386">
+        <v>3</v>
+      </c>
+      <c r="AE386">
+        <v>3.35</v>
+      </c>
+      <c r="AF386">
+        <v>0</v>
+      </c>
+      <c r="AG386">
+        <v>0</v>
+      </c>
+      <c r="AH386">
+        <v>1.48</v>
+      </c>
+      <c r="AI386">
+        <v>2.45</v>
+      </c>
+      <c r="AJ386">
+        <v>2.17</v>
+      </c>
+      <c r="AK386">
+        <v>1.69</v>
+      </c>
+      <c r="AL386">
+        <v>2</v>
+      </c>
+      <c r="AM386">
+        <v>1.73</v>
+      </c>
+      <c r="AN386">
+        <v>0</v>
+      </c>
+      <c r="AO386">
+        <v>0</v>
+      </c>
+      <c r="AP386">
+        <v>0</v>
+      </c>
+      <c r="AQ386">
+        <v>1.78</v>
+      </c>
+      <c r="AR386">
+        <v>0.89</v>
+      </c>
+      <c r="AS386">
+        <v>1.9</v>
+      </c>
+      <c r="AT386">
+        <v>0.8</v>
+      </c>
+      <c r="AU386">
+        <v>1.59</v>
+      </c>
+      <c r="AV386">
+        <v>1.28</v>
+      </c>
+      <c r="AW386">
+        <v>2.87</v>
+      </c>
+      <c r="AX386">
+        <v>0</v>
+      </c>
+      <c r="AY386">
+        <v>0</v>
+      </c>
+      <c r="AZ386">
+        <v>0</v>
+      </c>
+      <c r="BA386">
+        <v>0</v>
+      </c>
+      <c r="BB386">
+        <v>0</v>
+      </c>
+      <c r="BC386">
+        <v>0</v>
+      </c>
+      <c r="BD386">
+        <v>0</v>
+      </c>
+      <c r="BE386">
+        <v>0</v>
+      </c>
+      <c r="BF386">
+        <v>5</v>
+      </c>
+      <c r="BG386">
+        <v>2</v>
+      </c>
+      <c r="BH386">
+        <v>2</v>
+      </c>
+      <c r="BI386">
+        <v>4</v>
+      </c>
+      <c r="BJ386">
+        <v>7</v>
+      </c>
+      <c r="BK386">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:63">
+      <c r="A387" s="1">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>6161895</v>
+      </c>
+      <c r="C387" t="s">
+        <v>63</v>
+      </c>
+      <c r="D387" t="s">
+        <v>64</v>
+      </c>
+      <c r="E387" s="2">
+        <v>45110.83333333334</v>
+      </c>
+      <c r="F387">
+        <v>20</v>
+      </c>
+      <c r="G387" t="s">
+        <v>100</v>
+      </c>
+      <c r="H387" t="s">
+        <v>82</v>
+      </c>
+      <c r="I387">
+        <v>1</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="K387">
+        <v>1</v>
+      </c>
+      <c r="L387">
+        <v>1</v>
+      </c>
+      <c r="M387">
+        <v>1</v>
+      </c>
+      <c r="N387">
+        <v>2</v>
+      </c>
+      <c r="O387" t="s">
+        <v>205</v>
+      </c>
+      <c r="P387" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q387">
+        <v>2</v>
+      </c>
+      <c r="R387">
+        <v>1</v>
+      </c>
+      <c r="S387">
+        <v>3</v>
+      </c>
+      <c r="T387">
+        <v>3.25</v>
+      </c>
+      <c r="U387">
+        <v>1.91</v>
+      </c>
+      <c r="V387">
+        <v>4</v>
+      </c>
+      <c r="W387">
+        <v>1.57</v>
+      </c>
+      <c r="X387">
+        <v>2.25</v>
+      </c>
+      <c r="Y387">
+        <v>3.75</v>
+      </c>
+      <c r="Z387">
+        <v>1.25</v>
+      </c>
+      <c r="AA387">
+        <v>11</v>
+      </c>
+      <c r="AB387">
+        <v>1.05</v>
+      </c>
+      <c r="AC387">
+        <v>2.25</v>
+      </c>
+      <c r="AD387">
+        <v>2.9</v>
+      </c>
+      <c r="AE387">
+        <v>3</v>
+      </c>
+      <c r="AF387">
+        <v>0</v>
+      </c>
+      <c r="AG387">
+        <v>0</v>
+      </c>
+      <c r="AH387">
+        <v>1.47</v>
+      </c>
+      <c r="AI387">
+        <v>2.55</v>
+      </c>
+      <c r="AJ387">
+        <v>2.37</v>
+      </c>
+      <c r="AK387">
+        <v>1.44</v>
+      </c>
+      <c r="AL387">
+        <v>2.1</v>
+      </c>
+      <c r="AM387">
+        <v>1.67</v>
+      </c>
+      <c r="AN387">
+        <v>0</v>
+      </c>
+      <c r="AO387">
+        <v>0</v>
+      </c>
+      <c r="AP387">
+        <v>0</v>
+      </c>
+      <c r="AQ387">
+        <v>1.33</v>
+      </c>
+      <c r="AR387">
+        <v>1.22</v>
+      </c>
+      <c r="AS387">
+        <v>1.3</v>
+      </c>
+      <c r="AT387">
+        <v>1.2</v>
+      </c>
+      <c r="AU387">
+        <v>1.5</v>
+      </c>
+      <c r="AV387">
+        <v>1.53</v>
+      </c>
+      <c r="AW387">
+        <v>3.03</v>
+      </c>
+      <c r="AX387">
+        <v>0</v>
+      </c>
+      <c r="AY387">
+        <v>0</v>
+      </c>
+      <c r="AZ387">
+        <v>0</v>
+      </c>
+      <c r="BA387">
+        <v>0</v>
+      </c>
+      <c r="BB387">
+        <v>0</v>
+      </c>
+      <c r="BC387">
+        <v>0</v>
+      </c>
+      <c r="BD387">
+        <v>0</v>
+      </c>
+      <c r="BE387">
+        <v>0</v>
+      </c>
+      <c r="BF387">
+        <v>3</v>
+      </c>
+      <c r="BG387">
+        <v>6</v>
+      </c>
+      <c r="BH387">
+        <v>3</v>
+      </c>
+      <c r="BI387">
+        <v>4</v>
+      </c>
+      <c r="BJ387">
+        <v>6</v>
+      </c>
+      <c r="BK387">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="388" spans="1:63">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>6161937</v>
+      </c>
+      <c r="C388" t="s">
+        <v>63</v>
+      </c>
+      <c r="D388" t="s">
+        <v>64</v>
+      </c>
+      <c r="E388" s="2">
+        <v>45110.88194444445</v>
+      </c>
+      <c r="F388">
+        <v>23</v>
+      </c>
+      <c r="G388" t="s">
+        <v>67</v>
+      </c>
+      <c r="H388" t="s">
+        <v>81</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388">
+        <v>0</v>
+      </c>
+      <c r="L388">
+        <v>1</v>
+      </c>
+      <c r="M388">
+        <v>0</v>
+      </c>
+      <c r="N388">
+        <v>1</v>
+      </c>
+      <c r="O388" t="s">
+        <v>329</v>
+      </c>
+      <c r="P388" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q388">
+        <v>7</v>
+      </c>
+      <c r="R388">
+        <v>2</v>
+      </c>
+      <c r="S388">
+        <v>9</v>
+      </c>
+      <c r="T388">
+        <v>3.1</v>
+      </c>
+      <c r="U388">
+        <v>1.95</v>
+      </c>
+      <c r="V388">
+        <v>4.33</v>
+      </c>
+      <c r="W388">
+        <v>1.53</v>
+      </c>
+      <c r="X388">
+        <v>2.38</v>
+      </c>
+      <c r="Y388">
+        <v>3.75</v>
+      </c>
+      <c r="Z388">
+        <v>1.25</v>
+      </c>
+      <c r="AA388">
+        <v>11</v>
+      </c>
+      <c r="AB388">
+        <v>1.05</v>
+      </c>
+      <c r="AC388">
+        <v>2.39</v>
+      </c>
+      <c r="AD388">
+        <v>2.79</v>
+      </c>
+      <c r="AE388">
+        <v>2.92</v>
+      </c>
+      <c r="AF388">
+        <v>0</v>
+      </c>
+      <c r="AG388">
+        <v>0</v>
+      </c>
+      <c r="AH388">
+        <v>1.5</v>
+      </c>
+      <c r="AI388">
+        <v>2.35</v>
+      </c>
+      <c r="AJ388">
+        <v>2.45</v>
+      </c>
+      <c r="AK388">
+        <v>1.52</v>
+      </c>
+      <c r="AL388">
+        <v>2.1</v>
+      </c>
+      <c r="AM388">
+        <v>1.67</v>
+      </c>
+      <c r="AN388">
+        <v>0</v>
+      </c>
+      <c r="AO388">
+        <v>0</v>
+      </c>
+      <c r="AP388">
+        <v>0</v>
+      </c>
+      <c r="AQ388">
+        <v>1.1</v>
+      </c>
+      <c r="AR388">
+        <v>0.5</v>
+      </c>
+      <c r="AS388">
+        <v>1.27</v>
+      </c>
+      <c r="AT388">
+        <v>0.45</v>
+      </c>
+      <c r="AU388">
+        <v>1.28</v>
+      </c>
+      <c r="AV388">
+        <v>1.06</v>
+      </c>
+      <c r="AW388">
+        <v>2.34</v>
+      </c>
+      <c r="AX388">
+        <v>0</v>
+      </c>
+      <c r="AY388">
+        <v>0</v>
+      </c>
+      <c r="AZ388">
+        <v>0</v>
+      </c>
+      <c r="BA388">
+        <v>0</v>
+      </c>
+      <c r="BB388">
+        <v>0</v>
+      </c>
+      <c r="BC388">
+        <v>0</v>
+      </c>
+      <c r="BD388">
+        <v>0</v>
+      </c>
+      <c r="BE388">
+        <v>0</v>
+      </c>
+      <c r="BF388">
+        <v>2</v>
+      </c>
+      <c r="BG388">
+        <v>0</v>
+      </c>
+      <c r="BH388">
+        <v>3</v>
+      </c>
+      <c r="BI388">
+        <v>4</v>
+      </c>
+      <c r="BJ388">
+        <v>5</v>
+      </c>
+      <c r="BK388">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
